--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
@@ -14,14 +14,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Match!$A$1:$I$140</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.0!$A$3:$X$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.0!$A$3:$X$136</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="472">
   <si>
     <t>дата</t>
   </si>
@@ -1309,12 +1309,6 @@
     <t>процессор Процессов</t>
   </si>
   <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Шаг Процесса</t>
-  </si>
-  <si>
     <t>ProcStart(Proc)</t>
   </si>
   <si>
@@ -1345,9 +1339,6 @@
     <t>GetRep(RepName)</t>
   </si>
   <si>
-    <t>Загрузка отчета RepName по таблице TOCmatch</t>
-  </si>
-  <si>
     <t>ChechStamp(iTOC)</t>
   </si>
   <si>
@@ -1369,53 +1360,6 @@
     <t>WrTOC()</t>
   </si>
   <si>
-    <r>
-      <t>записывает Publ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">c RepTOC, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>полученный в GetRep</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> в TOCmatch</t>
-    </r>
-  </si>
-  <si>
     <t>For_PERSONAL</t>
   </si>
   <si>
@@ -1426,13 +1370,94 @@
   </si>
   <si>
     <t>В системном файле PERSONAL.xlsb</t>
+  </si>
+  <si>
+    <t>*  модуль начала загрузки</t>
+  </si>
+  <si>
+    <t>находит и проверяет штамп отчета RepName</t>
+  </si>
+  <si>
+    <t>FatalRep(SubName, RepName)</t>
+  </si>
+  <si>
+    <t>сообщение о фатальной ошибке при запросе RepName</t>
+  </si>
+  <si>
+    <t>записывает Public RepTOC в TOCmatch</t>
+  </si>
+  <si>
+    <t>FileOpen(RepFile)</t>
+  </si>
+  <si>
+    <t>проверяет, открыт ли RepFile, если нет - открывает</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>InsMyCol(F)</t>
+  </si>
+  <si>
+    <t>вставляем колонки в лист слева по шаблону в F</t>
+  </si>
+  <si>
+    <t>MS(Msg)</t>
+  </si>
+  <si>
+    <t>вывод сообщения на экран и в LogWr</t>
+  </si>
+  <si>
+    <t>Step - Шаг Процесса</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S</t>
+  </si>
+  <si>
+    <t>ErrMsg(ErrMode, MSG)</t>
+  </si>
+  <si>
+    <t>вывод сообщения об ощибке в Log и на экран</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LogReset()    </t>
+  </si>
+  <si>
+    <t>ProcReset(Proc)</t>
+  </si>
+  <si>
+    <t>сброс и новый запуск Процесса Proc</t>
+  </si>
+  <si>
+    <t>StepIn()</t>
+  </si>
+  <si>
+    <t>начало исполнения Шага, т.е. активация нужных листов</t>
+  </si>
+  <si>
+    <t>Adapt(F)</t>
+  </si>
+  <si>
+    <t>запускает Адаптеры из формы F</t>
+  </si>
+  <si>
+    <t>Adater(Request, X, F_rqst, IsErr)</t>
+  </si>
+  <si>
+    <t>обрабатывает X в Адаптере "Request" с данными в F_rqst. IsErr - ошибка</t>
+  </si>
+  <si>
+    <t>FetchDoc(F_rqst, X, IsErr)</t>
+  </si>
+  <si>
+    <t>извлечение данных из стороннего Документа</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1492,14 +1517,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1680,7 +1697,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1991,10 +2008,10 @@
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1897"/>
+  <dimension ref="A1:X1909"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2012,7 +2029,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41160</v>
+        <v>41183</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>288</v>
@@ -2049,7 +2066,7 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5"/>
       <c r="C5"/>
@@ -2061,10 +2078,10 @@
         <v>419</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6"/>
       <c r="C6"/>
@@ -2079,70 +2096,67 @@
         <v>421</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>41160</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
         <v>445</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
       <c r="D7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7"/>
       <c r="F7" s="8" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
-      <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" t="s">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>440</v>
+        <v>433</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
-      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" t="s">
-        <v>434</v>
+        <v>74</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>442</v>
+        <v>447</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
-      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>443</v>
+      <c r="F10" s="8" t="s">
+        <v>440</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2154,10 +2168,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>435</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2169,28 +2183,25 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>437</v>
+        <v>450</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>41136</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D13">
-        <v>872</v>
-      </c>
-      <c r="E13"/>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>452</v>
+      </c>
       <c r="F13" s="17" t="s">
-        <v>437</v>
+        <v>453</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2202,10 +2213,10 @@
         <v>74</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>426</v>
+        <v>455</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2217,10 +2228,10 @@
         <v>74</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2232,10 +2243,10 @@
         <v>74</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>430</v>
+        <v>83</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>431</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2244,112 +2255,134 @@
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" t="s">
         <v>432</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>41110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>422</v>
-      </c>
-      <c r="C18" t="s">
-        <v>423</v>
-      </c>
-      <c r="D18">
-        <v>208</v>
-      </c>
-      <c r="E18"/>
-    </row>
-    <row r="19" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>432</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="E20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>41179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20">
+        <v>1064</v>
+      </c>
+      <c r="E20"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
       <c r="E21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>204</v>
+        <v>74</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>424</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
       <c r="E22" t="s">
         <v>74</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>210</v>
+      <c r="F22" s="17" t="s">
+        <v>426</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
       <c r="E23" t="s">
-        <v>213</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>212</v>
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>428</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
       <c r="E24" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>206</v>
+        <v>74</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
       <c r="E25" t="s">
-        <v>192</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>207</v>
+        <v>452</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>462</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>209</v>
+        <v>463</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2358,13 +2391,13 @@
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" t="s">
-        <v>76</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>138</v>
+        <v>74</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>141</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2373,13 +2406,13 @@
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>139</v>
+        <v>452</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>466</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>142</v>
+        <v>467</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2388,13 +2421,13 @@
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" t="s">
-        <v>76</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>140</v>
+        <v>74</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>468</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>143</v>
+        <v>469</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2403,166 +2436,145 @@
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>291</v>
+        <v>74</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>470</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>292</v>
+        <v>471</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>41085</v>
+        <v>41183</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>422</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="D30">
-        <v>224</v>
+        <v>543</v>
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
       <c r="E31" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
       <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="E33" t="s">
+        <v>192</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="E34" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="E35" t="s">
+        <v>213</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="E36" t="s">
+        <v>192</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="E37" t="s">
+        <v>192</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" t="s">
-        <v>235</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34"/>
-      <c r="C34"/>
-      <c r="D34"/>
-      <c r="E34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>41086</v>
-      </c>
-      <c r="B38" t="s">
-        <v>290</v>
-      </c>
-      <c r="C38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D38">
-        <v>334</v>
-      </c>
-      <c r="E38"/>
-    </row>
-    <row r="39" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40"/>
       <c r="C40"/>
@@ -2571,13 +2583,13 @@
         <v>76</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41"/>
       <c r="C41"/>
@@ -2586,339 +2598,341 @@
         <v>76</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>124</v>
+        <v>291</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>41085</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>224</v>
+      </c>
+      <c r="E42"/>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" t="s">
         <v>76</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>41110</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43">
-        <v>276</v>
-      </c>
-      <c r="E43"/>
-    </row>
-    <row r="44" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>41037</v>
-      </c>
-      <c r="B45" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>40947</v>
-      </c>
-      <c r="B46" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
       <c r="E47" t="s">
         <v>74</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>219</v>
+        <v>92</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
       <c r="E49" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>236</v>
+        <v>299</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50" t="s">
-        <v>235</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B50" t="s">
+        <v>290</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>334</v>
+      </c>
+      <c r="E50"/>
+    </row>
+    <row r="51" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>221</v>
+        <v>120</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>267</v>
+        <v>122</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>271</v>
+        <v>124</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>273</v>
+        <v>125</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55" t="s">
-        <v>43</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56"/>
-      <c r="C56"/>
-      <c r="D56"/>
-      <c r="E56" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57"/>
-      <c r="C57"/>
-      <c r="D57"/>
-      <c r="E57" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>41110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55">
         <v>276</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E55"/>
+    </row>
+    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
+      <c r="D56" s="20"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="57" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>41037</v>
+      </c>
+      <c r="B57" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>40947</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59"/>
-      <c r="C59"/>
-      <c r="D59"/>
       <c r="E59" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>277</v>
+        <v>219</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60"/>
-      <c r="C60"/>
-      <c r="D60"/>
       <c r="E60" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61"/>
-      <c r="C61"/>
-      <c r="D61"/>
       <c r="E61" t="s">
         <v>74</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
-        <v>41063</v>
-      </c>
-      <c r="B62" t="s">
-        <v>217</v>
-      </c>
-      <c r="C62" t="s">
-        <v>218</v>
-      </c>
-      <c r="D62">
-        <v>888</v>
-      </c>
-      <c r="E62"/>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" t="s">
+        <v>235</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63"/>
+      <c r="E63" t="s">
+        <v>74</v>
+      </c>
       <c r="F63" s="8" t="s">
-        <v>53</v>
+        <v>221</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>51</v>
+        <v>267</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>52</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2926,12 +2940,14 @@
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65"/>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
       <c r="F65" s="8" t="s">
-        <v>55</v>
+        <v>271</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>56</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2939,12 +2955,14 @@
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66"/>
+      <c r="E66" t="s">
+        <v>74</v>
+      </c>
       <c r="F66" s="8" t="s">
-        <v>57</v>
+        <v>273</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>58</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2952,12 +2970,14 @@
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67"/>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
       <c r="F67" s="8" t="s">
-        <v>59</v>
+        <v>269</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>60</v>
+        <v>270</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2966,13 +2986,13 @@
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>176</v>
+        <v>274</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>177</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2981,29 +3001,29 @@
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>41078</v>
-      </c>
-      <c r="B70" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" t="s">
-        <v>34</v>
-      </c>
-      <c r="D70">
-        <v>307</v>
-      </c>
-      <c r="E70"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
@@ -3011,13 +3031,13 @@
       <c r="C71"/>
       <c r="D71"/>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>151</v>
+        <v>277</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3026,13 +3046,13 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" t="s">
-        <v>158</v>
+        <v>74</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>160</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3041,88 +3061,82 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>161</v>
+        <v>279</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-      <c r="B74"/>
-      <c r="C74"/>
-      <c r="D74"/>
-      <c r="E74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>40972</v>
-      </c>
-      <c r="B75" t="s">
-        <v>149</v>
-      </c>
-      <c r="C75" t="s">
-        <v>150</v>
-      </c>
-      <c r="D75">
-        <v>287</v>
-      </c>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>41063</v>
+      </c>
+      <c r="B74" t="s">
+        <v>217</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
+      <c r="D74">
+        <v>888</v>
+      </c>
+      <c r="E74"/>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
       <c r="E75"/>
-    </row>
-    <row r="76" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>41063</v>
-      </c>
-      <c r="B76" t="s">
-        <v>286</v>
-      </c>
-      <c r="C76" t="s">
-        <v>287</v>
-      </c>
-      <c r="D76">
-        <v>169</v>
-      </c>
-      <c r="E76"/>
-    </row>
-    <row r="77" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>41018</v>
-      </c>
-      <c r="B77" t="s">
-        <v>166</v>
-      </c>
-      <c r="C77" t="s">
-        <v>167</v>
-      </c>
-      <c r="D77">
-        <v>355</v>
-      </c>
+      <c r="F75" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
       <c r="E77"/>
+      <c r="F77" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" t="s">
-        <v>43</v>
-      </c>
+      <c r="E78"/>
       <c r="F78" s="8" t="s">
-        <v>253</v>
+        <v>57</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>259</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3130,14 +3144,12 @@
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" t="s">
-        <v>43</v>
-      </c>
+      <c r="E79"/>
       <c r="F79" s="8" t="s">
-        <v>254</v>
+        <v>59</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3146,13 +3158,13 @@
       <c r="C80"/>
       <c r="D80"/>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>255</v>
+        <v>176</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>261</v>
+        <v>177</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3161,29 +3173,29 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>256</v>
+        <v>181</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82" t="s">
-        <v>231</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>263</v>
-      </c>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>41078</v>
+      </c>
+      <c r="B82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" t="s">
+        <v>34</v>
+      </c>
+      <c r="D82">
+        <v>307</v>
+      </c>
+      <c r="E82"/>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3"/>
@@ -3191,104 +3203,104 @@
       <c r="C83"/>
       <c r="D83"/>
       <c r="E83" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>258</v>
+        <v>151</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" t="s">
+        <v>158</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" t="s">
+        <v>76</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" t="s">
+        <v>158</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>40972</v>
+      </c>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87">
+        <v>287</v>
+      </c>
+      <c r="E87"/>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>41063</v>
       </c>
-      <c r="B84" t="s">
-        <v>180</v>
-      </c>
-      <c r="C84" t="s">
-        <v>14</v>
-      </c>
-      <c r="D84">
-        <v>225</v>
-      </c>
-      <c r="E84"/>
-    </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>40953</v>
-      </c>
-      <c r="B85" t="s">
-        <v>37</v>
-      </c>
-      <c r="C85" t="s">
-        <v>22</v>
-      </c>
-      <c r="D85">
-        <v>210</v>
-      </c>
-      <c r="E85"/>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>40956</v>
-      </c>
-      <c r="B86" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" t="s">
-        <v>39</v>
-      </c>
-      <c r="D86">
-        <v>50</v>
-      </c>
-      <c r="E86"/>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88" t="s">
-        <v>74</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89" t="s">
-        <v>74</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>157</v>
-      </c>
+      <c r="B88" t="s">
+        <v>286</v>
+      </c>
+      <c r="C88" t="s">
+        <v>287</v>
+      </c>
+      <c r="D88">
+        <v>169</v>
+      </c>
+      <c r="E88"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>41018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" t="s">
+        <v>167</v>
+      </c>
+      <c r="D89">
+        <v>355</v>
+      </c>
+      <c r="E89"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3296,13 +3308,13 @@
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>45</v>
+        <v>253</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>46</v>
+        <v>259</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3311,13 +3323,13 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>48</v>
+        <v>254</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>49</v>
+        <v>260</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3325,12 +3337,14 @@
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92"/>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
       <c r="F92" s="8" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3338,28 +3352,30 @@
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93"/>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
       <c r="F93" s="8" t="s">
-        <v>178</v>
+        <v>256</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>40980</v>
-      </c>
-      <c r="B94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C94" t="s">
-        <v>18</v>
-      </c>
-      <c r="D94">
-        <v>449</v>
-      </c>
-      <c r="E94"/>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" t="s">
+        <v>231</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
@@ -3370,86 +3386,86 @@
         <v>74</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>102</v>
+        <v>258</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97" t="s">
-        <v>74</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98"/>
-      <c r="C98"/>
-      <c r="D98"/>
-      <c r="E98" t="s">
-        <v>74</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="G98" s="8" t="s">
-        <v>155</v>
-      </c>
+        <v>264</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>41063</v>
+      </c>
+      <c r="B96" t="s">
+        <v>180</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>225</v>
+      </c>
+      <c r="E96"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>40953</v>
+      </c>
+      <c r="B97" t="s">
+        <v>37</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>210</v>
+      </c>
+      <c r="E97"/>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>40956</v>
+      </c>
+      <c r="B98" t="s">
+        <v>38</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98">
+        <v>50</v>
+      </c>
+      <c r="E98"/>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" t="s">
-        <v>74</v>
+      <c r="E99" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <v>40966</v>
-      </c>
-      <c r="B100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C100" t="s">
-        <v>41</v>
-      </c>
-      <c r="D100">
-        <v>237</v>
-      </c>
-      <c r="E100"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3"/>
@@ -3457,13 +3473,13 @@
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3475,10 +3491,10 @@
         <v>74</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>223</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3487,13 +3503,13 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>225</v>
+        <v>48</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3501,14 +3517,12 @@
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104" t="s">
-        <v>192</v>
-      </c>
+      <c r="E104"/>
       <c r="F104" s="8" t="s">
-        <v>226</v>
+        <v>61</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>229</v>
+        <v>62</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3516,45 +3530,43 @@
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
-      <c r="E105" t="s">
-        <v>43</v>
-      </c>
+      <c r="E105"/>
       <c r="F105" s="8" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" t="s">
-        <v>74</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>41047</v>
-      </c>
-      <c r="B107" t="s">
-        <v>183</v>
-      </c>
-      <c r="C107" t="s">
-        <v>184</v>
-      </c>
-      <c r="D107">
-        <v>199</v>
-      </c>
-      <c r="E107"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>40980</v>
+      </c>
+      <c r="B106" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" t="s">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>449</v>
+      </c>
+      <c r="E106"/>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
+      <c r="E107" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -3562,13 +3574,13 @@
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3580,26 +3592,26 @@
         <v>74</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3">
-        <v>40944</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110" t="s">
-        <v>20</v>
-      </c>
-      <c r="D110">
-        <v>390</v>
-      </c>
-      <c r="E110"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110" t="s">
+        <v>74</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
@@ -3607,408 +3619,552 @@
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>40966</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>41</v>
+      </c>
+      <c r="D112">
+        <v>237</v>
+      </c>
+      <c r="E112"/>
+    </row>
+    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" t="s">
         <v>43</v>
       </c>
-      <c r="F111" s="8" t="s">
+      <c r="F113" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115" t="s">
+        <v>74</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116" t="s">
+        <v>192</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>41047</v>
+      </c>
+      <c r="B119" t="s">
+        <v>183</v>
+      </c>
+      <c r="C119" t="s">
+        <v>184</v>
+      </c>
+      <c r="D119">
+        <v>199</v>
+      </c>
+      <c r="E119"/>
+    </row>
+    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" t="s">
+        <v>43</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" t="s">
+        <v>74</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>40944</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" t="s">
+        <v>20</v>
+      </c>
+      <c r="D122">
+        <v>390</v>
+      </c>
+      <c r="E122"/>
+    </row>
+    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G123" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112"/>
-      <c r="C112"/>
-      <c r="D112"/>
-      <c r="E112" t="s">
-        <v>74</v>
-      </c>
-      <c r="F112" s="8" t="s">
+    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G124" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="E113" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="8" t="s">
+    <row r="125" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="E125" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G113" s="8" t="s">
+      <c r="G125" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="E114" t="s">
-        <v>74</v>
-      </c>
-      <c r="F114" s="8" t="s">
+    <row r="126" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="E126" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G114" s="8" t="s">
+      <c r="G126" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
+    <row r="127" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
         <v>41046</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C127" t="s">
         <v>21</v>
       </c>
-      <c r="D115">
+      <c r="D127">
         <v>741</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="19" t="s">
+    <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="I116" s="9"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="3">
+      <c r="B128" s="19"/>
+      <c r="C128" s="19"/>
+      <c r="D128" s="19"/>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
         <v>40948</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B129" t="s">
         <v>27</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C129" t="s">
         <v>28</v>
       </c>
-      <c r="D117">
+      <c r="D129">
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>40956</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B130" t="s">
         <v>35</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C130" t="s">
         <v>36</v>
       </c>
-      <c r="D118">
+      <c r="D130">
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="E119" s="7" t="s">
+    <row r="131" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="E131" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F131" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G131" s="8" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="E120" s="7" t="s">
+    <row r="132" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="E132" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F120" s="8" t="s">
+      <c r="F132" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G120" s="8" t="s">
+      <c r="G132" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="E121" s="7" t="s">
+    <row r="133" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="E133" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F133" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G133" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="122" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="134" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
         <v>40967</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B134" t="s">
         <v>63</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C134" t="s">
         <v>64</v>
       </c>
-      <c r="D122">
+      <c r="D134">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>40954</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C135" t="s">
         <v>32</v>
       </c>
-      <c r="D123">
+      <c r="D135">
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>40947</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B136" t="s">
         <v>29</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C136" t="s">
         <v>30</v>
       </c>
-      <c r="D124">
+      <c r="D136">
         <v>69</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="5"/>
-      <c r="B125" s="6"/>
-      <c r="C125" s="6"/>
-      <c r="D125" s="6">
-        <f>SUM(D45:D124)</f>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="5"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="6"/>
+      <c r="D137" s="6">
+        <f>SUM(D57:D136)</f>
         <v>5162</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="E127" s="10" t="s">
+    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="E139" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F127" s="11" t="s">
+      <c r="F139" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="E128" s="12" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="E140" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F128" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="E129" s="12" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="E141" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="F129" s="13" t="s">
+      <c r="F141" s="13" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="E130" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132" t="s">
-        <v>232</v>
-      </c>
-      <c r="E132" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="3"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F134" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135"/>
-      <c r="C135"/>
-      <c r="D135"/>
-      <c r="E135"/>
-    </row>
-    <row r="136" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136"/>
-      <c r="C136"/>
-      <c r="D136"/>
-      <c r="E136"/>
-    </row>
-    <row r="137" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137"/>
-      <c r="C137"/>
-      <c r="D137"/>
-      <c r="E137"/>
-    </row>
-    <row r="138" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138"/>
-      <c r="C138"/>
-      <c r="D138"/>
-      <c r="E138"/>
-    </row>
-    <row r="139" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139"/>
-    </row>
-    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140"/>
-    </row>
-    <row r="141" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141"/>
-    </row>
-    <row r="142" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142"/>
-    </row>
-    <row r="143" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E142" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
-      <c r="E143"/>
-    </row>
-    <row r="144" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E143" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144"/>
       <c r="C144"/>
-      <c r="D144"/>
-      <c r="E144"/>
-    </row>
-    <row r="145" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D144" t="s">
+        <v>232</v>
+      </c>
+      <c r="E144" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
-      <c r="E145"/>
-    </row>
-    <row r="146" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E145" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
-      <c r="E146"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E146" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147"/>
+    </row>
+    <row r="148" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148"/>
+    </row>
+    <row r="149" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149"/>
+    </row>
+    <row r="150" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150"/>
+    </row>
+    <row r="151" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151"/>
+      <c r="E151"/>
+    </row>
+    <row r="152" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152"/>
+    </row>
+    <row r="153" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153"/>
+    </row>
+    <row r="154" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154"/>
+    </row>
+    <row r="155" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155"/>
+    </row>
+    <row r="156" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156"/>
+    </row>
+    <row r="157" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157"/>
+    </row>
+    <row r="158" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -4059,708 +4215,60 @@
     <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
-    <row r="1876" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1876" s="16"/>
-      <c r="B1876" s="16"/>
-      <c r="C1876" s="16" t="s">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1888" s="16"/>
+      <c r="B1888" s="16"/>
+      <c r="C1888" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1876" s="16"/>
-      <c r="E1876" s="16">
+      <c r="D1888" s="16"/>
+      <c r="E1888" s="16">
         <v>736016.15</v>
       </c>
-      <c r="F1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1876" s="16">
+      <c r="F1888" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1888" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1876" s="16">
+      <c r="H1888" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1876" s="16"/>
-      <c r="M1876" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1876" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1876" s="16"/>
-      <c r="P1876" s="16"/>
-      <c r="Q1876" s="16"/>
-      <c r="R1876" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1876" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1876" s="16"/>
-      <c r="U1876" s="16"/>
-      <c r="V1876" s="16"/>
-      <c r="W1876" s="16"/>
-      <c r="X1876" s="16"/>
-    </row>
-    <row r="1877" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1877" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1877" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1877" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1877" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1877" s="16">
-        <v>72000</v>
-      </c>
-      <c r="F1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1877" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1877" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1877" s="16"/>
-      <c r="M1877" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1877" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1877" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1877" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1877" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1877" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1877" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1877" s="16"/>
-      <c r="U1877" s="16"/>
-      <c r="V1877" s="16"/>
-      <c r="W1877" s="16"/>
-      <c r="X1877" s="16"/>
-    </row>
-    <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1878" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1878" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1878" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1878" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1878" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="F1878" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1878" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1878" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1878" s="16"/>
-      <c r="M1878" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1878" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1878" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1878" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1878" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1878" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1878" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1878" s="16"/>
-      <c r="U1878" s="16"/>
-      <c r="V1878" s="16"/>
-      <c r="W1878" s="16"/>
-      <c r="X1878" s="16"/>
-    </row>
-    <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1879" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1879" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1879" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1879" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1879" s="16">
-        <v>4970</v>
-      </c>
-      <c r="F1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1879" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1879" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1879" s="16"/>
-      <c r="M1879" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1879" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1879" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1879" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1879" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1879" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1879" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1879" s="16"/>
-      <c r="U1879" s="16"/>
-      <c r="V1879" s="16"/>
-      <c r="W1879" s="16"/>
-      <c r="X1879" s="16"/>
-    </row>
-    <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1880" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1880" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1880" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1880" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1880" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="F1880" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1880" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1880" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="I1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1880" s="16"/>
-      <c r="M1880" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="N1880" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1880" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1880" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1880" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1880" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1880" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1880" s="16"/>
-      <c r="U1880" s="16"/>
-      <c r="V1880" s="16"/>
-      <c r="W1880" s="16"/>
-      <c r="X1880" s="16"/>
-    </row>
-    <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1881" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1881" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1881" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1881" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1881" s="16">
-        <v>11950</v>
-      </c>
-      <c r="F1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1881" s="16">
-        <v>388.74</v>
-      </c>
-      <c r="H1881" s="16">
-        <v>11950</v>
-      </c>
-      <c r="I1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1881" s="16"/>
-      <c r="M1881" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1881" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1881" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1881" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1881" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1881" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1881" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1881" s="16"/>
-      <c r="U1881" s="16"/>
-      <c r="V1881" s="16"/>
-      <c r="W1881" s="16"/>
-      <c r="X1881" s="16"/>
-    </row>
-    <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1882" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1882" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1882" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1882" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1882" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="F1882" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1882" s="16">
-        <v>450.44</v>
-      </c>
-      <c r="H1882" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="I1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1882" s="16"/>
-      <c r="M1882" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1882" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1882" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1882" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1882" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1882" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1882" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1882" s="16"/>
-      <c r="U1882" s="16"/>
-      <c r="V1882" s="16"/>
-      <c r="W1882" s="16"/>
-      <c r="X1882" s="16"/>
-    </row>
-    <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1883" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1883" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1883" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1883" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1883" s="16">
-        <v>61398</v>
-      </c>
-      <c r="F1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1883" s="16">
-        <v>1997.29</v>
-      </c>
-      <c r="H1883" s="16">
-        <v>61398</v>
-      </c>
-      <c r="I1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1883" s="16"/>
-      <c r="M1883" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1883" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1883" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1883" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1883" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1883" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1883" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1883" s="16"/>
-      <c r="U1883" s="16"/>
-      <c r="V1883" s="16"/>
-      <c r="W1883" s="16"/>
-      <c r="X1883" s="16"/>
-    </row>
-    <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1884" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1884" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1884" s="16"/>
-      <c r="D1884" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1884" s="16"/>
-      <c r="F1884" s="16"/>
-      <c r="G1884" s="16"/>
-      <c r="H1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1884" s="16">
-        <v>14000</v>
-      </c>
-      <c r="J1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1884" s="16"/>
-      <c r="M1884" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1884" s="16"/>
-      <c r="O1884" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1884" s="16"/>
-      <c r="Q1884" s="16"/>
-      <c r="R1884" s="16"/>
-      <c r="S1884" s="16"/>
-      <c r="T1884" s="16"/>
-      <c r="U1884" s="16"/>
-      <c r="V1884" s="16"/>
-      <c r="W1884" s="16"/>
-      <c r="X1884" s="16"/>
-    </row>
-    <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1885" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1885" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1885" s="16"/>
-      <c r="D1885" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1885" s="16"/>
-      <c r="F1885" s="16"/>
-      <c r="G1885" s="16"/>
-      <c r="H1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1885" s="16">
-        <v>7150</v>
-      </c>
-      <c r="J1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1885" s="16"/>
-      <c r="M1885" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1885" s="16"/>
-      <c r="O1885" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1885" s="16"/>
-      <c r="Q1885" s="16"/>
-      <c r="R1885" s="16"/>
-      <c r="S1885" s="16"/>
-      <c r="T1885" s="16"/>
-      <c r="U1885" s="16"/>
-      <c r="V1885" s="16"/>
-      <c r="W1885" s="16"/>
-      <c r="X1885" s="16"/>
-    </row>
-    <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1886" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1886" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1886" s="16"/>
-      <c r="D1886" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1886" s="16"/>
-      <c r="F1886" s="16"/>
-      <c r="G1886" s="16"/>
-      <c r="H1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1886" s="16">
-        <v>1100</v>
-      </c>
-      <c r="J1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1886" s="16"/>
-      <c r="M1886" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1886" s="16"/>
-      <c r="O1886" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1886" s="16"/>
-      <c r="Q1886" s="16"/>
-      <c r="R1886" s="16"/>
-      <c r="S1886" s="16"/>
-      <c r="T1886" s="16"/>
-      <c r="U1886" s="16"/>
-      <c r="V1886" s="16"/>
-      <c r="W1886" s="16"/>
-      <c r="X1886" s="16"/>
-    </row>
-    <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1887" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1887" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1887" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1887" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1887" s="16">
-        <v>4200</v>
-      </c>
-      <c r="F1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1887" s="16">
-        <v>136.63</v>
-      </c>
-      <c r="H1887" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1887" s="16"/>
-      <c r="M1887" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1887" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1887" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1887" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1887" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1887" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1887" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1887" s="16"/>
-      <c r="U1887" s="16"/>
-      <c r="V1887" s="16"/>
-      <c r="W1887" s="16"/>
-      <c r="X1887" s="16"/>
-    </row>
-    <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1888" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1888" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1888" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1888" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1888" s="16">
-        <v>320000</v>
-      </c>
-      <c r="F1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1888" s="16">
-        <v>650.6</v>
-      </c>
-      <c r="H1888" s="16">
-        <v>20000</v>
       </c>
       <c r="I1888" s="16">
         <v>0</v>
@@ -4773,22 +4281,16 @@
       </c>
       <c r="L1888" s="16"/>
       <c r="M1888" s="16">
-        <v>20000</v>
+        <v>736016.15</v>
       </c>
       <c r="N1888" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1888" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1888" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1888" s="16" t="s">
-        <v>372</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1888" s="16"/>
+      <c r="P1888" s="16"/>
+      <c r="Q1888" s="16"/>
       <c r="R1888" s="16" t="s">
-        <v>374</v>
+        <v>306</v>
       </c>
       <c r="S1888" s="16" t="s">
         <v>304</v>
@@ -4801,28 +4303,28 @@
     </row>
     <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1889" s="16" t="s">
-        <v>376</v>
+        <v>308</v>
       </c>
       <c r="B1889" s="16" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="C1889" s="16" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D1889" s="16" t="s">
-        <v>377</v>
+        <v>310</v>
       </c>
       <c r="E1889" s="16">
-        <v>2409</v>
+        <v>72000</v>
       </c>
       <c r="F1889" s="16">
         <v>0</v>
       </c>
       <c r="G1889" s="16">
-        <v>78.37</v>
+        <v>2342.17</v>
       </c>
       <c r="H1889" s="16">
-        <v>2409</v>
+        <v>72000</v>
       </c>
       <c r="I1889" s="16">
         <v>0</v>
@@ -4835,22 +4337,22 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>2409</v>
+        <v>72000</v>
       </c>
       <c r="N1889" s="16" t="s">
-        <v>380</v>
+        <v>316</v>
       </c>
       <c r="O1889" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1889" s="16" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q1889" s="16" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="R1889" s="16" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="S1889" s="16" t="s">
         <v>304</v>
@@ -4863,28 +4365,28 @@
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1890" s="16" t="s">
-        <v>381</v>
+        <v>317</v>
       </c>
       <c r="B1890" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1890" s="16" t="s">
-        <v>384</v>
+        <v>322</v>
       </c>
       <c r="D1890" s="16" t="s">
-        <v>377</v>
+        <v>318</v>
       </c>
       <c r="E1890" s="16">
-        <v>361450.61</v>
+        <v>723002.17</v>
       </c>
       <c r="F1890" s="16">
-        <v>8828.5</v>
+        <v>16900.55</v>
       </c>
       <c r="G1890" s="16">
-        <v>11758.05</v>
+        <v>23519.38</v>
       </c>
       <c r="H1890" s="16">
-        <v>361450.61</v>
+        <v>723002.17</v>
       </c>
       <c r="I1890" s="16">
         <v>0</v>
@@ -4897,22 +4399,22 @@
       </c>
       <c r="L1890" s="16"/>
       <c r="M1890" s="16">
-        <v>361450.61</v>
+        <v>723002.17</v>
       </c>
       <c r="N1890" s="16" t="s">
-        <v>386</v>
+        <v>324</v>
       </c>
       <c r="O1890" s="16" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P1890" s="16" t="s">
-        <v>382</v>
+        <v>320</v>
       </c>
       <c r="Q1890" s="16" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="R1890" s="16" t="s">
-        <v>385</v>
+        <v>323</v>
       </c>
       <c r="S1890" s="16" t="s">
         <v>304</v>
@@ -4925,28 +4427,28 @@
     </row>
     <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1891" s="16" t="s">
-        <v>387</v>
+        <v>325</v>
       </c>
       <c r="B1891" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1891" s="16" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="D1891" s="16" t="s">
-        <v>388</v>
+        <v>326</v>
       </c>
       <c r="E1891" s="16">
-        <v>477000</v>
+        <v>4970</v>
       </c>
       <c r="F1891" s="16">
         <v>0</v>
       </c>
       <c r="G1891" s="16">
-        <v>1073.5</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1891" s="16">
-        <v>33000</v>
+        <v>4970</v>
       </c>
       <c r="I1891" s="16">
         <v>0</v>
@@ -4959,21 +4461,23 @@
       </c>
       <c r="L1891" s="16"/>
       <c r="M1891" s="16">
-        <v>33000</v>
+        <v>4970</v>
       </c>
       <c r="N1891" s="16" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
       <c r="O1891" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1891" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1891" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1891" s="16"/>
+        <v>329</v>
+      </c>
+      <c r="R1891" s="16" t="s">
+        <v>331</v>
+      </c>
       <c r="S1891" s="16" t="s">
         <v>304</v>
       </c>
@@ -4985,28 +4489,28 @@
     </row>
     <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1892" s="16" t="s">
-        <v>392</v>
+        <v>333</v>
       </c>
       <c r="B1892" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1892" s="16" t="s">
-        <v>393</v>
+        <v>337</v>
       </c>
       <c r="D1892" s="16" t="s">
         <v>334</v>
       </c>
       <c r="E1892" s="16">
-        <v>8223</v>
+        <v>9235.48</v>
       </c>
       <c r="F1892" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1892" s="16">
-        <v>267.5</v>
+        <v>300.43</v>
       </c>
       <c r="H1892" s="16">
-        <v>8223</v>
+        <v>9235.48</v>
       </c>
       <c r="I1892" s="16">
         <v>0</v>
@@ -5019,22 +4523,22 @@
       </c>
       <c r="L1892" s="16"/>
       <c r="M1892" s="16">
-        <v>8223</v>
+        <v>9235.48</v>
       </c>
       <c r="N1892" s="16" t="s">
-        <v>395</v>
+        <v>339</v>
       </c>
       <c r="O1892" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1892" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1892" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1892" s="16" t="s">
-        <v>394</v>
+        <v>338</v>
       </c>
       <c r="S1892" s="16" t="s">
         <v>304</v>
@@ -5047,28 +4551,28 @@
     </row>
     <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1893" s="16" t="s">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="B1893" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1893" s="16" t="s">
-        <v>398</v>
+        <v>342</v>
       </c>
       <c r="D1893" s="16" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="E1893" s="16">
-        <v>12500</v>
+        <v>11950</v>
       </c>
       <c r="F1893" s="16">
         <v>0</v>
       </c>
       <c r="G1893" s="16">
-        <v>406.63</v>
+        <v>388.74</v>
       </c>
       <c r="H1893" s="16">
-        <v>12500</v>
+        <v>11950</v>
       </c>
       <c r="I1893" s="16">
         <v>0</v>
@@ -5081,22 +4585,22 @@
       </c>
       <c r="L1893" s="16"/>
       <c r="M1893" s="16">
-        <v>12500</v>
+        <v>11950</v>
       </c>
       <c r="N1893" s="16" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="O1893" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1893" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1893" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1893" s="16" t="s">
-        <v>399</v>
+        <v>343</v>
       </c>
       <c r="S1893" s="16" t="s">
         <v>304</v>
@@ -5109,28 +4613,28 @@
     </row>
     <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1894" s="16" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="B1894" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1894" s="16" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="D1894" s="16" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="E1894" s="16">
-        <v>103500</v>
+        <v>13846.96</v>
       </c>
       <c r="F1894" s="16">
-        <v>0</v>
+        <v>323.68</v>
       </c>
       <c r="G1894" s="16">
-        <v>3366.87</v>
+        <v>450.44</v>
       </c>
       <c r="H1894" s="16">
-        <v>103500</v>
+        <v>13846.96</v>
       </c>
       <c r="I1894" s="16">
         <v>0</v>
@@ -5143,22 +4647,22 @@
       </c>
       <c r="L1894" s="16"/>
       <c r="M1894" s="16">
-        <v>103500</v>
+        <v>13846.96</v>
       </c>
       <c r="N1894" s="16" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="O1894" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1894" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1894" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1894" s="16" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="S1894" s="16" t="s">
         <v>304</v>
@@ -5171,28 +4675,28 @@
     </row>
     <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1895" s="16" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="B1895" s="16" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C1895" s="16" t="s">
-        <v>409</v>
+        <v>352</v>
       </c>
       <c r="D1895" s="16" t="s">
-        <v>408</v>
+        <v>351</v>
       </c>
       <c r="E1895" s="16">
-        <v>1381.76</v>
+        <v>61398</v>
       </c>
       <c r="F1895" s="16">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G1895" s="16">
-        <v>44.95</v>
+        <v>1997.29</v>
       </c>
       <c r="H1895" s="16">
-        <v>1381.79</v>
+        <v>61398</v>
       </c>
       <c r="I1895" s="16">
         <v>0</v>
@@ -5205,22 +4709,22 @@
       </c>
       <c r="L1895" s="16"/>
       <c r="M1895" s="16">
-        <v>1381.79</v>
+        <v>61398</v>
       </c>
       <c r="N1895" s="16" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="O1895" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1895" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1895" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1895" s="16" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="S1895" s="16" t="s">
         <v>304</v>
@@ -5233,31 +4737,23 @@
     </row>
     <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1896" s="16" t="s">
-        <v>412</v>
+        <v>355</v>
       </c>
       <c r="B1896" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1896" s="16" t="s">
-        <v>414</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1896" s="16"/>
       <c r="D1896" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1896" s="16">
-        <v>1400</v>
-      </c>
-      <c r="F1896" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1896" s="16">
-        <v>45.54</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E1896" s="16"/>
+      <c r="F1896" s="16"/>
+      <c r="G1896" s="16"/>
       <c r="H1896" s="16">
-        <v>1400</v>
+        <v>0</v>
       </c>
       <c r="I1896" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J1896" s="16">
         <v>0</v>
@@ -5267,26 +4763,16 @@
       </c>
       <c r="L1896" s="16"/>
       <c r="M1896" s="16">
-        <v>1400</v>
-      </c>
-      <c r="N1896" s="16" t="s">
-        <v>416</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="N1896" s="16"/>
       <c r="O1896" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1896" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1896" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1896" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S1896" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1896" s="16"/>
+      <c r="Q1896" s="16"/>
+      <c r="R1896" s="16"/>
+      <c r="S1896" s="16"/>
       <c r="T1896" s="16"/>
       <c r="U1896" s="16"/>
       <c r="V1896" s="16"/>
@@ -5294,31 +4780,737 @@
       <c r="X1896" s="16"/>
     </row>
     <row r="1897" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1897" t="s">
+      <c r="A1897" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1897" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1897" s="16"/>
+      <c r="D1897" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1897" s="16"/>
+      <c r="F1897" s="16"/>
+      <c r="G1897" s="16"/>
+      <c r="H1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1897" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1897" s="16"/>
+      <c r="M1897" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1897" s="16"/>
+      <c r="O1897" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1897" s="16"/>
+      <c r="Q1897" s="16"/>
+      <c r="R1897" s="16"/>
+      <c r="S1897" s="16"/>
+      <c r="T1897" s="16"/>
+      <c r="U1897" s="16"/>
+      <c r="V1897" s="16"/>
+      <c r="W1897" s="16"/>
+      <c r="X1897" s="16"/>
+    </row>
+    <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1898" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1898" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1898" s="16"/>
+      <c r="D1898" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1898" s="16"/>
+      <c r="F1898" s="16"/>
+      <c r="G1898" s="16"/>
+      <c r="H1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1898" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1898" s="16"/>
+      <c r="M1898" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1898" s="16"/>
+      <c r="O1898" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1898" s="16"/>
+      <c r="Q1898" s="16"/>
+      <c r="R1898" s="16"/>
+      <c r="S1898" s="16"/>
+      <c r="T1898" s="16"/>
+      <c r="U1898" s="16"/>
+      <c r="V1898" s="16"/>
+      <c r="W1898" s="16"/>
+      <c r="X1898" s="16"/>
+    </row>
+    <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1899" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1899" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1899" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1899" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1899" s="16">
+        <v>4200</v>
+      </c>
+      <c r="F1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1899" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1899" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1899" s="16"/>
+      <c r="M1899" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1899" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1899" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1899" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1899" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1899" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1899" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1899" s="16"/>
+      <c r="U1899" s="16"/>
+      <c r="V1899" s="16"/>
+      <c r="W1899" s="16"/>
+      <c r="X1899" s="16"/>
+    </row>
+    <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1900" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1900" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1900" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1900" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1900" s="16">
+        <v>320000</v>
+      </c>
+      <c r="F1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1900" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1900" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1900" s="16"/>
+      <c r="M1900" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1900" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1900" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1900" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1900" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1900" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1900" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1900" s="16"/>
+      <c r="U1900" s="16"/>
+      <c r="V1900" s="16"/>
+      <c r="W1900" s="16"/>
+      <c r="X1900" s="16"/>
+    </row>
+    <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1901" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1901" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1901" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1901" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1901" s="16">
+        <v>2409</v>
+      </c>
+      <c r="F1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1901" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1901" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1901" s="16"/>
+      <c r="M1901" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1901" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1901" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1901" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1901" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1901" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1901" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1901" s="16"/>
+      <c r="U1901" s="16"/>
+      <c r="V1901" s="16"/>
+      <c r="W1901" s="16"/>
+      <c r="X1901" s="16"/>
+    </row>
+    <row r="1902" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1902" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1902" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1902" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1902" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1902" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="F1902" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1902" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1902" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1902" s="16"/>
+      <c r="M1902" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1902" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1902" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1902" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1902" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1902" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1902" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1902" s="16"/>
+      <c r="U1902" s="16"/>
+      <c r="V1902" s="16"/>
+      <c r="W1902" s="16"/>
+      <c r="X1902" s="16"/>
+    </row>
+    <row r="1903" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1903" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1903" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1903" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1903" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1903" s="16">
+        <v>477000</v>
+      </c>
+      <c r="F1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1903" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1903" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1903" s="16"/>
+      <c r="M1903" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1903" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1903" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1903" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1903" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1903" s="16"/>
+      <c r="S1903" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1903" s="16"/>
+      <c r="U1903" s="16"/>
+      <c r="V1903" s="16"/>
+      <c r="W1903" s="16"/>
+      <c r="X1903" s="16"/>
+    </row>
+    <row r="1904" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1904" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1904" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1904" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1904" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1904" s="16">
+        <v>8223</v>
+      </c>
+      <c r="F1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1904" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1904" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1904" s="16"/>
+      <c r="M1904" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1904" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1904" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1904" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1904" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1904" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1904" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1904" s="16"/>
+      <c r="U1904" s="16"/>
+      <c r="V1904" s="16"/>
+      <c r="W1904" s="16"/>
+      <c r="X1904" s="16"/>
+    </row>
+    <row r="1905" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1905" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1905" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1905" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1905" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1905" s="16">
+        <v>12500</v>
+      </c>
+      <c r="F1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1905" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1905" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1905" s="16"/>
+      <c r="M1905" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1905" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1905" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1905" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1905" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1905" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1905" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1905" s="16"/>
+      <c r="U1905" s="16"/>
+      <c r="V1905" s="16"/>
+      <c r="W1905" s="16"/>
+      <c r="X1905" s="16"/>
+    </row>
+    <row r="1906" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1906" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1906" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1906" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1906" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1906" s="16">
+        <v>103500</v>
+      </c>
+      <c r="F1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1906" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1906" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1906" s="16"/>
+      <c r="M1906" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1906" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1906" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1906" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1906" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1906" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1906" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1906" s="16"/>
+      <c r="U1906" s="16"/>
+      <c r="V1906" s="16"/>
+      <c r="W1906" s="16"/>
+      <c r="X1906" s="16"/>
+    </row>
+    <row r="1907" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1907" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1907" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1907" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1907" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1907" s="16">
+        <v>1381.76</v>
+      </c>
+      <c r="F1907" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G1907" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1907" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1907" s="16"/>
+      <c r="M1907" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1907" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1907" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1907" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1907" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1907" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1907" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1907" s="16"/>
+      <c r="U1907" s="16"/>
+      <c r="V1907" s="16"/>
+      <c r="W1907" s="16"/>
+      <c r="X1907" s="16"/>
+    </row>
+    <row r="1908" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1908" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1908" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1908" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1908" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1908" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1908" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1908" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1908" s="16"/>
+      <c r="M1908" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1908" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1908" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1908" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1908" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1908" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1908" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1908" s="16"/>
+      <c r="U1908" s="16"/>
+      <c r="V1908" s="16"/>
+      <c r="W1908" s="16"/>
+      <c r="X1908" s="16"/>
+    </row>
+    <row r="1909" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1909" t="s">
         <v>417</v>
       </c>
-      <c r="B1897" t="s">
+      <c r="B1909" t="s">
         <v>407</v>
       </c>
-      <c r="D1897" t="s">
+      <c r="D1909" t="s">
         <v>418</v>
       </c>
-      <c r="O1897" t="s">
+      <c r="O1909" t="s">
         <v>327</v>
       </c>
-      <c r="P1897" t="s">
+      <c r="P1909" t="s">
         <v>328</v>
       </c>
-      <c r="Q1897" t="s">
+      <c r="Q1909" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X124"/>
+  <autoFilter ref="A3:X136"/>
   <mergeCells count="3">
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A116:D116"/>
-    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A56:D56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="match2.0" sheetId="4" r:id="rId1"/>
-    <sheet name="Match" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="match2.1" sheetId="5" r:id="rId1"/>
+    <sheet name="match2.0" sheetId="4" r:id="rId2"/>
+    <sheet name="Match" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Match!$A$1:$I$140</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.0!$A$3:$X$136</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$49</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="486">
   <si>
     <t>дата</t>
   </si>
@@ -1451,6 +1451,62 @@
   </si>
   <si>
     <t>извлечение данных из стороннего Документа</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> S </t>
+  </si>
+  <si>
+    <t>PaymentPaint(BottomHDR)</t>
+  </si>
+  <si>
+    <t>Раскрашиваем Лист Платежей 1C с пяткой BottomHDR</t>
+  </si>
+  <si>
+    <t>Модуль</t>
+  </si>
+  <si>
+    <t>ContractPaint()</t>
+  </si>
+  <si>
+    <t>Раскрашиваем Лист Договоров</t>
+  </si>
+  <si>
+    <r>
+      <t>Коды</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Algerian"/>
+        <family val="5"/>
+      </rPr>
+      <t xml:space="preserve"> match 2.1</t>
+    </r>
+  </si>
+  <si>
+    <t>Paint(iStr,Col,Criteria,Color,[Mode])</t>
+  </si>
+  <si>
+    <t>раскраска ячеки (iStr,Col) в цвет Color</t>
+  </si>
+  <si>
+    <t>Acc1C_Bottom()</t>
+  </si>
+  <si>
+    <t>перенос первыx трех строк Acc1С в пятку</t>
+  </si>
+  <si>
+    <t>AccPaint()</t>
+  </si>
+  <si>
+    <t>окраска колонки А - Организация есть в SF</t>
+  </si>
+  <si>
+    <t>Загрузка документов из 1С</t>
   </si>
 </sst>
 </file>
@@ -1668,7 +1724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1704,6 +1760,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,6 +1781,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1761,7 +1832,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1796,7 +1867,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2005,13 +2076,2277 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X1819"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="8" customWidth="1"/>
+    <col min="7" max="9" width="28.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1">
+        <v>41504</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>41160</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C7" t="s">
+        <v>445</v>
+      </c>
+      <c r="D7">
+        <v>99</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>453</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>455</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>459</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>461</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>41179</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D20">
+        <v>1064</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>430</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>466</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>468</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>470</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>41183</v>
+      </c>
+      <c r="B30" t="s">
+        <v>422</v>
+      </c>
+      <c r="C30" t="s">
+        <v>423</v>
+      </c>
+      <c r="D30">
+        <v>543</v>
+      </c>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>41312</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>41217</v>
+      </c>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>41166</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>41135</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>41152</v>
+      </c>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>485</v>
+      </c>
+      <c r="D36">
+        <v>181</v>
+      </c>
+      <c r="E36" s="7"/>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>334</v>
+      </c>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>41110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>276</v>
+      </c>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="5"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6">
+        <f>SUM(D4:D49)</f>
+        <v>2497</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="E52" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54" t="s">
+        <v>232</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="3"/>
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57" s="7"/>
+    </row>
+    <row r="58" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58" s="7"/>
+    </row>
+    <row r="59" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59"/>
+      <c r="C59"/>
+      <c r="D59"/>
+      <c r="E59" s="7"/>
+    </row>
+    <row r="60" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60" s="7"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61"/>
+      <c r="C61"/>
+      <c r="D61"/>
+      <c r="E61" s="7"/>
+    </row>
+    <row r="62" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62"/>
+      <c r="C62"/>
+      <c r="D62"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63"/>
+      <c r="C63"/>
+      <c r="D63"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64"/>
+      <c r="C64"/>
+      <c r="D64"/>
+      <c r="E64" s="7"/>
+    </row>
+    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65"/>
+      <c r="C65"/>
+      <c r="D65"/>
+      <c r="E65" s="7"/>
+    </row>
+    <row r="66" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66"/>
+      <c r="C66"/>
+      <c r="D66"/>
+      <c r="E66" s="7"/>
+    </row>
+    <row r="67" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67"/>
+      <c r="C67"/>
+      <c r="D67"/>
+      <c r="E67" s="7"/>
+    </row>
+    <row r="68" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68"/>
+      <c r="C68"/>
+      <c r="D68"/>
+      <c r="E68" s="7"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="1798" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1798" s="16"/>
+      <c r="B1798" s="16"/>
+      <c r="C1798" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1798" s="16"/>
+      <c r="E1798" s="24">
+        <v>736016.15</v>
+      </c>
+      <c r="F1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1798" s="16">
+        <v>23942.73</v>
+      </c>
+      <c r="H1798" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="I1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1798" s="16"/>
+      <c r="M1798" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="N1798" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1798" s="16"/>
+      <c r="P1798" s="16"/>
+      <c r="Q1798" s="16"/>
+      <c r="R1798" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1798" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1798" s="16"/>
+      <c r="U1798" s="16"/>
+      <c r="V1798" s="16"/>
+      <c r="W1798" s="16"/>
+      <c r="X1798" s="16"/>
+    </row>
+    <row r="1799" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1799" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1799" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1799" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1799" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1799" s="24">
+        <v>72000</v>
+      </c>
+      <c r="F1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1799" s="16">
+        <v>2342.17</v>
+      </c>
+      <c r="H1799" s="16">
+        <v>72000</v>
+      </c>
+      <c r="I1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1799" s="16"/>
+      <c r="M1799" s="16">
+        <v>72000</v>
+      </c>
+      <c r="N1799" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1799" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1799" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1799" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1799" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1799" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1799" s="16"/>
+      <c r="U1799" s="16"/>
+      <c r="V1799" s="16"/>
+      <c r="W1799" s="16"/>
+      <c r="X1799" s="16"/>
+    </row>
+    <row r="1800" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1800" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1800" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1800" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1800" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1800" s="24">
+        <v>723002.17</v>
+      </c>
+      <c r="F1800" s="16">
+        <v>16900.55</v>
+      </c>
+      <c r="G1800" s="16">
+        <v>23519.38</v>
+      </c>
+      <c r="H1800" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="I1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1800" s="16"/>
+      <c r="M1800" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="N1800" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1800" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1800" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1800" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1800" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1800" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1800" s="16"/>
+      <c r="U1800" s="16"/>
+      <c r="V1800" s="16"/>
+      <c r="W1800" s="16"/>
+      <c r="X1800" s="16"/>
+    </row>
+    <row r="1801" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1801" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1801" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1801" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1801" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1801" s="24">
+        <v>4970</v>
+      </c>
+      <c r="F1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1801" s="16">
+        <v>161.66999999999999</v>
+      </c>
+      <c r="H1801" s="16">
+        <v>4970</v>
+      </c>
+      <c r="I1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1801" s="16"/>
+      <c r="M1801" s="16">
+        <v>4970</v>
+      </c>
+      <c r="N1801" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="O1801" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1801" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1801" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1801" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1801" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1801" s="16"/>
+      <c r="U1801" s="16"/>
+      <c r="V1801" s="16"/>
+      <c r="W1801" s="16"/>
+      <c r="X1801" s="16"/>
+    </row>
+    <row r="1802" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1802" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1802" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1802" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1802" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1802" s="24">
+        <v>9235.48</v>
+      </c>
+      <c r="F1802" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1802" s="16">
+        <v>300.43</v>
+      </c>
+      <c r="H1802" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="I1802" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1802" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1802" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1802" s="16"/>
+      <c r="M1802" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="N1802" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1802" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1802" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1802" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1802" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1802" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1802" s="16"/>
+      <c r="U1802" s="16"/>
+      <c r="V1802" s="16"/>
+      <c r="W1802" s="16"/>
+      <c r="X1802" s="16"/>
+    </row>
+    <row r="1803" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1803" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1803" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1803" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1803" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1803" s="24">
+        <v>11950</v>
+      </c>
+      <c r="F1803" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1803" s="16">
+        <v>388.74</v>
+      </c>
+      <c r="H1803" s="16">
+        <v>11950</v>
+      </c>
+      <c r="I1803" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1803" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1803" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1803" s="16"/>
+      <c r="M1803" s="16">
+        <v>11950</v>
+      </c>
+      <c r="N1803" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1803" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1803" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1803" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1803" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1803" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1803" s="16"/>
+      <c r="U1803" s="16"/>
+      <c r="V1803" s="16"/>
+      <c r="W1803" s="16"/>
+      <c r="X1803" s="16"/>
+    </row>
+    <row r="1804" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1804" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1804" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1804" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1804" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1804" s="24">
+        <v>13846.96</v>
+      </c>
+      <c r="F1804" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1804" s="16">
+        <v>450.44</v>
+      </c>
+      <c r="H1804" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="I1804" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1804" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1804" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1804" s="16"/>
+      <c r="M1804" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="N1804" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1804" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1804" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1804" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1804" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1804" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1804" s="16"/>
+      <c r="U1804" s="16"/>
+      <c r="V1804" s="16"/>
+      <c r="W1804" s="16"/>
+      <c r="X1804" s="16"/>
+    </row>
+    <row r="1805" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1805" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1805" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1805" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1805" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1805" s="24">
+        <v>61398</v>
+      </c>
+      <c r="F1805" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1805" s="16">
+        <v>1997.29</v>
+      </c>
+      <c r="H1805" s="16">
+        <v>61398</v>
+      </c>
+      <c r="I1805" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1805" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1805" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1805" s="16"/>
+      <c r="M1805" s="16">
+        <v>61398</v>
+      </c>
+      <c r="N1805" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1805" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1805" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1805" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1805" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1805" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1805" s="16"/>
+      <c r="U1805" s="16"/>
+      <c r="V1805" s="16"/>
+      <c r="W1805" s="16"/>
+      <c r="X1805" s="16"/>
+    </row>
+    <row r="1806" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1806" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1806" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1806" s="16"/>
+      <c r="D1806" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1806" s="24"/>
+      <c r="F1806" s="16"/>
+      <c r="G1806" s="16"/>
+      <c r="H1806" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1806" s="16">
+        <v>14000</v>
+      </c>
+      <c r="J1806" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1806" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1806" s="16"/>
+      <c r="M1806" s="16">
+        <v>14000</v>
+      </c>
+      <c r="N1806" s="16"/>
+      <c r="O1806" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1806" s="16"/>
+      <c r="Q1806" s="16"/>
+      <c r="R1806" s="16"/>
+      <c r="S1806" s="16"/>
+      <c r="T1806" s="16"/>
+      <c r="U1806" s="16"/>
+      <c r="V1806" s="16"/>
+      <c r="W1806" s="16"/>
+      <c r="X1806" s="16"/>
+    </row>
+    <row r="1807" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1807" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1807" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1807" s="16"/>
+      <c r="D1807" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1807" s="24"/>
+      <c r="F1807" s="16"/>
+      <c r="G1807" s="16"/>
+      <c r="H1807" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1807" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1807" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1807" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1807" s="16"/>
+      <c r="M1807" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1807" s="16"/>
+      <c r="O1807" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1807" s="16"/>
+      <c r="Q1807" s="16"/>
+      <c r="R1807" s="16"/>
+      <c r="S1807" s="16"/>
+      <c r="T1807" s="16"/>
+      <c r="U1807" s="16"/>
+      <c r="V1807" s="16"/>
+      <c r="W1807" s="16"/>
+      <c r="X1807" s="16"/>
+    </row>
+    <row r="1808" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1808" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1808" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1808" s="16"/>
+      <c r="D1808" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1808" s="24"/>
+      <c r="F1808" s="16"/>
+      <c r="G1808" s="16"/>
+      <c r="H1808" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1808" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1808" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1808" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1808" s="16"/>
+      <c r="M1808" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1808" s="16"/>
+      <c r="O1808" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1808" s="16"/>
+      <c r="Q1808" s="16"/>
+      <c r="R1808" s="16"/>
+      <c r="S1808" s="16"/>
+      <c r="T1808" s="16"/>
+      <c r="U1808" s="16"/>
+      <c r="V1808" s="16"/>
+      <c r="W1808" s="16"/>
+      <c r="X1808" s="16"/>
+    </row>
+    <row r="1809" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1809" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1809" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1809" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1809" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1809" s="24">
+        <v>4200</v>
+      </c>
+      <c r="F1809" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1809" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1809" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1809" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1809" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1809" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1809" s="16"/>
+      <c r="M1809" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1809" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1809" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1809" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1809" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1809" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1809" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1809" s="16"/>
+      <c r="U1809" s="16"/>
+      <c r="V1809" s="16"/>
+      <c r="W1809" s="16"/>
+      <c r="X1809" s="16"/>
+    </row>
+    <row r="1810" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1810" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1810" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1810" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1810" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1810" s="24">
+        <v>320000</v>
+      </c>
+      <c r="F1810" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1810" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1810" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1810" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1810" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1810" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1810" s="16"/>
+      <c r="M1810" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1810" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1810" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1810" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1810" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1810" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1810" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1810" s="16"/>
+      <c r="U1810" s="16"/>
+      <c r="V1810" s="16"/>
+      <c r="W1810" s="16"/>
+      <c r="X1810" s="16"/>
+    </row>
+    <row r="1811" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1811" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1811" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1811" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1811" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1811" s="24">
+        <v>2409</v>
+      </c>
+      <c r="F1811" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1811" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1811" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1811" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1811" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1811" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1811" s="16"/>
+      <c r="M1811" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1811" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1811" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1811" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1811" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1811" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1811" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1811" s="16"/>
+      <c r="U1811" s="16"/>
+      <c r="V1811" s="16"/>
+      <c r="W1811" s="16"/>
+      <c r="X1811" s="16"/>
+    </row>
+    <row r="1812" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1812" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1812" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1812" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1812" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1812" s="24">
+        <v>361450.61</v>
+      </c>
+      <c r="F1812" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1812" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1812" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1812" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1812" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1812" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1812" s="16"/>
+      <c r="M1812" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1812" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1812" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1812" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1812" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1812" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1812" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1812" s="16"/>
+      <c r="U1812" s="16"/>
+      <c r="V1812" s="16"/>
+      <c r="W1812" s="16"/>
+      <c r="X1812" s="16"/>
+    </row>
+    <row r="1813" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1813" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1813" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1813" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1813" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1813" s="24">
+        <v>477000</v>
+      </c>
+      <c r="F1813" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1813" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1813" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1813" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1813" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1813" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1813" s="16"/>
+      <c r="M1813" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1813" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1813" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1813" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1813" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1813" s="16"/>
+      <c r="S1813" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1813" s="16"/>
+      <c r="U1813" s="16"/>
+      <c r="V1813" s="16"/>
+      <c r="W1813" s="16"/>
+      <c r="X1813" s="16"/>
+    </row>
+    <row r="1814" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1814" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1814" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1814" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1814" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1814" s="24">
+        <v>8223</v>
+      </c>
+      <c r="F1814" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1814" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1814" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1814" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1814" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1814" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1814" s="16"/>
+      <c r="M1814" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1814" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1814" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1814" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1814" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1814" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1814" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1814" s="16"/>
+      <c r="U1814" s="16"/>
+      <c r="V1814" s="16"/>
+      <c r="W1814" s="16"/>
+      <c r="X1814" s="16"/>
+    </row>
+    <row r="1815" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1815" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1815" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1815" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1815" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1815" s="24">
+        <v>12500</v>
+      </c>
+      <c r="F1815" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1815" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1815" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1815" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1815" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1815" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1815" s="16"/>
+      <c r="M1815" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1815" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1815" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1815" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1815" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1815" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1815" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1815" s="16"/>
+      <c r="U1815" s="16"/>
+      <c r="V1815" s="16"/>
+      <c r="W1815" s="16"/>
+      <c r="X1815" s="16"/>
+    </row>
+    <row r="1816" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1816" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1816" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1816" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1816" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1816" s="24">
+        <v>103500</v>
+      </c>
+      <c r="F1816" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1816" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1816" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1816" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1816" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1816" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1816" s="16"/>
+      <c r="M1816" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1816" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1816" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1816" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1816" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1816" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1816" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1816" s="16"/>
+      <c r="U1816" s="16"/>
+      <c r="V1816" s="16"/>
+      <c r="W1816" s="16"/>
+      <c r="X1816" s="16"/>
+    </row>
+    <row r="1817" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1817" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1817" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1817" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1817" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1817" s="24">
+        <v>1381.76</v>
+      </c>
+      <c r="F1817" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="G1817" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1817" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1817" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1817" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1817" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1817" s="16"/>
+      <c r="M1817" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1817" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1817" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1817" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1817" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1817" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1817" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1817" s="16"/>
+      <c r="U1817" s="16"/>
+      <c r="V1817" s="16"/>
+      <c r="W1817" s="16"/>
+      <c r="X1817" s="16"/>
+    </row>
+    <row r="1818" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1818" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1818" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1818" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1818" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1818" s="24">
+        <v>1400</v>
+      </c>
+      <c r="F1818" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1818" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1818" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1818" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1818" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1818" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1818" s="16"/>
+      <c r="M1818" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1818" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1818" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1818" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1818" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1818" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1818" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1818" s="16"/>
+      <c r="U1818" s="16"/>
+      <c r="V1818" s="16"/>
+      <c r="W1818" s="16"/>
+      <c r="X1818" s="16"/>
+    </row>
+    <row r="1819" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1819" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>418</v>
+      </c>
+      <c r="O1819" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1819" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1819" t="s">
+        <v>329</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:X49"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1909"/>
+  <dimension ref="A1:X1910"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2117,7 +4452,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="C8"/>
       <c r="D8"/>
@@ -2131,7 +4466,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="C9"/>
       <c r="D9"/>
@@ -2145,7 +4480,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="C10"/>
       <c r="D10"/>
@@ -2159,7 +4494,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11"/>
       <c r="C11"/>
@@ -2174,7 +4509,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12"/>
       <c r="C12"/>
@@ -2189,7 +4524,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -2204,7 +4539,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14"/>
       <c r="C14"/>
@@ -2219,7 +4554,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15"/>
       <c r="C15"/>
@@ -2234,7 +4569,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -2249,7 +4584,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -2264,7 +4599,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -2279,7 +4614,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -2294,7 +4629,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>41179</v>
       </c>
@@ -2310,7 +4645,7 @@
       <c r="E20"/>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -2325,7 +4660,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -2340,7 +4675,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -2355,7 +4690,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -2370,7 +4705,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -2385,7 +4720,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26"/>
       <c r="C26"/>
@@ -2400,7 +4735,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27"/>
       <c r="C27"/>
@@ -2415,7 +4750,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28"/>
       <c r="C28"/>
@@ -2430,7 +4765,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29"/>
       <c r="C29"/>
@@ -2445,7 +4780,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>41183</v>
       </c>
@@ -2460,91 +4795,112 @@
       </c>
       <c r="E30"/>
     </row>
-    <row r="31" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
       <c r="E31" t="s">
         <v>76</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>170</v>
+        <v>138</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
       <c r="E33" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
       <c r="E35" t="s">
-        <v>213</v>
+        <v>472</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>212</v>
+        <v>473</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="E36" t="s">
-        <v>192</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>41085</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>224</v>
+      </c>
+      <c r="E36"/>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
       <c r="E37" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>207</v>
+        <v>132</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -2553,317 +4909,299 @@
         <v>76</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>139</v>
+        <v>293</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>291</v>
+        <v>92</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>41085</v>
-      </c>
-      <c r="B42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C42" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42">
-        <v>224</v>
-      </c>
-      <c r="E42"/>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>132</v>
+        <v>299</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44" t="s">
-        <v>76</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B44" t="s">
+        <v>290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44">
+        <v>334</v>
+      </c>
+      <c r="E44"/>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>43</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>293</v>
+        <v>120</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>295</v>
+        <v>122</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>92</v>
+        <v>124</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" t="s">
+        <v>76</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>41110</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D49">
+        <v>276</v>
+      </c>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
+    </row>
+    <row r="51" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="E51" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="E52" t="s">
+        <v>192</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="E53" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="E54" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="E55" t="s">
+        <v>213</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="E56" t="s">
+        <v>76</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="E57" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49"/>
-      <c r="C49"/>
-      <c r="D49"/>
-      <c r="E49" t="s">
-        <v>74</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>41086</v>
-      </c>
-      <c r="B50" t="s">
-        <v>290</v>
-      </c>
-      <c r="C50" t="s">
-        <v>19</v>
-      </c>
-      <c r="D50">
-        <v>334</v>
-      </c>
-      <c r="E50"/>
-    </row>
-    <row r="51" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52"/>
-      <c r="C52"/>
-      <c r="D52"/>
-      <c r="E52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53"/>
-      <c r="C53"/>
-      <c r="D53"/>
-      <c r="E53" t="s">
-        <v>76</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54" t="s">
-        <v>76</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>41110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" t="s">
-        <v>12</v>
-      </c>
-      <c r="D55">
-        <v>276</v>
-      </c>
-      <c r="E55"/>
-    </row>
-    <row r="56" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-    </row>
-    <row r="57" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>41037</v>
-      </c>
-      <c r="B57" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57">
-        <v>249</v>
+      <c r="F57" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
+        <v>41037</v>
+      </c>
+      <c r="B58" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>40947</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B59" t="s">
         <v>23</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>11</v>
       </c>
-      <c r="D58">
+      <c r="D59">
         <v>248</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="E59" t="s">
-        <v>74</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="60" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2872,10 +5210,10 @@
         <v>74</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>265</v>
+        <v>219</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>266</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2884,25 +5222,22 @@
         <v>74</v>
       </c>
       <c r="F61" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="E62" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="G61" s="8" t="s">
+      <c r="G62" s="8" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62" t="s">
-        <v>235</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2911,13 +5246,13 @@
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2929,10 +5264,10 @@
         <v>74</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>267</v>
+        <v>221</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2941,13 +5276,13 @@
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2956,13 +5291,13 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2971,13 +5306,13 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2986,13 +5321,13 @@
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3004,10 +5339,10 @@
         <v>74</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3019,10 +5354,10 @@
         <v>74</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3034,10 +5369,10 @@
         <v>74</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3049,10 +5384,10 @@
         <v>74</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3064,53 +5399,53 @@
         <v>74</v>
       </c>
       <c r="F73" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="G73" s="8" t="s">
+      <c r="G74" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+    <row r="75" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <v>41063</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B75" t="s">
         <v>217</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C75" t="s">
         <v>218</v>
       </c>
-      <c r="D74">
+      <c r="D75">
         <v>888</v>
       </c>
-      <c r="E74"/>
-    </row>
-    <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
       <c r="E75"/>
-      <c r="F75" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>54</v>
-      </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" t="s">
-        <v>43</v>
-      </c>
+      <c r="E76"/>
       <c r="F76" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3118,12 +5453,14 @@
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77"/>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
       <c r="F77" s="8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3133,10 +5470,10 @@
       <c r="D78"/>
       <c r="E78"/>
       <c r="F78" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3146,10 +5483,10 @@
       <c r="D79"/>
       <c r="E79"/>
       <c r="F79" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3157,14 +5494,12 @@
       <c r="B80"/>
       <c r="C80"/>
       <c r="D80"/>
-      <c r="E80" t="s">
-        <v>76</v>
-      </c>
+      <c r="E80"/>
       <c r="F80" s="8" t="s">
-        <v>176</v>
+        <v>59</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>177</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3176,41 +5511,41 @@
         <v>76</v>
       </c>
       <c r="F81" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82" t="s">
+        <v>76</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G81" s="8" t="s">
+      <c r="G82" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>41078</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>33</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>34</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>307</v>
       </c>
-      <c r="E82"/>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83" t="s">
-        <v>76</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="E83"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
@@ -3218,13 +5553,13 @@
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3233,13 +5568,13 @@
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3248,74 +5583,74 @@
       <c r="C86"/>
       <c r="D86"/>
       <c r="E86" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" t="s">
         <v>158</v>
       </c>
-      <c r="F86" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="G87" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
+    <row r="88" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>40972</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B88" t="s">
         <v>149</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C88" t="s">
         <v>150</v>
       </c>
-      <c r="D87">
+      <c r="D88">
         <v>287</v>
-      </c>
-      <c r="E87"/>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>41063</v>
-      </c>
-      <c r="B88" t="s">
-        <v>286</v>
-      </c>
-      <c r="C88" t="s">
-        <v>287</v>
-      </c>
-      <c r="D88">
-        <v>169</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
+        <v>41063</v>
+      </c>
+      <c r="B89" t="s">
+        <v>286</v>
+      </c>
+      <c r="C89" t="s">
+        <v>287</v>
+      </c>
+      <c r="D89">
+        <v>169</v>
+      </c>
+      <c r="E89"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
         <v>41018</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B90" t="s">
         <v>166</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C90" t="s">
         <v>167</v>
       </c>
-      <c r="D89">
+      <c r="D90">
         <v>355</v>
       </c>
-      <c r="E89"/>
-    </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90"/>
-      <c r="C90"/>
-      <c r="D90"/>
-      <c r="E90" t="s">
-        <v>43</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="G90" s="8" t="s">
-        <v>259</v>
-      </c>
+      <c r="E90"/>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
@@ -3326,10 +5661,10 @@
         <v>43</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3341,10 +5676,10 @@
         <v>43</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3356,10 +5691,10 @@
         <v>43</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3368,13 +5703,13 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3383,88 +5718,88 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>41063</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>180</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>14</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>225</v>
-      </c>
-      <c r="E96"/>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>40953</v>
-      </c>
-      <c r="B97" t="s">
-        <v>37</v>
-      </c>
-      <c r="C97" t="s">
-        <v>22</v>
-      </c>
-      <c r="D97">
-        <v>210</v>
       </c>
       <c r="E97"/>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
+        <v>40953</v>
+      </c>
+      <c r="B98" t="s">
+        <v>37</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>210</v>
+      </c>
+      <c r="E98"/>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
         <v>40956</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B99" t="s">
         <v>38</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C99" t="s">
         <v>39</v>
       </c>
-      <c r="D98">
+      <c r="D99">
         <v>50</v>
       </c>
-      <c r="E98"/>
-    </row>
-    <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99"/>
-      <c r="C99"/>
-      <c r="D99"/>
-      <c r="E99" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>42</v>
-      </c>
+      <c r="E99"/>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
-      <c r="E100" t="s">
-        <v>74</v>
+      <c r="E100" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3476,10 +5811,10 @@
         <v>74</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3491,10 +5826,10 @@
         <v>74</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3503,13 +5838,13 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3517,12 +5852,14 @@
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
-      <c r="E104"/>
+      <c r="E104" t="s">
+        <v>47</v>
+      </c>
       <c r="F104" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3532,41 +5869,39 @@
       <c r="D105"/>
       <c r="E105"/>
       <c r="F105" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G105" s="8" t="s">
+      <c r="G106" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
+    <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
         <v>40980</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B107" t="s">
         <v>17</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C107" t="s">
         <v>18</v>
       </c>
-      <c r="D106">
+      <c r="D107">
         <v>449</v>
       </c>
-      <c r="E106"/>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>105</v>
-      </c>
+      <c r="E107"/>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3"/>
@@ -3577,10 +5912,10 @@
         <v>74</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3592,10 +5927,10 @@
         <v>74</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3607,10 +5942,10 @@
         <v>74</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>155</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3622,58 +5957,58 @@
         <v>74</v>
       </c>
       <c r="F111" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G111" s="8" t="s">
+      <c r="G112" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3">
+    <row r="113" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
         <v>40966</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B113" t="s">
         <v>40</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>41</v>
       </c>
-      <c r="D112">
+      <c r="D113">
         <v>237</v>
       </c>
-      <c r="E112"/>
-    </row>
-    <row r="113" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113" t="s">
-        <v>43</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
       <c r="E114" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -3682,407 +6017,415 @@
         <v>74</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F118" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G118" s="8" t="s">
+      <c r="G119" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3">
+    <row r="120" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
         <v>41047</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B120" t="s">
         <v>183</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C120" t="s">
         <v>184</v>
       </c>
-      <c r="D119">
+      <c r="D120">
         <v>199</v>
       </c>
-      <c r="E119"/>
-    </row>
-    <row r="120" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>43</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E120"/>
+    </row>
+    <row r="121" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F121" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G122" s="8" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="122" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
+    <row r="123" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>40944</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>8</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>20</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>390</v>
       </c>
-      <c r="E122"/>
-    </row>
-    <row r="123" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="E123"/>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F124" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G124" s="8" t="s">
+      <c r="G125" s="8" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="E125" t="s">
-        <v>74</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="G125" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="E126" t="s">
         <v>74</v>
       </c>
       <c r="F126" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="E127" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G126" s="8" t="s">
+      <c r="G127" s="8" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="127" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3">
+    <row r="128" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
         <v>41046</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C128" t="s">
         <v>21</v>
       </c>
-      <c r="D127">
+      <c r="D128">
         <v>741</v>
       </c>
     </row>
-    <row r="128" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="19" t="s">
+    <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B128" s="19"/>
-      <c r="C128" s="19"/>
-      <c r="D128" s="19"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
-      <c r="I128" s="9"/>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
+      <c r="D129" s="19"/>
+      <c r="F129" s="9"/>
+      <c r="G129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="I129" s="9"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
         <v>40948</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>27</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>28</v>
-      </c>
-      <c r="D129">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3">
-        <v>40956</v>
-      </c>
-      <c r="B130" t="s">
-        <v>35</v>
-      </c>
-      <c r="C130" t="s">
-        <v>36</v>
       </c>
       <c r="D130">
         <v>20</v>
       </c>
     </row>
-    <row r="131" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="E131" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="G131" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>40956</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s">
+        <v>36</v>
+      </c>
+      <c r="D131">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="E132" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="E133" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F133" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="E134" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F134" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G133" s="8" t="s">
+      <c r="G134" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="134" spans="1:7" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3">
+    <row r="135" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
         <v>40967</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>63</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C135" t="s">
         <v>64</v>
       </c>
-      <c r="D134">
+      <c r="D135">
         <v>39</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
         <v>40954</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B136" t="s">
         <v>31</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C136" t="s">
         <v>32</v>
       </c>
-      <c r="D135">
+      <c r="D136">
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
         <v>40947</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>29</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C137" t="s">
         <v>30</v>
       </c>
-      <c r="D136">
+      <c r="D137">
         <v>69</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="5"/>
-      <c r="B137" s="6"/>
-      <c r="C137" s="6"/>
-      <c r="D137" s="6">
-        <f>SUM(D57:D136)</f>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="5"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="6"/>
+      <c r="D138" s="6">
+        <f>SUM(D58:D137)</f>
         <v>5162</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
-      <c r="E139" s="10" t="s">
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="E140" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F139" s="11" t="s">
+      <c r="F140" s="11" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="E140" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="E141" s="12" t="s">
-        <v>301</v>
+        <v>76</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="E142" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="E143" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="F142" s="13" t="s">
+      <c r="F143" s="13" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144"/>
       <c r="C144"/>
-      <c r="D144" t="s">
-        <v>232</v>
-      </c>
+      <c r="D144"/>
       <c r="E144" s="12" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
     </row>
     <row r="145" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145"/>
       <c r="C145"/>
-      <c r="D145"/>
+      <c r="D145" t="s">
+        <v>232</v>
+      </c>
       <c r="E145" s="12" t="s">
-        <v>72</v>
+        <v>233</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
       <c r="B146"/>
       <c r="C146"/>
       <c r="D146"/>
-      <c r="E146" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F146" s="15" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E146" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147"/>
       <c r="C147"/>
       <c r="D147"/>
-      <c r="E147"/>
+      <c r="E147" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="148" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
@@ -4161,8 +6504,12 @@
       <c r="D158"/>
       <c r="E158"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -4251,80 +6598,27 @@
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1888" s="16"/>
-      <c r="B1888" s="16"/>
-      <c r="C1888" s="16" t="s">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1889" s="16"/>
+      <c r="B1889" s="16"/>
+      <c r="C1889" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1888" s="16"/>
-      <c r="E1888" s="16">
+      <c r="D1889" s="16"/>
+      <c r="E1889" s="16">
         <v>736016.15</v>
       </c>
-      <c r="F1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1888" s="16">
+      <c r="F1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1889" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1888" s="16">
+      <c r="H1889" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1888" s="16"/>
-      <c r="M1888" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1888" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1888" s="16"/>
-      <c r="P1888" s="16"/>
-      <c r="Q1888" s="16"/>
-      <c r="R1888" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1888" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1888" s="16"/>
-      <c r="U1888" s="16"/>
-      <c r="V1888" s="16"/>
-      <c r="W1888" s="16"/>
-      <c r="X1888" s="16"/>
-    </row>
-    <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1889" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1889" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1889" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1889" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1889" s="16">
-        <v>72000</v>
-      </c>
-      <c r="F1889" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1889" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1889" s="16">
-        <v>72000</v>
       </c>
       <c r="I1889" s="16">
         <v>0</v>
@@ -4337,22 +6631,16 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="N1889" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1889" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1889" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1889" s="16" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1889" s="16"/>
+      <c r="P1889" s="16"/>
+      <c r="Q1889" s="16"/>
       <c r="R1889" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S1889" s="16" t="s">
         <v>304</v>
@@ -4365,28 +6653,28 @@
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1890" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1890" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1890" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D1890" s="16" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E1890" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="F1890" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1890" s="16">
-        <v>23519.38</v>
+        <v>2342.17</v>
       </c>
       <c r="H1890" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="I1890" s="16">
         <v>0</v>
@@ -4399,22 +6687,22 @@
       </c>
       <c r="L1890" s="16"/>
       <c r="M1890" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="N1890" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O1890" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P1890" s="16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q1890" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R1890" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S1890" s="16" t="s">
         <v>304</v>
@@ -4427,28 +6715,28 @@
     </row>
     <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1891" s="16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1891" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1891" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D1891" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E1891" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="F1891" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1891" s="16">
-        <v>161.66999999999999</v>
+        <v>23519.38</v>
       </c>
       <c r="H1891" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="I1891" s="16">
         <v>0</v>
@@ -4461,22 +6749,22 @@
       </c>
       <c r="L1891" s="16"/>
       <c r="M1891" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="N1891" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O1891" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1891" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1891" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1891" s="16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S1891" s="16" t="s">
         <v>304</v>
@@ -4489,28 +6777,28 @@
     </row>
     <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1892" s="16" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B1892" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1892" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D1892" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E1892" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="F1892" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1892" s="16">
-        <v>300.43</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1892" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="I1892" s="16">
         <v>0</v>
@@ -4523,22 +6811,22 @@
       </c>
       <c r="L1892" s="16"/>
       <c r="M1892" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="N1892" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O1892" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1892" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1892" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1892" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="S1892" s="16" t="s">
         <v>304</v>
@@ -4551,28 +6839,28 @@
     </row>
     <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1893" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B1893" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1893" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D1893" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E1893" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="F1893" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1893" s="16">
-        <v>388.74</v>
+        <v>300.43</v>
       </c>
       <c r="H1893" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="I1893" s="16">
         <v>0</v>
@@ -4585,22 +6873,22 @@
       </c>
       <c r="L1893" s="16"/>
       <c r="M1893" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="N1893" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O1893" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1893" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1893" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1893" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S1893" s="16" t="s">
         <v>304</v>
@@ -4613,28 +6901,28 @@
     </row>
     <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1894" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B1894" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1894" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D1894" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E1894" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="F1894" s="16">
-        <v>323.68</v>
+        <v>0</v>
       </c>
       <c r="G1894" s="16">
-        <v>450.44</v>
+        <v>388.74</v>
       </c>
       <c r="H1894" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="I1894" s="16">
         <v>0</v>
@@ -4647,22 +6935,22 @@
       </c>
       <c r="L1894" s="16"/>
       <c r="M1894" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="N1894" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O1894" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1894" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1894" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1894" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S1894" s="16" t="s">
         <v>304</v>
@@ -4675,28 +6963,28 @@
     </row>
     <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1895" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B1895" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1895" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D1895" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1895" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="F1895" s="16">
-        <v>0</v>
+        <v>323.68</v>
       </c>
       <c r="G1895" s="16">
-        <v>1997.29</v>
+        <v>450.44</v>
       </c>
       <c r="H1895" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="I1895" s="16">
         <v>0</v>
@@ -4709,22 +6997,22 @@
       </c>
       <c r="L1895" s="16"/>
       <c r="M1895" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="N1895" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O1895" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1895" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1895" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1895" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S1895" s="16" t="s">
         <v>304</v>
@@ -4737,23 +7025,31 @@
     </row>
     <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1896" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B1896" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1896" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1896" s="16" t="s">
+        <v>352</v>
+      </c>
       <c r="D1896" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1896" s="16"/>
-      <c r="F1896" s="16"/>
-      <c r="G1896" s="16"/>
+        <v>351</v>
+      </c>
+      <c r="E1896" s="16">
+        <v>61398</v>
+      </c>
+      <c r="F1896" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1896" s="16">
+        <v>1997.29</v>
+      </c>
       <c r="H1896" s="16">
-        <v>0</v>
+        <v>61398</v>
       </c>
       <c r="I1896" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1896" s="16">
         <v>0</v>
@@ -4763,16 +7059,26 @@
       </c>
       <c r="L1896" s="16"/>
       <c r="M1896" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1896" s="16"/>
+        <v>61398</v>
+      </c>
+      <c r="N1896" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="O1896" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1896" s="16"/>
-      <c r="Q1896" s="16"/>
-      <c r="R1896" s="16"/>
-      <c r="S1896" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1896" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1896" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1896" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1896" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1896" s="16"/>
       <c r="U1896" s="16"/>
       <c r="V1896" s="16"/>
@@ -4788,7 +7094,7 @@
       </c>
       <c r="C1897" s="16"/>
       <c r="D1897" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E1897" s="16"/>
       <c r="F1897" s="16"/>
@@ -4797,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="I1897" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="J1897" s="16">
         <v>0</v>
@@ -4807,7 +7113,7 @@
       </c>
       <c r="L1897" s="16"/>
       <c r="M1897" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="N1897" s="16"/>
       <c r="O1897" s="16" t="s">
@@ -4825,14 +7131,14 @@
     </row>
     <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1898" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1898" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C1898" s="16"/>
       <c r="D1898" s="16" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E1898" s="16"/>
       <c r="F1898" s="16"/>
@@ -4841,7 +7147,7 @@
         <v>0</v>
       </c>
       <c r="I1898" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="J1898" s="16">
         <v>0</v>
@@ -4851,7 +7157,7 @@
       </c>
       <c r="L1898" s="16"/>
       <c r="M1898" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="N1898" s="16"/>
       <c r="O1898" s="16" t="s">
@@ -4869,31 +7175,23 @@
     </row>
     <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1899" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1899" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1899" s="16" t="s">
-        <v>366</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1899" s="16"/>
       <c r="D1899" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1899" s="16">
-        <v>4200</v>
-      </c>
-      <c r="F1899" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1899" s="16">
-        <v>136.63</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E1899" s="16"/>
+      <c r="F1899" s="16"/>
+      <c r="G1899" s="16"/>
       <c r="H1899" s="16">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="I1899" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1899" s="16">
         <v>0</v>
@@ -4903,26 +7201,16 @@
       </c>
       <c r="L1899" s="16"/>
       <c r="M1899" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1899" s="16" t="s">
-        <v>368</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1899" s="16"/>
       <c r="O1899" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1899" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1899" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1899" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1899" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1899" s="16"/>
+      <c r="Q1899" s="16"/>
+      <c r="R1899" s="16"/>
+      <c r="S1899" s="16"/>
       <c r="T1899" s="16"/>
       <c r="U1899" s="16"/>
       <c r="V1899" s="16"/>
@@ -4931,28 +7219,28 @@
     </row>
     <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1900" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1900" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1900" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1900" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E1900" s="16">
-        <v>320000</v>
+        <v>4200</v>
       </c>
       <c r="F1900" s="16">
         <v>0</v>
       </c>
       <c r="G1900" s="16">
-        <v>650.6</v>
+        <v>136.63</v>
       </c>
       <c r="H1900" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="I1900" s="16">
         <v>0</v>
@@ -4965,22 +7253,22 @@
       </c>
       <c r="L1900" s="16"/>
       <c r="M1900" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="N1900" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O1900" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1900" s="16" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q1900" s="16" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R1900" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="S1900" s="16" t="s">
         <v>304</v>
@@ -4993,28 +7281,28 @@
     </row>
     <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1901" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1901" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1901" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D1901" s="16" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E1901" s="16">
-        <v>2409</v>
+        <v>320000</v>
       </c>
       <c r="F1901" s="16">
         <v>0</v>
       </c>
       <c r="G1901" s="16">
-        <v>78.37</v>
+        <v>650.6</v>
       </c>
       <c r="H1901" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="I1901" s="16">
         <v>0</v>
@@ -5027,22 +7315,22 @@
       </c>
       <c r="L1901" s="16"/>
       <c r="M1901" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="N1901" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O1901" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1901" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1901" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1901" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S1901" s="16" t="s">
         <v>304</v>
@@ -5055,28 +7343,28 @@
     </row>
     <row r="1902" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1902" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B1902" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1902" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D1902" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E1902" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="F1902" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1902" s="16">
-        <v>11758.05</v>
+        <v>78.37</v>
       </c>
       <c r="H1902" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="I1902" s="16">
         <v>0</v>
@@ -5089,22 +7377,22 @@
       </c>
       <c r="L1902" s="16"/>
       <c r="M1902" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="N1902" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O1902" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1902" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1902" s="16" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="R1902" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S1902" s="16" t="s">
         <v>304</v>
@@ -5117,28 +7405,28 @@
     </row>
     <row r="1903" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1903" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1903" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1903" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1903" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1903" s="16">
-        <v>477000</v>
+        <v>361450.61</v>
       </c>
       <c r="F1903" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1903" s="16">
-        <v>1073.5</v>
+        <v>11758.05</v>
       </c>
       <c r="H1903" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="I1903" s="16">
         <v>0</v>
@@ -5151,10 +7439,10 @@
       </c>
       <c r="L1903" s="16"/>
       <c r="M1903" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="N1903" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O1903" s="16" t="s">
         <v>311</v>
@@ -5163,9 +7451,11 @@
         <v>382</v>
       </c>
       <c r="Q1903" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1903" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="R1903" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="S1903" s="16" t="s">
         <v>304</v>
       </c>
@@ -5177,28 +7467,28 @@
     </row>
     <row r="1904" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1904" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B1904" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1904" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D1904" s="16" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E1904" s="16">
-        <v>8223</v>
+        <v>477000</v>
       </c>
       <c r="F1904" s="16">
         <v>0</v>
       </c>
       <c r="G1904" s="16">
-        <v>267.5</v>
+        <v>1073.5</v>
       </c>
       <c r="H1904" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="I1904" s="16">
         <v>0</v>
@@ -5211,23 +7501,21 @@
       </c>
       <c r="L1904" s="16"/>
       <c r="M1904" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="N1904" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O1904" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1904" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1904" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1904" s="16" t="s">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1904" s="16"/>
       <c r="S1904" s="16" t="s">
         <v>304</v>
       </c>
@@ -5239,28 +7527,28 @@
     </row>
     <row r="1905" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1905" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1905" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1905" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D1905" s="16" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="E1905" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="F1905" s="16">
         <v>0</v>
       </c>
       <c r="G1905" s="16">
-        <v>406.63</v>
+        <v>267.5</v>
       </c>
       <c r="H1905" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="I1905" s="16">
         <v>0</v>
@@ -5273,22 +7561,22 @@
       </c>
       <c r="L1905" s="16"/>
       <c r="M1905" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="N1905" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O1905" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1905" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1905" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1905" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S1905" s="16" t="s">
         <v>304</v>
@@ -5301,28 +7589,28 @@
     </row>
     <row r="1906" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1906" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B1906" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1906" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D1906" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1906" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="F1906" s="16">
         <v>0</v>
       </c>
       <c r="G1906" s="16">
-        <v>3366.87</v>
+        <v>406.63</v>
       </c>
       <c r="H1906" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="I1906" s="16">
         <v>0</v>
@@ -5335,22 +7623,22 @@
       </c>
       <c r="L1906" s="16"/>
       <c r="M1906" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="N1906" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O1906" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1906" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1906" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1906" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S1906" s="16" t="s">
         <v>304</v>
@@ -5363,28 +7651,28 @@
     </row>
     <row r="1907" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1907" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1907" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1907" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D1907" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E1907" s="16">
-        <v>1381.76</v>
+        <v>103500</v>
       </c>
       <c r="F1907" s="16">
-        <v>33.200000000000003</v>
+        <v>0</v>
       </c>
       <c r="G1907" s="16">
-        <v>44.95</v>
+        <v>3366.87</v>
       </c>
       <c r="H1907" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="I1907" s="16">
         <v>0</v>
@@ -5397,22 +7685,22 @@
       </c>
       <c r="L1907" s="16"/>
       <c r="M1907" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="N1907" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O1907" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1907" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1907" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1907" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="S1907" s="16" t="s">
         <v>304</v>
@@ -5425,28 +7713,28 @@
     </row>
     <row r="1908" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1908" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1908" s="16" t="s">
         <v>407</v>
       </c>
       <c r="C1908" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D1908" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E1908" s="16">
-        <v>1400</v>
+        <v>1381.76</v>
       </c>
       <c r="F1908" s="16">
-        <v>0</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="G1908" s="16">
-        <v>45.54</v>
+        <v>44.95</v>
       </c>
       <c r="H1908" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="I1908" s="16">
         <v>0</v>
@@ -5459,22 +7747,22 @@
       </c>
       <c r="L1908" s="16"/>
       <c r="M1908" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="N1908" s="16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O1908" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1908" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1908" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1908" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="S1908" s="16" t="s">
         <v>304</v>
@@ -5486,38 +7774,100 @@
       <c r="X1908" s="16"/>
     </row>
     <row r="1909" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1909" t="s">
+      <c r="A1909" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1909" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1909" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1909" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1909" s="16">
+        <v>1400</v>
+      </c>
+      <c r="F1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1909" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1909" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1909" s="16"/>
+      <c r="M1909" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1909" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1909" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1909" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1909" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1909" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1909" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1909" s="16"/>
+      <c r="U1909" s="16"/>
+      <c r="V1909" s="16"/>
+      <c r="W1909" s="16"/>
+      <c r="X1909" s="16"/>
+    </row>
+    <row r="1910" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1910" t="s">
         <v>417</v>
       </c>
-      <c r="B1909" t="s">
+      <c r="B1910" t="s">
         <v>407</v>
       </c>
-      <c r="D1909" t="s">
+      <c r="D1910" t="s">
         <v>418</v>
       </c>
-      <c r="O1909" t="s">
+      <c r="O1910" t="s">
         <v>327</v>
       </c>
-      <c r="P1909" t="s">
+      <c r="P1910" t="s">
         <v>328</v>
       </c>
-      <c r="Q1909" t="s">
+      <c r="Q1910" t="s">
         <v>329</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X136"/>
+  <autoFilter ref="A3:X137"/>
   <mergeCells count="3">
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A128:D128"/>
-    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A129:D129"/>
+    <mergeCell ref="A50:D50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
@@ -7449,30 +9799,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$102</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="596">
   <si>
     <t>дата</t>
   </si>
@@ -1508,11 +1508,344 @@
   <si>
     <t>Загрузка документов из 1С</t>
   </si>
+  <si>
+    <t>запускается с клавиатуры</t>
+  </si>
+  <si>
+    <t>GetReslines(x,LoadMode)</t>
+  </si>
+  <si>
+    <t>извлечение размера пятки из х с учетом контекста LoadMode</t>
+  </si>
+  <si>
+    <t>ChechStamp(iTOC,[NewRep],[NewRepEOL],[InSF])</t>
+  </si>
+  <si>
+    <t>WrTOC([Name])</t>
+  </si>
+  <si>
+    <t>InsMyCol(F,[FS])</t>
+  </si>
+  <si>
+    <t>вставляем колонки в лист слева по шаблону в F и пятку из FS</t>
+  </si>
+  <si>
+    <t>testsetColWidth()</t>
+  </si>
+  <si>
+    <t>отладка setColWidth</t>
+  </si>
+  <si>
+    <t>setColWidth(file, sheet, col, range, width)</t>
+  </si>
+  <si>
+    <t>устанавливает ширину i-й колонки листа</t>
+  </si>
+  <si>
+    <t>вызывается кнопкой на листе</t>
+  </si>
+  <si>
+    <t>AutoFilterReset(SheetN)</t>
+  </si>
+  <si>
+    <t>-?</t>
+  </si>
+  <si>
+    <t>подпрограмма сброса и взвода фильтра  листа SheetN</t>
+  </si>
+  <si>
+    <t>S ?</t>
+  </si>
+  <si>
+    <t>x?</t>
+  </si>
+  <si>
+    <t>Sub SheetsCtrlH(SheetN, FromStr, ToStr)</t>
+  </si>
+  <si>
+    <t>подпрограмма замены (Ctrl/H) строки FromStr на ToStr в листе SheetN</t>
+  </si>
+  <si>
+    <t>Подпрограмма форматирования %</t>
+  </si>
+  <si>
+    <t>- ?</t>
+  </si>
+  <si>
+    <t>форматирование валюты Cur в ячейке [Row,Col]</t>
+  </si>
+  <si>
+    <t>CurRate(Cur)</t>
+  </si>
+  <si>
+    <t>курс валюты Cur к рублю по таблице в We</t>
+  </si>
+  <si>
+    <t>CurISO(Cur1C)</t>
+  </si>
+  <si>
+    <t>возвращает код валюты в стандарте ISO, преобразовав его из вида 1С</t>
+  </si>
+  <si>
+    <t>DDMMYYYY(D)</t>
+  </si>
+  <si>
+    <t>GetDate(txt)</t>
+  </si>
+  <si>
+    <t>преобразование строки txt в дату</t>
+  </si>
+  <si>
+    <t>tGetDate</t>
+  </si>
+  <si>
+    <t>тест GetDate</t>
+  </si>
+  <si>
+    <t>преобразование числа а в текстовый формат с десятичной точкой</t>
+  </si>
+  <si>
+    <t>EOL(SheetN,[F])</t>
+  </si>
+  <si>
+    <t>возвращает количество строк в листе SheetN файла F</t>
+  </si>
+  <si>
+    <t>RowDel(RowStr)</t>
+  </si>
+  <si>
+    <t>удаляет строки активного листа в соответствии с RowStr</t>
+  </si>
+  <si>
+    <t>CSmatch(Val, Col)</t>
+  </si>
+  <si>
+    <t>Case Sensitive match возвращает номер строки с Val в колонке Col</t>
+  </si>
+  <si>
+    <t>testCSmatch()</t>
+  </si>
+  <si>
+    <t>тест Csmatch</t>
+  </si>
+  <si>
+    <t>CSmatchSht(Val, Col, sht,[FromN])</t>
+  </si>
+  <si>
+    <t>CSmatch возвращает номер строки с Val в колонке Col для листа sht</t>
+  </si>
+  <si>
+    <t>SheetExists(SheetName)</t>
+  </si>
+  <si>
+    <t>проверка, что лист SheetName доступен</t>
+  </si>
+  <si>
+    <t>Сортируем лист SheetN по колонке Col</t>
+  </si>
+  <si>
+    <t>Полная очистка SheetN и перенос в него заголовка из листа Нeader.HDR_Range</t>
+  </si>
+  <si>
+    <t>SheetDedup2(SheetN, ColSort, ColAcc, ColIdSF)</t>
+  </si>
+  <si>
+    <t>Дедупликация листа SheetN по колонке Col с сортировкой по этой колонке</t>
+  </si>
+  <si>
+    <t>Дедупликация SheetN по колонке Col, значения ColAcc и ColIdSF сливем с "+"</t>
+  </si>
+  <si>
+    <t>DateCol(SheetN,Col)</t>
+  </si>
+  <si>
+    <t>преобразование колонки Col в листе SheetN из текста вида DD.MM.YY в формат Date</t>
+  </si>
+  <si>
+    <t>DateSort(SheetN, Col)</t>
+  </si>
+  <si>
+    <t>преобразование колонки Col из текста в Date  и сортировка по этой колонке</t>
+  </si>
+  <si>
+    <t>х?</t>
+  </si>
+  <si>
+    <t>HideLns(FrR, ToR, Col, [Criteria],[HideFlag])</t>
+  </si>
+  <si>
+    <t>скрывает (Hide) строки листа, удовлетворяющие Criteria</t>
+  </si>
+  <si>
+    <t>Progress(Pct)</t>
+  </si>
+  <si>
+    <t>аварийное завершение процесса - вызывается по Событию FATAL ERROR</t>
+  </si>
+  <si>
+    <t>StopSub()</t>
+  </si>
+  <si>
+    <t>RemDelimiters(S)</t>
+  </si>
+  <si>
+    <t>удаление лишних пробелов внутри строки</t>
+  </si>
+  <si>
+    <t>testFindInLst()</t>
+  </si>
+  <si>
+    <t>отладка FindInLst(W,Lst)</t>
+  </si>
+  <si>
+    <t>FindInLst(W, Lst)</t>
+  </si>
+  <si>
+    <t>определяет есть ли слово из текста W в списке Lst</t>
+  </si>
+  <si>
+    <t>отладка testFindInDIC()</t>
+  </si>
+  <si>
+    <t>FindInDIC(W,Dic)</t>
+  </si>
+  <si>
+    <t>- ??</t>
+  </si>
+  <si>
+    <t>определяет есть ли слово из текста W в словаре Dic</t>
+  </si>
+  <si>
+    <t>ScreenUpdate(TurnOn)</t>
+  </si>
+  <si>
+    <t>switch off Screen Update if TurnOn = False</t>
+  </si>
+  <si>
+    <t>testpatTes</t>
+  </si>
+  <si>
+    <t>отладка patTeas</t>
+  </si>
+  <si>
+    <t>patTest(longTxt, pat)</t>
+  </si>
+  <si>
+    <t>проверка на соответствие longTxt регулярному выражению pat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Общая загрузка документов </t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>MoveInMatch()</t>
+  </si>
+  <si>
+    <t>перенос входного Документа в базу и запуск Loader'а</t>
+  </si>
+  <si>
+    <t>StepOut()</t>
+  </si>
+  <si>
+    <t>завершение выполнения Шага с записью в TOCmatch</t>
+  </si>
+  <si>
+    <t>ToProcEnd(iProc)</t>
+  </si>
+  <si>
+    <t>позиционирование на &lt;*&gt;ProcEnd</t>
+  </si>
+  <si>
+    <t>WrProcResult(NewLine)</t>
+  </si>
+  <si>
+    <t>запись результата Шага в колонку PrevSter Процесса</t>
+  </si>
+  <si>
+    <t>CheckProc0(NewProcResult)</t>
+  </si>
+  <si>
+    <t>проверка, что Процесс не нашел "автоматических" записей WrProcResult</t>
+  </si>
+  <si>
+    <t>-/S</t>
+  </si>
+  <si>
+    <t>MergeReps(iProc)</t>
+  </si>
+  <si>
+    <t>слияние "полных" отчетов "_OLD" и "новых" - Update'ов по &lt;*&gt;ProcEnd</t>
+  </si>
+  <si>
+    <t>AdaptEngine</t>
+  </si>
+  <si>
+    <t>процессор Адаптеров</t>
+  </si>
+  <si>
+    <t>WrNewSheet(SheetNew, SheetDB, DB_Line[,IdOpp])</t>
+  </si>
+  <si>
+    <t>записывает новый рекорд в лист SheetNew из строки DB_Line листа SheetDB</t>
+  </si>
+  <si>
+    <t>xAdapt(F, iLine)</t>
+  </si>
+  <si>
+    <t>запускает Адаптеры из формы F, по строке номер iLine</t>
+  </si>
+  <si>
+    <t>продолжение работы xAdapt после нажатия кнопки Button</t>
+  </si>
+  <si>
+    <t>xAdapt_Continue(Button,iRow)</t>
+  </si>
+  <si>
+    <t>Adapt(F,[FromDoc],[ToDoc])</t>
+  </si>
+  <si>
+    <t>Adater(Request, X, F_rqst, IsErr,[][][])</t>
+  </si>
+  <si>
+    <t>обрабатывает X в Адаптере "Request"с данными в F_rqst. IsErr - ошибка</t>
+  </si>
+  <si>
+    <t>запускает Адаптеры из формы F, осуществляя проход по Документу</t>
+  </si>
+  <si>
+    <t>AdapterWP(AdapterName, X, Par)</t>
+  </si>
+  <si>
+    <t>обработка Адаптеров для Шаблонов WP</t>
+  </si>
+  <si>
+    <t>ArrayZ(Z(), Doc, iRow, Par())</t>
+  </si>
+  <si>
+    <t>по массиву номеров колонок в Par возвращает в массив Z()</t>
+  </si>
+  <si>
+    <t>X_Parse(iRow, iCol [, PutToRow, PutToCol, iLine])</t>
+  </si>
+  <si>
+    <t>разбор строки Х - параметра Адаптера</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fmtCell(db,list,fmt()Value,putToRowputToCol)</t>
+  </si>
+  <si>
+    <t>обработка формата в строке width вида 0/Txt или 10/@</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1724,7 +2057,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1772,6 +2105,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2079,10 +2417,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1819"/>
+  <dimension ref="A1:X1873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2141,100 +2479,111 @@
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="27">
+        <v>41503</v>
+      </c>
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="E5" s="7" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>443</v>
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="27">
+        <v>41137</v>
+      </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="7" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>41160</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C7" t="s">
-        <v>445</v>
-      </c>
-      <c r="D7">
-        <v>99</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8" t="s">
-        <v>444</v>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>41153</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>428</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="27">
+        <v>41153</v>
+      </c>
+      <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>433</v>
+      <c r="F8" s="17" t="s">
+        <v>464</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>446</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="27">
+        <v>41497</v>
+      </c>
+      <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
       <c r="E9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>447</v>
+      <c r="F9" s="17" t="s">
+        <v>565</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>448</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="27">
+        <v>41497</v>
+      </c>
+      <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>440</v>
+      <c r="F10" s="17" t="s">
+        <v>430</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="27">
+        <v>41182</v>
+      </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
@@ -2242,14 +2591,16 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>434</v>
+        <v>567</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>435</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="27">
+        <v>41182</v>
+      </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
@@ -2257,14 +2608,16 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="27">
+        <v>41224</v>
+      </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -2272,135 +2625,150 @@
         <v>452</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="27">
+        <v>41183</v>
+      </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>455</v>
+        <v>571</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>456</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="27">
+        <v>41504</v>
+      </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="7" t="s">
-        <v>74</v>
+      <c r="E15" s="25" t="s">
+        <v>573</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>459</v>
+        <v>574</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>460</v>
+        <v>575</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="27">
+        <v>41504</v>
+      </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
       <c r="E16" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>83</v>
+        <v>466</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>461</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>41503</v>
+      </c>
+      <c r="B17" t="s">
+        <v>422</v>
+      </c>
+      <c r="C17" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17">
+        <v>423</v>
+      </c>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>41395</v>
+      </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="27">
+        <v>41293</v>
+      </c>
       <c r="B19"/>
       <c r="C19"/>
       <c r="D19"/>
       <c r="E19" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>41179</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20">
-        <v>1064</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+        <v>74</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>580</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>41223</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>41396</v>
+      </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>424</v>
+        <v>584</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+        <v>587</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>41497</v>
+      </c>
       <c r="B22"/>
       <c r="C22"/>
       <c r="D22"/>
@@ -2408,14 +2776,16 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>426</v>
+        <v>585</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+        <v>586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="27">
+        <v>41279</v>
+      </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
@@ -2423,14 +2793,16 @@
         <v>74</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>428</v>
+        <v>588</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="27">
+        <v>41278</v>
+      </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
@@ -2438,29 +2810,33 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>430</v>
+        <v>590</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="27">
+        <v>41228</v>
+      </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>462</v>
+        <v>592</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+        <v>593</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="27">
+        <v>41217</v>
+      </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
@@ -2468,1868 +2844,2779 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="27">
+        <v>41260</v>
+      </c>
       <c r="B27"/>
       <c r="C27"/>
       <c r="D27"/>
       <c r="E27" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>466</v>
+        <v>594</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29"/>
-      <c r="C29"/>
-      <c r="D29"/>
-      <c r="E29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>41183</v>
-      </c>
-      <c r="B30" t="s">
-        <v>422</v>
-      </c>
-      <c r="C30" t="s">
-        <v>423</v>
-      </c>
-      <c r="D30">
-        <v>543</v>
-      </c>
-      <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>41312</v>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>41497</v>
+      </c>
+      <c r="B28" t="s">
+        <v>576</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D28">
+        <v>1025</v>
+      </c>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>41504</v>
+      </c>
+      <c r="B29" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29">
+        <v>580</v>
+      </c>
+      <c r="E29"/>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>41162</v>
+      </c>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>41062</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>473</v>
+        <v>301</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>420</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>41217</v>
-      </c>
-      <c r="B32"/>
-      <c r="C32"/>
-      <c r="D32"/>
-      <c r="E32" s="7" t="s">
-        <v>472</v>
-      </c>
+        <v>41160</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32">
+        <v>99</v>
+      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="8" t="s">
-        <v>476</v>
+        <v>444</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>41166</v>
-      </c>
-      <c r="B33"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>41504</v>
+      </c>
       <c r="C33"/>
       <c r="D33"/>
       <c r="E33" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>479</v>
+        <v>433</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <v>41135</v>
-      </c>
-      <c r="B34"/>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>41504</v>
+      </c>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>41152</v>
-      </c>
-      <c r="B35"/>
+        <v>488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>41130</v>
+      </c>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" s="7" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>483</v>
+        <v>447</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>41473</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>485</v>
-      </c>
-      <c r="D36">
-        <v>181</v>
-      </c>
-      <c r="E36" s="7"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>41469</v>
+      </c>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>489</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="27">
+        <v>41116</v>
+      </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>132</v>
+        <v>74</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>450</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>134</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38"/>
+      <c r="A38" s="27">
+        <v>41501</v>
+      </c>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>133</v>
+        <v>490</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>135</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="27">
+        <v>41302</v>
+      </c>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>293</v>
+        <v>501</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>491</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>294</v>
+        <v>492</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40"/>
+      <c r="A40" s="27">
+        <v>41286</v>
+      </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="7" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>295</v>
+        <v>493</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>296</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41"/>
+      <c r="A41" s="27">
+        <v>41302</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>92</v>
+        <v>495</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>148</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
+      <c r="A42" s="27">
+        <v>41071</v>
+      </c>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
       <c r="E42" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>297</v>
+        <v>74</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>455</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>298</v>
+        <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="27">
+        <v>41060</v>
+      </c>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
       <c r="E43" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>299</v>
+      <c r="F43" s="17" t="s">
+        <v>459</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <v>41086</v>
-      </c>
-      <c r="B44" t="s">
-        <v>290</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44">
-        <v>334</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>41472</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="27">
+        <v>40958</v>
+      </c>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>120</v>
+      <c r="F45" s="17" t="s">
+        <v>461</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="27">
+        <v>41258</v>
+      </c>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>122</v>
+      <c r="E46" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="F46" s="17" t="s">
+        <v>498</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>123</v>
+        <v>500</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
+      <c r="A47" s="27">
+        <v>40935</v>
+      </c>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>124</v>
+      <c r="E47" s="25" t="s">
+        <v>502</v>
+      </c>
+      <c r="F47" s="17" t="s">
+        <v>503</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>128</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="27">
+        <v>40934</v>
+      </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>125</v>
+      <c r="E48" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F48" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>41110</v>
-      </c>
-      <c r="B49" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49">
-        <v>276</v>
-      </c>
-      <c r="E49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="5"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6">
-        <f>SUM(D4:D49)</f>
-        <v>2497</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="E52" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>40928</v>
+      </c>
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>41156</v>
+      </c>
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="G50" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>41536</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>510</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>41267</v>
+      </c>
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="G52" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
+        <v>41267</v>
+      </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="E53" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="G53" s="8" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="27">
+        <v>41267</v>
+      </c>
       <c r="B54"/>
       <c r="C54"/>
-      <c r="D54" t="s">
-        <v>232</v>
-      </c>
-      <c r="E54" s="22" t="s">
-        <v>200</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="D54"/>
+      <c r="E54" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F54" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="G54" s="8" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="27">
+        <v>40953</v>
+      </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F55" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="3"/>
+      <c r="E55" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="G55" s="8" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="27">
+        <v>41141</v>
+      </c>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
+      <c r="E56" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G56" s="8" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="27">
+        <v>41146</v>
+      </c>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="7"/>
-    </row>
-    <row r="58" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="E57" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G57" s="8" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27">
+        <v>41098</v>
+      </c>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" s="7"/>
-    </row>
-    <row r="59" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="E58" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F58" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="G58" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="27">
+        <v>41098</v>
+      </c>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="E59" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F59" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="G59" s="8" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="27">
+        <v>41248</v>
+      </c>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="7"/>
-    </row>
-    <row r="61" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="E60" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F60" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27">
+        <v>41504</v>
+      </c>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="7"/>
-    </row>
-    <row r="62" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
+      <c r="E61" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F61" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="27">
+        <v>41072</v>
+      </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="7"/>
-    </row>
-    <row r="63" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="E62" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="F62" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="27">
+        <v>41018</v>
+      </c>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="7"/>
-    </row>
-    <row r="64" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="E63" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F63" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="27">
+        <v>41018</v>
+      </c>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="7"/>
-    </row>
-    <row r="65" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="E64" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="27">
+        <v>41236</v>
+      </c>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="7"/>
-    </row>
-    <row r="66" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="E65" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F65" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="27">
+        <v>41277</v>
+      </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="7"/>
-    </row>
-    <row r="67" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
+      <c r="E66" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F66" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="27">
+        <v>41152</v>
+      </c>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="7"/>
-    </row>
-    <row r="68" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="E67" s="25" t="s">
+        <v>506</v>
+      </c>
+      <c r="F67" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="27">
+        <v>40943</v>
+      </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="7"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="E68" s="25" t="s">
+        <v>539</v>
+      </c>
+      <c r="F68" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27">
+        <v>41152</v>
+      </c>
+      <c r="B69"/>
+      <c r="C69"/>
+      <c r="D69"/>
+      <c r="E69" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F69" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="G69" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="27"/>
+      <c r="B70"/>
+      <c r="C70"/>
+      <c r="D70"/>
+      <c r="E70" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="G70" s="8" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="27">
+        <v>41018</v>
+      </c>
+      <c r="B71"/>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F71" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="G71" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27">
+        <v>41067</v>
+      </c>
+      <c r="B72"/>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F72" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72" s="8" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="27">
+        <v>41053</v>
+      </c>
+      <c r="B73"/>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F73" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" s="8" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="27">
+        <v>41053</v>
+      </c>
+      <c r="B74"/>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F74" s="17" t="s">
+        <v>549</v>
+      </c>
+      <c r="G74" s="8" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="27">
+        <v>41036</v>
+      </c>
+      <c r="B75"/>
+      <c r="C75"/>
+      <c r="D75"/>
+      <c r="E75" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="G75" s="8" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="27">
+        <v>41053</v>
+      </c>
+      <c r="B76"/>
+      <c r="C76"/>
+      <c r="D76"/>
+      <c r="E76" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="27">
+        <v>41036</v>
+      </c>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G77" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="27">
+        <v>41221</v>
+      </c>
+      <c r="B78"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F78" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G78" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="27"/>
+      <c r="B79"/>
+      <c r="C79"/>
+      <c r="D79"/>
+      <c r="E79" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" s="8" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="27">
+        <v>41272</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>559</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>41504</v>
+      </c>
+      <c r="B81" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>303</v>
+      </c>
+      <c r="D81">
+        <v>1278</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="26"/>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
+        <v>41504</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>41504</v>
+      </c>
+      <c r="B83" t="s">
+        <v>419</v>
+      </c>
+      <c r="C83" t="s">
+        <v>561</v>
+      </c>
+      <c r="D83">
+        <v>241</v>
+      </c>
+      <c r="E83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
+        <v>41312</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="27">
+        <v>41217</v>
+      </c>
+      <c r="B85"/>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>41166</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="27">
+        <v>41135</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
+        <v>41152</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B89" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" t="s">
+        <v>485</v>
+      </c>
+      <c r="D89">
+        <v>181</v>
+      </c>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90"/>
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91"/>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93"/>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="G93" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G96" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B97" t="s">
+        <v>290</v>
+      </c>
+      <c r="C97" t="s">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>334</v>
+      </c>
+      <c r="E97" s="7"/>
+    </row>
+    <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
-    </row>
-    <row r="1798" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1798" s="16"/>
-      <c r="B1798" s="16"/>
-      <c r="C1798" s="16" t="s">
+      <c r="B98"/>
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G98" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99"/>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>41110</v>
+      </c>
+      <c r="B102" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" t="s">
+        <v>12</v>
+      </c>
+      <c r="D102">
+        <v>276</v>
+      </c>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6">
+        <f>SUM(D4:D102)</f>
+        <v>4437</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="E105" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="F105" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106" s="22" t="s">
+        <v>158</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107" t="s">
+        <v>232</v>
+      </c>
+      <c r="E107" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108"/>
+      <c r="C108"/>
+      <c r="D108"/>
+      <c r="E108" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109"/>
+      <c r="C109"/>
+      <c r="D109"/>
+      <c r="E109" s="22" t="s">
+        <v>200</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110"/>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111" s="23" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112"/>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112" s="7"/>
+    </row>
+    <row r="113" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" s="7"/>
+    </row>
+    <row r="114" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114" s="7"/>
+    </row>
+    <row r="115" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115"/>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116" s="7"/>
+    </row>
+    <row r="117" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117"/>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119"/>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119" s="7"/>
+    </row>
+    <row r="120" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" s="7"/>
+    </row>
+    <row r="121" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" s="7"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="1851" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1851" s="16"/>
+      <c r="B1851" s="16"/>
+      <c r="C1851" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1798" s="16"/>
-      <c r="E1798" s="24">
+      <c r="D1851" s="16"/>
+      <c r="G1851" s="16">
+        <v>23942.73</v>
+      </c>
+      <c r="H1851" s="16">
         <v>736016.15</v>
       </c>
-      <c r="F1798" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1798" s="16">
-        <v>23942.73</v>
-      </c>
-      <c r="H1798" s="16">
+      <c r="I1851" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1851" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1851" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1851" s="16"/>
+      <c r="M1851" s="16">
         <v>736016.15</v>
       </c>
-      <c r="I1798" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1798" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1798" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1798" s="16"/>
-      <c r="M1798" s="16">
+      <c r="N1851" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1851" s="16"/>
+      <c r="P1851" s="16"/>
+      <c r="Q1851" s="16"/>
+      <c r="R1851" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1851" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1851" s="16"/>
+      <c r="U1851" s="16"/>
+      <c r="V1851" s="16"/>
+      <c r="W1851" s="16"/>
+      <c r="X1851" s="16"/>
+    </row>
+    <row r="1852" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1852" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1852" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1852" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1852" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1852" s="16">
+        <v>2342.17</v>
+      </c>
+      <c r="H1852" s="16">
+        <v>72000</v>
+      </c>
+      <c r="I1852" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1852" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1852" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1852" s="16"/>
+      <c r="M1852" s="16">
+        <v>72000</v>
+      </c>
+      <c r="N1852" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1852" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1852" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1852" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1852" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1852" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1852" s="16"/>
+      <c r="U1852" s="16"/>
+      <c r="V1852" s="16"/>
+      <c r="W1852" s="16"/>
+      <c r="X1852" s="16"/>
+    </row>
+    <row r="1853" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1853" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1853" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1853" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1853" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1853" s="24">
         <v>736016.15</v>
       </c>
-      <c r="N1798" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1798" s="16"/>
-      <c r="P1798" s="16"/>
-      <c r="Q1798" s="16"/>
-      <c r="R1798" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1798" s="16" t="s">
+      <c r="F1853" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1853" s="16">
+        <v>23519.38</v>
+      </c>
+      <c r="H1853" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="I1853" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1853" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1853" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1853" s="16"/>
+      <c r="M1853" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="N1853" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1853" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1853" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1853" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1853" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1853" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1798" s="16"/>
-      <c r="U1798" s="16"/>
-      <c r="V1798" s="16"/>
-      <c r="W1798" s="16"/>
-      <c r="X1798" s="16"/>
-    </row>
-    <row r="1799" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1799" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1799" s="16" t="s">
+      <c r="T1853" s="16"/>
+      <c r="U1853" s="16"/>
+      <c r="V1853" s="16"/>
+      <c r="W1853" s="16"/>
+      <c r="X1853" s="16"/>
+    </row>
+    <row r="1854" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1854" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1854" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1799" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1799" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="E1799" s="24">
+      <c r="C1854" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1854" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1854" s="24">
         <v>72000</v>
       </c>
-      <c r="F1799" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1799" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1799" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1799" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1799" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1799" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1799" s="16"/>
-      <c r="M1799" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1799" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1799" s="16" t="s">
+      <c r="F1854" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1854" s="16">
+        <v>161.66999999999999</v>
+      </c>
+      <c r="H1854" s="16">
+        <v>4970</v>
+      </c>
+      <c r="I1854" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1854" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1854" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1854" s="16"/>
+      <c r="M1854" s="16">
+        <v>4970</v>
+      </c>
+      <c r="N1854" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="O1854" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1854" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1854" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1854" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1854" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1854" s="16"/>
+      <c r="U1854" s="16"/>
+      <c r="V1854" s="16"/>
+      <c r="W1854" s="16"/>
+      <c r="X1854" s="16"/>
+    </row>
+    <row r="1855" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1855" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1855" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1855" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1855" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1855" s="24">
+        <v>723002.17</v>
+      </c>
+      <c r="F1855" s="16">
+        <v>16900.55</v>
+      </c>
+      <c r="G1855" s="16">
+        <v>300.43</v>
+      </c>
+      <c r="H1855" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="I1855" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1855" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1855" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1855" s="16"/>
+      <c r="M1855" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="N1855" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1855" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1855" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1855" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1855" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1855" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1855" s="16"/>
+      <c r="U1855" s="16"/>
+      <c r="V1855" s="16"/>
+      <c r="W1855" s="16"/>
+      <c r="X1855" s="16"/>
+    </row>
+    <row r="1856" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1856" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1856" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1856" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1856" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1856" s="24">
+        <v>4970</v>
+      </c>
+      <c r="F1856" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1856" s="16">
+        <v>388.74</v>
+      </c>
+      <c r="H1856" s="16">
+        <v>11950</v>
+      </c>
+      <c r="I1856" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1856" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1856" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1856" s="16"/>
+      <c r="M1856" s="16">
+        <v>11950</v>
+      </c>
+      <c r="N1856" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1856" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1856" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1856" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1856" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1856" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1856" s="16"/>
+      <c r="U1856" s="16"/>
+      <c r="V1856" s="16"/>
+      <c r="W1856" s="16"/>
+      <c r="X1856" s="16"/>
+    </row>
+    <row r="1857" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1857" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1857" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1857" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1857" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1857" s="24">
+        <v>9235.48</v>
+      </c>
+      <c r="F1857" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1857" s="16">
+        <v>450.44</v>
+      </c>
+      <c r="H1857" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="I1857" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1857" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1857" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1857" s="16"/>
+      <c r="M1857" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="N1857" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1857" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1857" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1857" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1857" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1857" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1857" s="16"/>
+      <c r="U1857" s="16"/>
+      <c r="V1857" s="16"/>
+      <c r="W1857" s="16"/>
+      <c r="X1857" s="16"/>
+    </row>
+    <row r="1858" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1858" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1858" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1858" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1858" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1858" s="24">
+        <v>11950</v>
+      </c>
+      <c r="F1858" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1858" s="16">
+        <v>1997.29</v>
+      </c>
+      <c r="H1858" s="16">
+        <v>61398</v>
+      </c>
+      <c r="I1858" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1858" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1858" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1858" s="16"/>
+      <c r="M1858" s="16">
+        <v>61398</v>
+      </c>
+      <c r="N1858" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1858" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1858" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1858" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1858" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1858" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1858" s="16"/>
+      <c r="U1858" s="16"/>
+      <c r="V1858" s="16"/>
+      <c r="W1858" s="16"/>
+      <c r="X1858" s="16"/>
+    </row>
+    <row r="1859" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1859" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1859" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1859" s="16"/>
+      <c r="D1859" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1859" s="24">
+        <v>13846.96</v>
+      </c>
+      <c r="F1859" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1859" s="16"/>
+      <c r="H1859" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1859" s="16">
+        <v>14000</v>
+      </c>
+      <c r="J1859" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1859" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1859" s="16"/>
+      <c r="M1859" s="16">
+        <v>14000</v>
+      </c>
+      <c r="N1859" s="16"/>
+      <c r="O1859" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1859" s="16"/>
+      <c r="Q1859" s="16"/>
+      <c r="R1859" s="16"/>
+      <c r="S1859" s="16"/>
+      <c r="T1859" s="16"/>
+      <c r="U1859" s="16"/>
+      <c r="V1859" s="16"/>
+      <c r="W1859" s="16"/>
+      <c r="X1859" s="16"/>
+    </row>
+    <row r="1860" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1860" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1860" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1860" s="16"/>
+      <c r="D1860" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1860" s="24">
+        <v>61398</v>
+      </c>
+      <c r="F1860" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1860" s="16"/>
+      <c r="H1860" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1860" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1860" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1860" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1860" s="16"/>
+      <c r="M1860" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1860" s="16"/>
+      <c r="O1860" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1860" s="16"/>
+      <c r="Q1860" s="16"/>
+      <c r="R1860" s="16"/>
+      <c r="S1860" s="16"/>
+      <c r="T1860" s="16"/>
+      <c r="U1860" s="16"/>
+      <c r="V1860" s="16"/>
+      <c r="W1860" s="16"/>
+      <c r="X1860" s="16"/>
+    </row>
+    <row r="1861" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1861" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1861" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1861" s="16"/>
+      <c r="D1861" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1861" s="24"/>
+      <c r="F1861" s="16"/>
+      <c r="G1861" s="16"/>
+      <c r="H1861" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1861" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1861" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1861" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1861" s="16"/>
+      <c r="M1861" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1861" s="16"/>
+      <c r="O1861" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1861" s="16"/>
+      <c r="Q1861" s="16"/>
+      <c r="R1861" s="16"/>
+      <c r="S1861" s="16"/>
+      <c r="T1861" s="16"/>
+      <c r="U1861" s="16"/>
+      <c r="V1861" s="16"/>
+      <c r="W1861" s="16"/>
+      <c r="X1861" s="16"/>
+    </row>
+    <row r="1862" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1862" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1862" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1862" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1862" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1862" s="24"/>
+      <c r="F1862" s="16"/>
+      <c r="G1862" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1862" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1862" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1862" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1862" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1862" s="16"/>
+      <c r="M1862" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1862" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1862" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1799" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1799" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1799" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1799" s="16" t="s">
+      <c r="P1862" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1862" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1862" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1862" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1799" s="16"/>
-      <c r="U1799" s="16"/>
-      <c r="V1799" s="16"/>
-      <c r="W1799" s="16"/>
-      <c r="X1799" s="16"/>
-    </row>
-    <row r="1800" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1800" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1800" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1800" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1800" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1800" s="24">
-        <v>723002.17</v>
-      </c>
-      <c r="F1800" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1800" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1800" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1800" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1800" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1800" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1800" s="16"/>
-      <c r="M1800" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1800" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1800" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1800" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1800" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1800" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1800" s="16" t="s">
+      <c r="T1862" s="16"/>
+      <c r="U1862" s="16"/>
+      <c r="V1862" s="16"/>
+      <c r="W1862" s="16"/>
+      <c r="X1862" s="16"/>
+    </row>
+    <row r="1863" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1863" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1863" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1863" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1863" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1863" s="24"/>
+      <c r="F1863" s="16"/>
+      <c r="G1863" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1863" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1863" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1863" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1863" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1863" s="16"/>
+      <c r="M1863" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1863" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1863" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1863" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1863" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1863" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1863" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1800" s="16"/>
-      <c r="U1800" s="16"/>
-      <c r="V1800" s="16"/>
-      <c r="W1800" s="16"/>
-      <c r="X1800" s="16"/>
-    </row>
-    <row r="1801" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1801" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1801" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1801" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1801" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1801" s="24">
-        <v>4970</v>
-      </c>
-      <c r="F1801" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1801" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1801" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1801" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1801" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1801" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1801" s="16"/>
-      <c r="M1801" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1801" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1801" s="16" t="s">
+      <c r="T1863" s="16"/>
+      <c r="U1863" s="16"/>
+      <c r="V1863" s="16"/>
+      <c r="W1863" s="16"/>
+      <c r="X1863" s="16"/>
+    </row>
+    <row r="1864" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1864" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1864" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1864" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1864" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1864" s="24">
+        <v>4200</v>
+      </c>
+      <c r="F1864" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1864" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1864" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1864" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1864" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1864" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1864" s="16"/>
+      <c r="M1864" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1864" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1864" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1801" s="16" t="s">
+      <c r="P1864" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1801" s="16" t="s">
+      <c r="Q1864" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1801" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1801" s="16" t="s">
+      <c r="R1864" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1864" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1801" s="16"/>
-      <c r="U1801" s="16"/>
-      <c r="V1801" s="16"/>
-      <c r="W1801" s="16"/>
-      <c r="X1801" s="16"/>
-    </row>
-    <row r="1802" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1802" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1802" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1802" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1802" s="16" t="s">
+      <c r="T1864" s="16"/>
+      <c r="U1864" s="16"/>
+      <c r="V1864" s="16"/>
+      <c r="W1864" s="16"/>
+      <c r="X1864" s="16"/>
+    </row>
+    <row r="1865" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1865" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1865" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1865" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1865" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1865" s="24">
+        <v>320000</v>
+      </c>
+      <c r="F1865" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1865" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1865" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1865" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1865" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1865" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1865" s="16"/>
+      <c r="M1865" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1865" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1865" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1865" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1865" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1865" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1865" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1865" s="16"/>
+      <c r="U1865" s="16"/>
+      <c r="V1865" s="16"/>
+      <c r="W1865" s="16"/>
+      <c r="X1865" s="16"/>
+    </row>
+    <row r="1866" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1866" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1866" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1866" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1866" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1866" s="24">
+        <v>2409</v>
+      </c>
+      <c r="F1866" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1866" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1866" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1866" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1866" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1866" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1866" s="16"/>
+      <c r="M1866" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1866" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1866" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1866" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1866" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1866" s="16"/>
+      <c r="S1866" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1866" s="16"/>
+      <c r="U1866" s="16"/>
+      <c r="V1866" s="16"/>
+      <c r="W1866" s="16"/>
+      <c r="X1866" s="16"/>
+    </row>
+    <row r="1867" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1867" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1867" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1867" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1867" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E1802" s="24">
-        <v>9235.48</v>
-      </c>
-      <c r="F1802" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1802" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1802" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="I1802" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1802" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1802" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1802" s="16"/>
-      <c r="M1802" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="N1802" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1802" s="16" t="s">
+      <c r="E1867" s="24">
+        <v>361450.61</v>
+      </c>
+      <c r="F1867" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1867" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1867" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1867" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1867" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1867" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1867" s="16"/>
+      <c r="M1867" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1867" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1867" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1802" s="16" t="s">
+      <c r="P1867" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1867" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1867" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1867" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1867" s="16"/>
+      <c r="U1867" s="16"/>
+      <c r="V1867" s="16"/>
+      <c r="W1867" s="16"/>
+      <c r="X1867" s="16"/>
+    </row>
+    <row r="1868" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1868" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1868" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1868" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1868" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1868" s="24">
+        <v>477000</v>
+      </c>
+      <c r="F1868" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1868" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1868" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1868" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1868" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1868" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1868" s="16"/>
+      <c r="M1868" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1868" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1868" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1868" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1802" s="16" t="s">
+      <c r="Q1868" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1802" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1802" s="16" t="s">
+      <c r="R1868" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1868" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1802" s="16"/>
-      <c r="U1802" s="16"/>
-      <c r="V1802" s="16"/>
-      <c r="W1802" s="16"/>
-      <c r="X1802" s="16"/>
-    </row>
-    <row r="1803" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1803" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1803" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1803" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1803" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1803" s="24">
-        <v>11950</v>
-      </c>
-      <c r="F1803" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1803" s="16">
-        <v>388.74</v>
-      </c>
-      <c r="H1803" s="16">
-        <v>11950</v>
-      </c>
-      <c r="I1803" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1803" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1803" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1803" s="16"/>
-      <c r="M1803" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1803" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1803" s="16" t="s">
+      <c r="T1868" s="16"/>
+      <c r="U1868" s="16"/>
+      <c r="V1868" s="16"/>
+      <c r="W1868" s="16"/>
+      <c r="X1868" s="16"/>
+    </row>
+    <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1869" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1869" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1869" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1869" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1869" s="24">
+        <v>8223</v>
+      </c>
+      <c r="F1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1869" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1869" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1869" s="16"/>
+      <c r="M1869" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1869" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1869" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1803" s="16" t="s">
+      <c r="P1869" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1803" s="16" t="s">
+      <c r="Q1869" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1803" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1803" s="16" t="s">
+      <c r="R1869" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1869" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1803" s="16"/>
-      <c r="U1803" s="16"/>
-      <c r="V1803" s="16"/>
-      <c r="W1803" s="16"/>
-      <c r="X1803" s="16"/>
-    </row>
-    <row r="1804" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1804" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1804" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1804" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1804" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1804" s="24">
-        <v>13846.96</v>
-      </c>
-      <c r="F1804" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1804" s="16">
-        <v>450.44</v>
-      </c>
-      <c r="H1804" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="I1804" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1804" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1804" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1804" s="16"/>
-      <c r="M1804" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1804" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1804" s="16" t="s">
+      <c r="T1869" s="16"/>
+      <c r="U1869" s="16"/>
+      <c r="V1869" s="16"/>
+      <c r="W1869" s="16"/>
+      <c r="X1869" s="16"/>
+    </row>
+    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1870" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1870" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1870" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1870" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1870" s="24">
+        <v>12500</v>
+      </c>
+      <c r="F1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1870" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1870" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1870" s="16"/>
+      <c r="M1870" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1870" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1870" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1804" s="16" t="s">
+      <c r="P1870" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1804" s="16" t="s">
+      <c r="Q1870" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1804" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1804" s="16" t="s">
+      <c r="R1870" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1870" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1804" s="16"/>
-      <c r="U1804" s="16"/>
-      <c r="V1804" s="16"/>
-      <c r="W1804" s="16"/>
-      <c r="X1804" s="16"/>
-    </row>
-    <row r="1805" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1805" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1805" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1805" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1805" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1805" s="24">
-        <v>61398</v>
-      </c>
-      <c r="F1805" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1805" s="16">
-        <v>1997.29</v>
-      </c>
-      <c r="H1805" s="16">
-        <v>61398</v>
-      </c>
-      <c r="I1805" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1805" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1805" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1805" s="16"/>
-      <c r="M1805" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1805" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1805" s="16" t="s">
+      <c r="T1870" s="16"/>
+      <c r="U1870" s="16"/>
+      <c r="V1870" s="16"/>
+      <c r="W1870" s="16"/>
+      <c r="X1870" s="16"/>
+    </row>
+    <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1871" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1871" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1871" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1871" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1871" s="24">
+        <v>103500</v>
+      </c>
+      <c r="F1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1871" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1871" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1871" s="16"/>
+      <c r="M1871" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1871" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1871" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1805" s="16" t="s">
+      <c r="P1871" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1805" s="16" t="s">
+      <c r="Q1871" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1805" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1805" s="16" t="s">
+      <c r="R1871" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1871" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1805" s="16"/>
-      <c r="U1805" s="16"/>
-      <c r="V1805" s="16"/>
-      <c r="W1805" s="16"/>
-      <c r="X1805" s="16"/>
-    </row>
-    <row r="1806" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1806" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1806" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1806" s="16"/>
-      <c r="D1806" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1806" s="24"/>
-      <c r="F1806" s="16"/>
-      <c r="G1806" s="16"/>
-      <c r="H1806" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1806" s="16">
-        <v>14000</v>
-      </c>
-      <c r="J1806" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1806" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1806" s="16"/>
-      <c r="M1806" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1806" s="16"/>
-      <c r="O1806" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1806" s="16"/>
-      <c r="Q1806" s="16"/>
-      <c r="R1806" s="16"/>
-      <c r="S1806" s="16"/>
-      <c r="T1806" s="16"/>
-      <c r="U1806" s="16"/>
-      <c r="V1806" s="16"/>
-      <c r="W1806" s="16"/>
-      <c r="X1806" s="16"/>
-    </row>
-    <row r="1807" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1807" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1807" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1807" s="16"/>
-      <c r="D1807" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1807" s="24"/>
-      <c r="F1807" s="16"/>
-      <c r="G1807" s="16"/>
-      <c r="H1807" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1807" s="16">
-        <v>7150</v>
-      </c>
-      <c r="J1807" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1807" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1807" s="16"/>
-      <c r="M1807" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1807" s="16"/>
-      <c r="O1807" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1807" s="16"/>
-      <c r="Q1807" s="16"/>
-      <c r="R1807" s="16"/>
-      <c r="S1807" s="16"/>
-      <c r="T1807" s="16"/>
-      <c r="U1807" s="16"/>
-      <c r="V1807" s="16"/>
-      <c r="W1807" s="16"/>
-      <c r="X1807" s="16"/>
-    </row>
-    <row r="1808" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1808" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1808" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1808" s="16"/>
-      <c r="D1808" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1808" s="24"/>
-      <c r="F1808" s="16"/>
-      <c r="G1808" s="16"/>
-      <c r="H1808" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1808" s="16">
-        <v>1100</v>
-      </c>
-      <c r="J1808" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1808" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1808" s="16"/>
-      <c r="M1808" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1808" s="16"/>
-      <c r="O1808" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1808" s="16"/>
-      <c r="Q1808" s="16"/>
-      <c r="R1808" s="16"/>
-      <c r="S1808" s="16"/>
-      <c r="T1808" s="16"/>
-      <c r="U1808" s="16"/>
-      <c r="V1808" s="16"/>
-      <c r="W1808" s="16"/>
-      <c r="X1808" s="16"/>
-    </row>
-    <row r="1809" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1809" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1809" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1809" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1809" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1809" s="24">
-        <v>4200</v>
-      </c>
-      <c r="F1809" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1809" s="16">
-        <v>136.63</v>
-      </c>
-      <c r="H1809" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I1809" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1809" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1809" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1809" s="16"/>
-      <c r="M1809" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1809" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1809" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1809" s="16" t="s">
+      <c r="T1871" s="16"/>
+      <c r="U1871" s="16"/>
+      <c r="V1871" s="16"/>
+      <c r="W1871" s="16"/>
+      <c r="X1871" s="16"/>
+    </row>
+    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1872" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1872" s="24">
+        <v>1381.76</v>
+      </c>
+      <c r="F1872" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O1872" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1872" t="s">
         <v>328</v>
       </c>
-      <c r="Q1809" s="16" t="s">
+      <c r="Q1872" t="s">
         <v>329</v>
       </c>
-      <c r="R1809" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1809" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1809" s="16"/>
-      <c r="U1809" s="16"/>
-      <c r="V1809" s="16"/>
-      <c r="W1809" s="16"/>
-      <c r="X1809" s="16"/>
-    </row>
-    <row r="1810" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1810" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1810" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1810" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1810" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1810" s="24">
-        <v>320000</v>
-      </c>
-      <c r="F1810" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1810" s="16">
-        <v>650.6</v>
-      </c>
-      <c r="H1810" s="16">
-        <v>20000</v>
-      </c>
-      <c r="I1810" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1810" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1810" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1810" s="16"/>
-      <c r="M1810" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N1810" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1810" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1810" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1810" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1810" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1810" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1810" s="16"/>
-      <c r="U1810" s="16"/>
-      <c r="V1810" s="16"/>
-      <c r="W1810" s="16"/>
-      <c r="X1810" s="16"/>
-    </row>
-    <row r="1811" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1811" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1811" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1811" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1811" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1811" s="24">
-        <v>2409</v>
-      </c>
-      <c r="F1811" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1811" s="16">
-        <v>78.37</v>
-      </c>
-      <c r="H1811" s="16">
-        <v>2409</v>
-      </c>
-      <c r="I1811" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1811" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1811" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1811" s="16"/>
-      <c r="M1811" s="16">
-        <v>2409</v>
-      </c>
-      <c r="N1811" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1811" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1811" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1811" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1811" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1811" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1811" s="16"/>
-      <c r="U1811" s="16"/>
-      <c r="V1811" s="16"/>
-      <c r="W1811" s="16"/>
-      <c r="X1811" s="16"/>
-    </row>
-    <row r="1812" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1812" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1812" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1812" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1812" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1812" s="24">
-        <v>361450.61</v>
-      </c>
-      <c r="F1812" s="16">
-        <v>8828.5</v>
-      </c>
-      <c r="G1812" s="16">
-        <v>11758.05</v>
-      </c>
-      <c r="H1812" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="I1812" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1812" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1812" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1812" s="16"/>
-      <c r="M1812" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="N1812" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1812" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1812" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1812" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1812" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="S1812" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1812" s="16"/>
-      <c r="U1812" s="16"/>
-      <c r="V1812" s="16"/>
-      <c r="W1812" s="16"/>
-      <c r="X1812" s="16"/>
-    </row>
-    <row r="1813" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1813" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1813" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1813" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1813" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1813" s="24">
-        <v>477000</v>
-      </c>
-      <c r="F1813" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1813" s="16">
-        <v>1073.5</v>
-      </c>
-      <c r="H1813" s="16">
-        <v>33000</v>
-      </c>
-      <c r="I1813" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1813" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1813" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1813" s="16"/>
-      <c r="M1813" s="16">
-        <v>33000</v>
-      </c>
-      <c r="N1813" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1813" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1813" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1813" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1813" s="16"/>
-      <c r="S1813" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1813" s="16"/>
-      <c r="U1813" s="16"/>
-      <c r="V1813" s="16"/>
-      <c r="W1813" s="16"/>
-      <c r="X1813" s="16"/>
-    </row>
-    <row r="1814" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1814" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1814" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1814" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1814" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1814" s="24">
-        <v>8223</v>
-      </c>
-      <c r="F1814" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1814" s="16">
-        <v>267.5</v>
-      </c>
-      <c r="H1814" s="16">
-        <v>8223</v>
-      </c>
-      <c r="I1814" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1814" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1814" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1814" s="16"/>
-      <c r="M1814" s="16">
-        <v>8223</v>
-      </c>
-      <c r="N1814" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1814" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1814" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1814" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1814" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1814" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1814" s="16"/>
-      <c r="U1814" s="16"/>
-      <c r="V1814" s="16"/>
-      <c r="W1814" s="16"/>
-      <c r="X1814" s="16"/>
-    </row>
-    <row r="1815" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1815" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1815" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1815" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1815" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1815" s="24">
-        <v>12500</v>
-      </c>
-      <c r="F1815" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1815" s="16">
-        <v>406.63</v>
-      </c>
-      <c r="H1815" s="16">
-        <v>12500</v>
-      </c>
-      <c r="I1815" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1815" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1815" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1815" s="16"/>
-      <c r="M1815" s="16">
-        <v>12500</v>
-      </c>
-      <c r="N1815" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1815" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1815" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1815" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1815" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S1815" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1815" s="16"/>
-      <c r="U1815" s="16"/>
-      <c r="V1815" s="16"/>
-      <c r="W1815" s="16"/>
-      <c r="X1815" s="16"/>
-    </row>
-    <row r="1816" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1816" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1816" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1816" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1816" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1816" s="24">
-        <v>103500</v>
-      </c>
-      <c r="F1816" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1816" s="16">
-        <v>3366.87</v>
-      </c>
-      <c r="H1816" s="16">
-        <v>103500</v>
-      </c>
-      <c r="I1816" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1816" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1816" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1816" s="16"/>
-      <c r="M1816" s="16">
-        <v>103500</v>
-      </c>
-      <c r="N1816" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1816" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1816" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1816" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1816" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1816" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1816" s="16"/>
-      <c r="U1816" s="16"/>
-      <c r="V1816" s="16"/>
-      <c r="W1816" s="16"/>
-      <c r="X1816" s="16"/>
-    </row>
-    <row r="1817" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1817" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1817" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1817" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1817" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1817" s="24">
-        <v>1381.76</v>
-      </c>
-      <c r="F1817" s="16">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="G1817" s="16">
-        <v>44.95</v>
-      </c>
-      <c r="H1817" s="16">
-        <v>1381.79</v>
-      </c>
-      <c r="I1817" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1817" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1817" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1817" s="16"/>
-      <c r="M1817" s="16">
-        <v>1381.79</v>
-      </c>
-      <c r="N1817" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1817" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1817" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1817" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1817" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="S1817" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1817" s="16"/>
-      <c r="U1817" s="16"/>
-      <c r="V1817" s="16"/>
-      <c r="W1817" s="16"/>
-      <c r="X1817" s="16"/>
-    </row>
-    <row r="1818" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1818" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1818" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1818" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1818" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1818" s="24">
+    </row>
+    <row r="1873" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E1873" s="24">
         <v>1400</v>
       </c>
-      <c r="F1818" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1818" s="16">
-        <v>45.54</v>
-      </c>
-      <c r="H1818" s="16">
-        <v>1400</v>
-      </c>
-      <c r="I1818" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1818" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1818" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1818" s="16"/>
-      <c r="M1818" s="16">
-        <v>1400</v>
-      </c>
-      <c r="N1818" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="O1818" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1818" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1818" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1818" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S1818" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1818" s="16"/>
-      <c r="U1818" s="16"/>
-      <c r="V1818" s="16"/>
-      <c r="W1818" s="16"/>
-      <c r="X1818" s="16"/>
-    </row>
-    <row r="1819" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1819" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1819" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1819" t="s">
-        <v>418</v>
-      </c>
-      <c r="O1819" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1819" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1819" t="s">
-        <v>329</v>
+      <c r="F1873" s="16">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X49"/>
+  <autoFilter ref="A3:X102"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -4345,8 +5632,8 @@
   </sheetPr>
   <dimension ref="A1:X1910"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E142" sqref="E142:F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7874,7 +9161,7 @@
   </sheetPr>
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -2697,7 +2697,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>41395</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="27">
         <v>41293</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
         <v>41223</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>41396</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>41497</v>
       </c>
@@ -2782,7 +2782,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>41279</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="27">
         <v>41278</v>
       </c>
@@ -2816,7 +2816,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="27">
         <v>41228</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="27">
         <v>41217</v>
       </c>
@@ -2850,7 +2850,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="27">
         <v>41260</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>41497</v>
       </c>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$101</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="596">
   <si>
     <t>дата</t>
   </si>
@@ -1844,7 +1844,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -2087,12 +2087,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2109,7 +2103,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2417,10 +2417,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1873"/>
+  <dimension ref="A1:X1872"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2439,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41504</v>
+        <v>41506</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2467,19 +2467,19 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>41503</v>
       </c>
       <c r="B5"/>
@@ -2496,7 +2496,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>41137</v>
       </c>
       <c r="B6"/>
@@ -2513,7 +2513,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>41153</v>
       </c>
       <c r="B7"/>
@@ -2530,7 +2530,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>41153</v>
       </c>
       <c r="B8"/>
@@ -2547,7 +2547,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>41497</v>
       </c>
       <c r="B9"/>
@@ -2564,7 +2564,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>41497</v>
       </c>
       <c r="B10"/>
@@ -2581,7 +2581,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>41182</v>
       </c>
       <c r="B11"/>
@@ -2598,7 +2598,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>41182</v>
       </c>
       <c r="B12"/>
@@ -2615,7 +2615,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>41224</v>
       </c>
       <c r="B13"/>
@@ -2632,7 +2632,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>41183</v>
       </c>
       <c r="B14"/>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>41504</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="25" t="s">
+      <c r="E15" s="23" t="s">
         <v>573</v>
       </c>
       <c r="F15" s="17" t="s">
@@ -2665,41 +2665,41 @@
         <v>575</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
-        <v>41504</v>
-      </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>466</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="16" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>41503</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B16" t="s">
         <v>422</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C16" t="s">
         <v>423</v>
       </c>
-      <c r="D17">
-        <v>423</v>
-      </c>
-      <c r="E17" s="7"/>
+      <c r="D16">
+        <v>424</v>
+      </c>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>41395</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
-        <v>41395</v>
+      <c r="A18" s="25">
+        <v>41293</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -2708,15 +2708,15 @@
         <v>74</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27">
-        <v>41293</v>
+      <c r="A19" s="25">
+        <v>41223</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -2725,49 +2725,49 @@
         <v>74</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27">
-        <v>41223</v>
+      <c r="A20" s="25">
+        <v>41396</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>41396</v>
+      <c r="A21" s="25">
+        <v>41497</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="27">
-        <v>41497</v>
+      <c r="A22" s="25">
+        <v>41279</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -2776,15 +2776,15 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="27">
-        <v>41279</v>
+      <c r="A23" s="25">
+        <v>41278</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -2793,15 +2793,15 @@
         <v>74</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="27">
-        <v>41278</v>
+      <c r="A24" s="25">
+        <v>41228</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -2810,15 +2810,15 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27">
-        <v>41228</v>
+      <c r="A25" s="25">
+        <v>41217</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -2827,15 +2827,15 @@
         <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>592</v>
+        <v>470</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>593</v>
+        <v>471</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
-        <v>41217</v>
+      <c r="A26" s="25">
+        <v>41260</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -2844,62 +2844,62 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>470</v>
+        <v>594</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27">
-        <v>41260</v>
-      </c>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>594</v>
-      </c>
-      <c r="G27" s="8" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>41497</v>
+      </c>
+      <c r="B27" t="s">
+        <v>576</v>
+      </c>
+      <c r="C27" t="s">
+        <v>577</v>
+      </c>
+      <c r="D27">
+        <v>1025</v>
+      </c>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>41497</v>
+        <v>41504</v>
       </c>
       <c r="B28" t="s">
-        <v>576</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>577</v>
+        <v>167</v>
       </c>
       <c r="D28">
-        <v>1025</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>41504</v>
-      </c>
-      <c r="B29" t="s">
-        <v>166</v>
-      </c>
-      <c r="C29" t="s">
-        <v>167</v>
-      </c>
-      <c r="D29">
         <v>580</v>
       </c>
-      <c r="E29"/>
+      <c r="E28"/>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>41162</v>
+      </c>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="27">
-        <v>41162</v>
+      <c r="A30" s="25">
+        <v>41062</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -2908,52 +2908,51 @@
         <v>301</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
-        <v>41062</v>
-      </c>
-      <c r="B31"/>
-      <c r="C31"/>
-      <c r="D31"/>
-      <c r="E31" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>41160</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D31">
+        <v>99</v>
+      </c>
+      <c r="E31" s="7"/>
+      <c r="F31" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>41160</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C32" t="s">
-        <v>445</v>
-      </c>
-      <c r="D32">
-        <v>99</v>
-      </c>
-      <c r="E32" s="7"/>
+        <v>442</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>41504</v>
+      </c>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F32" s="8" t="s">
-        <v>444</v>
+        <v>433</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="27">
+      <c r="A33" s="25">
         <v>41504</v>
       </c>
       <c r="C33"/>
@@ -2962,15 +2961,15 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>433</v>
+        <v>487</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>446</v>
+        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="27">
-        <v>41504</v>
+      <c r="A34" s="25">
+        <v>41130</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -2978,31 +2977,32 @@
         <v>74</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="27">
-        <v>41130</v>
-      </c>
+      <c r="A35" s="25">
+        <v>41469</v>
+      </c>
+      <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
       <c r="E35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>447</v>
+      <c r="F35" s="17" t="s">
+        <v>489</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>448</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="27">
-        <v>41469</v>
+      <c r="A36" s="25">
+        <v>41116</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
@@ -3011,97 +3011,97 @@
         <v>74</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>489</v>
+        <v>450</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="27">
-        <v>41116</v>
-      </c>
-      <c r="B37"/>
+      <c r="A37" s="25">
+        <v>41501</v>
+      </c>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>450</v>
+      <c r="F37" s="8" t="s">
+        <v>490</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27">
-        <v>41501</v>
-      </c>
+      <c r="A38" s="25">
+        <v>41302</v>
+      </c>
+      <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>490</v>
+        <v>501</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>491</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>449</v>
+        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27">
-        <v>41302</v>
-      </c>
-      <c r="B39"/>
+      <c r="A39" s="25">
+        <v>41286</v>
+      </c>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="7" t="s">
-        <v>501</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>491</v>
+        <v>231</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27">
-        <v>41286</v>
+      <c r="A40" s="25">
+        <v>41302</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="7" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27">
-        <v>41302</v>
-      </c>
+      <c r="A41" s="25">
+        <v>41071</v>
+      </c>
+      <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>495</v>
+      <c r="F41" s="17" t="s">
+        <v>455</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27">
-        <v>41071</v>
+      <c r="A42" s="25">
+        <v>41060</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -3110,15 +3110,15 @@
         <v>74</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27">
-        <v>41060</v>
+      <c r="A43" s="25">
+        <v>41472</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -3127,691 +3127,691 @@
         <v>74</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>459</v>
+        <v>83</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>460</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27">
-        <v>41472</v>
+      <c r="A44" s="25">
+        <v>40958</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>83</v>
+        <v>461</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27">
-        <v>40958</v>
+      <c r="A45" s="25">
+        <v>41258</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" s="7" t="s">
-        <v>43</v>
+      <c r="E45" s="23" t="s">
+        <v>499</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>86</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27">
-        <v>41258</v>
+      <c r="A46" s="25">
+        <v>40935</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="25" t="s">
-        <v>499</v>
+      <c r="E46" s="23" t="s">
+        <v>502</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="27">
-        <v>40935</v>
+      <c r="A47" s="25">
+        <v>40934</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="25" t="s">
-        <v>502</v>
+      <c r="E47" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>503</v>
+        <v>94</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
-        <v>40934</v>
+      <c r="A48" s="25">
+        <v>40928</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="25" t="s">
-        <v>74</v>
+      <c r="E48" s="23" t="s">
+        <v>506</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="27">
-        <v>40928</v>
+      <c r="A49" s="25">
+        <v>41156</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="25" t="s">
-        <v>506</v>
+      <c r="E49" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>95</v>
+        <v>508</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27">
-        <v>41156</v>
+      <c r="A50" s="25">
+        <v>41536</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="25" t="s">
+      <c r="E50" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="27">
-        <v>41536</v>
+      <c r="A51" s="25">
+        <v>41267</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
       <c r="D51"/>
-      <c r="E51" s="25" t="s">
+      <c r="E51" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>511</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="27">
+      <c r="A52" s="25">
         <v>41267</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="25" t="s">
+      <c r="E52" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>110</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="27">
+      <c r="A53" s="25">
         <v>41267</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="25" t="s">
-        <v>74</v>
+      <c r="E53" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
-        <v>41267</v>
+      <c r="A54" s="25">
+        <v>40953</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
-      <c r="E54" s="25" t="s">
-        <v>231</v>
+      <c r="E54" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>515</v>
+        <v>98</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="27">
-        <v>40953</v>
+      <c r="A55" s="25">
+        <v>41141</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" s="25" t="s">
+      <c r="E55" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>98</v>
+        <v>518</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="27">
-        <v>41141</v>
+      <c r="A56" s="25">
+        <v>41146</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" s="25" t="s">
+      <c r="E56" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="27">
-        <v>41146</v>
+      <c r="A57" s="25">
+        <v>41098</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="25" t="s">
-        <v>74</v>
+      <c r="E57" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="27">
+      <c r="A58" s="25">
         <v>41098</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" s="25" t="s">
-        <v>231</v>
+      <c r="E58" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="27">
-        <v>41098</v>
+      <c r="A59" s="25">
+        <v>41248</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="25" t="s">
+      <c r="E59" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
-        <v>41248</v>
+      <c r="A60" s="25">
+        <v>41504</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="25" t="s">
+      <c r="E60" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="27">
-        <v>41504</v>
+      <c r="A61" s="25">
+        <v>41072</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="25" t="s">
-        <v>74</v>
+      <c r="E61" s="23" t="s">
+        <v>506</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>528</v>
+        <v>187</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="27">
-        <v>41072</v>
+      <c r="A62" s="25">
+        <v>41018</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="25" t="s">
-        <v>506</v>
+      <c r="E62" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>187</v>
+        <v>100</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27">
+      <c r="A63" s="25">
         <v>41018</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="25" t="s">
+      <c r="E63" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="27">
-        <v>41018</v>
+      <c r="A64" s="25">
+        <v>41236</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="25" t="s">
+      <c r="E64" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>174</v>
+        <v>532</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="27">
-        <v>41236</v>
+      <c r="A65" s="25">
+        <v>41277</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="25" t="s">
+      <c r="E65" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27">
-        <v>41277</v>
+      <c r="A66" s="25">
+        <v>41152</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
-      <c r="E66" s="25" t="s">
-        <v>74</v>
+      <c r="E66" s="23" t="s">
+        <v>506</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="27">
-        <v>41152</v>
+      <c r="A67" s="25">
+        <v>40943</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
-      <c r="E67" s="25" t="s">
-        <v>506</v>
+      <c r="E67" s="23" t="s">
+        <v>539</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="27">
-        <v>40943</v>
+      <c r="A68" s="25">
+        <v>41152</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
-      <c r="E68" s="25" t="s">
-        <v>539</v>
+      <c r="E68" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>541</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27">
-        <v>41152</v>
-      </c>
+      <c r="A69" s="25"/>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
-      <c r="E69" s="25" t="s">
+      <c r="E69" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>104</v>
+        <v>543</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
+      <c r="A70" s="25">
+        <v>41018</v>
+      </c>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
-      <c r="E70" s="25" t="s">
+      <c r="E70" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>543</v>
+        <v>195</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="27">
-        <v>41018</v>
+      <c r="A71" s="25">
+        <v>41067</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
       <c r="D71"/>
-      <c r="E71" s="25" t="s">
+      <c r="E71" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>545</v>
+        <v>196</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>195</v>
+        <v>546</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="27">
-        <v>41067</v>
+      <c r="A72" s="25">
+        <v>41053</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
-      <c r="E72" s="25" t="s">
-        <v>74</v>
+      <c r="E72" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>196</v>
+        <v>547</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="27">
+      <c r="A73" s="25">
         <v>41053</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
-      <c r="E73" s="25" t="s">
-        <v>231</v>
+      <c r="E73" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="27">
-        <v>41053</v>
+      <c r="A74" s="25">
+        <v>41036</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
-      <c r="E74" s="25" t="s">
-        <v>74</v>
+      <c r="E74" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>549</v>
+        <v>242</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="27">
-        <v>41036</v>
+      <c r="A75" s="25">
+        <v>41053</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
-      <c r="E75" s="25" t="s">
-        <v>231</v>
+      <c r="E75" s="23" t="s">
+        <v>553</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>242</v>
+        <v>552</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="27">
-        <v>41053</v>
+      <c r="A76" s="25">
+        <v>41036</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
-      <c r="E76" s="25" t="s">
-        <v>553</v>
+      <c r="E76" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>552</v>
+        <v>240</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>554</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="27">
-        <v>41036</v>
+      <c r="A77" s="25">
+        <v>41221</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
       <c r="D77"/>
-      <c r="E77" s="25" t="s">
+      <c r="E77" s="23" t="s">
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>240</v>
+        <v>555</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>245</v>
+        <v>556</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="27">
-        <v>41221</v>
-      </c>
+      <c r="A78" s="25"/>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
-      <c r="E78" s="25" t="s">
-        <v>74</v>
+      <c r="E78" s="23" t="s">
+        <v>231</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
+      <c r="A79" s="25">
+        <v>41272</v>
+      </c>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
-      <c r="E79" s="25" t="s">
-        <v>231</v>
+      <c r="E79" s="23" t="s">
+        <v>74</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="27">
-        <v>41272</v>
-      </c>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="F80" s="17" t="s">
-        <v>559</v>
-      </c>
-      <c r="G80" s="8" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
+    <row r="80" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <v>41504</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B80" t="s">
         <v>6</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C80" t="s">
         <v>303</v>
       </c>
-      <c r="D81">
-        <v>1278</v>
-      </c>
+      <c r="D80">
+        <v>1299</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F80" s="17"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>41504</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
       <c r="E81" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="26"/>
-    </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="27">
+        <v>562</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>563</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <v>41504</v>
       </c>
-      <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82" s="7" t="s">
-        <v>562</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>41504</v>
-      </c>
-      <c r="B83" t="s">
+      <c r="B82" t="s">
         <v>419</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C82" t="s">
         <v>561</v>
       </c>
-      <c r="D83">
-        <v>241</v>
-      </c>
-      <c r="E83" s="7"/>
+      <c r="D82">
+        <v>249</v>
+      </c>
+      <c r="E82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>41312</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>473</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="27">
-        <v>41312</v>
+      <c r="A84" s="25">
+        <v>41217</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -3820,32 +3820,32 @@
         <v>472</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="27">
-        <v>41217</v>
+      <c r="A85" s="25">
+        <v>41166</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27">
-        <v>41166</v>
+      <c r="A86" s="25">
+        <v>41135</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -3854,60 +3854,58 @@
         <v>74</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="27">
-        <v>41135</v>
+      <c r="A87" s="25">
+        <v>41152</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="7" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="27">
-        <v>41152</v>
-      </c>
-      <c r="B88"/>
-      <c r="C88"/>
-      <c r="D88"/>
-      <c r="E88" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="G88" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
+    <row r="88" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
         <v>41473</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B88" t="s">
         <v>3</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C88" t="s">
         <v>485</v>
       </c>
-      <c r="D89">
+      <c r="D88">
         <v>181</v>
       </c>
-      <c r="E89" s="7"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3918,10 +3916,10 @@
         <v>76</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3930,13 +3928,13 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>133</v>
+        <v>293</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3945,13 +3943,13 @@
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="7" t="s">
-        <v>235</v>
+        <v>74</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3963,10 +3961,10 @@
         <v>74</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>295</v>
+        <v>92</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>296</v>
+        <v>148</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3975,13 +3973,13 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>92</v>
+        <v>297</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>148</v>
+        <v>298</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3990,44 +3988,44 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>41086</v>
+      </c>
+      <c r="B96" t="s">
+        <v>290</v>
+      </c>
+      <c r="C96" t="s">
+        <v>19</v>
+      </c>
+      <c r="D96">
+        <v>334</v>
+      </c>
+      <c r="E96" s="7"/>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>297</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96"/>
-      <c r="C96"/>
-      <c r="D96"/>
-      <c r="E96" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G96" s="8" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>41086</v>
-      </c>
-      <c r="B97" t="s">
-        <v>290</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>334</v>
-      </c>
-      <c r="E97" s="7"/>
+      <c r="F97" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -4035,13 +4033,13 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4053,10 +4051,10 @@
         <v>76</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4068,87 +4066,84 @@
         <v>76</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
-      <c r="E101" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
+    <row r="101" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
         <v>41110</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B101" t="s">
         <v>4</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C101" t="s">
         <v>12</v>
       </c>
-      <c r="D102">
+      <c r="D101">
         <v>276</v>
       </c>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6">
-        <f>SUM(D4:D102)</f>
-        <v>4437</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6">
+        <f>SUM(D4:D101)</f>
+        <v>4467</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E104" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F104" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="E105" s="21" t="s">
-        <v>458</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>457</v>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" s="22" t="s">
-        <v>158</v>
+      <c r="D106" t="s">
+        <v>232</v>
+      </c>
+      <c r="E106" s="20" t="s">
+        <v>301</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>75</v>
+        <v>486</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="22" t="s">
-        <v>301</v>
+      <c r="D107"/>
+      <c r="E107" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4156,11 +4151,11 @@
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="E108" s="22" t="s">
-        <v>43</v>
+      <c r="E108" s="20" t="s">
+        <v>200</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>497</v>
+        <v>201</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4168,36 +4163,31 @@
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" s="22" t="s">
-        <v>200</v>
+      <c r="E109" s="20" t="s">
+        <v>72</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E110" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="23" t="s">
-        <v>233</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="E111" s="7"/>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -4262,12 +4252,8 @@
       <c r="D120"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -4356,21 +4342,68 @@
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+    <row r="1850" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1850" s="16"/>
+      <c r="B1850" s="16"/>
+      <c r="C1850" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1850" s="16"/>
+      <c r="G1850" s="16">
+        <v>23942.73</v>
+      </c>
+      <c r="H1850" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="I1850" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1850" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1850" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1850" s="16"/>
+      <c r="M1850" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="N1850" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1850" s="16"/>
+      <c r="P1850" s="16"/>
+      <c r="Q1850" s="16"/>
+      <c r="R1850" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1850" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1850" s="16"/>
+      <c r="U1850" s="16"/>
+      <c r="V1850" s="16"/>
+      <c r="W1850" s="16"/>
+      <c r="X1850" s="16"/>
     </row>
     <row r="1851" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1851" s="16"/>
-      <c r="B1851" s="16"/>
+      <c r="A1851" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1851" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="C1851" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1851" s="16"/>
+        <v>314</v>
+      </c>
+      <c r="D1851" s="16" t="s">
+        <v>310</v>
+      </c>
       <c r="G1851" s="16">
-        <v>23942.73</v>
+        <v>2342.17</v>
       </c>
       <c r="H1851" s="16">
-        <v>736016.15</v>
+        <v>72000</v>
       </c>
       <c r="I1851" s="16">
         <v>0</v>
@@ -4383,16 +4416,22 @@
       </c>
       <c r="L1851" s="16"/>
       <c r="M1851" s="16">
-        <v>736016.15</v>
+        <v>72000</v>
       </c>
       <c r="N1851" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1851" s="16"/>
-      <c r="P1851" s="16"/>
-      <c r="Q1851" s="16"/>
+        <v>316</v>
+      </c>
+      <c r="O1851" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1851" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1851" s="16" t="s">
+        <v>313</v>
+      </c>
       <c r="R1851" s="16" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="S1851" s="16" t="s">
         <v>304</v>
@@ -4405,22 +4444,28 @@
     </row>
     <row r="1852" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1852" s="16" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B1852" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1852" s="16" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="D1852" s="16" t="s">
-        <v>310</v>
+        <v>318</v>
+      </c>
+      <c r="E1852" s="22">
+        <v>736016.15</v>
+      </c>
+      <c r="F1852" s="16">
+        <v>0</v>
       </c>
       <c r="G1852" s="16">
-        <v>2342.17</v>
+        <v>23519.38</v>
       </c>
       <c r="H1852" s="16">
-        <v>72000</v>
+        <v>723002.17</v>
       </c>
       <c r="I1852" s="16">
         <v>0</v>
@@ -4433,22 +4478,22 @@
       </c>
       <c r="L1852" s="16"/>
       <c r="M1852" s="16">
-        <v>72000</v>
+        <v>723002.17</v>
       </c>
       <c r="N1852" s="16" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="O1852" s="16" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="P1852" s="16" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="Q1852" s="16" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="R1852" s="16" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="S1852" s="16" t="s">
         <v>304</v>
@@ -4461,28 +4506,28 @@
     </row>
     <row r="1853" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1853" s="16" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B1853" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1853" s="16" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="D1853" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1853" s="24">
-        <v>736016.15</v>
+        <v>326</v>
+      </c>
+      <c r="E1853" s="22">
+        <v>72000</v>
       </c>
       <c r="F1853" s="16">
         <v>0</v>
       </c>
       <c r="G1853" s="16">
-        <v>23519.38</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1853" s="16">
-        <v>723002.17</v>
+        <v>4970</v>
       </c>
       <c r="I1853" s="16">
         <v>0</v>
@@ -4495,22 +4540,22 @@
       </c>
       <c r="L1853" s="16"/>
       <c r="M1853" s="16">
-        <v>723002.17</v>
+        <v>4970</v>
       </c>
       <c r="N1853" s="16" t="s">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="O1853" s="16" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P1853" s="16" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q1853" s="16" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="R1853" s="16" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="S1853" s="16" t="s">
         <v>304</v>
@@ -4523,28 +4568,28 @@
     </row>
     <row r="1854" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1854" s="16" t="s">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B1854" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1854" s="16" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="D1854" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1854" s="24">
-        <v>72000</v>
+        <v>334</v>
+      </c>
+      <c r="E1854" s="22">
+        <v>723002.17</v>
       </c>
       <c r="F1854" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1854" s="16">
-        <v>161.66999999999999</v>
+        <v>300.43</v>
       </c>
       <c r="H1854" s="16">
-        <v>4970</v>
+        <v>9235.48</v>
       </c>
       <c r="I1854" s="16">
         <v>0</v>
@@ -4557,22 +4602,22 @@
       </c>
       <c r="L1854" s="16"/>
       <c r="M1854" s="16">
-        <v>4970</v>
+        <v>9235.48</v>
       </c>
       <c r="N1854" s="16" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="O1854" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1854" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1854" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1854" s="16" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="S1854" s="16" t="s">
         <v>304</v>
@@ -4585,28 +4630,28 @@
     </row>
     <row r="1855" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1855" s="16" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B1855" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1855" s="16" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="D1855" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1855" s="24">
-        <v>723002.17</v>
+        <v>341</v>
+      </c>
+      <c r="E1855" s="22">
+        <v>4970</v>
       </c>
       <c r="F1855" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1855" s="16">
-        <v>300.43</v>
+        <v>388.74</v>
       </c>
       <c r="H1855" s="16">
-        <v>9235.48</v>
+        <v>11950</v>
       </c>
       <c r="I1855" s="16">
         <v>0</v>
@@ -4619,22 +4664,22 @@
       </c>
       <c r="L1855" s="16"/>
       <c r="M1855" s="16">
-        <v>9235.48</v>
+        <v>11950</v>
       </c>
       <c r="N1855" s="16" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="O1855" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1855" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1855" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1855" s="16" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="S1855" s="16" t="s">
         <v>304</v>
@@ -4647,28 +4692,28 @@
     </row>
     <row r="1856" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1856" s="16" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B1856" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1856" s="16" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="D1856" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1856" s="24">
-        <v>4970</v>
+        <v>346</v>
+      </c>
+      <c r="E1856" s="22">
+        <v>9235.48</v>
       </c>
       <c r="F1856" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1856" s="16">
-        <v>388.74</v>
+        <v>450.44</v>
       </c>
       <c r="H1856" s="16">
-        <v>11950</v>
+        <v>13846.96</v>
       </c>
       <c r="I1856" s="16">
         <v>0</v>
@@ -4681,22 +4726,22 @@
       </c>
       <c r="L1856" s="16"/>
       <c r="M1856" s="16">
-        <v>11950</v>
+        <v>13846.96</v>
       </c>
       <c r="N1856" s="16" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="O1856" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1856" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1856" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1856" s="16" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="S1856" s="16" t="s">
         <v>304</v>
@@ -4709,28 +4754,28 @@
     </row>
     <row r="1857" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1857" s="16" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B1857" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1857" s="16" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="D1857" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1857" s="24">
-        <v>9235.48</v>
+        <v>351</v>
+      </c>
+      <c r="E1857" s="22">
+        <v>11950</v>
       </c>
       <c r="F1857" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1857" s="16">
-        <v>450.44</v>
+        <v>1997.29</v>
       </c>
       <c r="H1857" s="16">
-        <v>13846.96</v>
+        <v>61398</v>
       </c>
       <c r="I1857" s="16">
         <v>0</v>
@@ -4743,22 +4788,22 @@
       </c>
       <c r="L1857" s="16"/>
       <c r="M1857" s="16">
-        <v>13846.96</v>
+        <v>61398</v>
       </c>
       <c r="N1857" s="16" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O1857" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1857" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1857" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1857" s="16" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="S1857" s="16" t="s">
         <v>304</v>
@@ -4771,31 +4816,27 @@
     </row>
     <row r="1858" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1858" s="16" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B1858" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1858" s="16" t="s">
-        <v>352</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1858" s="16"/>
       <c r="D1858" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1858" s="24">
-        <v>11950</v>
+        <v>357</v>
+      </c>
+      <c r="E1858" s="22">
+        <v>13846.96</v>
       </c>
       <c r="F1858" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1858" s="16">
-        <v>1997.29</v>
-      </c>
+        <v>323.68</v>
+      </c>
+      <c r="G1858" s="16"/>
       <c r="H1858" s="16">
-        <v>61398</v>
+        <v>0</v>
       </c>
       <c r="I1858" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J1858" s="16">
         <v>0</v>
@@ -4805,26 +4846,16 @@
       </c>
       <c r="L1858" s="16"/>
       <c r="M1858" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1858" s="16" t="s">
-        <v>354</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="N1858" s="16"/>
       <c r="O1858" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1858" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1858" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1858" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1858" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1858" s="16"/>
+      <c r="Q1858" s="16"/>
+      <c r="R1858" s="16"/>
+      <c r="S1858" s="16"/>
       <c r="T1858" s="16"/>
       <c r="U1858" s="16"/>
       <c r="V1858" s="16"/>
@@ -4840,20 +4871,20 @@
       </c>
       <c r="C1859" s="16"/>
       <c r="D1859" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1859" s="24">
-        <v>13846.96</v>
+        <v>359</v>
+      </c>
+      <c r="E1859" s="22">
+        <v>61398</v>
       </c>
       <c r="F1859" s="16">
-        <v>323.68</v>
+        <v>0</v>
       </c>
       <c r="G1859" s="16"/>
       <c r="H1859" s="16">
         <v>0</v>
       </c>
       <c r="I1859" s="16">
-        <v>14000</v>
+        <v>7150</v>
       </c>
       <c r="J1859" s="16">
         <v>0</v>
@@ -4863,7 +4894,7 @@
       </c>
       <c r="L1859" s="16"/>
       <c r="M1859" s="16">
-        <v>14000</v>
+        <v>7150</v>
       </c>
       <c r="N1859" s="16"/>
       <c r="O1859" s="16" t="s">
@@ -4881,27 +4912,23 @@
     </row>
     <row r="1860" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1860" s="16" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B1860" s="16" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C1860" s="16"/>
       <c r="D1860" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1860" s="24">
-        <v>61398</v>
-      </c>
-      <c r="F1860" s="16">
-        <v>0</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E1860" s="22"/>
+      <c r="F1860" s="16"/>
       <c r="G1860" s="16"/>
       <c r="H1860" s="16">
         <v>0</v>
       </c>
       <c r="I1860" s="16">
-        <v>7150</v>
+        <v>1100</v>
       </c>
       <c r="J1860" s="16">
         <v>0</v>
@@ -4911,7 +4938,7 @@
       </c>
       <c r="L1860" s="16"/>
       <c r="M1860" s="16">
-        <v>7150</v>
+        <v>1100</v>
       </c>
       <c r="N1860" s="16"/>
       <c r="O1860" s="16" t="s">
@@ -4929,23 +4956,27 @@
     </row>
     <row r="1861" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1861" s="16" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B1861" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1861" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C1861" s="16" t="s">
+        <v>366</v>
+      </c>
       <c r="D1861" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1861" s="24"/>
+        <v>365</v>
+      </c>
+      <c r="E1861" s="22"/>
       <c r="F1861" s="16"/>
-      <c r="G1861" s="16"/>
+      <c r="G1861" s="16">
+        <v>136.63</v>
+      </c>
       <c r="H1861" s="16">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="I1861" s="16">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J1861" s="16">
         <v>0</v>
@@ -4955,16 +4986,26 @@
       </c>
       <c r="L1861" s="16"/>
       <c r="M1861" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1861" s="16"/>
+        <v>4200</v>
+      </c>
+      <c r="N1861" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="O1861" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1861" s="16"/>
-      <c r="Q1861" s="16"/>
-      <c r="R1861" s="16"/>
-      <c r="S1861" s="16"/>
+        <v>311</v>
+      </c>
+      <c r="P1861" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1861" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1861" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1861" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1861" s="16"/>
       <c r="U1861" s="16"/>
       <c r="V1861" s="16"/>
@@ -4973,24 +5014,24 @@
     </row>
     <row r="1862" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1862" s="16" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B1862" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1862" s="16" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="D1862" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1862" s="24"/>
+        <v>370</v>
+      </c>
+      <c r="E1862" s="22"/>
       <c r="F1862" s="16"/>
       <c r="G1862" s="16">
-        <v>136.63</v>
+        <v>650.6</v>
       </c>
       <c r="H1862" s="16">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="I1862" s="16">
         <v>0</v>
@@ -5003,22 +5044,22 @@
       </c>
       <c r="L1862" s="16"/>
       <c r="M1862" s="16">
-        <v>4200</v>
+        <v>20000</v>
       </c>
       <c r="N1862" s="16" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="O1862" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1862" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1862" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1862" s="16" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="S1862" s="16" t="s">
         <v>304</v>
@@ -5031,24 +5072,28 @@
     </row>
     <row r="1863" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1863" s="16" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B1863" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1863" s="16" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="D1863" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1863" s="24"/>
-      <c r="F1863" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="E1863" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1863" s="16">
+        <v>0</v>
+      </c>
       <c r="G1863" s="16">
-        <v>650.6</v>
+        <v>78.37</v>
       </c>
       <c r="H1863" s="16">
-        <v>20000</v>
+        <v>2409</v>
       </c>
       <c r="I1863" s="16">
         <v>0</v>
@@ -5061,22 +5106,22 @@
       </c>
       <c r="L1863" s="16"/>
       <c r="M1863" s="16">
-        <v>20000</v>
+        <v>2409</v>
       </c>
       <c r="N1863" s="16" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="O1863" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1863" s="16" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q1863" s="16" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R1863" s="16" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="S1863" s="16" t="s">
         <v>304</v>
@@ -5089,28 +5134,28 @@
     </row>
     <row r="1864" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1864" s="16" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B1864" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1864" s="16" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="D1864" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E1864" s="24">
-        <v>4200</v>
+      <c r="E1864" s="22">
+        <v>320000</v>
       </c>
       <c r="F1864" s="16">
         <v>0</v>
       </c>
       <c r="G1864" s="16">
-        <v>78.37</v>
+        <v>11758.05</v>
       </c>
       <c r="H1864" s="16">
-        <v>2409</v>
+        <v>361450.61</v>
       </c>
       <c r="I1864" s="16">
         <v>0</v>
@@ -5123,22 +5168,22 @@
       </c>
       <c r="L1864" s="16"/>
       <c r="M1864" s="16">
-        <v>2409</v>
+        <v>361450.61</v>
       </c>
       <c r="N1864" s="16" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="O1864" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1864" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1864" s="16" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="R1864" s="16" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="S1864" s="16" t="s">
         <v>304</v>
@@ -5151,28 +5196,28 @@
     </row>
     <row r="1865" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1865" s="16" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B1865" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1865" s="16" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="D1865" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1865" s="24">
-        <v>320000</v>
+        <v>388</v>
+      </c>
+      <c r="E1865" s="22">
+        <v>2409</v>
       </c>
       <c r="F1865" s="16">
         <v>0</v>
       </c>
       <c r="G1865" s="16">
-        <v>11758.05</v>
+        <v>1073.5</v>
       </c>
       <c r="H1865" s="16">
-        <v>361450.61</v>
+        <v>33000</v>
       </c>
       <c r="I1865" s="16">
         <v>0</v>
@@ -5185,10 +5230,10 @@
       </c>
       <c r="L1865" s="16"/>
       <c r="M1865" s="16">
-        <v>361450.61</v>
+        <v>33000</v>
       </c>
       <c r="N1865" s="16" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="O1865" s="16" t="s">
         <v>311</v>
@@ -5197,11 +5242,9 @@
         <v>382</v>
       </c>
       <c r="Q1865" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1865" s="16" t="s">
-        <v>385</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1865" s="16"/>
       <c r="S1865" s="16" t="s">
         <v>304</v>
       </c>
@@ -5213,28 +5256,28 @@
     </row>
     <row r="1866" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1866" s="16" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B1866" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1866" s="16" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D1866" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1866" s="24">
-        <v>2409</v>
+        <v>334</v>
+      </c>
+      <c r="E1866" s="22">
+        <v>361450.61</v>
       </c>
       <c r="F1866" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1866" s="16">
-        <v>1073.5</v>
+        <v>267.5</v>
       </c>
       <c r="H1866" s="16">
-        <v>33000</v>
+        <v>8223</v>
       </c>
       <c r="I1866" s="16">
         <v>0</v>
@@ -5247,21 +5290,23 @@
       </c>
       <c r="L1866" s="16"/>
       <c r="M1866" s="16">
-        <v>33000</v>
+        <v>8223</v>
       </c>
       <c r="N1866" s="16" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="O1866" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1866" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1866" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1866" s="16"/>
+        <v>329</v>
+      </c>
+      <c r="R1866" s="16" t="s">
+        <v>394</v>
+      </c>
       <c r="S1866" s="16" t="s">
         <v>304</v>
       </c>
@@ -5273,28 +5318,28 @@
     </row>
     <row r="1867" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1867" s="16" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B1867" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1867" s="16" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D1867" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1867" s="24">
-        <v>361450.61</v>
+        <v>397</v>
+      </c>
+      <c r="E1867" s="22">
+        <v>477000</v>
       </c>
       <c r="F1867" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1867" s="16">
-        <v>267.5</v>
+        <v>406.63</v>
       </c>
       <c r="H1867" s="16">
-        <v>8223</v>
+        <v>12500</v>
       </c>
       <c r="I1867" s="16">
         <v>0</v>
@@ -5307,22 +5352,22 @@
       </c>
       <c r="L1867" s="16"/>
       <c r="M1867" s="16">
-        <v>8223</v>
+        <v>12500</v>
       </c>
       <c r="N1867" s="16" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="O1867" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1867" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1867" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1867" s="16" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="S1867" s="16" t="s">
         <v>304</v>
@@ -5335,28 +5380,28 @@
     </row>
     <row r="1868" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1868" s="16" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B1868" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1868" s="16" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="D1868" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1868" s="24">
-        <v>477000</v>
+        <v>402</v>
+      </c>
+      <c r="E1868" s="22">
+        <v>8223</v>
       </c>
       <c r="F1868" s="16">
         <v>0</v>
       </c>
       <c r="G1868" s="16">
-        <v>406.63</v>
+        <v>3366.87</v>
       </c>
       <c r="H1868" s="16">
-        <v>12500</v>
+        <v>103500</v>
       </c>
       <c r="I1868" s="16">
         <v>0</v>
@@ -5369,22 +5414,22 @@
       </c>
       <c r="L1868" s="16"/>
       <c r="M1868" s="16">
-        <v>12500</v>
+        <v>103500</v>
       </c>
       <c r="N1868" s="16" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="O1868" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1868" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1868" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1868" s="16" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="S1868" s="16" t="s">
         <v>304</v>
@@ -5397,28 +5442,28 @@
     </row>
     <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1869" s="16" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B1869" s="16" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="C1869" s="16" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="D1869" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1869" s="24">
-        <v>8223</v>
+        <v>408</v>
+      </c>
+      <c r="E1869" s="22">
+        <v>12500</v>
       </c>
       <c r="F1869" s="16">
         <v>0</v>
       </c>
       <c r="G1869" s="16">
-        <v>3366.87</v>
+        <v>44.95</v>
       </c>
       <c r="H1869" s="16">
-        <v>103500</v>
+        <v>1381.79</v>
       </c>
       <c r="I1869" s="16">
         <v>0</v>
@@ -5431,22 +5476,22 @@
       </c>
       <c r="L1869" s="16"/>
       <c r="M1869" s="16">
-        <v>103500</v>
+        <v>1381.79</v>
       </c>
       <c r="N1869" s="16" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="O1869" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1869" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1869" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1869" s="16" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="S1869" s="16" t="s">
         <v>304</v>
@@ -5459,28 +5504,28 @@
     </row>
     <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1870" s="16" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B1870" s="16" t="s">
         <v>407</v>
       </c>
       <c r="C1870" s="16" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D1870" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1870" s="24">
-        <v>12500</v>
+        <v>413</v>
+      </c>
+      <c r="E1870" s="22">
+        <v>103500</v>
       </c>
       <c r="F1870" s="16">
         <v>0</v>
       </c>
       <c r="G1870" s="16">
-        <v>44.95</v>
+        <v>45.54</v>
       </c>
       <c r="H1870" s="16">
-        <v>1381.79</v>
+        <v>1400</v>
       </c>
       <c r="I1870" s="16">
         <v>0</v>
@@ -5493,22 +5538,22 @@
       </c>
       <c r="L1870" s="16"/>
       <c r="M1870" s="16">
-        <v>1381.79</v>
+        <v>1400</v>
       </c>
       <c r="N1870" s="16" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="O1870" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1870" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1870" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1870" s="16" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="S1870" s="16" t="s">
         <v>304</v>
@@ -5520,103 +5565,41 @@
       <c r="X1870" s="16"/>
     </row>
     <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1871" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1871" s="16" t="s">
+      <c r="A1871" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1871" t="s">
         <v>407</v>
       </c>
-      <c r="C1871" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1871" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1871" s="24">
-        <v>103500</v>
+      <c r="D1871" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1871" s="22">
+        <v>1381.76</v>
       </c>
       <c r="F1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1871" s="16">
-        <v>45.54</v>
-      </c>
-      <c r="H1871" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O1871" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1871" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1871" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1872" s="22">
         <v>1400</v>
       </c>
-      <c r="I1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1871" s="16"/>
-      <c r="M1871" s="16">
-        <v>1400</v>
-      </c>
-      <c r="N1871" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="O1871" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1871" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1871" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1871" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S1871" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1871" s="16"/>
-      <c r="U1871" s="16"/>
-      <c r="V1871" s="16"/>
-      <c r="W1871" s="16"/>
-      <c r="X1871" s="16"/>
-    </row>
-    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1872" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1872" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1872" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1872" s="24">
-        <v>1381.76</v>
-      </c>
       <c r="F1872" s="16">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="O1872" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1872" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1872" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1873" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1873" s="24">
-        <v>1400</v>
-      </c>
-      <c r="F1873" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X102"/>
+  <autoFilter ref="A3:X101"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -5677,12 +5660,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -6368,12 +6351,12 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="27" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
+      <c r="B50" s="27"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7499,12 +7482,12 @@
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="19" t="s">
+      <c r="A129" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="19"/>
-      <c r="C129" s="19"/>
-      <c r="D129" s="19"/>
+      <c r="B129" s="26"/>
+      <c r="C129" s="26"/>
+      <c r="D129" s="26"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9205,12 +9188,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -10765,12 +10748,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="19" t="s">
+      <c r="A132" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="19"/>
-      <c r="C132" s="19"/>
-      <c r="D132" s="19"/>
+      <c r="B132" s="26"/>
+      <c r="C132" s="26"/>
+      <c r="D132" s="26"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
@@ -14,14 +14,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$102</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="598">
   <si>
     <t>дата</t>
   </si>
@@ -1837,6 +1837,12 @@
   </si>
   <si>
     <t>обработка формата в строке width вида 0/Txt или 10/@</t>
+  </si>
+  <si>
+    <t>StepReset(iStep)</t>
+  </si>
+  <si>
+    <t>сброс Шага в таблице Процессов - РЕКУРСИЯ!</t>
   </si>
 </sst>
 </file>
@@ -2170,7 +2176,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2205,7 +2211,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2417,10 +2423,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1872"/>
+  <dimension ref="A1:X1873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2439,7 +2445,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41506</v>
+        <v>41508</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -3760,7 +3766,7 @@
       <c r="F80" s="17"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
         <v>41504</v>
       </c>
@@ -3777,41 +3783,41 @@
         <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
+    <row r="82" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="25">
+        <v>41165</v>
+      </c>
+      <c r="B82"/>
+      <c r="C82"/>
+      <c r="D82"/>
+      <c r="E82" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="G82" s="8" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>41504</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>419</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>561</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>249</v>
       </c>
-      <c r="E82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25">
-        <v>41312</v>
-      </c>
-      <c r="B83"/>
-      <c r="C83"/>
-      <c r="D83"/>
-      <c r="E83" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>473</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>474</v>
-      </c>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
-        <v>41217</v>
+        <v>41312</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -3820,32 +3826,32 @@
         <v>472</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>41166</v>
+        <v>41217</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="25">
-        <v>41135</v>
+        <v>41166</v>
       </c>
       <c r="B86"/>
       <c r="C86"/>
@@ -3854,58 +3860,60 @@
         <v>74</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
-        <v>41152</v>
+        <v>41135</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="25">
+        <v>41152</v>
+      </c>
+      <c r="B88"/>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="G87" s="8" t="s">
+      <c r="G88" s="8" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
+    <row r="89" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
         <v>41473</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B89" t="s">
         <v>3</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C89" t="s">
         <v>485</v>
       </c>
-      <c r="D88">
+      <c r="D89">
         <v>181</v>
       </c>
-      <c r="E88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89"/>
-      <c r="C89"/>
-      <c r="D89"/>
-      <c r="E89" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>134</v>
-      </c>
+      <c r="E89" s="7"/>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3"/>
@@ -3916,10 +3924,10 @@
         <v>76</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3928,13 +3936,13 @@
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7" t="s">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>293</v>
+        <v>133</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>294</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3943,13 +3951,13 @@
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="7" t="s">
-        <v>74</v>
+        <v>235</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3961,10 +3969,10 @@
         <v>74</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>148</v>
+        <v>296</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3973,13 +3981,13 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>297</v>
+        <v>92</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>298</v>
+        <v>148</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3988,44 +3996,44 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F95" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96"/>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="G95" s="8" t="s">
+      <c r="G96" s="8" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3">
+    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
         <v>41086</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>290</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C97" t="s">
         <v>19</v>
       </c>
-      <c r="D96">
+      <c r="D97">
         <v>334</v>
       </c>
-      <c r="E96" s="7"/>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
-      <c r="E97" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>121</v>
-      </c>
+      <c r="E97" s="7"/>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -4033,13 +4041,13 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4051,10 +4059,10 @@
         <v>76</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4066,84 +4074,87 @@
         <v>76</v>
       </c>
       <c r="F100" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101"/>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F101" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G100" s="8" t="s">
+      <c r="G101" s="8" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3">
+    <row r="102" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
         <v>41110</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C102" t="s">
         <v>12</v>
       </c>
-      <c r="D101">
+      <c r="D102">
         <v>276</v>
       </c>
-      <c r="E101" s="7"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5"/>
-      <c r="B102" s="6"/>
-      <c r="C102" s="6"/>
-      <c r="D102" s="6">
-        <f>SUM(D4:D101)</f>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="5"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="6">
+        <f>SUM(D4:D102)</f>
         <v>4467</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
-      <c r="E104" s="19" t="s">
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="E105" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="F104" s="11" t="s">
+      <c r="F105" s="11" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
-      <c r="E105" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106"/>
       <c r="C106"/>
-      <c r="D106" t="s">
-        <v>232</v>
-      </c>
+      <c r="D106"/>
       <c r="E106" s="20" t="s">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="F106" s="13" t="s">
-        <v>486</v>
+        <v>75</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3"/>
       <c r="B107"/>
       <c r="C107"/>
-      <c r="D107"/>
+      <c r="D107" t="s">
+        <v>232</v>
+      </c>
       <c r="E107" s="20" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="F107" s="13" t="s">
-        <v>497</v>
+        <v>486</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4152,10 +4163,10 @@
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" s="20" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="F108" s="13" t="s">
-        <v>201</v>
+        <v>497</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4164,30 +4175,35 @@
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109" s="20" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F110" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E110" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="7"/>
+      <c r="E111" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3"/>
@@ -4252,8 +4268,12 @@
       <c r="D120"/>
       <c r="E120" s="7"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" s="7"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -4342,68 +4362,21 @@
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="1850" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1850" s="16"/>
-      <c r="B1850" s="16"/>
-      <c r="C1850" s="16" t="s">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+    </row>
+    <row r="1851" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1851" s="16"/>
+      <c r="B1851" s="16"/>
+      <c r="C1851" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1850" s="16"/>
-      <c r="G1850" s="16">
+      <c r="D1851" s="16"/>
+      <c r="G1851" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1850" s="16">
+      <c r="H1851" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1850" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1850" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1850" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1850" s="16"/>
-      <c r="M1850" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1850" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1850" s="16"/>
-      <c r="P1850" s="16"/>
-      <c r="Q1850" s="16"/>
-      <c r="R1850" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1850" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1850" s="16"/>
-      <c r="U1850" s="16"/>
-      <c r="V1850" s="16"/>
-      <c r="W1850" s="16"/>
-      <c r="X1850" s="16"/>
-    </row>
-    <row r="1851" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1851" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1851" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1851" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1851" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1851" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1851" s="16">
-        <v>72000</v>
       </c>
       <c r="I1851" s="16">
         <v>0</v>
@@ -4416,22 +4389,16 @@
       </c>
       <c r="L1851" s="16"/>
       <c r="M1851" s="16">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="N1851" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1851" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1851" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1851" s="16" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1851" s="16"/>
+      <c r="P1851" s="16"/>
+      <c r="Q1851" s="16"/>
       <c r="R1851" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S1851" s="16" t="s">
         <v>304</v>
@@ -4444,28 +4411,22 @@
     </row>
     <row r="1852" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1852" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1852" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1852" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D1852" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1852" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1852" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1852" s="16">
-        <v>23519.38</v>
+        <v>2342.17</v>
       </c>
       <c r="H1852" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="I1852" s="16">
         <v>0</v>
@@ -4478,22 +4439,22 @@
       </c>
       <c r="L1852" s="16"/>
       <c r="M1852" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="N1852" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O1852" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P1852" s="16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q1852" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R1852" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S1852" s="16" t="s">
         <v>304</v>
@@ -4506,28 +4467,28 @@
     </row>
     <row r="1853" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1853" s="16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1853" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1853" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D1853" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E1853" s="22">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="F1853" s="16">
         <v>0</v>
       </c>
       <c r="G1853" s="16">
-        <v>161.66999999999999</v>
+        <v>23519.38</v>
       </c>
       <c r="H1853" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="I1853" s="16">
         <v>0</v>
@@ -4540,22 +4501,22 @@
       </c>
       <c r="L1853" s="16"/>
       <c r="M1853" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="N1853" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O1853" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1853" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1853" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1853" s="16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S1853" s="16" t="s">
         <v>304</v>
@@ -4568,28 +4529,28 @@
     </row>
     <row r="1854" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1854" s="16" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B1854" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1854" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D1854" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E1854" s="22">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="F1854" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1854" s="16">
-        <v>300.43</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1854" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="I1854" s="16">
         <v>0</v>
@@ -4602,22 +4563,22 @@
       </c>
       <c r="L1854" s="16"/>
       <c r="M1854" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="N1854" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O1854" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1854" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1854" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1854" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="S1854" s="16" t="s">
         <v>304</v>
@@ -4630,28 +4591,28 @@
     </row>
     <row r="1855" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1855" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B1855" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1855" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D1855" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E1855" s="22">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="F1855" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1855" s="16">
-        <v>388.74</v>
+        <v>300.43</v>
       </c>
       <c r="H1855" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="I1855" s="16">
         <v>0</v>
@@ -4664,22 +4625,22 @@
       </c>
       <c r="L1855" s="16"/>
       <c r="M1855" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="N1855" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O1855" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1855" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1855" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1855" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S1855" s="16" t="s">
         <v>304</v>
@@ -4692,28 +4653,28 @@
     </row>
     <row r="1856" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1856" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B1856" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1856" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D1856" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E1856" s="22">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="F1856" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1856" s="16">
-        <v>450.44</v>
+        <v>388.74</v>
       </c>
       <c r="H1856" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="I1856" s="16">
         <v>0</v>
@@ -4726,22 +4687,22 @@
       </c>
       <c r="L1856" s="16"/>
       <c r="M1856" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="N1856" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O1856" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1856" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1856" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1856" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S1856" s="16" t="s">
         <v>304</v>
@@ -4754,28 +4715,28 @@
     </row>
     <row r="1857" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1857" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B1857" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1857" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D1857" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1857" s="22">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="F1857" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1857" s="16">
-        <v>1997.29</v>
+        <v>450.44</v>
       </c>
       <c r="H1857" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="I1857" s="16">
         <v>0</v>
@@ -4788,22 +4749,22 @@
       </c>
       <c r="L1857" s="16"/>
       <c r="M1857" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="N1857" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O1857" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1857" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1857" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1857" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S1857" s="16" t="s">
         <v>304</v>
@@ -4816,27 +4777,31 @@
     </row>
     <row r="1858" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1858" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B1858" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1858" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1858" s="16" t="s">
+        <v>352</v>
+      </c>
       <c r="D1858" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E1858" s="22">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="F1858" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1858" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G1858" s="16">
+        <v>1997.29</v>
+      </c>
       <c r="H1858" s="16">
-        <v>0</v>
+        <v>61398</v>
       </c>
       <c r="I1858" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1858" s="16">
         <v>0</v>
@@ -4846,16 +4811,26 @@
       </c>
       <c r="L1858" s="16"/>
       <c r="M1858" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1858" s="16"/>
+        <v>61398</v>
+      </c>
+      <c r="N1858" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="O1858" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1858" s="16"/>
-      <c r="Q1858" s="16"/>
-      <c r="R1858" s="16"/>
-      <c r="S1858" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1858" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1858" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1858" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1858" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1858" s="16"/>
       <c r="U1858" s="16"/>
       <c r="V1858" s="16"/>
@@ -4871,20 +4846,20 @@
       </c>
       <c r="C1859" s="16"/>
       <c r="D1859" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E1859" s="22">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="F1859" s="16">
-        <v>0</v>
+        <v>323.68</v>
       </c>
       <c r="G1859" s="16"/>
       <c r="H1859" s="16">
         <v>0</v>
       </c>
       <c r="I1859" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="J1859" s="16">
         <v>0</v>
@@ -4894,7 +4869,7 @@
       </c>
       <c r="L1859" s="16"/>
       <c r="M1859" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="N1859" s="16"/>
       <c r="O1859" s="16" t="s">
@@ -4912,23 +4887,27 @@
     </row>
     <row r="1860" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1860" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1860" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C1860" s="16"/>
       <c r="D1860" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1860" s="22"/>
-      <c r="F1860" s="16"/>
+        <v>359</v>
+      </c>
+      <c r="E1860" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1860" s="16">
+        <v>0</v>
+      </c>
       <c r="G1860" s="16"/>
       <c r="H1860" s="16">
         <v>0</v>
       </c>
       <c r="I1860" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="J1860" s="16">
         <v>0</v>
@@ -4938,7 +4917,7 @@
       </c>
       <c r="L1860" s="16"/>
       <c r="M1860" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="N1860" s="16"/>
       <c r="O1860" s="16" t="s">
@@ -4956,27 +4935,23 @@
     </row>
     <row r="1861" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1861" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1861" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1861" s="16" t="s">
-        <v>366</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1861" s="16"/>
       <c r="D1861" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E1861" s="22"/>
       <c r="F1861" s="16"/>
-      <c r="G1861" s="16">
-        <v>136.63</v>
-      </c>
+      <c r="G1861" s="16"/>
       <c r="H1861" s="16">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="I1861" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1861" s="16">
         <v>0</v>
@@ -4986,26 +4961,16 @@
       </c>
       <c r="L1861" s="16"/>
       <c r="M1861" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1861" s="16" t="s">
-        <v>368</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1861" s="16"/>
       <c r="O1861" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1861" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1861" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1861" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1861" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1861" s="16"/>
+      <c r="Q1861" s="16"/>
+      <c r="R1861" s="16"/>
+      <c r="S1861" s="16"/>
       <c r="T1861" s="16"/>
       <c r="U1861" s="16"/>
       <c r="V1861" s="16"/>
@@ -5014,24 +4979,24 @@
     </row>
     <row r="1862" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1862" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1862" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1862" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1862" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E1862" s="22"/>
       <c r="F1862" s="16"/>
       <c r="G1862" s="16">
-        <v>650.6</v>
+        <v>136.63</v>
       </c>
       <c r="H1862" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="I1862" s="16">
         <v>0</v>
@@ -5044,22 +5009,22 @@
       </c>
       <c r="L1862" s="16"/>
       <c r="M1862" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="N1862" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O1862" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1862" s="16" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q1862" s="16" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R1862" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="S1862" s="16" t="s">
         <v>304</v>
@@ -5072,28 +5037,24 @@
     </row>
     <row r="1863" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1863" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1863" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1863" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D1863" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1863" s="22">
-        <v>4200</v>
-      </c>
-      <c r="F1863" s="16">
-        <v>0</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E1863" s="22"/>
+      <c r="F1863" s="16"/>
       <c r="G1863" s="16">
-        <v>78.37</v>
+        <v>650.6</v>
       </c>
       <c r="H1863" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="I1863" s="16">
         <v>0</v>
@@ -5106,22 +5067,22 @@
       </c>
       <c r="L1863" s="16"/>
       <c r="M1863" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="N1863" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O1863" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1863" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1863" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1863" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S1863" s="16" t="s">
         <v>304</v>
@@ -5134,28 +5095,28 @@
     </row>
     <row r="1864" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1864" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B1864" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1864" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D1864" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E1864" s="22">
-        <v>320000</v>
+        <v>4200</v>
       </c>
       <c r="F1864" s="16">
         <v>0</v>
       </c>
       <c r="G1864" s="16">
-        <v>11758.05</v>
+        <v>78.37</v>
       </c>
       <c r="H1864" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="I1864" s="16">
         <v>0</v>
@@ -5168,22 +5129,22 @@
       </c>
       <c r="L1864" s="16"/>
       <c r="M1864" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="N1864" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O1864" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1864" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1864" s="16" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="R1864" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S1864" s="16" t="s">
         <v>304</v>
@@ -5196,28 +5157,28 @@
     </row>
     <row r="1865" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1865" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1865" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1865" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1865" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1865" s="22">
-        <v>2409</v>
+        <v>320000</v>
       </c>
       <c r="F1865" s="16">
         <v>0</v>
       </c>
       <c r="G1865" s="16">
-        <v>1073.5</v>
+        <v>11758.05</v>
       </c>
       <c r="H1865" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="I1865" s="16">
         <v>0</v>
@@ -5230,10 +5191,10 @@
       </c>
       <c r="L1865" s="16"/>
       <c r="M1865" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="N1865" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O1865" s="16" t="s">
         <v>311</v>
@@ -5242,9 +5203,11 @@
         <v>382</v>
       </c>
       <c r="Q1865" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1865" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="R1865" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="S1865" s="16" t="s">
         <v>304</v>
       </c>
@@ -5256,28 +5219,28 @@
     </row>
     <row r="1866" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1866" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B1866" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1866" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D1866" s="16" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E1866" s="22">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="F1866" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1866" s="16">
-        <v>267.5</v>
+        <v>1073.5</v>
       </c>
       <c r="H1866" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="I1866" s="16">
         <v>0</v>
@@ -5290,23 +5253,21 @@
       </c>
       <c r="L1866" s="16"/>
       <c r="M1866" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="N1866" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O1866" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1866" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1866" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1866" s="16" t="s">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1866" s="16"/>
       <c r="S1866" s="16" t="s">
         <v>304</v>
       </c>
@@ -5318,28 +5279,28 @@
     </row>
     <row r="1867" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1867" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1867" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1867" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D1867" s="16" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="E1867" s="22">
-        <v>477000</v>
+        <v>361450.61</v>
       </c>
       <c r="F1867" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1867" s="16">
-        <v>406.63</v>
+        <v>267.5</v>
       </c>
       <c r="H1867" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="I1867" s="16">
         <v>0</v>
@@ -5352,22 +5313,22 @@
       </c>
       <c r="L1867" s="16"/>
       <c r="M1867" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="N1867" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O1867" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1867" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1867" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1867" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S1867" s="16" t="s">
         <v>304</v>
@@ -5380,28 +5341,28 @@
     </row>
     <row r="1868" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1868" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B1868" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1868" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D1868" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1868" s="22">
-        <v>8223</v>
+        <v>477000</v>
       </c>
       <c r="F1868" s="16">
         <v>0</v>
       </c>
       <c r="G1868" s="16">
-        <v>3366.87</v>
+        <v>406.63</v>
       </c>
       <c r="H1868" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="I1868" s="16">
         <v>0</v>
@@ -5414,22 +5375,22 @@
       </c>
       <c r="L1868" s="16"/>
       <c r="M1868" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="N1868" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O1868" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1868" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1868" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1868" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S1868" s="16" t="s">
         <v>304</v>
@@ -5442,28 +5403,28 @@
     </row>
     <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1869" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1869" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1869" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D1869" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E1869" s="22">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="F1869" s="16">
         <v>0</v>
       </c>
       <c r="G1869" s="16">
-        <v>44.95</v>
+        <v>3366.87</v>
       </c>
       <c r="H1869" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="I1869" s="16">
         <v>0</v>
@@ -5476,22 +5437,22 @@
       </c>
       <c r="L1869" s="16"/>
       <c r="M1869" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="N1869" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O1869" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1869" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1869" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1869" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="S1869" s="16" t="s">
         <v>304</v>
@@ -5504,28 +5465,28 @@
     </row>
     <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1870" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1870" s="16" t="s">
         <v>407</v>
       </c>
       <c r="C1870" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D1870" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E1870" s="22">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="F1870" s="16">
         <v>0</v>
       </c>
       <c r="G1870" s="16">
-        <v>45.54</v>
+        <v>44.95</v>
       </c>
       <c r="H1870" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="I1870" s="16">
         <v>0</v>
@@ -5538,22 +5499,22 @@
       </c>
       <c r="L1870" s="16"/>
       <c r="M1870" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="N1870" s="16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O1870" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1870" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1870" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1870" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="S1870" s="16" t="s">
         <v>304</v>
@@ -5565,41 +5526,103 @@
       <c r="X1870" s="16"/>
     </row>
     <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1871" t="s">
+      <c r="A1871" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1871" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1871" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1871" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1871" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1871" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1871" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1871" s="16"/>
+      <c r="M1871" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1871" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1871" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1871" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1871" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1871" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1871" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1871" s="16"/>
+      <c r="U1871" s="16"/>
+      <c r="V1871" s="16"/>
+      <c r="W1871" s="16"/>
+      <c r="X1871" s="16"/>
+    </row>
+    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1872" t="s">
         <v>417</v>
       </c>
-      <c r="B1871" t="s">
+      <c r="B1872" t="s">
         <v>407</v>
       </c>
-      <c r="D1871" t="s">
+      <c r="D1872" t="s">
         <v>418</v>
       </c>
-      <c r="E1871" s="22">
+      <c r="E1872" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1871" s="16">
+      <c r="F1872" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1871" t="s">
+      <c r="O1872" t="s">
         <v>327</v>
       </c>
-      <c r="P1871" t="s">
+      <c r="P1872" t="s">
         <v>328</v>
       </c>
-      <c r="Q1871" t="s">
+      <c r="Q1872" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1872" s="22">
+    <row r="1873" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E1873" s="22">
         <v>1400</v>
       </c>
-      <c r="F1872" s="16">
+      <c r="F1873" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X101"/>
+  <autoFilter ref="A3:X102"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Documents\Pavel\match\match2.0\Deskription\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
@@ -14,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$97</definedName>
   </definedNames>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="625">
   <si>
     <t>дата</t>
   </si>
@@ -1843,6 +1848,87 @@
   </si>
   <si>
     <t>сброс Шага в таблице Процессов - РЕКУРСИЯ!</t>
+  </si>
+  <si>
+    <t>NewEntities</t>
+  </si>
+  <si>
+    <t>новые Платежи,Договоры и др</t>
+  </si>
+  <si>
+    <t>NewSheet(SheetName,[TabColor])</t>
+  </si>
+  <si>
+    <t>создает новый лист SheetName с Tab цвета TabColor</t>
+  </si>
+  <si>
+    <t>NewOrder(NewOrder)</t>
+  </si>
+  <si>
+    <t>просмотр Заказов для занесения в SF новых через DL</t>
+  </si>
+  <si>
+    <t>AccId(Account)</t>
+  </si>
+  <si>
+    <t>Id SF Организации по имени 1С</t>
+  </si>
+  <si>
+    <t>OwnerId(Owner, Buddy)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OppByPay(PayKod) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OppNbyPay(PayKod)   </t>
+  </si>
+  <si>
+    <t>получает Имя Проекта SF по Платежу 1С</t>
+  </si>
+  <si>
+    <t>получает номер Проекта SF по Платежу 1С</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OppNbyId(OppId) </t>
+  </si>
+  <si>
+    <t>получение номера Проекта OppN по его Id в SF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OppIdbyPay(PayKod) </t>
+  </si>
+  <si>
+    <t>получает Id SF Проекта по Платежу 1С</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>OppOwner(PayKod)</t>
+  </si>
+  <si>
+    <t>возвращает владельца Проекта SF по коду Платежа 1С</t>
+  </si>
+  <si>
+    <t>OppNameById(OppId)</t>
+  </si>
+  <si>
+    <t>получение имени Проекта по его Id в SPopp</t>
+  </si>
+  <si>
+    <t>ContrCod(Contr, MainContr)</t>
+  </si>
+  <si>
+    <t>формирование строки &lt;Осн.договор/Договор&gt;</t>
+  </si>
+  <si>
+    <t>X-[*]</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>GoodJob(G)</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +2036,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -2059,11 +2145,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2116,6 +2211,14 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2176,7 +2279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2211,7 +2314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2423,17 +2526,17 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1873"/>
+  <dimension ref="A1:X1894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A83" sqref="A83"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" style="8" customWidth="1"/>
@@ -2445,7 +2548,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41508</v>
+        <v>41509</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -3766,9 +3869,9 @@
       <c r="F80" s="17"/>
       <c r="G80" s="24"/>
     </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
-        <v>41504</v>
+        <v>41509</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -3783,7 +3886,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
         <v>41165</v>
       </c>
@@ -3800,7 +3903,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>41504</v>
       </c>
@@ -3811,13 +3914,13 @@
         <v>561</v>
       </c>
       <c r="D83">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
-        <v>41312</v>
+        <v>41509</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
@@ -3826,66 +3929,64 @@
         <v>472</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>473</v>
+        <v>600</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>474</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>41217</v>
+        <v>41401</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7" t="s">
-        <v>472</v>
+        <v>452</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>41166</v>
-      </c>
-      <c r="B86"/>
-      <c r="C86"/>
-      <c r="D86"/>
-      <c r="E86" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>480</v>
-      </c>
+        <v>603</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B86" t="s">
+        <v>598</v>
+      </c>
+      <c r="C86" t="s">
+        <v>599</v>
+      </c>
+      <c r="D86">
+        <v>307</v>
+      </c>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
-        <v>41135</v>
+        <v>41312</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
       <c r="D87"/>
       <c r="E87" s="7" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
-        <v>41152</v>
+        <v>41217</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -3894,71 +3995,77 @@
         <v>472</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>41473</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>485</v>
-      </c>
-      <c r="D89">
-        <v>181</v>
-      </c>
-      <c r="E89" s="7"/>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="25">
+        <v>41166</v>
+      </c>
+      <c r="B89"/>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="25">
+        <v>41135</v>
+      </c>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
       <c r="E90" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>132</v>
+        <v>481</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>134</v>
+        <v>482</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="25">
+        <v>41152</v>
+      </c>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7" t="s">
-        <v>76</v>
+        <v>472</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>133</v>
+        <v>483</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92"/>
-      <c r="C92"/>
-      <c r="D92"/>
-      <c r="E92" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="G92" s="8" t="s">
-        <v>294</v>
-      </c>
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>41473</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>485</v>
+      </c>
+      <c r="D92">
+        <v>181</v>
+      </c>
+      <c r="E92" s="7"/>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3"/>
@@ -3966,13 +4073,13 @@
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="7" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>295</v>
+        <v>120</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>296</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3981,13 +4088,13 @@
       <c r="C94"/>
       <c r="D94"/>
       <c r="E94" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3996,13 +4103,13 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>297</v>
+        <v>124</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>298</v>
+        <v>128</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4011,27 +4118,27 @@
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>299</v>
+        <v>125</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>300</v>
+        <v>129</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <v>41086</v>
-      </c>
-      <c r="B97" t="s">
-        <v>290</v>
-      </c>
-      <c r="C97" t="s">
-        <v>19</v>
-      </c>
-      <c r="D97">
-        <v>334</v>
+      <c r="A97" s="28">
+        <v>41110</v>
+      </c>
+      <c r="B97" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="D97" s="29">
+        <v>276</v>
       </c>
       <c r="E97" s="7"/>
     </row>
@@ -4041,13 +4148,13 @@
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>120</v>
+        <v>604</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>121</v>
+        <v>605</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4056,13 +4163,13 @@
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>122</v>
+        <v>606</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4071,13 +4178,13 @@
       <c r="C100"/>
       <c r="D100"/>
       <c r="E100" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>124</v>
+        <v>607</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>128</v>
+        <v>609</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4086,262 +4193,526 @@
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>125</v>
+        <v>608</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3">
-        <v>41110</v>
-      </c>
-      <c r="B102" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" t="s">
-        <v>12</v>
-      </c>
-      <c r="D102">
-        <v>276</v>
-      </c>
-      <c r="E102" s="7"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5"/>
-      <c r="B103" s="6"/>
-      <c r="C103" s="6"/>
-      <c r="D103" s="6">
-        <f>SUM(D4:D102)</f>
-        <v>4467</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102"/>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G102" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3"/>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3"/>
-      <c r="E105" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F105" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="G105" s="8" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
-      <c r="E106" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107" t="s">
-        <v>232</v>
-      </c>
-      <c r="E107" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="E106" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>40968</v>
+      </c>
+      <c r="B107" t="s">
+        <v>40</v>
+      </c>
+      <c r="C107" t="s">
+        <v>41</v>
+      </c>
+      <c r="D107">
+        <v>304</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="25"/>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
-      <c r="E108" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="E108" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="25"/>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="E109" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="25"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
+      <c r="E110" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G110" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="25"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F111" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
+      <c r="E111" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="25"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="7"/>
-    </row>
-    <row r="113" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="E112" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
+        <v>41268</v>
+      </c>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="E113" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
+        <v>41308</v>
+      </c>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
-      <c r="E114" s="7"/>
-    </row>
-    <row r="115" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="E114" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116"/>
-      <c r="C116"/>
-      <c r="D116"/>
-      <c r="E116" s="7"/>
-    </row>
-    <row r="117" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G115" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>40980</v>
+      </c>
+      <c r="B116" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116">
+        <v>683</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>43</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G117" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
-      <c r="E118" s="7"/>
-    </row>
-    <row r="119" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>74</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G118" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119" s="7"/>
-    </row>
-    <row r="120" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>74</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
-      <c r="E120" s="7"/>
-    </row>
-    <row r="121" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>192</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
-      <c r="E121" s="7"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>43</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3">
+        <v>41047</v>
+      </c>
+      <c r="B123" t="s">
+        <v>183</v>
+      </c>
+      <c r="C123" t="s">
+        <v>184</v>
+      </c>
+      <c r="D123">
+        <v>473</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="30"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="D124" s="31">
+        <f>SUM(D4:D123)</f>
+        <v>5934</v>
+      </c>
+      <c r="E124" s="32"/>
+      <c r="F124" s="33"/>
+      <c r="G124" s="33"/>
+      <c r="H124" s="33"/>
+    </row>
+    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E126" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B127"/>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128"/>
+      <c r="C128"/>
+      <c r="D128" t="s">
+        <v>232</v>
+      </c>
+      <c r="E128" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134"/>
+      <c r="C134"/>
+      <c r="D134"/>
+      <c r="E134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135"/>
+      <c r="C135"/>
+      <c r="D135"/>
+      <c r="E135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136"/>
+      <c r="C136"/>
+      <c r="D136"/>
+      <c r="E136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137"/>
+      <c r="C137"/>
+      <c r="D137"/>
+      <c r="E137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138"/>
+      <c r="C138"/>
+      <c r="D138"/>
+      <c r="E138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
+      <c r="E139" s="7"/>
+    </row>
+    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140" s="7"/>
+    </row>
+    <row r="141" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
@@ -4365,1264 +4736,1327 @@
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="1851" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1851" s="16"/>
-      <c r="B1851" s="16"/>
-      <c r="C1851" s="16" t="s">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1872" s="16"/>
+      <c r="B1872" s="16"/>
+      <c r="C1872" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1851" s="16"/>
-      <c r="G1851" s="16">
+      <c r="D1872" s="16"/>
+      <c r="G1872" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1851" s="16">
+      <c r="H1872" s="16">
         <v>736016.15</v>
       </c>
-      <c r="I1851" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1851" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1851" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1851" s="16"/>
-      <c r="M1851" s="16">
+      <c r="I1872" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1872" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1872" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1872" s="16"/>
+      <c r="M1872" s="16">
         <v>736016.15</v>
       </c>
-      <c r="N1851" s="16" t="s">
+      <c r="N1872" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="O1851" s="16"/>
-      <c r="P1851" s="16"/>
-      <c r="Q1851" s="16"/>
-      <c r="R1851" s="16" t="s">
+      <c r="O1872" s="16"/>
+      <c r="P1872" s="16"/>
+      <c r="Q1872" s="16"/>
+      <c r="R1872" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="S1851" s="16" t="s">
+      <c r="S1872" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1851" s="16"/>
-      <c r="U1851" s="16"/>
-      <c r="V1851" s="16"/>
-      <c r="W1851" s="16"/>
-      <c r="X1851" s="16"/>
-    </row>
-    <row r="1852" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1852" s="16" t="s">
+      <c r="T1872" s="16"/>
+      <c r="U1872" s="16"/>
+      <c r="V1872" s="16"/>
+      <c r="W1872" s="16"/>
+      <c r="X1872" s="16"/>
+    </row>
+    <row r="1873" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1873" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="B1852" s="16" t="s">
+      <c r="B1873" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1852" s="16" t="s">
+      <c r="C1873" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="D1852" s="16" t="s">
+      <c r="D1873" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="G1852" s="16">
+      <c r="G1873" s="16">
         <v>2342.17</v>
       </c>
-      <c r="H1852" s="16">
+      <c r="H1873" s="16">
         <v>72000</v>
       </c>
-      <c r="I1852" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1852" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1852" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1852" s="16"/>
-      <c r="M1852" s="16">
+      <c r="I1873" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1873" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1873" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1873" s="16"/>
+      <c r="M1873" s="16">
         <v>72000</v>
       </c>
-      <c r="N1852" s="16" t="s">
+      <c r="N1873" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="O1852" s="16" t="s">
+      <c r="O1873" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1852" s="16" t="s">
+      <c r="P1873" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="Q1852" s="16" t="s">
+      <c r="Q1873" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="R1852" s="16" t="s">
+      <c r="R1873" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="S1852" s="16" t="s">
+      <c r="S1873" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1852" s="16"/>
-      <c r="U1852" s="16"/>
-      <c r="V1852" s="16"/>
-      <c r="W1852" s="16"/>
-      <c r="X1852" s="16"/>
-    </row>
-    <row r="1853" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1853" s="16" t="s">
+      <c r="T1873" s="16"/>
+      <c r="U1873" s="16"/>
+      <c r="V1873" s="16"/>
+      <c r="W1873" s="16"/>
+      <c r="X1873" s="16"/>
+    </row>
+    <row r="1874" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1874" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="B1853" s="16" t="s">
+      <c r="B1874" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1853" s="16" t="s">
+      <c r="C1874" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="D1853" s="16" t="s">
+      <c r="D1874" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="E1853" s="22">
+      <c r="E1874" s="22">
         <v>736016.15</v>
       </c>
-      <c r="F1853" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1853" s="16">
+      <c r="F1874" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1874" s="16">
         <v>23519.38</v>
       </c>
-      <c r="H1853" s="16">
+      <c r="H1874" s="16">
         <v>723002.17</v>
       </c>
-      <c r="I1853" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1853" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1853" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1853" s="16"/>
-      <c r="M1853" s="16">
+      <c r="I1874" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1874" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1874" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1874" s="16"/>
+      <c r="M1874" s="16">
         <v>723002.17</v>
       </c>
-      <c r="N1853" s="16" t="s">
+      <c r="N1874" s="16" t="s">
         <v>324</v>
       </c>
-      <c r="O1853" s="16" t="s">
+      <c r="O1874" s="16" t="s">
         <v>319</v>
       </c>
-      <c r="P1853" s="16" t="s">
+      <c r="P1874" s="16" t="s">
         <v>320</v>
       </c>
-      <c r="Q1853" s="16" t="s">
+      <c r="Q1874" s="16" t="s">
         <v>321</v>
       </c>
-      <c r="R1853" s="16" t="s">
+      <c r="R1874" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="S1853" s="16" t="s">
+      <c r="S1874" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1853" s="16"/>
-      <c r="U1853" s="16"/>
-      <c r="V1853" s="16"/>
-      <c r="W1853" s="16"/>
-      <c r="X1853" s="16"/>
-    </row>
-    <row r="1854" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1854" s="16" t="s">
+      <c r="T1874" s="16"/>
+      <c r="U1874" s="16"/>
+      <c r="V1874" s="16"/>
+      <c r="W1874" s="16"/>
+      <c r="X1874" s="16"/>
+    </row>
+    <row r="1875" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1875" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="B1854" s="16" t="s">
+      <c r="B1875" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1854" s="16" t="s">
+      <c r="C1875" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="D1854" s="16" t="s">
+      <c r="D1875" s="16" t="s">
         <v>326</v>
       </c>
-      <c r="E1854" s="22">
+      <c r="E1875" s="22">
         <v>72000</v>
       </c>
-      <c r="F1854" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1854" s="16">
+      <c r="F1875" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1875" s="16">
         <v>161.66999999999999</v>
       </c>
-      <c r="H1854" s="16">
+      <c r="H1875" s="16">
         <v>4970</v>
       </c>
-      <c r="I1854" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1854" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1854" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1854" s="16"/>
-      <c r="M1854" s="16">
+      <c r="I1875" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1875" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1875" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1875" s="16"/>
+      <c r="M1875" s="16">
         <v>4970</v>
       </c>
-      <c r="N1854" s="16" t="s">
+      <c r="N1875" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="O1854" s="16" t="s">
+      <c r="O1875" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1854" s="16" t="s">
+      <c r="P1875" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1854" s="16" t="s">
+      <c r="Q1875" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1854" s="16" t="s">
+      <c r="R1875" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="S1854" s="16" t="s">
+      <c r="S1875" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1854" s="16"/>
-      <c r="U1854" s="16"/>
-      <c r="V1854" s="16"/>
-      <c r="W1854" s="16"/>
-      <c r="X1854" s="16"/>
-    </row>
-    <row r="1855" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1855" s="16" t="s">
+      <c r="T1875" s="16"/>
+      <c r="U1875" s="16"/>
+      <c r="V1875" s="16"/>
+      <c r="W1875" s="16"/>
+      <c r="X1875" s="16"/>
+    </row>
+    <row r="1876" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1876" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B1855" s="16" t="s">
+      <c r="B1876" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1855" s="16" t="s">
+      <c r="C1876" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="D1855" s="16" t="s">
+      <c r="D1876" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E1855" s="22">
+      <c r="E1876" s="22">
         <v>723002.17</v>
       </c>
-      <c r="F1855" s="16">
+      <c r="F1876" s="16">
         <v>16900.55</v>
       </c>
-      <c r="G1855" s="16">
+      <c r="G1876" s="16">
         <v>300.43</v>
       </c>
-      <c r="H1855" s="16">
+      <c r="H1876" s="16">
         <v>9235.48</v>
       </c>
-      <c r="I1855" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1855" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1855" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1855" s="16"/>
-      <c r="M1855" s="16">
+      <c r="I1876" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1876" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1876" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1876" s="16"/>
+      <c r="M1876" s="16">
         <v>9235.48</v>
       </c>
-      <c r="N1855" s="16" t="s">
+      <c r="N1876" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="O1855" s="16" t="s">
+      <c r="O1876" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1855" s="16" t="s">
+      <c r="P1876" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1855" s="16" t="s">
+      <c r="Q1876" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1855" s="16" t="s">
+      <c r="R1876" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="S1855" s="16" t="s">
+      <c r="S1876" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1855" s="16"/>
-      <c r="U1855" s="16"/>
-      <c r="V1855" s="16"/>
-      <c r="W1855" s="16"/>
-      <c r="X1855" s="16"/>
-    </row>
-    <row r="1856" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1856" s="16" t="s">
+      <c r="T1876" s="16"/>
+      <c r="U1876" s="16"/>
+      <c r="V1876" s="16"/>
+      <c r="W1876" s="16"/>
+      <c r="X1876" s="16"/>
+    </row>
+    <row r="1877" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1877" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="B1856" s="16" t="s">
+      <c r="B1877" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1856" s="16" t="s">
+      <c r="C1877" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="D1856" s="16" t="s">
+      <c r="D1877" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="E1856" s="22">
+      <c r="E1877" s="22">
         <v>4970</v>
       </c>
-      <c r="F1856" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1856" s="16">
+      <c r="F1877" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1877" s="16">
         <v>388.74</v>
       </c>
-      <c r="H1856" s="16">
+      <c r="H1877" s="16">
         <v>11950</v>
       </c>
-      <c r="I1856" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1856" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1856" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1856" s="16"/>
-      <c r="M1856" s="16">
+      <c r="I1877" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1877" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1877" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1877" s="16"/>
+      <c r="M1877" s="16">
         <v>11950</v>
       </c>
-      <c r="N1856" s="16" t="s">
+      <c r="N1877" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="O1856" s="16" t="s">
+      <c r="O1877" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1856" s="16" t="s">
+      <c r="P1877" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1856" s="16" t="s">
+      <c r="Q1877" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1856" s="16" t="s">
+      <c r="R1877" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="S1856" s="16" t="s">
+      <c r="S1877" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1856" s="16"/>
-      <c r="U1856" s="16"/>
-      <c r="V1856" s="16"/>
-      <c r="W1856" s="16"/>
-      <c r="X1856" s="16"/>
-    </row>
-    <row r="1857" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1857" s="16" t="s">
+      <c r="T1877" s="16"/>
+      <c r="U1877" s="16"/>
+      <c r="V1877" s="16"/>
+      <c r="W1877" s="16"/>
+      <c r="X1877" s="16"/>
+    </row>
+    <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1878" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="B1857" s="16" t="s">
+      <c r="B1878" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1857" s="16" t="s">
+      <c r="C1878" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="D1857" s="16" t="s">
+      <c r="D1878" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="E1857" s="22">
+      <c r="E1878" s="22">
         <v>9235.48</v>
       </c>
-      <c r="F1857" s="16">
+      <c r="F1878" s="16">
         <v>161.84</v>
       </c>
-      <c r="G1857" s="16">
+      <c r="G1878" s="16">
         <v>450.44</v>
       </c>
-      <c r="H1857" s="16">
+      <c r="H1878" s="16">
         <v>13846.96</v>
       </c>
-      <c r="I1857" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1857" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1857" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1857" s="16"/>
-      <c r="M1857" s="16">
+      <c r="I1878" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1878" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1878" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1878" s="16"/>
+      <c r="M1878" s="16">
         <v>13846.96</v>
       </c>
-      <c r="N1857" s="16" t="s">
+      <c r="N1878" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="O1857" s="16" t="s">
+      <c r="O1878" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1857" s="16" t="s">
+      <c r="P1878" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1857" s="16" t="s">
+      <c r="Q1878" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1857" s="16" t="s">
+      <c r="R1878" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="S1857" s="16" t="s">
+      <c r="S1878" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1857" s="16"/>
-      <c r="U1857" s="16"/>
-      <c r="V1857" s="16"/>
-      <c r="W1857" s="16"/>
-      <c r="X1857" s="16"/>
-    </row>
-    <row r="1858" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1858" s="16" t="s">
+      <c r="T1878" s="16"/>
+      <c r="U1878" s="16"/>
+      <c r="V1878" s="16"/>
+      <c r="W1878" s="16"/>
+      <c r="X1878" s="16"/>
+    </row>
+    <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1879" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="B1858" s="16" t="s">
+      <c r="B1879" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="C1858" s="16" t="s">
+      <c r="C1879" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="D1858" s="16" t="s">
+      <c r="D1879" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="E1858" s="22">
+      <c r="E1879" s="22">
         <v>11950</v>
       </c>
-      <c r="F1858" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1858" s="16">
+      <c r="F1879" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1879" s="16">
         <v>1997.29</v>
       </c>
-      <c r="H1858" s="16">
+      <c r="H1879" s="16">
         <v>61398</v>
       </c>
-      <c r="I1858" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1858" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1858" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1858" s="16"/>
-      <c r="M1858" s="16">
+      <c r="I1879" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1879" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1879" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1879" s="16"/>
+      <c r="M1879" s="16">
         <v>61398</v>
       </c>
-      <c r="N1858" s="16" t="s">
+      <c r="N1879" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="O1858" s="16" t="s">
+      <c r="O1879" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1858" s="16" t="s">
+      <c r="P1879" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1858" s="16" t="s">
+      <c r="Q1879" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1858" s="16" t="s">
+      <c r="R1879" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="S1858" s="16" t="s">
+      <c r="S1879" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1858" s="16"/>
-      <c r="U1858" s="16"/>
-      <c r="V1858" s="16"/>
-      <c r="W1858" s="16"/>
-      <c r="X1858" s="16"/>
-    </row>
-    <row r="1859" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1859" s="16" t="s">
+      <c r="T1879" s="16"/>
+      <c r="U1879" s="16"/>
+      <c r="V1879" s="16"/>
+      <c r="W1879" s="16"/>
+      <c r="X1879" s="16"/>
+    </row>
+    <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1880" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B1859" s="16" t="s">
+      <c r="B1880" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1859" s="16"/>
-      <c r="D1859" s="16" t="s">
+      <c r="C1880" s="16"/>
+      <c r="D1880" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="E1859" s="22">
+      <c r="E1880" s="22">
         <v>13846.96</v>
       </c>
-      <c r="F1859" s="16">
+      <c r="F1880" s="16">
         <v>323.68</v>
       </c>
-      <c r="G1859" s="16"/>
-      <c r="H1859" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1859" s="16">
+      <c r="G1880" s="16"/>
+      <c r="H1880" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1880" s="16">
         <v>14000</v>
       </c>
-      <c r="J1859" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1859" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1859" s="16"/>
-      <c r="M1859" s="16">
+      <c r="J1880" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1880" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1880" s="16"/>
+      <c r="M1880" s="16">
         <v>14000</v>
       </c>
-      <c r="N1859" s="16"/>
-      <c r="O1859" s="16" t="s">
+      <c r="N1880" s="16"/>
+      <c r="O1880" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="P1859" s="16"/>
-      <c r="Q1859" s="16"/>
-      <c r="R1859" s="16"/>
-      <c r="S1859" s="16"/>
-      <c r="T1859" s="16"/>
-      <c r="U1859" s="16"/>
-      <c r="V1859" s="16"/>
-      <c r="W1859" s="16"/>
-      <c r="X1859" s="16"/>
-    </row>
-    <row r="1860" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1860" s="16" t="s">
+      <c r="P1880" s="16"/>
+      <c r="Q1880" s="16"/>
+      <c r="R1880" s="16"/>
+      <c r="S1880" s="16"/>
+      <c r="T1880" s="16"/>
+      <c r="U1880" s="16"/>
+      <c r="V1880" s="16"/>
+      <c r="W1880" s="16"/>
+      <c r="X1880" s="16"/>
+    </row>
+    <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1881" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="B1860" s="16" t="s">
+      <c r="B1881" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1860" s="16"/>
-      <c r="D1860" s="16" t="s">
+      <c r="C1881" s="16"/>
+      <c r="D1881" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="E1860" s="22">
+      <c r="E1881" s="22">
         <v>61398</v>
       </c>
-      <c r="F1860" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1860" s="16"/>
-      <c r="H1860" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1860" s="16">
+      <c r="F1881" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1881" s="16"/>
+      <c r="H1881" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1881" s="16">
         <v>7150</v>
       </c>
-      <c r="J1860" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1860" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1860" s="16"/>
-      <c r="M1860" s="16">
+      <c r="J1881" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1881" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1881" s="16"/>
+      <c r="M1881" s="16">
         <v>7150</v>
       </c>
-      <c r="N1860" s="16"/>
-      <c r="O1860" s="16" t="s">
+      <c r="N1881" s="16"/>
+      <c r="O1881" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="P1860" s="16"/>
-      <c r="Q1860" s="16"/>
-      <c r="R1860" s="16"/>
-      <c r="S1860" s="16"/>
-      <c r="T1860" s="16"/>
-      <c r="U1860" s="16"/>
-      <c r="V1860" s="16"/>
-      <c r="W1860" s="16"/>
-      <c r="X1860" s="16"/>
-    </row>
-    <row r="1861" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1861" s="16" t="s">
+      <c r="P1881" s="16"/>
+      <c r="Q1881" s="16"/>
+      <c r="R1881" s="16"/>
+      <c r="S1881" s="16"/>
+      <c r="T1881" s="16"/>
+      <c r="U1881" s="16"/>
+      <c r="V1881" s="16"/>
+      <c r="W1881" s="16"/>
+      <c r="X1881" s="16"/>
+    </row>
+    <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1882" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="B1861" s="16" t="s">
+      <c r="B1882" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="C1861" s="16"/>
-      <c r="D1861" s="16" t="s">
+      <c r="C1882" s="16"/>
+      <c r="D1882" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="E1861" s="22"/>
-      <c r="F1861" s="16"/>
-      <c r="G1861" s="16"/>
-      <c r="H1861" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1861" s="16">
+      <c r="E1882" s="22"/>
+      <c r="F1882" s="16"/>
+      <c r="G1882" s="16"/>
+      <c r="H1882" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1882" s="16">
         <v>1100</v>
       </c>
-      <c r="J1861" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1861" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1861" s="16"/>
-      <c r="M1861" s="16">
+      <c r="J1882" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1882" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1882" s="16"/>
+      <c r="M1882" s="16">
         <v>1100</v>
       </c>
-      <c r="N1861" s="16"/>
-      <c r="O1861" s="16" t="s">
+      <c r="N1882" s="16"/>
+      <c r="O1882" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="P1861" s="16"/>
-      <c r="Q1861" s="16"/>
-      <c r="R1861" s="16"/>
-      <c r="S1861" s="16"/>
-      <c r="T1861" s="16"/>
-      <c r="U1861" s="16"/>
-      <c r="V1861" s="16"/>
-      <c r="W1861" s="16"/>
-      <c r="X1861" s="16"/>
-    </row>
-    <row r="1862" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1862" s="16" t="s">
+      <c r="P1882" s="16"/>
+      <c r="Q1882" s="16"/>
+      <c r="R1882" s="16"/>
+      <c r="S1882" s="16"/>
+      <c r="T1882" s="16"/>
+      <c r="U1882" s="16"/>
+      <c r="V1882" s="16"/>
+      <c r="W1882" s="16"/>
+      <c r="X1882" s="16"/>
+    </row>
+    <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1883" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B1862" s="16" t="s">
+      <c r="B1883" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C1862" s="16" t="s">
+      <c r="C1883" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="D1862" s="16" t="s">
+      <c r="D1883" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="E1862" s="22"/>
-      <c r="F1862" s="16"/>
-      <c r="G1862" s="16">
+      <c r="E1883" s="22"/>
+      <c r="F1883" s="16"/>
+      <c r="G1883" s="16">
         <v>136.63</v>
       </c>
-      <c r="H1862" s="16">
+      <c r="H1883" s="16">
         <v>4200</v>
       </c>
-      <c r="I1862" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1862" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1862" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1862" s="16"/>
-      <c r="M1862" s="16">
+      <c r="I1883" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1883" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1883" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1883" s="16"/>
+      <c r="M1883" s="16">
         <v>4200</v>
       </c>
-      <c r="N1862" s="16" t="s">
+      <c r="N1883" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="O1862" s="16" t="s">
+      <c r="O1883" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1862" s="16" t="s">
+      <c r="P1883" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1862" s="16" t="s">
+      <c r="Q1883" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1862" s="16" t="s">
+      <c r="R1883" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="S1862" s="16" t="s">
+      <c r="S1883" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1862" s="16"/>
-      <c r="U1862" s="16"/>
-      <c r="V1862" s="16"/>
-      <c r="W1862" s="16"/>
-      <c r="X1862" s="16"/>
-    </row>
-    <row r="1863" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1863" s="16" t="s">
+      <c r="T1883" s="16"/>
+      <c r="U1883" s="16"/>
+      <c r="V1883" s="16"/>
+      <c r="W1883" s="16"/>
+      <c r="X1883" s="16"/>
+    </row>
+    <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1884" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="B1863" s="16" t="s">
+      <c r="B1884" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C1863" s="16" t="s">
+      <c r="C1884" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="D1863" s="16" t="s">
+      <c r="D1884" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="E1863" s="22"/>
-      <c r="F1863" s="16"/>
-      <c r="G1863" s="16">
+      <c r="E1884" s="22"/>
+      <c r="F1884" s="16"/>
+      <c r="G1884" s="16">
         <v>650.6</v>
       </c>
-      <c r="H1863" s="16">
+      <c r="H1884" s="16">
         <v>20000</v>
       </c>
-      <c r="I1863" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1863" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1863" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1863" s="16"/>
-      <c r="M1863" s="16">
+      <c r="I1884" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1884" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1884" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1884" s="16"/>
+      <c r="M1884" s="16">
         <v>20000</v>
       </c>
-      <c r="N1863" s="16" t="s">
+      <c r="N1884" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="O1863" s="16" t="s">
+      <c r="O1884" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1863" s="16" t="s">
+      <c r="P1884" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="Q1863" s="16" t="s">
+      <c r="Q1884" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="R1863" s="16" t="s">
+      <c r="R1884" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="S1863" s="16" t="s">
+      <c r="S1884" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1863" s="16"/>
-      <c r="U1863" s="16"/>
-      <c r="V1863" s="16"/>
-      <c r="W1863" s="16"/>
-      <c r="X1863" s="16"/>
-    </row>
-    <row r="1864" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1864" s="16" t="s">
+      <c r="T1884" s="16"/>
+      <c r="U1884" s="16"/>
+      <c r="V1884" s="16"/>
+      <c r="W1884" s="16"/>
+      <c r="X1884" s="16"/>
+    </row>
+    <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1885" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="B1864" s="16" t="s">
+      <c r="B1885" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="C1864" s="16" t="s">
+      <c r="C1885" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="D1864" s="16" t="s">
+      <c r="D1885" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E1864" s="22">
+      <c r="E1885" s="22">
         <v>4200</v>
       </c>
-      <c r="F1864" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1864" s="16">
+      <c r="F1885" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1885" s="16">
         <v>78.37</v>
       </c>
-      <c r="H1864" s="16">
+      <c r="H1885" s="16">
         <v>2409</v>
       </c>
-      <c r="I1864" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1864" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1864" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1864" s="16"/>
-      <c r="M1864" s="16">
+      <c r="I1885" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1885" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1885" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1885" s="16"/>
+      <c r="M1885" s="16">
         <v>2409</v>
       </c>
-      <c r="N1864" s="16" t="s">
+      <c r="N1885" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="O1864" s="16" t="s">
+      <c r="O1885" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1864" s="16" t="s">
+      <c r="P1885" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1864" s="16" t="s">
+      <c r="Q1885" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1864" s="16" t="s">
+      <c r="R1885" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="S1864" s="16" t="s">
+      <c r="S1885" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1864" s="16"/>
-      <c r="U1864" s="16"/>
-      <c r="V1864" s="16"/>
-      <c r="W1864" s="16"/>
-      <c r="X1864" s="16"/>
-    </row>
-    <row r="1865" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1865" s="16" t="s">
+      <c r="T1885" s="16"/>
+      <c r="U1885" s="16"/>
+      <c r="V1885" s="16"/>
+      <c r="W1885" s="16"/>
+      <c r="X1885" s="16"/>
+    </row>
+    <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1886" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="B1865" s="16" t="s">
+      <c r="B1886" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1865" s="16" t="s">
+      <c r="C1886" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="D1865" s="16" t="s">
+      <c r="D1886" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="E1865" s="22">
+      <c r="E1886" s="22">
         <v>320000</v>
       </c>
-      <c r="F1865" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1865" s="16">
+      <c r="F1886" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1886" s="16">
         <v>11758.05</v>
       </c>
-      <c r="H1865" s="16">
+      <c r="H1886" s="16">
         <v>361450.61</v>
       </c>
-      <c r="I1865" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1865" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1865" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1865" s="16"/>
-      <c r="M1865" s="16">
+      <c r="I1886" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1886" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1886" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1886" s="16"/>
+      <c r="M1886" s="16">
         <v>361450.61</v>
       </c>
-      <c r="N1865" s="16" t="s">
+      <c r="N1886" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="O1865" s="16" t="s">
+      <c r="O1886" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1865" s="16" t="s">
+      <c r="P1886" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="Q1865" s="16" t="s">
+      <c r="Q1886" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="R1865" s="16" t="s">
+      <c r="R1886" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="S1865" s="16" t="s">
+      <c r="S1886" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1865" s="16"/>
-      <c r="U1865" s="16"/>
-      <c r="V1865" s="16"/>
-      <c r="W1865" s="16"/>
-      <c r="X1865" s="16"/>
-    </row>
-    <row r="1866" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1866" s="16" t="s">
+      <c r="T1886" s="16"/>
+      <c r="U1886" s="16"/>
+      <c r="V1886" s="16"/>
+      <c r="W1886" s="16"/>
+      <c r="X1886" s="16"/>
+    </row>
+    <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1887" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="B1866" s="16" t="s">
+      <c r="B1887" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1866" s="16" t="s">
+      <c r="C1887" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="D1866" s="16" t="s">
+      <c r="D1887" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="E1866" s="22">
+      <c r="E1887" s="22">
         <v>2409</v>
       </c>
-      <c r="F1866" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1866" s="16">
+      <c r="F1887" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1887" s="16">
         <v>1073.5</v>
       </c>
-      <c r="H1866" s="16">
+      <c r="H1887" s="16">
         <v>33000</v>
       </c>
-      <c r="I1866" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1866" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1866" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1866" s="16"/>
-      <c r="M1866" s="16">
+      <c r="I1887" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1887" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1887" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1887" s="16"/>
+      <c r="M1887" s="16">
         <v>33000</v>
       </c>
-      <c r="N1866" s="16" t="s">
+      <c r="N1887" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="O1866" s="16" t="s">
+      <c r="O1887" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="P1866" s="16" t="s">
+      <c r="P1887" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="Q1866" s="16" t="s">
+      <c r="Q1887" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="R1866" s="16"/>
-      <c r="S1866" s="16" t="s">
+      <c r="R1887" s="16"/>
+      <c r="S1887" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1866" s="16"/>
-      <c r="U1866" s="16"/>
-      <c r="V1866" s="16"/>
-      <c r="W1866" s="16"/>
-      <c r="X1866" s="16"/>
-    </row>
-    <row r="1867" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1867" s="16" t="s">
+      <c r="T1887" s="16"/>
+      <c r="U1887" s="16"/>
+      <c r="V1887" s="16"/>
+      <c r="W1887" s="16"/>
+      <c r="X1887" s="16"/>
+    </row>
+    <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1888" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="B1867" s="16" t="s">
+      <c r="B1888" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1867" s="16" t="s">
+      <c r="C1888" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="D1867" s="16" t="s">
+      <c r="D1888" s="16" t="s">
         <v>334</v>
       </c>
-      <c r="E1867" s="22">
+      <c r="E1888" s="22">
         <v>361450.61</v>
       </c>
-      <c r="F1867" s="16">
+      <c r="F1888" s="16">
         <v>8828.5</v>
       </c>
-      <c r="G1867" s="16">
+      <c r="G1888" s="16">
         <v>267.5</v>
       </c>
-      <c r="H1867" s="16">
+      <c r="H1888" s="16">
         <v>8223</v>
       </c>
-      <c r="I1867" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1867" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1867" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1867" s="16"/>
-      <c r="M1867" s="16">
+      <c r="I1888" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1888" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1888" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1888" s="16"/>
+      <c r="M1888" s="16">
         <v>8223</v>
       </c>
-      <c r="N1867" s="16" t="s">
+      <c r="N1888" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="O1867" s="16" t="s">
+      <c r="O1888" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1867" s="16" t="s">
+      <c r="P1888" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1867" s="16" t="s">
+      <c r="Q1888" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1867" s="16" t="s">
+      <c r="R1888" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="S1867" s="16" t="s">
+      <c r="S1888" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1867" s="16"/>
-      <c r="U1867" s="16"/>
-      <c r="V1867" s="16"/>
-      <c r="W1867" s="16"/>
-      <c r="X1867" s="16"/>
-    </row>
-    <row r="1868" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1868" s="16" t="s">
+      <c r="T1888" s="16"/>
+      <c r="U1888" s="16"/>
+      <c r="V1888" s="16"/>
+      <c r="W1888" s="16"/>
+      <c r="X1888" s="16"/>
+    </row>
+    <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1889" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="B1868" s="16" t="s">
+      <c r="B1889" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1868" s="16" t="s">
+      <c r="C1889" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="D1868" s="16" t="s">
+      <c r="D1889" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E1868" s="22">
+      <c r="E1889" s="22">
         <v>477000</v>
       </c>
-      <c r="F1868" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1868" s="16">
+      <c r="F1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1889" s="16">
         <v>406.63</v>
       </c>
-      <c r="H1868" s="16">
+      <c r="H1889" s="16">
         <v>12500</v>
       </c>
-      <c r="I1868" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1868" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1868" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1868" s="16"/>
-      <c r="M1868" s="16">
+      <c r="I1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1889" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1889" s="16"/>
+      <c r="M1889" s="16">
         <v>12500</v>
       </c>
-      <c r="N1868" s="16" t="s">
+      <c r="N1889" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="O1868" s="16" t="s">
+      <c r="O1889" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1868" s="16" t="s">
+      <c r="P1889" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1868" s="16" t="s">
+      <c r="Q1889" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1868" s="16" t="s">
+      <c r="R1889" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="S1868" s="16" t="s">
+      <c r="S1889" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1868" s="16"/>
-      <c r="U1868" s="16"/>
-      <c r="V1868" s="16"/>
-      <c r="W1868" s="16"/>
-      <c r="X1868" s="16"/>
-    </row>
-    <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1869" s="16" t="s">
+      <c r="T1889" s="16"/>
+      <c r="U1889" s="16"/>
+      <c r="V1889" s="16"/>
+      <c r="W1889" s="16"/>
+      <c r="X1889" s="16"/>
+    </row>
+    <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1890" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="B1869" s="16" t="s">
+      <c r="B1890" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1869" s="16" t="s">
+      <c r="C1890" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="D1869" s="16" t="s">
+      <c r="D1890" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="E1869" s="22">
+      <c r="E1890" s="22">
         <v>8223</v>
       </c>
-      <c r="F1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1869" s="16">
+      <c r="F1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1890" s="16">
         <v>3366.87</v>
       </c>
-      <c r="H1869" s="16">
+      <c r="H1890" s="16">
         <v>103500</v>
       </c>
-      <c r="I1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1869" s="16"/>
-      <c r="M1869" s="16">
+      <c r="I1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1890" s="16"/>
+      <c r="M1890" s="16">
         <v>103500</v>
       </c>
-      <c r="N1869" s="16" t="s">
+      <c r="N1890" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="O1869" s="16" t="s">
+      <c r="O1890" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1869" s="16" t="s">
+      <c r="P1890" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1869" s="16" t="s">
+      <c r="Q1890" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1869" s="16" t="s">
+      <c r="R1890" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="S1869" s="16" t="s">
+      <c r="S1890" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1869" s="16"/>
-      <c r="U1869" s="16"/>
-      <c r="V1869" s="16"/>
-      <c r="W1869" s="16"/>
-      <c r="X1869" s="16"/>
-    </row>
-    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1870" s="16" t="s">
+      <c r="T1890" s="16"/>
+      <c r="U1890" s="16"/>
+      <c r="V1890" s="16"/>
+      <c r="W1890" s="16"/>
+      <c r="X1890" s="16"/>
+    </row>
+    <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1891" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="B1870" s="16" t="s">
+      <c r="B1891" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C1870" s="16" t="s">
+      <c r="C1891" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="D1870" s="16" t="s">
+      <c r="D1891" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="E1870" s="22">
+      <c r="E1891" s="22">
         <v>12500</v>
       </c>
-      <c r="F1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1870" s="16">
+      <c r="F1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1891" s="16">
         <v>44.95</v>
       </c>
-      <c r="H1870" s="16">
+      <c r="H1891" s="16">
         <v>1381.79</v>
       </c>
-      <c r="I1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1870" s="16"/>
-      <c r="M1870" s="16">
+      <c r="I1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1891" s="16"/>
+      <c r="M1891" s="16">
         <v>1381.79</v>
       </c>
-      <c r="N1870" s="16" t="s">
+      <c r="N1891" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="O1870" s="16" t="s">
+      <c r="O1891" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1870" s="16" t="s">
+      <c r="P1891" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="Q1870" s="16" t="s">
+      <c r="Q1891" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R1870" s="16" t="s">
+      <c r="R1891" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="S1870" s="16" t="s">
+      <c r="S1891" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1870" s="16"/>
-      <c r="U1870" s="16"/>
-      <c r="V1870" s="16"/>
-      <c r="W1870" s="16"/>
-      <c r="X1870" s="16"/>
-    </row>
-    <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1871" s="16" t="s">
+      <c r="T1891" s="16"/>
+      <c r="U1891" s="16"/>
+      <c r="V1891" s="16"/>
+      <c r="W1891" s="16"/>
+      <c r="X1891" s="16"/>
+    </row>
+    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1892" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="B1871" s="16" t="s">
+      <c r="B1892" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="C1871" s="16" t="s">
+      <c r="C1892" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="D1871" s="16" t="s">
+      <c r="D1892" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="E1871" s="22">
+      <c r="E1892" s="22">
         <v>103500</v>
       </c>
-      <c r="F1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1871" s="16">
+      <c r="F1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1892" s="16">
         <v>45.54</v>
       </c>
-      <c r="H1871" s="16">
+      <c r="H1892" s="16">
         <v>1400</v>
       </c>
-      <c r="I1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1871" s="16"/>
-      <c r="M1871" s="16">
+      <c r="I1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1892" s="16"/>
+      <c r="M1892" s="16">
         <v>1400</v>
       </c>
-      <c r="N1871" s="16" t="s">
+      <c r="N1892" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="O1871" s="16" t="s">
+      <c r="O1892" s="16" t="s">
         <v>327</v>
       </c>
-      <c r="P1871" s="16" t="s">
+      <c r="P1892" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="Q1871" s="16" t="s">
+      <c r="Q1892" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="R1871" s="16" t="s">
+      <c r="R1892" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="S1871" s="16" t="s">
+      <c r="S1892" s="16" t="s">
         <v>304</v>
       </c>
-      <c r="T1871" s="16"/>
-      <c r="U1871" s="16"/>
-      <c r="V1871" s="16"/>
-      <c r="W1871" s="16"/>
-      <c r="X1871" s="16"/>
-    </row>
-    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1872" t="s">
+      <c r="T1892" s="16"/>
+      <c r="U1892" s="16"/>
+      <c r="V1892" s="16"/>
+      <c r="W1892" s="16"/>
+      <c r="X1892" s="16"/>
+    </row>
+    <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1893" t="s">
         <v>417</v>
       </c>
-      <c r="B1872" t="s">
+      <c r="B1893" t="s">
         <v>407</v>
       </c>
-      <c r="D1872" t="s">
+      <c r="D1893" t="s">
         <v>418</v>
       </c>
-      <c r="E1872" s="22">
+      <c r="E1893" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1872" s="16">
+      <c r="F1893" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1872" t="s">
+      <c r="O1893" t="s">
         <v>327</v>
       </c>
-      <c r="P1872" t="s">
+      <c r="P1893" t="s">
         <v>328</v>
       </c>
-      <c r="Q1872" t="s">
+      <c r="Q1893" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1873" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E1873" s="22">
+    <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1894" s="22">
         <v>1400</v>
       </c>
-      <c r="F1873" s="16">
+      <c r="F1894" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X102"/>
+  <autoFilter ref="A3:X97"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -5638,8 +6072,8 @@
   </sheetPr>
   <dimension ref="A1:X1910"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142:F142"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -7286,7 +7720,7 @@
       </c>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -7301,7 +7735,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -7316,7 +7750,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -7331,7 +7765,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -7346,7 +7780,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -7361,7 +7795,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119"/>
       <c r="C119"/>
@@ -7376,7 +7810,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>41047</v>
       </c>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -21,12 +21,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$97</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="623">
   <si>
     <t>дата</t>
   </si>
@@ -1559,9 +1559,6 @@
     <t>подпрограмма сброса и взвода фильтра  листа SheetN</t>
   </si>
   <si>
-    <t>S ?</t>
-  </si>
-  <si>
     <t>x?</t>
   </si>
   <si>
@@ -1775,15 +1772,6 @@
     <t>проверка, что Процесс не нашел "автоматических" записей WrProcResult</t>
   </si>
   <si>
-    <t>-/S</t>
-  </si>
-  <si>
-    <t>MergeReps(iProc)</t>
-  </si>
-  <si>
-    <t>слияние "полных" отчетов "_OLD" и "новых" - Update'ов по &lt;*&gt;ProcEnd</t>
-  </si>
-  <si>
     <t>AdaptEngine</t>
   </si>
   <si>
@@ -1808,18 +1796,12 @@
     <t>xAdapt_Continue(Button,iRow)</t>
   </si>
   <si>
-    <t>Adapt(F,[FromDoc],[ToDoc])</t>
-  </si>
-  <si>
     <t>Adater(Request, X, F_rqst, IsErr,[][][])</t>
   </si>
   <si>
     <t>обрабатывает X в Адаптере "Request"с данными в F_rqst. IsErr - ошибка</t>
   </si>
   <si>
-    <t>запускает Адаптеры из формы F, осуществляя проход по Документу</t>
-  </si>
-  <si>
     <t>AdapterWP(AdapterName, X, Par)</t>
   </si>
   <si>
@@ -1929,6 +1911,18 @@
   </si>
   <si>
     <t>GoodJob(G)</t>
+  </si>
+  <si>
+    <t>MergeReps()</t>
+  </si>
+  <si>
+    <t>слияние "полных" отчетов в суффиксом "_OLD" и "Update"</t>
+  </si>
+  <si>
+    <t>Adapt([FromDoc],[ToDoc])</t>
+  </si>
+  <si>
+    <t>Адаптеры из Шаболона, осуществляя проход по Документу</t>
   </si>
 </sst>
 </file>
@@ -2205,12 +2199,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -2219,6 +2207,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2528,8 +2522,8 @@
   </sheetPr>
   <dimension ref="A1:X1894"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C129" sqref="C129"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2548,7 +2542,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41509</v>
+        <v>41510</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2576,12 +2570,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2589,7 +2583,7 @@
     </row>
     <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
-        <v>41503</v>
+        <v>41510</v>
       </c>
       <c r="B5"/>
       <c r="C5"/>
@@ -2666,10 +2660,10 @@
         <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>564</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>565</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2700,10 +2694,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>566</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>567</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2717,10 +2711,10 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2751,32 +2745,32 @@
         <v>452</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>570</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>571</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>41504</v>
+        <v>41510</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="23" t="s">
-        <v>573</v>
+        <v>452</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>574</v>
+        <v>619</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>575</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>41503</v>
+        <v>41510</v>
       </c>
       <c r="B16" t="s">
         <v>422</v>
@@ -2785,7 +2779,7 @@
         <v>423</v>
       </c>
       <c r="D16">
-        <v>424</v>
+        <v>445</v>
       </c>
       <c r="E16" s="7"/>
     </row>
@@ -2800,10 +2794,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2817,10 +2811,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2834,15 +2828,15 @@
         <v>74</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <v>41396</v>
+        <v>41510</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
@@ -2851,10 +2845,10 @@
         <v>452</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>587</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2868,10 +2862,10 @@
         <v>74</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2885,10 +2879,10 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2902,10 +2896,10 @@
         <v>74</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2919,10 +2913,10 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2953,10 +2947,10 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2964,19 +2958,19 @@
         <v>41497</v>
       </c>
       <c r="B27" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D27">
-        <v>1025</v>
+        <v>1030</v>
       </c>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>41504</v>
+        <v>41510</v>
       </c>
       <c r="B28" t="s">
         <v>166</v>
@@ -2985,7 +2979,7 @@
         <v>167</v>
       </c>
       <c r="D28">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E28"/>
     </row>
@@ -3044,7 +3038,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
         <v>41504</v>
       </c>
@@ -3060,7 +3054,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>41504</v>
       </c>
@@ -3076,7 +3070,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
         <v>41130</v>
       </c>
@@ -3092,7 +3086,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25">
         <v>41469</v>
       </c>
@@ -3109,7 +3103,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
         <v>41116</v>
       </c>
@@ -3126,7 +3120,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
         <v>41501</v>
       </c>
@@ -3142,7 +3136,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
         <v>41302</v>
       </c>
@@ -3150,7 +3144,7 @@
       <c r="C38"/>
       <c r="D38"/>
       <c r="E38" s="7" t="s">
-        <v>501</v>
+        <v>452</v>
       </c>
       <c r="F38" s="17" t="s">
         <v>491</v>
@@ -3159,7 +3153,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25">
         <v>41286</v>
       </c>
@@ -3175,7 +3169,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
         <v>41302</v>
       </c>
@@ -3191,7 +3185,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
         <v>41071</v>
       </c>
@@ -3208,7 +3202,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
         <v>41060</v>
       </c>
@@ -3225,7 +3219,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
         <v>41472</v>
       </c>
@@ -3242,7 +3236,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
         <v>40958</v>
       </c>
@@ -3259,7 +3253,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
         <v>41258</v>
       </c>
@@ -3276,7 +3270,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
         <v>40935</v>
       </c>
@@ -3284,16 +3278,16 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="23" t="s">
+        <v>501</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>502</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="G46" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
         <v>40934</v>
       </c>
@@ -3307,10 +3301,10 @@
         <v>94</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
         <v>40928</v>
       </c>
@@ -3318,16 +3312,16 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>41156</v>
       </c>
@@ -3338,13 +3332,13 @@
         <v>74</v>
       </c>
       <c r="F49" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>508</v>
       </c>
-      <c r="G49" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
         <v>41536</v>
       </c>
@@ -3355,13 +3349,13 @@
         <v>74</v>
       </c>
       <c r="F50" s="17" t="s">
+        <v>509</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="G50" s="8" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
         <v>41267</v>
       </c>
@@ -3372,13 +3366,13 @@
         <v>74</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>41267</v>
       </c>
@@ -3389,13 +3383,13 @@
         <v>74</v>
       </c>
       <c r="F52" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>513</v>
       </c>
-      <c r="G52" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>41267</v>
       </c>
@@ -3406,13 +3400,13 @@
         <v>231</v>
       </c>
       <c r="F53" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>515</v>
       </c>
-      <c r="G53" s="8" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
         <v>40953</v>
       </c>
@@ -3426,10 +3420,10 @@
         <v>98</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
         <v>41141</v>
       </c>
@@ -3440,13 +3434,13 @@
         <v>74</v>
       </c>
       <c r="F55" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>518</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
         <v>41146</v>
       </c>
@@ -3457,13 +3451,13 @@
         <v>74</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>520</v>
       </c>
-      <c r="G56" s="8" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
         <v>41098</v>
       </c>
@@ -3474,13 +3468,13 @@
         <v>231</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>524</v>
       </c>
-      <c r="G57" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>41098</v>
       </c>
@@ -3491,13 +3485,13 @@
         <v>74</v>
       </c>
       <c r="F58" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>522</v>
       </c>
-      <c r="G58" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
         <v>41248</v>
       </c>
@@ -3508,13 +3502,13 @@
         <v>74</v>
       </c>
       <c r="F59" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>526</v>
       </c>
-      <c r="G59" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
         <v>41504</v>
       </c>
@@ -3525,13 +3519,13 @@
         <v>74</v>
       </c>
       <c r="F60" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>528</v>
       </c>
-      <c r="G60" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
         <v>41072</v>
       </c>
@@ -3539,16 +3533,16 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>187</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
         <v>41018</v>
       </c>
@@ -3562,10 +3556,10 @@
         <v>100</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>41018</v>
       </c>
@@ -3579,10 +3573,10 @@
         <v>174</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
         <v>41236</v>
       </c>
@@ -3593,13 +3587,13 @@
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
         <v>41277</v>
       </c>
@@ -3610,13 +3604,13 @@
         <v>74</v>
       </c>
       <c r="F65" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>535</v>
       </c>
-      <c r="G65" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
         <v>41152</v>
       </c>
@@ -3624,16 +3618,16 @@
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F66" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="G66" s="8" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
         <v>40943</v>
       </c>
@@ -3641,16 +3635,16 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="23" t="s">
+        <v>538</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>539</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="G67" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="G67" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
         <v>41152</v>
       </c>
@@ -3661,13 +3655,13 @@
         <v>74</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25"/>
       <c r="B69"/>
       <c r="C69"/>
@@ -3676,13 +3670,13 @@
         <v>74</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
         <v>41018</v>
       </c>
@@ -3693,13 +3687,13 @@
         <v>74</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
         <v>41067</v>
       </c>
@@ -3713,10 +3707,10 @@
         <v>196</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
         <v>41053</v>
       </c>
@@ -3727,13 +3721,13 @@
         <v>231</v>
       </c>
       <c r="F72" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>547</v>
       </c>
-      <c r="G72" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>41053</v>
       </c>
@@ -3744,13 +3738,13 @@
         <v>74</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>549</v>
       </c>
-      <c r="G73" s="8" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
         <v>41036</v>
       </c>
@@ -3764,10 +3758,10 @@
         <v>242</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
         <v>41053</v>
       </c>
@@ -3775,16 +3769,16 @@
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="23" t="s">
+        <v>552</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>551</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>553</v>
       </c>
-      <c r="F75" s="17" t="s">
-        <v>552</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
         <v>41036</v>
       </c>
@@ -3801,7 +3795,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
         <v>41221</v>
       </c>
@@ -3812,13 +3806,13 @@
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
+        <v>554</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="G77" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -3827,13 +3821,13 @@
         <v>231</v>
       </c>
       <c r="F78" s="17" t="s">
+        <v>556</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="G78" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
         <v>41272</v>
       </c>
@@ -3844,13 +3838,13 @@
         <v>74</v>
       </c>
       <c r="F79" s="17" t="s">
+        <v>558</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>559</v>
       </c>
-      <c r="G79" s="8" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>41504</v>
       </c>
@@ -3861,29 +3855,27 @@
         <v>303</v>
       </c>
       <c r="D80">
-        <v>1299</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>192</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="E80" s="7"/>
       <c r="F80" s="17"/>
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
-        <v>41509</v>
+        <v>41510</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>562</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>563</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3894,27 +3886,27 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
-        <v>41504</v>
+        <v>41510</v>
       </c>
       <c r="B83" t="s">
         <v>419</v>
       </c>
       <c r="C83" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D83">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E83" s="7"/>
     </row>
@@ -3929,10 +3921,10 @@
         <v>472</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3946,10 +3938,10 @@
         <v>452</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -3957,10 +3949,10 @@
         <v>41473</v>
       </c>
       <c r="B86" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="C86" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="D86">
         <v>307</v>
@@ -4128,16 +4120,16 @@
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="28">
+      <c r="A97" s="26">
         <v>41110</v>
       </c>
-      <c r="B97" s="29" t="s">
+      <c r="B97" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C97" s="29" t="s">
+      <c r="C97" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D97" s="29">
+      <c r="D97" s="27">
         <v>276</v>
       </c>
       <c r="E97" s="7"/>
@@ -4151,10 +4143,10 @@
         <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4166,7 +4158,7 @@
         <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>115</v>
@@ -4181,10 +4173,10 @@
         <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4196,10 +4188,10 @@
         <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4211,10 +4203,10 @@
         <v>192</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4226,10 +4218,10 @@
         <v>192</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4241,10 +4233,10 @@
         <v>192</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4256,10 +4248,10 @@
         <v>192</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4271,10 +4263,10 @@
         <v>74</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4291,7 +4283,7 @@
         <v>304</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4300,7 +4292,7 @@
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="F108" s="8" t="s">
         <v>78</v>
@@ -4315,7 +4307,7 @@
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>44</v>
@@ -4330,7 +4322,7 @@
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F110" s="8" t="s">
         <v>156</v>
@@ -4345,7 +4337,7 @@
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F111" s="8" t="s">
         <v>45</v>
@@ -4360,7 +4352,7 @@
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F112" s="8" t="s">
         <v>48</v>
@@ -4397,7 +4389,7 @@
         <v>74</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G114" s="8" t="s">
         <v>62</v>
@@ -4430,7 +4422,7 @@
         <v>683</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4537,21 +4529,21 @@
         <v>473</v>
       </c>
       <c r="E123" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="30"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31">
+      <c r="A124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29">
         <f>SUM(D4:D123)</f>
-        <v>5934</v>
-      </c>
-      <c r="E124" s="32"/>
-      <c r="F124" s="33"/>
-      <c r="G124" s="33"/>
-      <c r="H124" s="33"/>
+        <v>5962</v>
+      </c>
+      <c r="E124" s="30"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
     </row>
     <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
@@ -6117,12 +6109,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -6808,12 +6800,12 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="A50" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
+      <c r="B50" s="33"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7939,12 +7931,12 @@
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="26" t="s">
+      <c r="A129" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="26"/>
-      <c r="C129" s="26"/>
-      <c r="D129" s="26"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9645,12 +9637,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -11205,12 +11197,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="26" t="s">
+      <c r="A132" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="26"/>
-      <c r="C132" s="26"/>
-      <c r="D132" s="26"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="625">
   <si>
     <t>дата</t>
   </si>
@@ -1923,6 +1923,12 @@
   </si>
   <si>
     <t>Адаптеры из Шаболона, осуществляя проход по Документу</t>
+  </si>
+  <si>
+    <t>PaymentPaint()</t>
+  </si>
+  <si>
+    <t>Раскрашиваем Лист Платежей 1C и переписываем пятку, если она есть</t>
   </si>
 </sst>
 </file>
@@ -2522,8 +2528,8 @@
   </sheetPr>
   <dimension ref="A1:X1894"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3612,13 +3618,13 @@
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
-        <v>41152</v>
+        <v>41510</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66"/>
       <c r="E66" s="23" t="s">
-        <v>505</v>
+        <v>74</v>
       </c>
       <c r="F66" s="17" t="s">
         <v>536</v>
@@ -3857,7 +3863,9 @@
       <c r="D80">
         <v>1303</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>192</v>
+      </c>
       <c r="F80" s="17"/>
       <c r="G80" s="24"/>
     </row>
@@ -3959,9 +3967,9 @@
       </c>
       <c r="E86" s="7"/>
     </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
-        <v>41312</v>
+        <v>41510</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -3970,13 +3978,13 @@
         <v>472</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>473</v>
+        <v>623</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>41217</v>
       </c>
@@ -3993,7 +4001,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>41166</v>
       </c>
@@ -4010,7 +4018,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>41135</v>
       </c>
@@ -4027,7 +4035,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>41152</v>
       </c>
@@ -4044,9 +4052,9 @@
         <v>484</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
-        <v>41473</v>
+        <v>41510</v>
       </c>
       <c r="B92" t="s">
         <v>3</v>
@@ -4055,7 +4063,7 @@
         <v>485</v>
       </c>
       <c r="D92">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="E92" s="7"/>
     </row>
@@ -4538,7 +4546,7 @@
       <c r="C124" s="29"/>
       <c r="D124" s="29">
         <f>SUM(D4:D123)</f>
-        <v>5962</v>
+        <v>5974</v>
       </c>
       <c r="E124" s="30"/>
       <c r="F124" s="31"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Documents\Pavel\match\match2.0\Deskription\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Documents\Pavel\match\match2.1\Deskription\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$94</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1535" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="628">
   <si>
     <t>дата</t>
   </si>
@@ -1511,9 +1511,6 @@
     <t>окраска колонки А - Организация есть в SF</t>
   </si>
   <si>
-    <t>Загрузка документов из 1С</t>
-  </si>
-  <si>
     <t>запускается с клавиатуры</t>
   </si>
   <si>
@@ -1929,6 +1926,18 @@
   </si>
   <si>
     <t>Раскрашиваем Лист Платежей 1C и переписываем пятку, если она есть</t>
+  </si>
+  <si>
+    <t>Окраска документов из 1С и SF</t>
+  </si>
+  <si>
+    <t>SF_Paint</t>
+  </si>
+  <si>
+    <t>окраска колонки А отчета SF по Платежам</t>
+  </si>
+  <si>
+    <t>возвращает TRUE, если строка Nstr Платежа связана с ADSK</t>
   </si>
 </sst>
 </file>
@@ -2158,7 +2167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2205,8 +2214,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2526,10 +2533,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1894"/>
+  <dimension ref="A1:X1891"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2576,12 +2583,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -2666,10 +2673,10 @@
         <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>564</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2700,10 +2707,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>566</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2717,10 +2724,10 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>568</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2751,10 +2758,10 @@
         <v>452</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>569</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>570</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2768,10 +2775,10 @@
         <v>452</v>
       </c>
       <c r="F15" s="17" t="s">
+        <v>618</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>619</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2800,10 +2807,10 @@
         <v>74</v>
       </c>
       <c r="F17" s="17" t="s">
+        <v>573</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>574</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2817,10 +2824,10 @@
         <v>74</v>
       </c>
       <c r="F18" s="17" t="s">
+        <v>575</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>576</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2834,10 +2841,10 @@
         <v>74</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2851,10 +2858,10 @@
         <v>452</v>
       </c>
       <c r="F20" s="17" t="s">
+        <v>620</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>621</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2868,10 +2875,10 @@
         <v>74</v>
       </c>
       <c r="F21" s="17" t="s">
+        <v>579</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>580</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2885,10 +2892,10 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>581</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>582</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2902,10 +2909,10 @@
         <v>74</v>
       </c>
       <c r="F23" s="17" t="s">
+        <v>583</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>584</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2919,10 +2926,10 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>586</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2953,10 +2960,10 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
+        <v>587</v>
+      </c>
+      <c r="G26" s="8" t="s">
         <v>588</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>589</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2964,10 +2971,10 @@
         <v>41497</v>
       </c>
       <c r="B27" t="s">
+        <v>571</v>
+      </c>
+      <c r="C27" t="s">
         <v>572</v>
-      </c>
-      <c r="C27" t="s">
-        <v>573</v>
       </c>
       <c r="D27">
         <v>1030</v>
@@ -3070,10 +3077,10 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>487</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3103,7 +3110,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>435</v>
@@ -3136,7 +3143,7 @@
         <v>74</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>449</v>
@@ -3153,10 +3160,10 @@
         <v>452</v>
       </c>
       <c r="F38" s="17" t="s">
+        <v>490</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>491</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3169,10 +3176,10 @@
         <v>231</v>
       </c>
       <c r="F39" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>493</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3185,10 +3192,10 @@
         <v>74</v>
       </c>
       <c r="F40" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3267,13 +3274,13 @@
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3284,13 +3291,13 @@
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="F46" s="17" t="s">
         <v>501</v>
       </c>
-      <c r="F46" s="17" t="s">
+      <c r="G46" s="8" t="s">
         <v>502</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3307,7 +3314,7 @@
         <v>94</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3318,13 +3325,13 @@
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F48" s="17" t="s">
         <v>95</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3338,10 +3345,10 @@
         <v>74</v>
       </c>
       <c r="F49" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>507</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3355,10 +3362,10 @@
         <v>74</v>
       </c>
       <c r="F50" s="17" t="s">
+        <v>508</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>509</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3379,7 @@
         <v>74</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>110</v>
@@ -3389,10 +3396,10 @@
         <v>74</v>
       </c>
       <c r="F52" s="17" t="s">
+        <v>511</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>512</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3406,10 +3413,10 @@
         <v>231</v>
       </c>
       <c r="F53" s="17" t="s">
+        <v>513</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>514</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="54" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3426,7 +3433,7 @@
         <v>98</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3440,10 +3447,10 @@
         <v>74</v>
       </c>
       <c r="F55" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>517</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3457,10 +3464,10 @@
         <v>74</v>
       </c>
       <c r="F56" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>519</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3474,10 +3481,10 @@
         <v>231</v>
       </c>
       <c r="F57" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="G57" s="8" t="s">
         <v>523</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3491,10 +3498,10 @@
         <v>74</v>
       </c>
       <c r="F58" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="G58" s="8" t="s">
         <v>521</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3508,10 +3515,10 @@
         <v>74</v>
       </c>
       <c r="F59" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="G59" s="8" t="s">
         <v>525</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3525,10 +3532,10 @@
         <v>74</v>
       </c>
       <c r="F60" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="G60" s="8" t="s">
         <v>527</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3539,13 +3546,13 @@
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="23" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F61" s="17" t="s">
         <v>187</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3562,7 +3569,7 @@
         <v>100</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3579,7 +3586,7 @@
         <v>174</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3593,10 +3600,10 @@
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3610,10 +3617,10 @@
         <v>74</v>
       </c>
       <c r="F65" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="G65" s="8" t="s">
         <v>534</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3627,10 +3634,10 @@
         <v>74</v>
       </c>
       <c r="F66" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="G66" s="8" t="s">
         <v>536</v>
-      </c>
-      <c r="G66" s="8" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3641,13 +3648,13 @@
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="23" t="s">
+        <v>537</v>
+      </c>
+      <c r="F67" s="17" t="s">
         <v>538</v>
       </c>
-      <c r="F67" s="17" t="s">
+      <c r="G67" s="8" t="s">
         <v>539</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3661,7 +3668,7 @@
         <v>74</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G68" s="8" t="s">
         <v>104</v>
@@ -3676,10 +3683,10 @@
         <v>74</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3693,7 +3700,7 @@
         <v>74</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G70" s="8" t="s">
         <v>195</v>
@@ -3713,7 +3720,7 @@
         <v>196</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3727,10 +3734,10 @@
         <v>231</v>
       </c>
       <c r="F72" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="G72" s="8" t="s">
         <v>546</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3744,10 +3751,10 @@
         <v>74</v>
       </c>
       <c r="F73" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="G73" s="8" t="s">
         <v>548</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3764,7 +3771,7 @@
         <v>242</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3775,13 +3782,13 @@
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>550</v>
+      </c>
+      <c r="G75" s="8" t="s">
         <v>552</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>551</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3812,10 +3819,10 @@
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="G77" s="8" t="s">
         <v>554</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3827,10 +3834,10 @@
         <v>231</v>
       </c>
       <c r="F78" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G78" s="8" t="s">
         <v>556</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3844,10 +3851,10 @@
         <v>74</v>
       </c>
       <c r="F79" s="17" t="s">
+        <v>557</v>
+      </c>
+      <c r="G79" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -3877,13 +3884,13 @@
       <c r="C81"/>
       <c r="D81"/>
       <c r="E81" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="F81" s="8" t="s">
         <v>561</v>
       </c>
-      <c r="F81" s="8" t="s">
+      <c r="G81" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3894,13 +3901,13 @@
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="7" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="F82" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>590</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -3911,7 +3918,7 @@
         <v>419</v>
       </c>
       <c r="C83" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D83">
         <v>282</v>
@@ -3929,10 +3936,10 @@
         <v>472</v>
       </c>
       <c r="F84" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G84" s="8" t="s">
         <v>594</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -3946,10 +3953,10 @@
         <v>452</v>
       </c>
       <c r="F85" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="G85" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -3957,10 +3964,10 @@
         <v>41473</v>
       </c>
       <c r="B86" t="s">
+        <v>591</v>
+      </c>
+      <c r="C86" t="s">
         <v>592</v>
-      </c>
-      <c r="C86" t="s">
-        <v>593</v>
       </c>
       <c r="D86">
         <v>307</v>
@@ -3978,10 +3985,10 @@
         <v>472</v>
       </c>
       <c r="F87" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="G87" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4052,49 +4059,55 @@
         <v>484</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="3">
+    <row r="92" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="25">
         <v>41510</v>
       </c>
-      <c r="B92" t="s">
-        <v>3</v>
-      </c>
-      <c r="C92" t="s">
-        <v>485</v>
-      </c>
-      <c r="D92">
-        <v>193</v>
-      </c>
-      <c r="E92" s="7"/>
-    </row>
-    <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="B92"/>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="G92" s="8" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="25">
+        <v>41047</v>
+      </c>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="7" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>120</v>
+        <v>299</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94"/>
-      <c r="C94"/>
-      <c r="D94"/>
+        <v>627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>41510</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" t="s">
+        <v>624</v>
+      </c>
+      <c r="D94">
+        <v>243</v>
+      </c>
       <c r="E94" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>123</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4103,13 +4116,13 @@
       <c r="C95"/>
       <c r="D95"/>
       <c r="E95" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>124</v>
+        <v>597</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>128</v>
+        <v>598</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4118,29 +4131,29 @@
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="7" t="s">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>125</v>
+        <v>599</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26">
-        <v>41110</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D97" s="27">
-        <v>276</v>
-      </c>
-      <c r="E97" s="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>602</v>
+      </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
@@ -4151,10 +4164,10 @@
         <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4166,10 +4179,10 @@
         <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>115</v>
+        <v>605</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4181,10 +4194,10 @@
         <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4196,10 +4209,10 @@
         <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4211,10 +4224,10 @@
         <v>192</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4223,75 +4236,75 @@
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="G103" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>40968</v>
+      </c>
+      <c r="B104" t="s">
+        <v>40</v>
+      </c>
+      <c r="C104" t="s">
+        <v>41</v>
+      </c>
+      <c r="D104">
+        <v>304</v>
+      </c>
+      <c r="E104" s="7" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>610</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>611</v>
-      </c>
-    </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="25"/>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105" s="7" t="s">
-        <v>192</v>
+        <v>615</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>612</v>
+        <v>78</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>613</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="25"/>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="7" t="s">
-        <v>74</v>
+        <v>616</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>614</v>
+        <v>44</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="3">
-        <v>40968</v>
-      </c>
-      <c r="B107" t="s">
-        <v>40</v>
-      </c>
-      <c r="C107" t="s">
-        <v>41</v>
-      </c>
-      <c r="D107">
-        <v>304</v>
-      </c>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="25"/>
+      <c r="B107"/>
+      <c r="C107"/>
+      <c r="D107"/>
       <c r="E107" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G107" s="8" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4303,10 +4316,10 @@
         <v>616</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4315,43 +4328,47 @@
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
+      <c r="A110" s="25">
+        <v>41268</v>
+      </c>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110" s="7" t="s">
-        <v>617</v>
+        <v>74</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>156</v>
+        <v>61</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>157</v>
+        <v>62</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
+      <c r="A111" s="25">
+        <v>41308</v>
+      </c>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
       <c r="E111" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F111" s="8" t="s">
         <v>617</v>
       </c>
-      <c r="F111" s="8" t="s">
-        <v>45</v>
-      </c>
       <c r="G111" s="8" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4359,78 +4376,74 @@
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="7" t="s">
-        <v>617</v>
-      </c>
+      <c r="E112" s="7"/>
       <c r="F112" s="8" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25">
-        <v>41268</v>
-      </c>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>40980</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>18</v>
+      </c>
+      <c r="D113">
+        <v>683</v>
+      </c>
       <c r="E113" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>62</v>
+        <v>608</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25">
-        <v>41308</v>
-      </c>
+      <c r="A114" s="3"/>
       <c r="B114"/>
       <c r="C114"/>
       <c r="D114"/>
-      <c r="E114" s="7" t="s">
-        <v>74</v>
+      <c r="E114" t="s">
+        <v>43</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>618</v>
+        <v>185</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>62</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
+      <c r="A115" s="3"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
-      <c r="E115" s="7"/>
+      <c r="E115" t="s">
+        <v>74</v>
+      </c>
       <c r="F115" s="8" t="s">
-        <v>178</v>
+        <v>224</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3">
-        <v>40980</v>
-      </c>
-      <c r="B116" t="s">
-        <v>17</v>
-      </c>
-      <c r="C116" t="s">
-        <v>18</v>
-      </c>
-      <c r="D116">
-        <v>683</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>609</v>
+        <v>223</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116"/>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116" t="s">
+        <v>74</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G116" s="8" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4439,13 +4452,13 @@
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>185</v>
+        <v>226</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4454,13 +4467,13 @@
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4472,97 +4485,90 @@
         <v>74</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120"/>
-      <c r="C120"/>
-      <c r="D120"/>
-      <c r="E120" t="s">
-        <v>192</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G120" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121"/>
-      <c r="C121"/>
-      <c r="D121"/>
-      <c r="E121" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3">
+        <v>41047</v>
+      </c>
+      <c r="B120" t="s">
+        <v>183</v>
+      </c>
+      <c r="C120" t="s">
+        <v>184</v>
+      </c>
+      <c r="D120">
+        <v>473</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="26"/>
+      <c r="B121" s="27"/>
+      <c r="C121" s="27"/>
+      <c r="D121" s="27">
+        <f>SUM(D4:D120)</f>
+        <v>5748</v>
+      </c>
+      <c r="E121" s="28"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="E123" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125"/>
+      <c r="C125"/>
+      <c r="D125" t="s">
+        <v>232</v>
+      </c>
+      <c r="E125" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126"/>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F121" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="G121" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122" t="s">
-        <v>74</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3">
-        <v>41047</v>
-      </c>
-      <c r="B123" t="s">
-        <v>183</v>
-      </c>
-      <c r="C123" t="s">
-        <v>184</v>
-      </c>
-      <c r="D123">
-        <v>473</v>
-      </c>
-      <c r="E123" s="7" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="28"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="29">
-        <f>SUM(D4:D123)</f>
-        <v>5974</v>
-      </c>
-      <c r="E124" s="30"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-    </row>
-    <row r="125" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="3"/>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="E126" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F126" s="11" t="s">
-        <v>457</v>
+      <c r="F126" s="13" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4571,36 +4577,34 @@
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127" s="20" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>75</v>
+        <v>201</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128"/>
       <c r="C128"/>
-      <c r="D128" t="s">
-        <v>232</v>
-      </c>
+      <c r="D128"/>
       <c r="E128" s="20" t="s">
-        <v>301</v>
+        <v>72</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
-      <c r="E129" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>497</v>
+      <c r="E129" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F129" s="15" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="130" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4608,36 +4612,21 @@
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
-      <c r="E130" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>201</v>
-      </c>
+      <c r="E130" s="7"/>
     </row>
     <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
-      <c r="E131" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
-      <c r="E132" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" s="15" t="s">
-        <v>234</v>
-      </c>
+      <c r="E132" s="7"/>
     </row>
     <row r="133" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
@@ -4688,26 +4677,14 @@
       <c r="D139"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
-      <c r="B140"/>
-      <c r="C140"/>
-      <c r="D140"/>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-      <c r="B141"/>
-      <c r="C141"/>
-      <c r="D141"/>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-      <c r="B142"/>
-      <c r="C142"/>
-      <c r="D142"/>
-      <c r="E142" s="7"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
@@ -4790,27 +4767,192 @@
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
+    <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1869" s="16"/>
+      <c r="B1869" s="16"/>
+      <c r="C1869" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1869" s="16"/>
+      <c r="G1869" s="16">
+        <v>23942.73</v>
+      </c>
+      <c r="H1869" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="I1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1869" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1869" s="16"/>
+      <c r="M1869" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="N1869" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1869" s="16"/>
+      <c r="P1869" s="16"/>
+      <c r="Q1869" s="16"/>
+      <c r="R1869" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1869" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1869" s="16"/>
+      <c r="U1869" s="16"/>
+      <c r="V1869" s="16"/>
+      <c r="W1869" s="16"/>
+      <c r="X1869" s="16"/>
+    </row>
+    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1870" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1870" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1870" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1870" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1870" s="16">
+        <v>2342.17</v>
+      </c>
+      <c r="H1870" s="16">
+        <v>72000</v>
+      </c>
+      <c r="I1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1870" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1870" s="16"/>
+      <c r="M1870" s="16">
+        <v>72000</v>
+      </c>
+      <c r="N1870" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1870" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1870" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1870" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1870" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1870" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1870" s="16"/>
+      <c r="U1870" s="16"/>
+      <c r="V1870" s="16"/>
+      <c r="W1870" s="16"/>
+      <c r="X1870" s="16"/>
+    </row>
+    <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1871" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1871" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1871" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1871" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1871" s="22">
+        <v>736016.15</v>
+      </c>
+      <c r="F1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1871" s="16">
+        <v>23519.38</v>
+      </c>
+      <c r="H1871" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="I1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1871" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1871" s="16"/>
+      <c r="M1871" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="N1871" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1871" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1871" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1871" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1871" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1871" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1871" s="16"/>
+      <c r="U1871" s="16"/>
+      <c r="V1871" s="16"/>
+      <c r="W1871" s="16"/>
+      <c r="X1871" s="16"/>
     </row>
     <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1872" s="16"/>
-      <c r="B1872" s="16"/>
+      <c r="A1872" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1872" s="16" t="s">
+        <v>309</v>
+      </c>
       <c r="C1872" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="D1872" s="16"/>
+        <v>330</v>
+      </c>
+      <c r="D1872" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1872" s="22">
+        <v>72000</v>
+      </c>
+      <c r="F1872" s="16">
+        <v>0</v>
+      </c>
       <c r="G1872" s="16">
-        <v>23942.73</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1872" s="16">
-        <v>736016.15</v>
+        <v>4970</v>
       </c>
       <c r="I1872" s="16">
         <v>0</v>
@@ -4823,16 +4965,22 @@
       </c>
       <c r="L1872" s="16"/>
       <c r="M1872" s="16">
-        <v>736016.15</v>
+        <v>4970</v>
       </c>
       <c r="N1872" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1872" s="16"/>
-      <c r="P1872" s="16"/>
-      <c r="Q1872" s="16"/>
+        <v>332</v>
+      </c>
+      <c r="O1872" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1872" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1872" s="16" t="s">
+        <v>329</v>
+      </c>
       <c r="R1872" s="16" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="S1872" s="16" t="s">
         <v>304</v>
@@ -4845,22 +4993,28 @@
     </row>
     <row r="1873" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1873" s="16" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="B1873" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1873" s="16" t="s">
-        <v>314</v>
+        <v>337</v>
       </c>
       <c r="D1873" s="16" t="s">
-        <v>310</v>
+        <v>334</v>
+      </c>
+      <c r="E1873" s="22">
+        <v>723002.17</v>
+      </c>
+      <c r="F1873" s="16">
+        <v>16900.55</v>
       </c>
       <c r="G1873" s="16">
-        <v>2342.17</v>
+        <v>300.43</v>
       </c>
       <c r="H1873" s="16">
-        <v>72000</v>
+        <v>9235.48</v>
       </c>
       <c r="I1873" s="16">
         <v>0</v>
@@ -4873,22 +5027,22 @@
       </c>
       <c r="L1873" s="16"/>
       <c r="M1873" s="16">
-        <v>72000</v>
+        <v>9235.48</v>
       </c>
       <c r="N1873" s="16" t="s">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="O1873" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1873" s="16" t="s">
-        <v>312</v>
+        <v>335</v>
       </c>
       <c r="Q1873" s="16" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="R1873" s="16" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="S1873" s="16" t="s">
         <v>304</v>
@@ -4901,28 +5055,28 @@
     </row>
     <row r="1874" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1874" s="16" t="s">
-        <v>317</v>
+        <v>340</v>
       </c>
       <c r="B1874" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1874" s="16" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="D1874" s="16" t="s">
-        <v>318</v>
+        <v>341</v>
       </c>
       <c r="E1874" s="22">
-        <v>736016.15</v>
+        <v>4970</v>
       </c>
       <c r="F1874" s="16">
         <v>0</v>
       </c>
       <c r="G1874" s="16">
-        <v>23519.38</v>
+        <v>388.74</v>
       </c>
       <c r="H1874" s="16">
-        <v>723002.17</v>
+        <v>11950</v>
       </c>
       <c r="I1874" s="16">
         <v>0</v>
@@ -4935,22 +5089,22 @@
       </c>
       <c r="L1874" s="16"/>
       <c r="M1874" s="16">
-        <v>723002.17</v>
+        <v>11950</v>
       </c>
       <c r="N1874" s="16" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="O1874" s="16" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="P1874" s="16" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="Q1874" s="16" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="R1874" s="16" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="S1874" s="16" t="s">
         <v>304</v>
@@ -4963,28 +5117,28 @@
     </row>
     <row r="1875" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1875" s="16" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="B1875" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1875" s="16" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="D1875" s="16" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E1875" s="22">
-        <v>72000</v>
+        <v>9235.48</v>
       </c>
       <c r="F1875" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1875" s="16">
-        <v>161.66999999999999</v>
+        <v>450.44</v>
       </c>
       <c r="H1875" s="16">
-        <v>4970</v>
+        <v>13846.96</v>
       </c>
       <c r="I1875" s="16">
         <v>0</v>
@@ -4997,22 +5151,22 @@
       </c>
       <c r="L1875" s="16"/>
       <c r="M1875" s="16">
-        <v>4970</v>
+        <v>13846.96</v>
       </c>
       <c r="N1875" s="16" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="O1875" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1875" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1875" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1875" s="16" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="S1875" s="16" t="s">
         <v>304</v>
@@ -5025,28 +5179,28 @@
     </row>
     <row r="1876" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1876" s="16" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="B1876" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1876" s="16" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="D1876" s="16" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E1876" s="22">
-        <v>723002.17</v>
+        <v>11950</v>
       </c>
       <c r="F1876" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1876" s="16">
-        <v>300.43</v>
+        <v>1997.29</v>
       </c>
       <c r="H1876" s="16">
-        <v>9235.48</v>
+        <v>61398</v>
       </c>
       <c r="I1876" s="16">
         <v>0</v>
@@ -5059,22 +5213,22 @@
       </c>
       <c r="L1876" s="16"/>
       <c r="M1876" s="16">
-        <v>9235.48</v>
+        <v>61398</v>
       </c>
       <c r="N1876" s="16" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="O1876" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1876" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1876" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1876" s="16" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="S1876" s="16" t="s">
         <v>304</v>
@@ -5087,31 +5241,27 @@
     </row>
     <row r="1877" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1877" s="16" t="s">
-        <v>340</v>
+        <v>355</v>
       </c>
       <c r="B1877" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1877" s="16" t="s">
-        <v>342</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1877" s="16"/>
       <c r="D1877" s="16" t="s">
-        <v>341</v>
+        <v>357</v>
       </c>
       <c r="E1877" s="22">
-        <v>4970</v>
+        <v>13846.96</v>
       </c>
       <c r="F1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1877" s="16">
-        <v>388.74</v>
-      </c>
+        <v>323.68</v>
+      </c>
+      <c r="G1877" s="16"/>
       <c r="H1877" s="16">
-        <v>11950</v>
+        <v>0</v>
       </c>
       <c r="I1877" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J1877" s="16">
         <v>0</v>
@@ -5121,26 +5271,16 @@
       </c>
       <c r="L1877" s="16"/>
       <c r="M1877" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1877" s="16" t="s">
-        <v>344</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="N1877" s="16"/>
       <c r="O1877" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1877" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1877" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1877" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1877" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1877" s="16"/>
+      <c r="Q1877" s="16"/>
+      <c r="R1877" s="16"/>
+      <c r="S1877" s="16"/>
       <c r="T1877" s="16"/>
       <c r="U1877" s="16"/>
       <c r="V1877" s="16"/>
@@ -5149,31 +5289,27 @@
     </row>
     <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1878" s="16" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="B1878" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1878" s="16" t="s">
-        <v>347</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1878" s="16"/>
       <c r="D1878" s="16" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="E1878" s="22">
-        <v>9235.48</v>
+        <v>61398</v>
       </c>
       <c r="F1878" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1878" s="16">
-        <v>450.44</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G1878" s="16"/>
       <c r="H1878" s="16">
-        <v>13846.96</v>
+        <v>0</v>
       </c>
       <c r="I1878" s="16">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="J1878" s="16">
         <v>0</v>
@@ -5183,26 +5319,16 @@
       </c>
       <c r="L1878" s="16"/>
       <c r="M1878" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1878" s="16" t="s">
-        <v>349</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="N1878" s="16"/>
       <c r="O1878" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1878" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1878" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1878" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1878" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1878" s="16"/>
+      <c r="Q1878" s="16"/>
+      <c r="R1878" s="16"/>
+      <c r="S1878" s="16"/>
       <c r="T1878" s="16"/>
       <c r="U1878" s="16"/>
       <c r="V1878" s="16"/>
@@ -5211,31 +5337,23 @@
     </row>
     <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1879" s="16" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="B1879" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1879" s="16" t="s">
-        <v>352</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1879" s="16"/>
       <c r="D1879" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1879" s="22">
-        <v>11950</v>
-      </c>
-      <c r="F1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1879" s="16">
-        <v>1997.29</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E1879" s="22"/>
+      <c r="F1879" s="16"/>
+      <c r="G1879" s="16"/>
       <c r="H1879" s="16">
-        <v>61398</v>
+        <v>0</v>
       </c>
       <c r="I1879" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1879" s="16">
         <v>0</v>
@@ -5245,26 +5363,16 @@
       </c>
       <c r="L1879" s="16"/>
       <c r="M1879" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1879" s="16" t="s">
-        <v>354</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1879" s="16"/>
       <c r="O1879" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1879" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1879" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1879" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1879" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1879" s="16"/>
+      <c r="Q1879" s="16"/>
+      <c r="R1879" s="16"/>
+      <c r="S1879" s="16"/>
       <c r="T1879" s="16"/>
       <c r="U1879" s="16"/>
       <c r="V1879" s="16"/>
@@ -5273,27 +5381,27 @@
     </row>
     <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1880" s="16" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B1880" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1880" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C1880" s="16" t="s">
+        <v>366</v>
+      </c>
       <c r="D1880" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1880" s="22">
-        <v>13846.96</v>
-      </c>
-      <c r="F1880" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1880" s="16"/>
+        <v>365</v>
+      </c>
+      <c r="E1880" s="22"/>
+      <c r="F1880" s="16"/>
+      <c r="G1880" s="16">
+        <v>136.63</v>
+      </c>
       <c r="H1880" s="16">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="I1880" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1880" s="16">
         <v>0</v>
@@ -5303,16 +5411,26 @@
       </c>
       <c r="L1880" s="16"/>
       <c r="M1880" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1880" s="16"/>
+        <v>4200</v>
+      </c>
+      <c r="N1880" s="16" t="s">
+        <v>368</v>
+      </c>
       <c r="O1880" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1880" s="16"/>
-      <c r="Q1880" s="16"/>
-      <c r="R1880" s="16"/>
-      <c r="S1880" s="16"/>
+        <v>311</v>
+      </c>
+      <c r="P1880" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1880" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1880" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1880" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1880" s="16"/>
       <c r="U1880" s="16"/>
       <c r="V1880" s="16"/>
@@ -5321,27 +5439,27 @@
     </row>
     <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1881" s="16" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="B1881" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1881" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C1881" s="16" t="s">
+        <v>373</v>
+      </c>
       <c r="D1881" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1881" s="22">
-        <v>61398</v>
-      </c>
-      <c r="F1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1881" s="16"/>
+        <v>370</v>
+      </c>
+      <c r="E1881" s="22"/>
+      <c r="F1881" s="16"/>
+      <c r="G1881" s="16">
+        <v>650.6</v>
+      </c>
       <c r="H1881" s="16">
-        <v>0</v>
+        <v>20000</v>
       </c>
       <c r="I1881" s="16">
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="J1881" s="16">
         <v>0</v>
@@ -5351,16 +5469,26 @@
       </c>
       <c r="L1881" s="16"/>
       <c r="M1881" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1881" s="16"/>
+        <v>20000</v>
+      </c>
+      <c r="N1881" s="16" t="s">
+        <v>375</v>
+      </c>
       <c r="O1881" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1881" s="16"/>
-      <c r="Q1881" s="16"/>
-      <c r="R1881" s="16"/>
-      <c r="S1881" s="16"/>
+        <v>311</v>
+      </c>
+      <c r="P1881" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1881" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1881" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1881" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1881" s="16"/>
       <c r="U1881" s="16"/>
       <c r="V1881" s="16"/>
@@ -5369,23 +5497,31 @@
     </row>
     <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1882" s="16" t="s">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="B1882" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1882" s="16"/>
+        <v>364</v>
+      </c>
+      <c r="C1882" s="16" t="s">
+        <v>378</v>
+      </c>
       <c r="D1882" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1882" s="22"/>
-      <c r="F1882" s="16"/>
-      <c r="G1882" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="E1882" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1882" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1882" s="16">
+        <v>78.37</v>
+      </c>
       <c r="H1882" s="16">
-        <v>0</v>
+        <v>2409</v>
       </c>
       <c r="I1882" s="16">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J1882" s="16">
         <v>0</v>
@@ -5395,16 +5531,26 @@
       </c>
       <c r="L1882" s="16"/>
       <c r="M1882" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1882" s="16"/>
+        <v>2409</v>
+      </c>
+      <c r="N1882" s="16" t="s">
+        <v>380</v>
+      </c>
       <c r="O1882" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1882" s="16"/>
-      <c r="Q1882" s="16"/>
-      <c r="R1882" s="16"/>
-      <c r="S1882" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1882" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1882" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1882" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1882" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1882" s="16"/>
       <c r="U1882" s="16"/>
       <c r="V1882" s="16"/>
@@ -5413,24 +5559,28 @@
     </row>
     <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1883" s="16" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="B1883" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1883" s="16" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="D1883" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1883" s="22"/>
-      <c r="F1883" s="16"/>
+        <v>377</v>
+      </c>
+      <c r="E1883" s="22">
+        <v>320000</v>
+      </c>
+      <c r="F1883" s="16">
+        <v>0</v>
+      </c>
       <c r="G1883" s="16">
-        <v>136.63</v>
+        <v>11758.05</v>
       </c>
       <c r="H1883" s="16">
-        <v>4200</v>
+        <v>361450.61</v>
       </c>
       <c r="I1883" s="16">
         <v>0</v>
@@ -5443,22 +5593,22 @@
       </c>
       <c r="L1883" s="16"/>
       <c r="M1883" s="16">
-        <v>4200</v>
+        <v>361450.61</v>
       </c>
       <c r="N1883" s="16" t="s">
-        <v>368</v>
+        <v>386</v>
       </c>
       <c r="O1883" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1883" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1883" s="16" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="R1883" s="16" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="S1883" s="16" t="s">
         <v>304</v>
@@ -5471,24 +5621,28 @@
     </row>
     <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1884" s="16" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B1884" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1884" s="16" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="D1884" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1884" s="22"/>
-      <c r="F1884" s="16"/>
+        <v>388</v>
+      </c>
+      <c r="E1884" s="22">
+        <v>2409</v>
+      </c>
+      <c r="F1884" s="16">
+        <v>0</v>
+      </c>
       <c r="G1884" s="16">
-        <v>650.6</v>
+        <v>1073.5</v>
       </c>
       <c r="H1884" s="16">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="I1884" s="16">
         <v>0</v>
@@ -5501,23 +5655,21 @@
       </c>
       <c r="L1884" s="16"/>
       <c r="M1884" s="16">
-        <v>20000</v>
+        <v>33000</v>
       </c>
       <c r="N1884" s="16" t="s">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="O1884" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1884" s="16" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="Q1884" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1884" s="16" t="s">
-        <v>374</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1884" s="16"/>
       <c r="S1884" s="16" t="s">
         <v>304</v>
       </c>
@@ -5529,28 +5681,28 @@
     </row>
     <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1885" s="16" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B1885" s="16" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C1885" s="16" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="D1885" s="16" t="s">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="E1885" s="22">
-        <v>4200</v>
+        <v>361450.61</v>
       </c>
       <c r="F1885" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1885" s="16">
-        <v>78.37</v>
+        <v>267.5</v>
       </c>
       <c r="H1885" s="16">
-        <v>2409</v>
+        <v>8223</v>
       </c>
       <c r="I1885" s="16">
         <v>0</v>
@@ -5563,10 +5715,10 @@
       </c>
       <c r="L1885" s="16"/>
       <c r="M1885" s="16">
-        <v>2409</v>
+        <v>8223</v>
       </c>
       <c r="N1885" s="16" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="O1885" s="16" t="s">
         <v>327</v>
@@ -5578,7 +5730,7 @@
         <v>329</v>
       </c>
       <c r="R1885" s="16" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="S1885" s="16" t="s">
         <v>304</v>
@@ -5591,28 +5743,28 @@
     </row>
     <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1886" s="16" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B1886" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1886" s="16" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="D1886" s="16" t="s">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="E1886" s="22">
-        <v>320000</v>
+        <v>477000</v>
       </c>
       <c r="F1886" s="16">
         <v>0</v>
       </c>
       <c r="G1886" s="16">
-        <v>11758.05</v>
+        <v>406.63</v>
       </c>
       <c r="H1886" s="16">
-        <v>361450.61</v>
+        <v>12500</v>
       </c>
       <c r="I1886" s="16">
         <v>0</v>
@@ -5625,22 +5777,22 @@
       </c>
       <c r="L1886" s="16"/>
       <c r="M1886" s="16">
-        <v>361450.61</v>
+        <v>12500</v>
       </c>
       <c r="N1886" s="16" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="O1886" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1886" s="16" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="Q1886" s="16" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="R1886" s="16" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="S1886" s="16" t="s">
         <v>304</v>
@@ -5653,28 +5805,28 @@
     </row>
     <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1887" s="16" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="B1887" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1887" s="16" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="D1887" s="16" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="E1887" s="22">
-        <v>2409</v>
+        <v>8223</v>
       </c>
       <c r="F1887" s="16">
         <v>0</v>
       </c>
       <c r="G1887" s="16">
-        <v>1073.5</v>
+        <v>3366.87</v>
       </c>
       <c r="H1887" s="16">
-        <v>33000</v>
+        <v>103500</v>
       </c>
       <c r="I1887" s="16">
         <v>0</v>
@@ -5687,21 +5839,23 @@
       </c>
       <c r="L1887" s="16"/>
       <c r="M1887" s="16">
-        <v>33000</v>
+        <v>103500</v>
       </c>
       <c r="N1887" s="16" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="O1887" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1887" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1887" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1887" s="16"/>
+        <v>329</v>
+      </c>
+      <c r="R1887" s="16" t="s">
+        <v>404</v>
+      </c>
       <c r="S1887" s="16" t="s">
         <v>304</v>
       </c>
@@ -5713,28 +5867,28 @@
     </row>
     <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1888" s="16" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="B1888" s="16" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="C1888" s="16" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="D1888" s="16" t="s">
-        <v>334</v>
+        <v>408</v>
       </c>
       <c r="E1888" s="22">
-        <v>361450.61</v>
+        <v>12500</v>
       </c>
       <c r="F1888" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1888" s="16">
-        <v>267.5</v>
+        <v>44.95</v>
       </c>
       <c r="H1888" s="16">
-        <v>8223</v>
+        <v>1381.79</v>
       </c>
       <c r="I1888" s="16">
         <v>0</v>
@@ -5747,22 +5901,22 @@
       </c>
       <c r="L1888" s="16"/>
       <c r="M1888" s="16">
-        <v>8223</v>
+        <v>1381.79</v>
       </c>
       <c r="N1888" s="16" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="O1888" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1888" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1888" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1888" s="16" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
       <c r="S1888" s="16" t="s">
         <v>304</v>
@@ -5775,28 +5929,28 @@
     </row>
     <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1889" s="16" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="B1889" s="16" t="s">
-        <v>356</v>
+        <v>407</v>
       </c>
       <c r="C1889" s="16" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="D1889" s="16" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="E1889" s="22">
-        <v>477000</v>
+        <v>103500</v>
       </c>
       <c r="F1889" s="16">
         <v>0</v>
       </c>
       <c r="G1889" s="16">
-        <v>406.63</v>
+        <v>45.54</v>
       </c>
       <c r="H1889" s="16">
-        <v>12500</v>
+        <v>1400</v>
       </c>
       <c r="I1889" s="16">
         <v>0</v>
@@ -5809,22 +5963,22 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>12500</v>
+        <v>1400</v>
       </c>
       <c r="N1889" s="16" t="s">
-        <v>400</v>
+        <v>416</v>
       </c>
       <c r="O1889" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1889" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1889" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1889" s="16" t="s">
-        <v>399</v>
+        <v>415</v>
       </c>
       <c r="S1889" s="16" t="s">
         <v>304</v>
@@ -5836,227 +5990,41 @@
       <c r="X1889" s="16"/>
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1890" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1890" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1890" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1890" s="16" t="s">
-        <v>402</v>
+      <c r="A1890" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>418</v>
       </c>
       <c r="E1890" s="22">
-        <v>8223</v>
+        <v>1381.76</v>
       </c>
       <c r="F1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1890" s="16">
-        <v>3366.87</v>
-      </c>
-      <c r="H1890" s="16">
-        <v>103500</v>
-      </c>
-      <c r="I1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1890" s="16"/>
-      <c r="M1890" s="16">
-        <v>103500</v>
-      </c>
-      <c r="N1890" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1890" s="16" t="s">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O1890" t="s">
         <v>327</v>
       </c>
-      <c r="P1890" s="16" t="s">
+      <c r="P1890" t="s">
         <v>328</v>
       </c>
-      <c r="Q1890" s="16" t="s">
+      <c r="Q1890" t="s">
         <v>329</v>
       </c>
-      <c r="R1890" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1890" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1890" s="16"/>
-      <c r="U1890" s="16"/>
-      <c r="V1890" s="16"/>
-      <c r="W1890" s="16"/>
-      <c r="X1890" s="16"/>
     </row>
     <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1891" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="B1891" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1891" s="16" t="s">
-        <v>409</v>
-      </c>
-      <c r="D1891" s="16" t="s">
-        <v>408</v>
-      </c>
       <c r="E1891" s="22">
-        <v>12500</v>
+        <v>1400</v>
       </c>
       <c r="F1891" s="16">
         <v>0</v>
       </c>
-      <c r="G1891" s="16">
-        <v>44.95</v>
-      </c>
-      <c r="H1891" s="16">
-        <v>1381.79</v>
-      </c>
-      <c r="I1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1891" s="16"/>
-      <c r="M1891" s="16">
-        <v>1381.79</v>
-      </c>
-      <c r="N1891" s="16" t="s">
-        <v>411</v>
-      </c>
-      <c r="O1891" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1891" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1891" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1891" s="16" t="s">
-        <v>410</v>
-      </c>
-      <c r="S1891" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1891" s="16"/>
-      <c r="U1891" s="16"/>
-      <c r="V1891" s="16"/>
-      <c r="W1891" s="16"/>
-      <c r="X1891" s="16"/>
-    </row>
-    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1892" s="16" t="s">
-        <v>412</v>
-      </c>
-      <c r="B1892" s="16" t="s">
-        <v>407</v>
-      </c>
-      <c r="C1892" s="16" t="s">
-        <v>414</v>
-      </c>
-      <c r="D1892" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1892" s="22">
-        <v>103500</v>
-      </c>
-      <c r="F1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1892" s="16">
-        <v>45.54</v>
-      </c>
-      <c r="H1892" s="16">
-        <v>1400</v>
-      </c>
-      <c r="I1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1892" s="16"/>
-      <c r="M1892" s="16">
-        <v>1400</v>
-      </c>
-      <c r="N1892" s="16" t="s">
-        <v>416</v>
-      </c>
-      <c r="O1892" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1892" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1892" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1892" s="16" t="s">
-        <v>415</v>
-      </c>
-      <c r="S1892" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1892" s="16"/>
-      <c r="U1892" s="16"/>
-      <c r="V1892" s="16"/>
-      <c r="W1892" s="16"/>
-      <c r="X1892" s="16"/>
-    </row>
-    <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1893" t="s">
-        <v>417</v>
-      </c>
-      <c r="B1893" t="s">
-        <v>407</v>
-      </c>
-      <c r="D1893" t="s">
-        <v>418</v>
-      </c>
-      <c r="E1893" s="22">
-        <v>1381.76</v>
-      </c>
-      <c r="F1893" s="16">
-        <v>33.200000000000003</v>
-      </c>
-      <c r="O1893" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1893" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1893" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1894" s="22">
-        <v>1400</v>
-      </c>
-      <c r="F1894" s="16">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X97"/>
+  <autoFilter ref="A3:X94"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -6117,12 +6085,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -6808,12 +6776,12 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="33" t="s">
+      <c r="A50" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7939,12 +7907,12 @@
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="32" t="s">
+      <c r="A129" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="32"/>
-      <c r="C129" s="32"/>
-      <c r="D129" s="32"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9645,12 +9613,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -11205,12 +11173,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="32" t="s">
+      <c r="A132" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="32"/>
-      <c r="C132" s="32"/>
-      <c r="D132" s="32"/>
+      <c r="B132" s="30"/>
+      <c r="C132" s="30"/>
+      <c r="D132" s="30"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -19,14 +19,14 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$94</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$95</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="630">
   <si>
     <t>дата</t>
   </si>
@@ -1514,9 +1514,6 @@
     <t>запускается с клавиатуры</t>
   </si>
   <si>
-    <t>GetReslines(x,LoadMode)</t>
-  </si>
-  <si>
     <t>извлечение размера пятки из х с учетом контекста LoadMode</t>
   </si>
   <si>
@@ -1550,9 +1547,6 @@
     <t>AutoFilterReset(SheetN)</t>
   </si>
   <si>
-    <t>-?</t>
-  </si>
-  <si>
     <t>подпрограмма сброса и взвода фильтра  листа SheetN</t>
   </si>
   <si>
@@ -1938,6 +1932,18 @@
   </si>
   <si>
     <t>возвращает TRUE, если строка Nstr Платежа связана с ADSK</t>
+  </si>
+  <si>
+    <t>S/-</t>
+  </si>
+  <si>
+    <t>TOCengine</t>
+  </si>
+  <si>
+    <t>работа с TOC Документов</t>
+  </si>
+  <si>
+    <t>GetReslines([Doc],[LoadMode],[ResL])</t>
   </si>
 </sst>
 </file>
@@ -2167,7 +2173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2226,6 +2232,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2533,10 +2540,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1891"/>
+  <dimension ref="A1:X1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2553,7 @@
     <col min="3" max="3" width="29.42578125" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="8" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="8" customWidth="1"/>
     <col min="7" max="9" width="28.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
@@ -2555,7 +2562,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41510</v>
+        <v>41512</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2594,43 +2601,41 @@
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
+    <row r="5" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>41510</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>424</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>425</v>
-      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>579</v>
+      </c>
+      <c r="E5"/>
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
-        <v>41137</v>
+        <v>41511</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="7" t="s">
-        <v>74</v>
+        <v>626</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
-        <v>41153</v>
+        <v>41137</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
@@ -2639,10 +2644,10 @@
         <v>74</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2656,15 +2661,15 @@
         <v>74</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>465</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
-        <v>41497</v>
+        <v>41153</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
@@ -2673,10 +2678,10 @@
         <v>74</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>564</v>
+        <v>465</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2690,15 +2695,15 @@
         <v>74</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>431</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
-        <v>41182</v>
+        <v>41497</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -2707,10 +2712,10 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>565</v>
+        <v>430</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>566</v>
+        <v>431</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -2724,32 +2729,32 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>41224</v>
+        <v>41182</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
       <c r="E13" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>462</v>
+        <v>565</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>463</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>41183</v>
+        <v>41224</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
@@ -2758,64 +2763,65 @@
         <v>452</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>569</v>
+        <v>462</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>570</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>41510</v>
+        <v>41183</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="7" t="s">
         <v>452</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>618</v>
+        <v>567</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="25">
         <v>41510</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f>MAX(A6:A16)</f>
+        <v>41511</v>
+      </c>
+      <c r="B17" t="s">
         <v>422</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>423</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>445</v>
       </c>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25">
-        <v>41395</v>
-      </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>573</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>574</v>
-      </c>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <v>41293</v>
+        <v>41395</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -2824,15 +2830,15 @@
         <v>74</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25">
-        <v>41223</v>
+        <v>41293</v>
       </c>
       <c r="B19"/>
       <c r="C19"/>
@@ -2841,49 +2847,49 @@
         <v>74</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <v>41510</v>
+        <v>41223</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
       <c r="E20" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>620</v>
+        <v>576</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>621</v>
+        <v>575</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <v>41497</v>
+        <v>41510</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>579</v>
+        <v>618</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>580</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
-        <v>41279</v>
+        <v>41497</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -2892,15 +2898,15 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25">
-        <v>41278</v>
+        <v>41279</v>
       </c>
       <c r="B23"/>
       <c r="C23"/>
@@ -2909,15 +2915,15 @@
         <v>74</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
-        <v>41228</v>
+        <v>41278</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -2926,15 +2932,15 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
-        <v>41217</v>
+        <v>41228</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -2943,15 +2949,15 @@
         <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>470</v>
+        <v>583</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>471</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
-        <v>41260</v>
+        <v>41217</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -2960,114 +2966,113 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>587</v>
+        <v>470</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>41497</v>
-      </c>
-      <c r="B27" t="s">
-        <v>571</v>
-      </c>
-      <c r="C27" t="s">
-        <v>572</v>
-      </c>
-      <c r="D27">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="25">
+        <v>41260</v>
+      </c>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>585</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f>MAX(A18:A27)</f>
+        <v>41510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>569</v>
+      </c>
+      <c r="C28" t="s">
+        <v>570</v>
+      </c>
+      <c r="D28">
         <v>1030</v>
       </c>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>41510</v>
-      </c>
-      <c r="B28" t="s">
-        <v>166</v>
-      </c>
-      <c r="C28" t="s">
-        <v>167</v>
-      </c>
-      <c r="D28">
-        <v>579</v>
-      </c>
-      <c r="E28"/>
+      <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
-        <v>41162</v>
-      </c>
-      <c r="B29"/>
+        <v>41504</v>
+      </c>
+      <c r="B29" s="32"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>419</v>
+        <v>74</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
-        <v>41062</v>
-      </c>
-      <c r="B30"/>
+        <v>41130</v>
+      </c>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>420</v>
+        <v>74</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>41160</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C31" t="s">
-        <v>445</v>
-      </c>
-      <c r="D31">
-        <v>99</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>41469</v>
+      </c>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="17" t="s">
+        <v>487</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25">
-        <v>41504</v>
-      </c>
+        <v>41116</v>
+      </c>
+      <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>433</v>
+      <c r="F32" s="17" t="s">
+        <v>450</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25">
         <v>41504</v>
       </c>
@@ -3077,15 +3082,15 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
-        <v>41130</v>
+        <v>41511</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -3093,131 +3098,136 @@
         <v>74</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>447</v>
+        <v>488</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="25">
-        <v>41469</v>
-      </c>
-      <c r="B35"/>
-      <c r="C35"/>
-      <c r="D35"/>
-      <c r="E35" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>488</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f>MAX(A29:A34)</f>
+        <v>41511</v>
+      </c>
+      <c r="B35" t="s">
+        <v>627</v>
+      </c>
+      <c r="C35" t="s">
+        <v>628</v>
+      </c>
+      <c r="D35">
+        <v>342</v>
+      </c>
+      <c r="E35"/>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25">
-        <v>41116</v>
+        <v>41162</v>
       </c>
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
       <c r="E36" s="7" t="s">
-        <v>74</v>
+        <v>301</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>450</v>
+        <v>419</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
-        <v>41501</v>
-      </c>
+        <v>41062</v>
+      </c>
+      <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>489</v>
+        <v>301</v>
+      </c>
+      <c r="F37" s="17" t="s">
+        <v>420</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f>MAX(A36:A37)</f>
+        <v>41162</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C38" t="s">
+        <v>445</v>
+      </c>
+      <c r="D38">
+        <v>99</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="25">
         <v>41302</v>
       </c>
-      <c r="B38"/>
-      <c r="C38"/>
-      <c r="D38"/>
-      <c r="E38" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>490</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>41286</v>
-      </c>
+      <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
       <c r="E39" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>492</v>
+        <v>452</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>489</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
-        <v>41302</v>
+        <v>41286</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="7" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
-        <v>41071</v>
-      </c>
-      <c r="B41"/>
+        <v>41302</v>
+      </c>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="17" t="s">
-        <v>455</v>
+      <c r="F41" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25">
-        <v>41060</v>
+        <v>41071</v>
       </c>
       <c r="B42"/>
       <c r="C42"/>
@@ -3226,15 +3236,15 @@
         <v>74</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
-        <v>41472</v>
+        <v>41060</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -3243,117 +3253,117 @@
         <v>74</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>83</v>
+        <v>459</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25">
-        <v>40958</v>
+        <v>41472</v>
       </c>
       <c r="B44"/>
       <c r="C44"/>
       <c r="D44"/>
       <c r="E44" s="7" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>461</v>
+        <v>83</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
-        <v>41258</v>
+        <v>40958</v>
       </c>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
-      <c r="E45" s="23" t="s">
-        <v>498</v>
+      <c r="E45" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>497</v>
+        <v>461</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
-        <v>40935</v>
+        <v>41511</v>
       </c>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46" s="23" t="s">
-        <v>500</v>
+        <v>74</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
-        <v>40934</v>
+        <v>40935</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47" s="23" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>94</v>
+        <v>499</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
-        <v>40928</v>
+        <v>40934</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48" s="23" t="s">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
-        <v>41156</v>
+        <v>40928</v>
       </c>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F49" s="17" t="s">
-        <v>506</v>
+        <v>95</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
-        <v>41536</v>
+        <v>41156</v>
       </c>
       <c r="B50"/>
       <c r="C50"/>
@@ -3362,15 +3372,15 @@
         <v>74</v>
       </c>
       <c r="F50" s="17" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25">
-        <v>41267</v>
+        <v>41171</v>
       </c>
       <c r="B51"/>
       <c r="C51"/>
@@ -3379,13 +3389,13 @@
         <v>74</v>
       </c>
       <c r="F51" s="17" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
         <v>41267</v>
       </c>
@@ -3396,13 +3406,13 @@
         <v>74</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
         <v>41267</v>
       </c>
@@ -3410,35 +3420,35 @@
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25">
-        <v>40953</v>
+        <v>41267</v>
       </c>
       <c r="B54"/>
       <c r="C54"/>
       <c r="D54"/>
       <c r="E54" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F54" s="17" t="s">
-        <v>98</v>
+        <v>511</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
-        <v>41141</v>
+        <v>40953</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
@@ -3447,15 +3457,15 @@
         <v>74</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>516</v>
+        <v>98</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
-        <v>41146</v>
+        <v>41141</v>
       </c>
       <c r="B56"/>
       <c r="C56"/>
@@ -3464,30 +3474,30 @@
         <v>74</v>
       </c>
       <c r="F56" s="17" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
-        <v>41098</v>
+        <v>41146</v>
       </c>
       <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F57" s="17" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
         <v>41098</v>
       </c>
@@ -3495,7 +3505,7 @@
       <c r="C58"/>
       <c r="D58"/>
       <c r="E58" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F58" s="17" t="s">
         <v>520</v>
@@ -3504,9 +3514,9 @@
         <v>521</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
-        <v>41248</v>
+        <v>41098</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
@@ -3515,15 +3525,15 @@
         <v>74</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
-        <v>41504</v>
+        <v>41248</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
@@ -3532,47 +3542,47 @@
         <v>74</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
-        <v>41072</v>
+        <v>41504</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="23" t="s">
-        <v>504</v>
+        <v>74</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>187</v>
+        <v>524</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
-        <v>41018</v>
+        <v>41072</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>100</v>
+        <v>187</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
         <v>41018</v>
       </c>
@@ -3583,15 +3593,15 @@
         <v>74</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>174</v>
+        <v>100</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
-        <v>41236</v>
+        <v>41018</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -3600,15 +3610,15 @@
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>530</v>
+        <v>174</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
-        <v>41277</v>
+        <v>41236</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
@@ -3617,15 +3627,15 @@
         <v>74</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
-        <v>41510</v>
+        <v>41511</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -3634,48 +3644,50 @@
         <v>74</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
-        <v>40943</v>
+        <v>41511</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="23" t="s">
-        <v>537</v>
+        <v>74</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
-        <v>41152</v>
+        <v>40943</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="23" t="s">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+        <v>537</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="25">
+        <v>41152</v>
+      </c>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
@@ -3683,16 +3695,14 @@
         <v>74</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25">
-        <v>41018</v>
-      </c>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
@@ -3700,15 +3710,15 @@
         <v>74</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
-        <v>41067</v>
+        <v>41018</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -3717,30 +3727,30 @@
         <v>74</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>196</v>
+        <v>541</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
-        <v>41053</v>
+        <v>41067</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>545</v>
+        <v>196</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
         <v>41053</v>
       </c>
@@ -3748,69 +3758,69 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
-        <v>41036</v>
+        <v>41053</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>242</v>
+        <v>545</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
-        <v>41053</v>
+        <v>41036</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="23" t="s">
-        <v>551</v>
+        <v>231</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>550</v>
+        <v>242</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
-        <v>41036</v>
+        <v>41053</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="23" t="s">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>240</v>
+        <v>548</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
-        <v>41221</v>
+        <v>41036</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -3819,181 +3829,184 @@
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>553</v>
+        <v>240</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="25">
+        <v>41221</v>
+      </c>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25">
-        <v>41272</v>
-      </c>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>41504</v>
-      </c>
-      <c r="B80" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="25">
+        <v>41272</v>
+      </c>
+      <c r="B80"/>
+      <c r="C80"/>
+      <c r="D80"/>
+      <c r="E80" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F80" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G80" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f>MAX(A29:A80)</f>
+        <v>41511</v>
+      </c>
+      <c r="B81" t="s">
         <v>6</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C81" t="s">
         <v>303</v>
       </c>
-      <c r="D80">
-        <v>1303</v>
-      </c>
-      <c r="E80" s="7" t="s">
+      <c r="D81">
+        <v>981</v>
+      </c>
+      <c r="E81" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F80" s="17"/>
-      <c r="G80" s="24"/>
-    </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25">
-        <v>41510</v>
-      </c>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81" s="7" t="s">
-        <v>560</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>562</v>
-      </c>
+      <c r="F81" s="17"/>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
-        <v>41165</v>
+        <v>41510</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="G82" s="8" t="s">
         <v>560</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>589</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+    </row>
+    <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="25">
+        <v>41165</v>
+      </c>
+      <c r="B83"/>
+      <c r="C83"/>
+      <c r="D83"/>
+      <c r="E83" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f>MAX(A82:A83)</f>
         <v>41510</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B84" t="s">
         <v>419</v>
       </c>
-      <c r="C83" t="s">
-        <v>559</v>
-      </c>
-      <c r="D83">
+      <c r="C84" t="s">
+        <v>557</v>
+      </c>
+      <c r="D84">
         <v>282</v>
       </c>
-      <c r="E83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25">
-        <v>41509</v>
-      </c>
-      <c r="B84"/>
-      <c r="C84"/>
-      <c r="D84"/>
-      <c r="E84" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>593</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>594</v>
-      </c>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>41401</v>
+        <v>41509</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
       <c r="E85" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>591</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="25">
+        <v>41401</v>
+      </c>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>41473</v>
-      </c>
-      <c r="B86" t="s">
-        <v>591</v>
-      </c>
-      <c r="C86" t="s">
-        <v>592</v>
-      </c>
-      <c r="D86">
+      <c r="F86" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f>MAX(A85:A86)</f>
+        <v>41509</v>
+      </c>
+      <c r="B87" t="s">
+        <v>589</v>
+      </c>
+      <c r="C87" t="s">
+        <v>590</v>
+      </c>
+      <c r="D87">
         <v>307</v>
       </c>
-      <c r="E86" s="7"/>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25">
-        <v>41510</v>
-      </c>
-      <c r="B87"/>
-      <c r="C87"/>
-      <c r="D87"/>
-      <c r="E87" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>622</v>
-      </c>
-      <c r="G87" s="8" t="s">
-        <v>623</v>
-      </c>
+      <c r="E87" s="7"/>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
-        <v>41217</v>
+        <v>41510</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
@@ -4002,32 +4015,32 @@
         <v>472</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>476</v>
+        <v>620</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>477</v>
+        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
-        <v>41166</v>
+        <v>41217</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" s="7" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
-        <v>41135</v>
+        <v>41166</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
@@ -4036,32 +4049,32 @@
         <v>74</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
-        <v>41152</v>
+        <v>41512</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="7" t="s">
-        <v>472</v>
+        <v>74</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
-        <v>41510</v>
+        <v>41152</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
@@ -4070,63 +4083,68 @@
         <v>472</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>625</v>
+        <v>483</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>626</v>
+        <v>484</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
-        <v>41047</v>
+        <v>41510</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="7" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>299</v>
+        <v>623</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="3">
-        <v>41510</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" t="s">
         <v>624</v>
       </c>
-      <c r="D94">
-        <v>243</v>
-      </c>
+    </row>
+    <row r="94" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="25">
+        <v>41047</v>
+      </c>
+      <c r="B94"/>
+      <c r="C94"/>
+      <c r="D94"/>
       <c r="E94" s="7" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95"/>
-      <c r="C95"/>
-      <c r="D95"/>
+      <c r="F94" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f>MAX(A88:A94)</f>
+        <v>41512</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>622</v>
+      </c>
+      <c r="D95">
+        <v>243</v>
+      </c>
       <c r="E95" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F95" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="G95" s="8" t="s">
-        <v>598</v>
-      </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="25">
+        <v>40952</v>
+      </c>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
@@ -4134,14 +4152,16 @@
         <v>192</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
+      <c r="A97" s="25">
+        <v>40980</v>
+      </c>
       <c r="B97"/>
       <c r="C97"/>
       <c r="D97"/>
@@ -4149,14 +4169,16 @@
         <v>192</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>602</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="25">
+        <v>40951</v>
+      </c>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
@@ -4164,14 +4186,14 @@
         <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="25"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -4179,14 +4201,14 @@
         <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="25"/>
       <c r="B100"/>
       <c r="C100"/>
       <c r="D100"/>
@@ -4194,14 +4216,14 @@
         <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="25"/>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
@@ -4209,14 +4231,14 @@
         <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
+      <c r="A102" s="25"/>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
@@ -4224,57 +4246,58 @@
         <v>192</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="25"/>
       <c r="B103"/>
       <c r="C103"/>
       <c r="D103"/>
       <c r="E103" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="3">
-        <v>40968</v>
-      </c>
-      <c r="B104" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="25"/>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>611</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f>MAX(A96:A104)</f>
+        <v>40980</v>
+      </c>
+      <c r="B105" t="s">
         <v>40</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C105" t="s">
         <v>41</v>
       </c>
-      <c r="D104">
+      <c r="D105">
         <v>304</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105"/>
-      <c r="C105"/>
-      <c r="D105"/>
       <c r="E105" s="7" t="s">
-        <v>615</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G105" s="8" t="s">
-        <v>42</v>
+        <v>606</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4283,13 +4306,13 @@
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="7" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4298,13 +4321,13 @@
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>157</v>
+        <v>50</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4313,13 +4336,13 @@
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>46</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4328,35 +4351,33 @@
       <c r="C109"/>
       <c r="D109"/>
       <c r="E109" s="7" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25">
-        <v>41268</v>
-      </c>
+      <c r="A110" s="25"/>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110" s="7" t="s">
-        <v>74</v>
+        <v>614</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A111" s="25">
-        <v>41308</v>
+        <v>41268</v>
       </c>
       <c r="B111"/>
       <c r="C111"/>
@@ -4365,70 +4386,75 @@
         <v>74</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>617</v>
+        <v>61</v>
       </c>
       <c r="G111" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
+      <c r="A112" s="25">
+        <v>41308</v>
+      </c>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="7"/>
+      <c r="E112" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F112" s="8" t="s">
+        <v>615</v>
+      </c>
+      <c r="G112" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="25"/>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G112" s="8" t="s">
+      <c r="G113" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>40980</v>
-      </c>
-      <c r="B113" t="s">
+    <row r="114" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f>MAX(A106:A113)</f>
+        <v>41308</v>
+      </c>
+      <c r="B114" t="s">
         <v>17</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>18</v>
       </c>
-      <c r="D113">
+      <c r="D114">
         <v>683</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114" t="s">
-        <v>43</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>186</v>
+      <c r="E114" s="7" t="s">
+        <v>606</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="3">
+        <v>41067</v>
+      </c>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4440,10 +4466,10 @@
         <v>74</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
     </row>
     <row r="117" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4452,13 +4478,13 @@
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="118" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4467,13 +4493,13 @@
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4482,93 +4508,97 @@
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F119" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120"/>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120" t="s">
+        <v>74</v>
+      </c>
+      <c r="F120" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G120" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="3">
-        <v>41047</v>
-      </c>
-      <c r="B120" t="s">
+    <row r="121" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3">
+        <f>MAX(A115:A120)</f>
+        <v>41067</v>
+      </c>
+      <c r="B121" t="s">
         <v>183</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C121" t="s">
         <v>184</v>
       </c>
-      <c r="D120">
+      <c r="D121">
         <v>473</v>
       </c>
-      <c r="E120" s="7" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="26"/>
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27">
-        <f>SUM(D4:D120)</f>
-        <v>5748</v>
-      </c>
-      <c r="E121" s="28"/>
-      <c r="F121" s="29"/>
-      <c r="G121" s="29"/>
-      <c r="H121" s="29"/>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="3"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E121" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="26"/>
+      <c r="B122" s="27"/>
+      <c r="C122" s="27"/>
+      <c r="D122" s="27">
+        <f>SUM(D4:D121)</f>
+        <v>5768</v>
+      </c>
+      <c r="E122" s="28"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+    </row>
+    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
-      <c r="E123" s="19" t="s">
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="E124" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="F123" s="11" t="s">
+      <c r="F124" s="11" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125"/>
       <c r="C125"/>
-      <c r="D125" t="s">
-        <v>232</v>
-      </c>
+      <c r="D125"/>
       <c r="E125" s="20" t="s">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>485</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126"/>
       <c r="C126"/>
-      <c r="D126"/>
+      <c r="D126" t="s">
+        <v>232</v>
+      </c>
       <c r="E126" s="20" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4577,10 +4607,10 @@
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127" s="20" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>201</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4589,30 +4619,35 @@
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128" s="20" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
-      <c r="E129" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F129" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E129" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130"/>
       <c r="C130"/>
       <c r="D130"/>
-      <c r="E130" s="7"/>
+      <c r="E130" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F130" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
@@ -4677,8 +4712,12 @@
       <c r="D139"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
+      <c r="B140"/>
+      <c r="C140"/>
+      <c r="D140"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
@@ -4767,68 +4806,21 @@
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="1869" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1869" s="16"/>
-      <c r="B1869" s="16"/>
-      <c r="C1869" s="16" t="s">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1870" s="16"/>
+      <c r="B1870" s="16"/>
+      <c r="C1870" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1869" s="16"/>
-      <c r="G1869" s="16">
+      <c r="D1870" s="16"/>
+      <c r="G1870" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1869" s="16">
+      <c r="H1870" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1869" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1869" s="16"/>
-      <c r="M1869" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1869" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1869" s="16"/>
-      <c r="P1869" s="16"/>
-      <c r="Q1869" s="16"/>
-      <c r="R1869" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1869" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1869" s="16"/>
-      <c r="U1869" s="16"/>
-      <c r="V1869" s="16"/>
-      <c r="W1869" s="16"/>
-      <c r="X1869" s="16"/>
-    </row>
-    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1870" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1870" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1870" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1870" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1870" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1870" s="16">
-        <v>72000</v>
       </c>
       <c r="I1870" s="16">
         <v>0</v>
@@ -4841,22 +4833,16 @@
       </c>
       <c r="L1870" s="16"/>
       <c r="M1870" s="16">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="N1870" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1870" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1870" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1870" s="16" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1870" s="16"/>
+      <c r="P1870" s="16"/>
+      <c r="Q1870" s="16"/>
       <c r="R1870" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S1870" s="16" t="s">
         <v>304</v>
@@ -4869,28 +4855,22 @@
     </row>
     <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1871" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1871" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1871" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D1871" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1871" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1871" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1871" s="16">
-        <v>23519.38</v>
+        <v>2342.17</v>
       </c>
       <c r="H1871" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="I1871" s="16">
         <v>0</v>
@@ -4903,22 +4883,22 @@
       </c>
       <c r="L1871" s="16"/>
       <c r="M1871" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="N1871" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O1871" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P1871" s="16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q1871" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R1871" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S1871" s="16" t="s">
         <v>304</v>
@@ -4931,28 +4911,28 @@
     </row>
     <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1872" s="16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1872" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1872" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D1872" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E1872" s="22">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="F1872" s="16">
         <v>0</v>
       </c>
       <c r="G1872" s="16">
-        <v>161.66999999999999</v>
+        <v>23519.38</v>
       </c>
       <c r="H1872" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="I1872" s="16">
         <v>0</v>
@@ -4965,22 +4945,22 @@
       </c>
       <c r="L1872" s="16"/>
       <c r="M1872" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="N1872" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O1872" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1872" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1872" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1872" s="16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S1872" s="16" t="s">
         <v>304</v>
@@ -4993,28 +4973,28 @@
     </row>
     <row r="1873" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1873" s="16" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B1873" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1873" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D1873" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E1873" s="22">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="F1873" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1873" s="16">
-        <v>300.43</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1873" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="I1873" s="16">
         <v>0</v>
@@ -5027,22 +5007,22 @@
       </c>
       <c r="L1873" s="16"/>
       <c r="M1873" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="N1873" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O1873" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1873" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1873" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1873" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="S1873" s="16" t="s">
         <v>304</v>
@@ -5055,28 +5035,28 @@
     </row>
     <row r="1874" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1874" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B1874" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1874" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D1874" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E1874" s="22">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="F1874" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1874" s="16">
-        <v>388.74</v>
+        <v>300.43</v>
       </c>
       <c r="H1874" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="I1874" s="16">
         <v>0</v>
@@ -5089,22 +5069,22 @@
       </c>
       <c r="L1874" s="16"/>
       <c r="M1874" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="N1874" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O1874" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1874" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1874" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1874" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S1874" s="16" t="s">
         <v>304</v>
@@ -5117,28 +5097,28 @@
     </row>
     <row r="1875" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1875" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B1875" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1875" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D1875" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E1875" s="22">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="F1875" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1875" s="16">
-        <v>450.44</v>
+        <v>388.74</v>
       </c>
       <c r="H1875" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="I1875" s="16">
         <v>0</v>
@@ -5151,22 +5131,22 @@
       </c>
       <c r="L1875" s="16"/>
       <c r="M1875" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="N1875" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O1875" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1875" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1875" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1875" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S1875" s="16" t="s">
         <v>304</v>
@@ -5179,28 +5159,28 @@
     </row>
     <row r="1876" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1876" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B1876" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1876" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D1876" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1876" s="22">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="F1876" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1876" s="16">
-        <v>1997.29</v>
+        <v>450.44</v>
       </c>
       <c r="H1876" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="I1876" s="16">
         <v>0</v>
@@ -5213,22 +5193,22 @@
       </c>
       <c r="L1876" s="16"/>
       <c r="M1876" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="N1876" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O1876" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1876" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1876" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1876" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S1876" s="16" t="s">
         <v>304</v>
@@ -5241,27 +5221,31 @@
     </row>
     <row r="1877" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1877" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B1877" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1877" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1877" s="16" t="s">
+        <v>352</v>
+      </c>
       <c r="D1877" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E1877" s="22">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="F1877" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1877" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G1877" s="16">
+        <v>1997.29</v>
+      </c>
       <c r="H1877" s="16">
-        <v>0</v>
+        <v>61398</v>
       </c>
       <c r="I1877" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1877" s="16">
         <v>0</v>
@@ -5271,16 +5255,26 @@
       </c>
       <c r="L1877" s="16"/>
       <c r="M1877" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1877" s="16"/>
+        <v>61398</v>
+      </c>
+      <c r="N1877" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="O1877" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1877" s="16"/>
-      <c r="Q1877" s="16"/>
-      <c r="R1877" s="16"/>
-      <c r="S1877" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1877" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1877" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1877" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1877" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1877" s="16"/>
       <c r="U1877" s="16"/>
       <c r="V1877" s="16"/>
@@ -5296,20 +5290,20 @@
       </c>
       <c r="C1878" s="16"/>
       <c r="D1878" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E1878" s="22">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="F1878" s="16">
-        <v>0</v>
+        <v>323.68</v>
       </c>
       <c r="G1878" s="16"/>
       <c r="H1878" s="16">
         <v>0</v>
       </c>
       <c r="I1878" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="J1878" s="16">
         <v>0</v>
@@ -5319,7 +5313,7 @@
       </c>
       <c r="L1878" s="16"/>
       <c r="M1878" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="N1878" s="16"/>
       <c r="O1878" s="16" t="s">
@@ -5337,23 +5331,27 @@
     </row>
     <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1879" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1879" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C1879" s="16"/>
       <c r="D1879" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1879" s="22"/>
-      <c r="F1879" s="16"/>
+        <v>359</v>
+      </c>
+      <c r="E1879" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1879" s="16">
+        <v>0</v>
+      </c>
       <c r="G1879" s="16"/>
       <c r="H1879" s="16">
         <v>0</v>
       </c>
       <c r="I1879" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="J1879" s="16">
         <v>0</v>
@@ -5363,7 +5361,7 @@
       </c>
       <c r="L1879" s="16"/>
       <c r="M1879" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="N1879" s="16"/>
       <c r="O1879" s="16" t="s">
@@ -5381,27 +5379,23 @@
     </row>
     <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1880" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1880" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1880" s="16" t="s">
-        <v>366</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1880" s="16"/>
       <c r="D1880" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E1880" s="22"/>
       <c r="F1880" s="16"/>
-      <c r="G1880" s="16">
-        <v>136.63</v>
-      </c>
+      <c r="G1880" s="16"/>
       <c r="H1880" s="16">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="I1880" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1880" s="16">
         <v>0</v>
@@ -5411,26 +5405,16 @@
       </c>
       <c r="L1880" s="16"/>
       <c r="M1880" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1880" s="16" t="s">
-        <v>368</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1880" s="16"/>
       <c r="O1880" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1880" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1880" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1880" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1880" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1880" s="16"/>
+      <c r="Q1880" s="16"/>
+      <c r="R1880" s="16"/>
+      <c r="S1880" s="16"/>
       <c r="T1880" s="16"/>
       <c r="U1880" s="16"/>
       <c r="V1880" s="16"/>
@@ -5439,24 +5423,24 @@
     </row>
     <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1881" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1881" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1881" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1881" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E1881" s="22"/>
       <c r="F1881" s="16"/>
       <c r="G1881" s="16">
-        <v>650.6</v>
+        <v>136.63</v>
       </c>
       <c r="H1881" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="I1881" s="16">
         <v>0</v>
@@ -5469,22 +5453,22 @@
       </c>
       <c r="L1881" s="16"/>
       <c r="M1881" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="N1881" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O1881" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1881" s="16" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q1881" s="16" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R1881" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="S1881" s="16" t="s">
         <v>304</v>
@@ -5497,28 +5481,24 @@
     </row>
     <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1882" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1882" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1882" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D1882" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1882" s="22">
-        <v>4200</v>
-      </c>
-      <c r="F1882" s="16">
-        <v>0</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E1882" s="22"/>
+      <c r="F1882" s="16"/>
       <c r="G1882" s="16">
-        <v>78.37</v>
+        <v>650.6</v>
       </c>
       <c r="H1882" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="I1882" s="16">
         <v>0</v>
@@ -5531,22 +5511,22 @@
       </c>
       <c r="L1882" s="16"/>
       <c r="M1882" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="N1882" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O1882" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1882" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1882" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1882" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S1882" s="16" t="s">
         <v>304</v>
@@ -5559,28 +5539,28 @@
     </row>
     <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1883" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B1883" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1883" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D1883" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E1883" s="22">
-        <v>320000</v>
+        <v>4200</v>
       </c>
       <c r="F1883" s="16">
         <v>0</v>
       </c>
       <c r="G1883" s="16">
-        <v>11758.05</v>
+        <v>78.37</v>
       </c>
       <c r="H1883" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="I1883" s="16">
         <v>0</v>
@@ -5593,22 +5573,22 @@
       </c>
       <c r="L1883" s="16"/>
       <c r="M1883" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="N1883" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O1883" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1883" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1883" s="16" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="R1883" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S1883" s="16" t="s">
         <v>304</v>
@@ -5621,28 +5601,28 @@
     </row>
     <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1884" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1884" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1884" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1884" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1884" s="22">
-        <v>2409</v>
+        <v>320000</v>
       </c>
       <c r="F1884" s="16">
         <v>0</v>
       </c>
       <c r="G1884" s="16">
-        <v>1073.5</v>
+        <v>11758.05</v>
       </c>
       <c r="H1884" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="I1884" s="16">
         <v>0</v>
@@ -5655,10 +5635,10 @@
       </c>
       <c r="L1884" s="16"/>
       <c r="M1884" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="N1884" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O1884" s="16" t="s">
         <v>311</v>
@@ -5667,9 +5647,11 @@
         <v>382</v>
       </c>
       <c r="Q1884" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1884" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="R1884" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="S1884" s="16" t="s">
         <v>304</v>
       </c>
@@ -5681,28 +5663,28 @@
     </row>
     <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1885" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B1885" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1885" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D1885" s="16" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E1885" s="22">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="F1885" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1885" s="16">
-        <v>267.5</v>
+        <v>1073.5</v>
       </c>
       <c r="H1885" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="I1885" s="16">
         <v>0</v>
@@ -5715,23 +5697,21 @@
       </c>
       <c r="L1885" s="16"/>
       <c r="M1885" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="N1885" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O1885" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1885" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1885" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1885" s="16" t="s">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1885" s="16"/>
       <c r="S1885" s="16" t="s">
         <v>304</v>
       </c>
@@ -5743,28 +5723,28 @@
     </row>
     <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1886" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1886" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1886" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D1886" s="16" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="E1886" s="22">
-        <v>477000</v>
+        <v>361450.61</v>
       </c>
       <c r="F1886" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1886" s="16">
-        <v>406.63</v>
+        <v>267.5</v>
       </c>
       <c r="H1886" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="I1886" s="16">
         <v>0</v>
@@ -5777,22 +5757,22 @@
       </c>
       <c r="L1886" s="16"/>
       <c r="M1886" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="N1886" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O1886" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1886" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1886" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1886" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S1886" s="16" t="s">
         <v>304</v>
@@ -5805,28 +5785,28 @@
     </row>
     <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1887" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B1887" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1887" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D1887" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1887" s="22">
-        <v>8223</v>
+        <v>477000</v>
       </c>
       <c r="F1887" s="16">
         <v>0</v>
       </c>
       <c r="G1887" s="16">
-        <v>3366.87</v>
+        <v>406.63</v>
       </c>
       <c r="H1887" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="I1887" s="16">
         <v>0</v>
@@ -5839,22 +5819,22 @@
       </c>
       <c r="L1887" s="16"/>
       <c r="M1887" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="N1887" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O1887" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1887" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1887" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1887" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S1887" s="16" t="s">
         <v>304</v>
@@ -5867,28 +5847,28 @@
     </row>
     <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1888" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1888" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1888" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D1888" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E1888" s="22">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="F1888" s="16">
         <v>0</v>
       </c>
       <c r="G1888" s="16">
-        <v>44.95</v>
+        <v>3366.87</v>
       </c>
       <c r="H1888" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="I1888" s="16">
         <v>0</v>
@@ -5901,22 +5881,22 @@
       </c>
       <c r="L1888" s="16"/>
       <c r="M1888" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="N1888" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O1888" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1888" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1888" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1888" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="S1888" s="16" t="s">
         <v>304</v>
@@ -5929,28 +5909,28 @@
     </row>
     <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1889" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1889" s="16" t="s">
         <v>407</v>
       </c>
       <c r="C1889" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D1889" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E1889" s="22">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="F1889" s="16">
         <v>0</v>
       </c>
       <c r="G1889" s="16">
-        <v>45.54</v>
+        <v>44.95</v>
       </c>
       <c r="H1889" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="I1889" s="16">
         <v>0</v>
@@ -5963,22 +5943,22 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="N1889" s="16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O1889" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1889" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1889" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1889" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="S1889" s="16" t="s">
         <v>304</v>
@@ -5990,41 +5970,103 @@
       <c r="X1889" s="16"/>
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1890" t="s">
+      <c r="A1890" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1890" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1890" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1890" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1890" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1890" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1890" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1890" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1890" s="16"/>
+      <c r="M1890" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1890" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1890" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1890" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1890" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1890" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1890" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1890" s="16"/>
+      <c r="U1890" s="16"/>
+      <c r="V1890" s="16"/>
+      <c r="W1890" s="16"/>
+      <c r="X1890" s="16"/>
+    </row>
+    <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1891" t="s">
         <v>417</v>
       </c>
-      <c r="B1890" t="s">
+      <c r="B1891" t="s">
         <v>407</v>
       </c>
-      <c r="D1890" t="s">
+      <c r="D1891" t="s">
         <v>418</v>
       </c>
-      <c r="E1890" s="22">
+      <c r="E1891" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1890" s="16">
+      <c r="F1891" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1890" t="s">
+      <c r="O1891" t="s">
         <v>327</v>
       </c>
-      <c r="P1890" t="s">
+      <c r="P1891" t="s">
         <v>328</v>
       </c>
-      <c r="Q1890" t="s">
+      <c r="Q1891" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1891" s="22">
+    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1892" s="22">
         <v>1400</v>
       </c>
-      <c r="F1891" s="16">
+      <c r="F1892" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X94"/>
+  <autoFilter ref="A3:X95"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -20,13 +20,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$138</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="636">
   <si>
     <t>дата</t>
   </si>
@@ -1944,6 +1945,24 @@
   </si>
   <si>
     <t>GetReslines([Doc],[LoadMode],[ResL])</t>
+  </si>
+  <si>
+    <t>SFaccSplit(Col)</t>
+  </si>
+  <si>
+    <t>преобразование строк SFacc с &lt;ИЛИ&gt; в Col в 2 строки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NewContr() </t>
+  </si>
+  <si>
+    <t>просмотр Договоров 1С для занесения в SF новых через DL</t>
+  </si>
+  <si>
+    <t>PaidContr()</t>
+  </si>
+  <si>
+    <t>Занесение Платежа с Договором, связанным с Проектом</t>
   </si>
 </sst>
 </file>
@@ -2226,13 +2245,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2540,10 +2559,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1892"/>
+  <dimension ref="A1:X1900"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2554,7 +2573,9 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="8" customWidth="1"/>
-    <col min="7" max="9" width="28.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -2562,7 +2583,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41512</v>
+        <v>41515</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2590,12 +2611,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -3009,7 +3030,7 @@
       <c r="A29" s="25">
         <v>41504</v>
       </c>
-      <c r="B29" s="32"/>
+      <c r="B29" s="30"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="7" t="s">
@@ -4004,7 +4025,7 @@
       </c>
       <c r="E87" s="7"/>
     </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
         <v>41510</v>
       </c>
@@ -4021,7 +4042,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
         <v>41217</v>
       </c>
@@ -4038,7 +4059,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
         <v>41166</v>
       </c>
@@ -4055,7 +4076,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
         <v>41512</v>
       </c>
@@ -4072,7 +4093,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
         <v>41152</v>
       </c>
@@ -4089,7 +4110,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
         <v>41510</v>
       </c>
@@ -4106,7 +4127,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
         <v>41047</v>
       </c>
@@ -4123,7 +4144,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <f>MAX(A88:A94)</f>
         <v>41512</v>
@@ -4143,24 +4164,24 @@
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
-        <v>40952</v>
+        <v>41515</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="7" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>595</v>
+        <v>630</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>596</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="25">
-        <v>40980</v>
+        <v>40952</v>
       </c>
       <c r="B97"/>
       <c r="C97"/>
@@ -4169,15 +4190,15 @@
         <v>192</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>115</v>
+        <v>596</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
-        <v>40951</v>
+        <v>40980</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
@@ -4186,14 +4207,16 @@
         <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>600</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="25">
+        <v>40951</v>
+      </c>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
@@ -4201,10 +4224,10 @@
         <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4216,10 +4239,10 @@
         <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4231,10 +4254,10 @@
         <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4246,10 +4269,10 @@
         <v>192</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4261,10 +4284,10 @@
         <v>192</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4273,76 +4296,80 @@
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F104" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="G104" s="8" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="25"/>
+      <c r="B105"/>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F105" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="G104" s="8" t="s">
+      <c r="G105" s="8" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3">
-        <f>MAX(A96:A104)</f>
-        <v>40980</v>
-      </c>
-      <c r="B105" t="s">
+    <row r="106" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f>MAX(A96:A105)</f>
+        <v>41515</v>
+      </c>
+      <c r="B106" t="s">
         <v>40</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C106" t="s">
         <v>41</v>
       </c>
-      <c r="D105">
+      <c r="D106">
         <v>304</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E106" s="7" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106"/>
-      <c r="C106"/>
-      <c r="D106"/>
-      <c r="E106" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G106" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="25">
+        <v>41222</v>
+      </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="7" t="s">
-        <v>614</v>
+        <v>452</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>44</v>
+        <v>632</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>50</v>
+        <v>633</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="25">
+        <v>41273</v>
+      </c>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" s="7" t="s">
-        <v>614</v>
+        <v>452</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>156</v>
+        <v>634</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>157</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4350,14 +4377,14 @@
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" s="7" t="s">
-        <v>614</v>
+      <c r="E109" t="s">
+        <v>76</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>46</v>
+        <v>165</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4365,418 +4392,514 @@
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" s="7" t="s">
-        <v>614</v>
+      <c r="E110" t="s">
+        <v>158</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25">
-        <v>41268</v>
-      </c>
+      <c r="A111" s="25"/>
       <c r="B111"/>
       <c r="C111"/>
       <c r="D111"/>
-      <c r="E111" s="7" t="s">
-        <v>74</v>
+      <c r="E111" t="s">
+        <v>76</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>61</v>
+        <v>161</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>62</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25">
-        <v>41308</v>
-      </c>
+      <c r="A112" s="25"/>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" s="7" t="s">
-        <v>74</v>
+      <c r="E112" t="s">
+        <v>158</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>615</v>
+        <v>163</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="25"/>
-      <c r="B113"/>
-      <c r="C113"/>
-      <c r="D113"/>
-      <c r="E113" s="7"/>
-      <c r="F113" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G113" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="3">
-        <f>MAX(A106:A113)</f>
-        <v>41308</v>
-      </c>
-      <c r="B114" t="s">
-        <v>17</v>
-      </c>
-      <c r="C114" t="s">
-        <v>18</v>
-      </c>
-      <c r="D114">
-        <v>683</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>40972</v>
+      </c>
+      <c r="B113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113">
+        <v>348</v>
+      </c>
+      <c r="E113"/>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25"/>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
       <c r="E114" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="3">
-        <v>41067</v>
-      </c>
+        <v>613</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="25"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
-      <c r="E115" t="s">
-        <v>43</v>
+      <c r="E115" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>185</v>
+        <v>44</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="25"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
-      <c r="E116" t="s">
-        <v>74</v>
+      <c r="E116" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>224</v>
+        <v>156</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="25"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
-      <c r="E117" t="s">
-        <v>74</v>
+      <c r="E117" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="25"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
-      <c r="E118" t="s">
-        <v>192</v>
+      <c r="E118" s="7" t="s">
+        <v>614</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>226</v>
+        <v>48</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="25">
+        <v>41268</v>
+      </c>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
-      <c r="E119" t="s">
-        <v>43</v>
+      <c r="E119" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>227</v>
+        <v>61</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="25">
+        <v>41308</v>
+      </c>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
-      <c r="E120" t="s">
+      <c r="E120" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>247</v>
+        <v>615</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="3">
-        <f>MAX(A115:A120)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
+      <c r="B121"/>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f>MAX(A114:A121)</f>
+        <v>41308</v>
+      </c>
+      <c r="B122" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" t="s">
+        <v>18</v>
+      </c>
+      <c r="D122">
+        <v>683</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
         <v>41067</v>
       </c>
-      <c r="B121" t="s">
-        <v>183</v>
-      </c>
-      <c r="C121" t="s">
-        <v>184</v>
-      </c>
-      <c r="D121">
-        <v>473</v>
-      </c>
-      <c r="E121" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="26"/>
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27">
-        <f>SUM(D4:D121)</f>
-        <v>5768</v>
-      </c>
-      <c r="E122" s="28"/>
-      <c r="F122" s="29"/>
-      <c r="G122" s="29"/>
-      <c r="H122" s="29"/>
-    </row>
-    <row r="123" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="3"/>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123" t="s">
+        <v>43</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="E124" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F124" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124" t="s">
+        <v>74</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
-      <c r="E125" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>74</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126"/>
       <c r="C126"/>
-      <c r="D126" t="s">
-        <v>232</v>
-      </c>
-      <c r="E126" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D126"/>
+      <c r="E126" t="s">
+        <v>192</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
-      <c r="E127" s="20" t="s">
+      <c r="E127" t="s">
         <v>43</v>
       </c>
-      <c r="F127" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
-      <c r="E128" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3"/>
-      <c r="B130"/>
-      <c r="C130"/>
-      <c r="D130"/>
-      <c r="E130" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F130" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>74</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3">
+        <f>MAX(A123:A128)</f>
+        <v>41067</v>
+      </c>
+      <c r="B129" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" t="s">
+        <v>184</v>
+      </c>
+      <c r="D129">
+        <v>473</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="26"/>
+      <c r="B130" s="27"/>
+      <c r="C130" s="27"/>
+      <c r="D130" s="27">
+        <f>SUM(D4:D129)</f>
+        <v>6116</v>
+      </c>
+      <c r="E130" s="28"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
-      <c r="B131"/>
-      <c r="C131"/>
-      <c r="D131"/>
-      <c r="E131" s="7"/>
-    </row>
-    <row r="132" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
-      <c r="B132"/>
-      <c r="C132"/>
-      <c r="D132"/>
-      <c r="E132" s="7"/>
-    </row>
-    <row r="133" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133"/>
       <c r="C133"/>
       <c r="D133"/>
-      <c r="E133" s="7"/>
-    </row>
-    <row r="134" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E133" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134"/>
       <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134" s="7"/>
-    </row>
-    <row r="135" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D134" t="s">
+        <v>232</v>
+      </c>
+      <c r="E134" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135"/>
       <c r="C135"/>
       <c r="D135"/>
-      <c r="E135" s="7"/>
-    </row>
-    <row r="136" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E135" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
-      <c r="E136" s="7"/>
-    </row>
-    <row r="137" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E136" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
-      <c r="E137" s="7"/>
-    </row>
-    <row r="138" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E137" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
-      <c r="E138" s="7"/>
-    </row>
-    <row r="139" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F138" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
       <c r="E139" s="7"/>
     </row>
-    <row r="140" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
       <c r="E140" s="7"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141"/>
+      <c r="C141"/>
+      <c r="D141"/>
+      <c r="E141" s="7"/>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B142"/>
+      <c r="C142"/>
+      <c r="D142"/>
+      <c r="E142" s="7"/>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B143"/>
+      <c r="C143"/>
+      <c r="D143"/>
+      <c r="E143" s="7"/>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144"/>
+      <c r="C144"/>
+      <c r="D144"/>
+      <c r="E144" s="7"/>
+    </row>
+    <row r="145" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145"/>
+      <c r="C145"/>
+      <c r="D145"/>
+      <c r="E145" s="7"/>
+    </row>
+    <row r="146" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146" s="7"/>
+    </row>
+    <row r="147" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147" s="7"/>
+    </row>
+    <row r="148" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" s="7"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
@@ -4809,501 +4932,45 @@
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="1870" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1870" s="16"/>
-      <c r="B1870" s="16"/>
-      <c r="C1870" s="16" t="s">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+    </row>
+    <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1878" s="16"/>
+      <c r="B1878" s="16"/>
+      <c r="C1878" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1870" s="16"/>
-      <c r="G1870" s="16">
+      <c r="D1878" s="16"/>
+      <c r="G1878" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1870" s="16">
+      <c r="H1878" s="16">
         <v>736016.15</v>
       </c>
-      <c r="I1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1870" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1870" s="16"/>
-      <c r="M1870" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1870" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1870" s="16"/>
-      <c r="P1870" s="16"/>
-      <c r="Q1870" s="16"/>
-      <c r="R1870" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1870" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1870" s="16"/>
-      <c r="U1870" s="16"/>
-      <c r="V1870" s="16"/>
-      <c r="W1870" s="16"/>
-      <c r="X1870" s="16"/>
-    </row>
-    <row r="1871" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1871" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1871" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1871" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1871" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1871" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1871" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1871" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1871" s="16"/>
-      <c r="M1871" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1871" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1871" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1871" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1871" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1871" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1871" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1871" s="16"/>
-      <c r="U1871" s="16"/>
-      <c r="V1871" s="16"/>
-      <c r="W1871" s="16"/>
-      <c r="X1871" s="16"/>
-    </row>
-    <row r="1872" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1872" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1872" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1872" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1872" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1872" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1872" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1872" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1872" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1872" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1872" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1872" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1872" s="16"/>
-      <c r="M1872" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1872" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1872" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1872" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1872" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1872" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1872" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1872" s="16"/>
-      <c r="U1872" s="16"/>
-      <c r="V1872" s="16"/>
-      <c r="W1872" s="16"/>
-      <c r="X1872" s="16"/>
-    </row>
-    <row r="1873" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1873" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1873" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1873" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1873" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1873" s="22">
-        <v>72000</v>
-      </c>
-      <c r="F1873" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1873" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1873" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1873" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1873" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1873" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1873" s="16"/>
-      <c r="M1873" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1873" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1873" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1873" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1873" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1873" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1873" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1873" s="16"/>
-      <c r="U1873" s="16"/>
-      <c r="V1873" s="16"/>
-      <c r="W1873" s="16"/>
-      <c r="X1873" s="16"/>
-    </row>
-    <row r="1874" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1874" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1874" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1874" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1874" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1874" s="22">
-        <v>723002.17</v>
-      </c>
-      <c r="F1874" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1874" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1874" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="I1874" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1874" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1874" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1874" s="16"/>
-      <c r="M1874" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="N1874" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1874" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1874" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1874" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1874" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1874" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1874" s="16"/>
-      <c r="U1874" s="16"/>
-      <c r="V1874" s="16"/>
-      <c r="W1874" s="16"/>
-      <c r="X1874" s="16"/>
-    </row>
-    <row r="1875" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1875" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1875" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1875" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1875" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1875" s="22">
-        <v>4970</v>
-      </c>
-      <c r="F1875" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1875" s="16">
-        <v>388.74</v>
-      </c>
-      <c r="H1875" s="16">
-        <v>11950</v>
-      </c>
-      <c r="I1875" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1875" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1875" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1875" s="16"/>
-      <c r="M1875" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1875" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1875" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1875" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1875" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1875" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1875" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1875" s="16"/>
-      <c r="U1875" s="16"/>
-      <c r="V1875" s="16"/>
-      <c r="W1875" s="16"/>
-      <c r="X1875" s="16"/>
-    </row>
-    <row r="1876" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1876" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1876" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1876" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1876" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1876" s="22">
-        <v>9235.48</v>
-      </c>
-      <c r="F1876" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1876" s="16">
-        <v>450.44</v>
-      </c>
-      <c r="H1876" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="I1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1876" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1876" s="16"/>
-      <c r="M1876" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1876" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1876" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1876" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1876" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1876" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1876" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1876" s="16"/>
-      <c r="U1876" s="16"/>
-      <c r="V1876" s="16"/>
-      <c r="W1876" s="16"/>
-      <c r="X1876" s="16"/>
-    </row>
-    <row r="1877" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1877" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1877" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1877" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1877" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1877" s="22">
-        <v>11950</v>
-      </c>
-      <c r="F1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1877" s="16">
-        <v>1997.29</v>
-      </c>
-      <c r="H1877" s="16">
-        <v>61398</v>
-      </c>
-      <c r="I1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1877" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1877" s="16"/>
-      <c r="M1877" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1877" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1877" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1877" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1877" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1877" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1877" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1877" s="16"/>
-      <c r="U1877" s="16"/>
-      <c r="V1877" s="16"/>
-      <c r="W1877" s="16"/>
-      <c r="X1877" s="16"/>
-    </row>
-    <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1878" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1878" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1878" s="16"/>
-      <c r="D1878" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1878" s="22">
-        <v>13846.96</v>
-      </c>
-      <c r="F1878" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1878" s="16"/>
-      <c r="H1878" s="16">
-        <v>0</v>
-      </c>
       <c r="I1878" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1878" s="16">
         <v>0</v>
@@ -5313,16 +4980,20 @@
       </c>
       <c r="L1878" s="16"/>
       <c r="M1878" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1878" s="16"/>
-      <c r="O1878" s="16" t="s">
-        <v>358</v>
-      </c>
+        <v>736016.15</v>
+      </c>
+      <c r="N1878" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1878" s="16"/>
       <c r="P1878" s="16"/>
       <c r="Q1878" s="16"/>
-      <c r="R1878" s="16"/>
-      <c r="S1878" s="16"/>
+      <c r="R1878" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1878" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1878" s="16"/>
       <c r="U1878" s="16"/>
       <c r="V1878" s="16"/>
@@ -5331,27 +5002,25 @@
     </row>
     <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1879" s="16" t="s">
-        <v>355</v>
+        <v>308</v>
       </c>
       <c r="B1879" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1879" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1879" s="16" t="s">
+        <v>314</v>
+      </c>
       <c r="D1879" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1879" s="22">
-        <v>61398</v>
-      </c>
-      <c r="F1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1879" s="16"/>
+        <v>310</v>
+      </c>
+      <c r="G1879" s="16">
+        <v>2342.17</v>
+      </c>
       <c r="H1879" s="16">
-        <v>0</v>
+        <v>72000</v>
       </c>
       <c r="I1879" s="16">
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="J1879" s="16">
         <v>0</v>
@@ -5361,16 +5030,26 @@
       </c>
       <c r="L1879" s="16"/>
       <c r="M1879" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1879" s="16"/>
+        <v>72000</v>
+      </c>
+      <c r="N1879" s="16" t="s">
+        <v>316</v>
+      </c>
       <c r="O1879" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1879" s="16"/>
-      <c r="Q1879" s="16"/>
-      <c r="R1879" s="16"/>
-      <c r="S1879" s="16"/>
+        <v>311</v>
+      </c>
+      <c r="P1879" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1879" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1879" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1879" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1879" s="16"/>
       <c r="U1879" s="16"/>
       <c r="V1879" s="16"/>
@@ -5379,23 +5058,31 @@
     </row>
     <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1880" s="16" t="s">
-        <v>360</v>
+        <v>317</v>
       </c>
       <c r="B1880" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1880" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1880" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="D1880" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1880" s="22"/>
-      <c r="F1880" s="16"/>
-      <c r="G1880" s="16"/>
+        <v>318</v>
+      </c>
+      <c r="E1880" s="22">
+        <v>736016.15</v>
+      </c>
+      <c r="F1880" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1880" s="16">
+        <v>23519.38</v>
+      </c>
       <c r="H1880" s="16">
-        <v>0</v>
+        <v>723002.17</v>
       </c>
       <c r="I1880" s="16">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J1880" s="16">
         <v>0</v>
@@ -5405,16 +5092,26 @@
       </c>
       <c r="L1880" s="16"/>
       <c r="M1880" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1880" s="16"/>
+        <v>723002.17</v>
+      </c>
+      <c r="N1880" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="O1880" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1880" s="16"/>
-      <c r="Q1880" s="16"/>
-      <c r="R1880" s="16"/>
-      <c r="S1880" s="16"/>
+        <v>319</v>
+      </c>
+      <c r="P1880" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1880" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1880" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1880" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1880" s="16"/>
       <c r="U1880" s="16"/>
       <c r="V1880" s="16"/>
@@ -5423,24 +5120,28 @@
     </row>
     <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1881" s="16" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="B1881" s="16" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="C1881" s="16" t="s">
-        <v>366</v>
+        <v>330</v>
       </c>
       <c r="D1881" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1881" s="22"/>
-      <c r="F1881" s="16"/>
+        <v>326</v>
+      </c>
+      <c r="E1881" s="22">
+        <v>72000</v>
+      </c>
+      <c r="F1881" s="16">
+        <v>0</v>
+      </c>
       <c r="G1881" s="16">
-        <v>136.63</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1881" s="16">
-        <v>4200</v>
+        <v>4970</v>
       </c>
       <c r="I1881" s="16">
         <v>0</v>
@@ -5453,13 +5154,13 @@
       </c>
       <c r="L1881" s="16"/>
       <c r="M1881" s="16">
-        <v>4200</v>
+        <v>4970</v>
       </c>
       <c r="N1881" s="16" t="s">
-        <v>368</v>
+        <v>332</v>
       </c>
       <c r="O1881" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1881" s="16" t="s">
         <v>328</v>
@@ -5468,7 +5169,7 @@
         <v>329</v>
       </c>
       <c r="R1881" s="16" t="s">
-        <v>367</v>
+        <v>331</v>
       </c>
       <c r="S1881" s="16" t="s">
         <v>304</v>
@@ -5481,24 +5182,28 @@
     </row>
     <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1882" s="16" t="s">
-        <v>369</v>
+        <v>333</v>
       </c>
       <c r="B1882" s="16" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="C1882" s="16" t="s">
-        <v>373</v>
+        <v>337</v>
       </c>
       <c r="D1882" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1882" s="22"/>
-      <c r="F1882" s="16"/>
+        <v>334</v>
+      </c>
+      <c r="E1882" s="22">
+        <v>723002.17</v>
+      </c>
+      <c r="F1882" s="16">
+        <v>16900.55</v>
+      </c>
       <c r="G1882" s="16">
-        <v>650.6</v>
+        <v>300.43</v>
       </c>
       <c r="H1882" s="16">
-        <v>20000</v>
+        <v>9235.48</v>
       </c>
       <c r="I1882" s="16">
         <v>0</v>
@@ -5511,22 +5216,22 @@
       </c>
       <c r="L1882" s="16"/>
       <c r="M1882" s="16">
-        <v>20000</v>
+        <v>9235.48</v>
       </c>
       <c r="N1882" s="16" t="s">
-        <v>375</v>
+        <v>339</v>
       </c>
       <c r="O1882" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1882" s="16" t="s">
-        <v>371</v>
+        <v>335</v>
       </c>
       <c r="Q1882" s="16" t="s">
-        <v>372</v>
+        <v>336</v>
       </c>
       <c r="R1882" s="16" t="s">
-        <v>374</v>
+        <v>338</v>
       </c>
       <c r="S1882" s="16" t="s">
         <v>304</v>
@@ -5539,28 +5244,28 @@
     </row>
     <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1883" s="16" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="B1883" s="16" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="C1883" s="16" t="s">
-        <v>378</v>
+        <v>342</v>
       </c>
       <c r="D1883" s="16" t="s">
-        <v>377</v>
+        <v>341</v>
       </c>
       <c r="E1883" s="22">
-        <v>4200</v>
+        <v>4970</v>
       </c>
       <c r="F1883" s="16">
         <v>0</v>
       </c>
       <c r="G1883" s="16">
-        <v>78.37</v>
+        <v>388.74</v>
       </c>
       <c r="H1883" s="16">
-        <v>2409</v>
+        <v>11950</v>
       </c>
       <c r="I1883" s="16">
         <v>0</v>
@@ -5573,10 +5278,10 @@
       </c>
       <c r="L1883" s="16"/>
       <c r="M1883" s="16">
-        <v>2409</v>
+        <v>11950</v>
       </c>
       <c r="N1883" s="16" t="s">
-        <v>380</v>
+        <v>344</v>
       </c>
       <c r="O1883" s="16" t="s">
         <v>327</v>
@@ -5588,7 +5293,7 @@
         <v>329</v>
       </c>
       <c r="R1883" s="16" t="s">
-        <v>379</v>
+        <v>343</v>
       </c>
       <c r="S1883" s="16" t="s">
         <v>304</v>
@@ -5601,28 +5306,28 @@
     </row>
     <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1884" s="16" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
       <c r="B1884" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1884" s="16" t="s">
-        <v>384</v>
+        <v>347</v>
       </c>
       <c r="D1884" s="16" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="E1884" s="22">
-        <v>320000</v>
+        <v>9235.48</v>
       </c>
       <c r="F1884" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1884" s="16">
-        <v>11758.05</v>
+        <v>450.44</v>
       </c>
       <c r="H1884" s="16">
-        <v>361450.61</v>
+        <v>13846.96</v>
       </c>
       <c r="I1884" s="16">
         <v>0</v>
@@ -5635,22 +5340,22 @@
       </c>
       <c r="L1884" s="16"/>
       <c r="M1884" s="16">
-        <v>361450.61</v>
+        <v>13846.96</v>
       </c>
       <c r="N1884" s="16" t="s">
-        <v>386</v>
+        <v>349</v>
       </c>
       <c r="O1884" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1884" s="16" t="s">
-        <v>382</v>
+        <v>335</v>
       </c>
       <c r="Q1884" s="16" t="s">
-        <v>383</v>
+        <v>336</v>
       </c>
       <c r="R1884" s="16" t="s">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="S1884" s="16" t="s">
         <v>304</v>
@@ -5663,28 +5368,28 @@
     </row>
     <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1885" s="16" t="s">
-        <v>387</v>
+        <v>350</v>
       </c>
       <c r="B1885" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1885" s="16" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="D1885" s="16" t="s">
-        <v>388</v>
+        <v>351</v>
       </c>
       <c r="E1885" s="22">
-        <v>2409</v>
+        <v>11950</v>
       </c>
       <c r="F1885" s="16">
         <v>0</v>
       </c>
       <c r="G1885" s="16">
-        <v>1073.5</v>
+        <v>1997.29</v>
       </c>
       <c r="H1885" s="16">
-        <v>33000</v>
+        <v>61398</v>
       </c>
       <c r="I1885" s="16">
         <v>0</v>
@@ -5697,21 +5402,23 @@
       </c>
       <c r="L1885" s="16"/>
       <c r="M1885" s="16">
-        <v>33000</v>
+        <v>61398</v>
       </c>
       <c r="N1885" s="16" t="s">
-        <v>391</v>
+        <v>354</v>
       </c>
       <c r="O1885" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1885" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1885" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1885" s="16"/>
+        <v>329</v>
+      </c>
+      <c r="R1885" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="S1885" s="16" t="s">
         <v>304</v>
       </c>
@@ -5723,31 +5430,27 @@
     </row>
     <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1886" s="16" t="s">
-        <v>392</v>
+        <v>355</v>
       </c>
       <c r="B1886" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1886" s="16" t="s">
-        <v>393</v>
-      </c>
+      <c r="C1886" s="16"/>
       <c r="D1886" s="16" t="s">
-        <v>334</v>
+        <v>357</v>
       </c>
       <c r="E1886" s="22">
-        <v>361450.61</v>
+        <v>13846.96</v>
       </c>
       <c r="F1886" s="16">
-        <v>8828.5</v>
-      </c>
-      <c r="G1886" s="16">
-        <v>267.5</v>
-      </c>
+        <v>323.68</v>
+      </c>
+      <c r="G1886" s="16"/>
       <c r="H1886" s="16">
-        <v>8223</v>
+        <v>0</v>
       </c>
       <c r="I1886" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J1886" s="16">
         <v>0</v>
@@ -5757,26 +5460,16 @@
       </c>
       <c r="L1886" s="16"/>
       <c r="M1886" s="16">
-        <v>8223</v>
-      </c>
-      <c r="N1886" s="16" t="s">
-        <v>395</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="N1886" s="16"/>
       <c r="O1886" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1886" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1886" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1886" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1886" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1886" s="16"/>
+      <c r="Q1886" s="16"/>
+      <c r="R1886" s="16"/>
+      <c r="S1886" s="16"/>
       <c r="T1886" s="16"/>
       <c r="U1886" s="16"/>
       <c r="V1886" s="16"/>
@@ -5785,31 +5478,27 @@
     </row>
     <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1887" s="16" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
       <c r="B1887" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="C1887" s="16" t="s">
-        <v>398</v>
-      </c>
+      <c r="C1887" s="16"/>
       <c r="D1887" s="16" t="s">
-        <v>397</v>
+        <v>359</v>
       </c>
       <c r="E1887" s="22">
-        <v>477000</v>
+        <v>61398</v>
       </c>
       <c r="F1887" s="16">
         <v>0</v>
       </c>
-      <c r="G1887" s="16">
-        <v>406.63</v>
-      </c>
+      <c r="G1887" s="16"/>
       <c r="H1887" s="16">
-        <v>12500</v>
+        <v>0</v>
       </c>
       <c r="I1887" s="16">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="J1887" s="16">
         <v>0</v>
@@ -5819,26 +5508,16 @@
       </c>
       <c r="L1887" s="16"/>
       <c r="M1887" s="16">
-        <v>12500</v>
-      </c>
-      <c r="N1887" s="16" t="s">
-        <v>400</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="N1887" s="16"/>
       <c r="O1887" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1887" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1887" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1887" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S1887" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1887" s="16"/>
+      <c r="Q1887" s="16"/>
+      <c r="R1887" s="16"/>
+      <c r="S1887" s="16"/>
       <c r="T1887" s="16"/>
       <c r="U1887" s="16"/>
       <c r="V1887" s="16"/>
@@ -5847,31 +5526,23 @@
     </row>
     <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1888" s="16" t="s">
-        <v>401</v>
+        <v>360</v>
       </c>
       <c r="B1888" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1888" s="16" t="s">
-        <v>403</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1888" s="16"/>
       <c r="D1888" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1888" s="22">
-        <v>8223</v>
-      </c>
-      <c r="F1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1888" s="16">
-        <v>3366.87</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E1888" s="22"/>
+      <c r="F1888" s="16"/>
+      <c r="G1888" s="16"/>
       <c r="H1888" s="16">
-        <v>103500</v>
+        <v>0</v>
       </c>
       <c r="I1888" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1888" s="16">
         <v>0</v>
@@ -5881,26 +5552,16 @@
       </c>
       <c r="L1888" s="16"/>
       <c r="M1888" s="16">
-        <v>103500</v>
-      </c>
-      <c r="N1888" s="16" t="s">
-        <v>405</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1888" s="16"/>
       <c r="O1888" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1888" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1888" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1888" s="16" t="s">
-        <v>404</v>
-      </c>
-      <c r="S1888" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1888" s="16"/>
+      <c r="Q1888" s="16"/>
+      <c r="R1888" s="16"/>
+      <c r="S1888" s="16"/>
       <c r="T1888" s="16"/>
       <c r="U1888" s="16"/>
       <c r="V1888" s="16"/>
@@ -5909,28 +5570,24 @@
     </row>
     <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1889" s="16" t="s">
-        <v>406</v>
+        <v>363</v>
       </c>
       <c r="B1889" s="16" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C1889" s="16" t="s">
-        <v>409</v>
+        <v>366</v>
       </c>
       <c r="D1889" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1889" s="22">
-        <v>12500</v>
-      </c>
-      <c r="F1889" s="16">
-        <v>0</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E1889" s="22"/>
+      <c r="F1889" s="16"/>
       <c r="G1889" s="16">
-        <v>44.95</v>
+        <v>136.63</v>
       </c>
       <c r="H1889" s="16">
-        <v>1381.79</v>
+        <v>4200</v>
       </c>
       <c r="I1889" s="16">
         <v>0</v>
@@ -5943,22 +5600,22 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>1381.79</v>
+        <v>4200</v>
       </c>
       <c r="N1889" s="16" t="s">
-        <v>411</v>
+        <v>368</v>
       </c>
       <c r="O1889" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1889" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1889" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1889" s="16" t="s">
-        <v>410</v>
+        <v>367</v>
       </c>
       <c r="S1889" s="16" t="s">
         <v>304</v>
@@ -5971,28 +5628,24 @@
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1890" s="16" t="s">
-        <v>412</v>
+        <v>369</v>
       </c>
       <c r="B1890" s="16" t="s">
-        <v>407</v>
+        <v>364</v>
       </c>
       <c r="C1890" s="16" t="s">
-        <v>414</v>
+        <v>373</v>
       </c>
       <c r="D1890" s="16" t="s">
-        <v>413</v>
-      </c>
-      <c r="E1890" s="22">
-        <v>103500</v>
-      </c>
-      <c r="F1890" s="16">
-        <v>0</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E1890" s="22"/>
+      <c r="F1890" s="16"/>
       <c r="G1890" s="16">
-        <v>45.54</v>
+        <v>650.6</v>
       </c>
       <c r="H1890" s="16">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="I1890" s="16">
         <v>0</v>
@@ -6005,22 +5658,22 @@
       </c>
       <c r="L1890" s="16"/>
       <c r="M1890" s="16">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="N1890" s="16" t="s">
-        <v>416</v>
+        <v>375</v>
       </c>
       <c r="O1890" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1890" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1890" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1890" s="16" t="s">
-        <v>415</v>
+        <v>374</v>
       </c>
       <c r="S1890" s="16" t="s">
         <v>304</v>
@@ -6032,36 +5685,530 @@
       <c r="X1890" s="16"/>
     </row>
     <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1891" t="s">
+      <c r="A1891" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1891" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1891" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1891" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1891" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1891" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1891" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1891" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1891" s="16"/>
+      <c r="M1891" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1891" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1891" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1891" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1891" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1891" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1891" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1891" s="16"/>
+      <c r="U1891" s="16"/>
+      <c r="V1891" s="16"/>
+      <c r="W1891" s="16"/>
+      <c r="X1891" s="16"/>
+    </row>
+    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1892" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1892" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1892" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1892" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1892" s="22">
+        <v>320000</v>
+      </c>
+      <c r="F1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1892" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1892" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1892" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1892" s="16"/>
+      <c r="M1892" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1892" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1892" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1892" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1892" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1892" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1892" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1892" s="16"/>
+      <c r="U1892" s="16"/>
+      <c r="V1892" s="16"/>
+      <c r="W1892" s="16"/>
+      <c r="X1892" s="16"/>
+    </row>
+    <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1893" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1893" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1893" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1893" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1893" s="22">
+        <v>2409</v>
+      </c>
+      <c r="F1893" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1893" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1893" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1893" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1893" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1893" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1893" s="16"/>
+      <c r="M1893" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1893" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1893" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1893" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1893" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1893" s="16"/>
+      <c r="S1893" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1893" s="16"/>
+      <c r="U1893" s="16"/>
+      <c r="V1893" s="16"/>
+      <c r="W1893" s="16"/>
+      <c r="X1893" s="16"/>
+    </row>
+    <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1894" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1894" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1894" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1894" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1894" s="22">
+        <v>361450.61</v>
+      </c>
+      <c r="F1894" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1894" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1894" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1894" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1894" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1894" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1894" s="16"/>
+      <c r="M1894" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1894" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1894" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1894" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1894" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1894" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1894" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1894" s="16"/>
+      <c r="U1894" s="16"/>
+      <c r="V1894" s="16"/>
+      <c r="W1894" s="16"/>
+      <c r="X1894" s="16"/>
+    </row>
+    <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1895" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1895" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1895" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1895" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1895" s="22">
+        <v>477000</v>
+      </c>
+      <c r="F1895" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1895" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1895" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1895" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1895" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1895" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1895" s="16"/>
+      <c r="M1895" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1895" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1895" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1895" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1895" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1895" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1895" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1895" s="16"/>
+      <c r="U1895" s="16"/>
+      <c r="V1895" s="16"/>
+      <c r="W1895" s="16"/>
+      <c r="X1895" s="16"/>
+    </row>
+    <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1896" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1896" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1896" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1896" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1896" s="22">
+        <v>8223</v>
+      </c>
+      <c r="F1896" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1896" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1896" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1896" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1896" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1896" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1896" s="16"/>
+      <c r="M1896" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1896" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1896" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1896" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1896" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1896" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1896" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1896" s="16"/>
+      <c r="U1896" s="16"/>
+      <c r="V1896" s="16"/>
+      <c r="W1896" s="16"/>
+      <c r="X1896" s="16"/>
+    </row>
+    <row r="1897" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1897" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1897" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1897" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1897" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1897" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1897" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1897" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1897" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1897" s="16"/>
+      <c r="M1897" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1897" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1897" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1897" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1897" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1897" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1897" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1897" s="16"/>
+      <c r="U1897" s="16"/>
+      <c r="V1897" s="16"/>
+      <c r="W1897" s="16"/>
+      <c r="X1897" s="16"/>
+    </row>
+    <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1898" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1898" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1898" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1898" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1898" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1898" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1898" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1898" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1898" s="16"/>
+      <c r="M1898" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1898" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1898" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1898" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1898" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1898" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1898" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1898" s="16"/>
+      <c r="U1898" s="16"/>
+      <c r="V1898" s="16"/>
+      <c r="W1898" s="16"/>
+      <c r="X1898" s="16"/>
+    </row>
+    <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1899" t="s">
         <v>417</v>
       </c>
-      <c r="B1891" t="s">
+      <c r="B1899" t="s">
         <v>407</v>
       </c>
-      <c r="D1891" t="s">
+      <c r="D1899" t="s">
         <v>418</v>
       </c>
-      <c r="E1891" s="22">
+      <c r="E1899" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1891" s="16">
+      <c r="F1899" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1891" t="s">
+      <c r="O1899" t="s">
         <v>327</v>
       </c>
-      <c r="P1891" t="s">
+      <c r="P1899" t="s">
         <v>328</v>
       </c>
-      <c r="Q1891" t="s">
+      <c r="Q1899" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1892" s="22">
+    <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1900" s="22">
         <v>1400</v>
       </c>
-      <c r="F1892" s="16">
+      <c r="F1900" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6071,7 +6218,11 @@
     <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LPavel Khrapkin &amp; Alexander Pass&amp;Cmstch 2.1&amp;R&amp;D &amp;T</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6083,7 +6234,7 @@
   <dimension ref="A1:X1910"/>
   <sheetViews>
     <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD120"/>
+      <selection activeCell="A84" sqref="A84:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6127,12 +6278,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -6818,12 +6969,12 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="32" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -7284,7 +7435,7 @@
       </c>
       <c r="E83"/>
     </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -7299,7 +7450,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -7314,7 +7465,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -7329,7 +7480,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -7344,7 +7495,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>40972</v>
       </c>
@@ -7949,12 +8100,12 @@
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="30" t="s">
+      <c r="A129" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="30"/>
-      <c r="C129" s="30"/>
-      <c r="D129" s="30"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="31"/>
+      <c r="D129" s="31"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -9655,12 +9806,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -11215,12 +11366,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="30" t="s">
+      <c r="A132" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="30"/>
-      <c r="C132" s="30"/>
-      <c r="D132" s="30"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="31"/>
+      <c r="D132" s="31"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>

--- a/trunk/match2.0/Deskription/Match_Modules.xlsx
+++ b/trunk/match2.0/Deskription/Match_Modules.xlsx
@@ -20,14 +20,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$138</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$139</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="638">
   <si>
     <t>дата</t>
   </si>
@@ -1776,18 +1776,9 @@
     <t>записывает новый рекорд в лист SheetNew из строки DB_Line листа SheetDB</t>
   </si>
   <si>
-    <t>xAdapt(F, iLine)</t>
-  </si>
-  <si>
     <t>запускает Адаптеры из формы F, по строке номер iLine</t>
   </si>
   <si>
-    <t>продолжение работы xAdapt после нажатия кнопки Button</t>
-  </si>
-  <si>
-    <t>xAdapt_Continue(Button,iRow)</t>
-  </si>
-  <si>
     <t>Adater(Request, X, F_rqst, IsErr,[][][])</t>
   </si>
   <si>
@@ -1963,6 +1954,21 @@
   </si>
   <si>
     <t>Занесение Платежа с Договором, связанным с Проектом</t>
+  </si>
+  <si>
+    <t>Paid1C()</t>
+  </si>
+  <si>
+    <t>обработка Платежей 1С, занесение в SF с WP</t>
+  </si>
+  <si>
+    <t>WP_Adapt(F, iLine)</t>
+  </si>
+  <si>
+    <t>WP_Adapt_Continue(Button,iRow)</t>
+  </si>
+  <si>
+    <t>продолжение работы WP_Adapt после нажатия кнопки Button</t>
   </si>
 </sst>
 </file>
@@ -2044,7 +2050,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2066,6 +2072,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2192,7 +2204,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2252,6 +2264,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2559,10 +2589,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1900"/>
+  <dimension ref="A1:X1901"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2583,7 +2613,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41515</v>
+        <v>41520</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2645,7 +2675,7 @@
       <c r="C6"/>
       <c r="D6"/>
       <c r="E6" s="7" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="F6" s="17" t="s">
         <v>424</v>
@@ -2818,10 +2848,10 @@
         <v>452</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -2840,7 +2870,7 @@
       </c>
       <c r="E17" s="7"/>
     </row>
-    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>41395</v>
       </c>
@@ -2857,41 +2887,41 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25">
-        <v>41293</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
-      <c r="E19" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="17" t="s">
+    <row r="19" spans="1:7" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>41520</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>635</v>
+      </c>
+      <c r="G19" s="36" t="s">
         <v>573</v>
       </c>
-      <c r="G19" s="8" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25">
-        <v>41223</v>
-      </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
-      <c r="E20" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>576</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>41520</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>636</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
         <v>41510</v>
       </c>
@@ -2902,13 +2932,13 @@
         <v>452</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>41497</v>
       </c>
@@ -2919,30 +2949,30 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="42" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>41279</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="G23" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>41279</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>579</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>41278</v>
       </c>
@@ -2953,13 +2983,13 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
         <v>41228</v>
       </c>
@@ -2970,30 +3000,30 @@
         <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25">
-        <v>41217</v>
-      </c>
-      <c r="B26"/>
-      <c r="C26"/>
-      <c r="D26"/>
-      <c r="E26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="17" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
+        <v>41520</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="36" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
         <v>41260</v>
       </c>
@@ -3004,16 +3034,16 @@
         <v>74</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f>MAX(A18:A27)</f>
-        <v>41510</v>
+        <v>41520</v>
       </c>
       <c r="B28" t="s">
         <v>569</v>
@@ -3022,7 +3052,7 @@
         <v>570</v>
       </c>
       <c r="D28">
-        <v>1030</v>
+        <v>1061</v>
       </c>
       <c r="E28" s="7"/>
     </row>
@@ -3103,7 +3133,7 @@
         <v>74</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>486</v>
@@ -3131,10 +3161,10 @@
         <v>41511</v>
       </c>
       <c r="B35" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C35" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D35">
         <v>342</v>
@@ -3953,10 +3983,10 @@
         <v>558</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -3986,10 +4016,10 @@
         <v>472</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4003,10 +4033,10 @@
         <v>452</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4015,10 +4045,10 @@
         <v>41509</v>
       </c>
       <c r="B87" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C87" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D87">
         <v>307</v>
@@ -4036,10 +4066,10 @@
         <v>472</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4121,10 +4151,10 @@
         <v>472</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4141,7 +4171,7 @@
         <v>299</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4153,7 +4183,7 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D95">
         <v>243</v>
@@ -4173,10 +4203,10 @@
         <v>452</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4190,10 +4220,10 @@
         <v>192</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="G97" s="8" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4207,7 +4237,7 @@
         <v>192</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>115</v>
@@ -4224,10 +4254,10 @@
         <v>192</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4239,10 +4269,10 @@
         <v>192</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4254,10 +4284,10 @@
         <v>192</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4269,10 +4299,10 @@
         <v>192</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4284,10 +4314,10 @@
         <v>192</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4299,10 +4329,10 @@
         <v>192</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4314,10 +4344,10 @@
         <v>74</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
@@ -4335,7 +4365,7 @@
         <v>304</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4349,10 +4379,10 @@
         <v>452</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4366,10 +4396,10 @@
         <v>452</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4432,7 +4462,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>40972</v>
       </c>
@@ -4447,101 +4477,102 @@
       </c>
       <c r="E113"/>
     </row>
-    <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
-      <c r="B114"/>
-      <c r="C114"/>
-      <c r="D114"/>
-      <c r="E114" s="7" t="s">
-        <v>613</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G114" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="33">
+        <v>41520</v>
+      </c>
+      <c r="B114" s="34"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="35" t="s">
+        <v>452</v>
+      </c>
+      <c r="F114" s="36" t="s">
+        <v>633</v>
+      </c>
+      <c r="G114" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="H114" s="36"/>
+    </row>
+    <row r="115" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A115" s="25"/>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115" s="7" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>156</v>
+        <v>44</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>45</v>
+        <v>156</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25">
-        <v>41268</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="25"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119" s="7" t="s">
-        <v>74</v>
+        <v>611</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A120" s="25">
-        <v>41308</v>
+        <v>41268</v>
       </c>
       <c r="B120"/>
       <c r="C120"/>
@@ -4550,76 +4581,78 @@
         <v>74</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>615</v>
+        <v>61</v>
       </c>
       <c r="G120" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25"/>
+    <row r="121" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="25">
+        <v>41308</v>
+      </c>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
-      <c r="E121" s="7"/>
+      <c r="E121" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F121" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="G121" s="8" t="s">
+      <c r="G122" s="8" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <f>MAX(A114:A121)</f>
-        <v>41308</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <f>MAX(A114:A122)</f>
+        <v>41520</v>
+      </c>
+      <c r="B123" t="s">
         <v>17</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C123" t="s">
         <v>18</v>
       </c>
-      <c r="D122">
+      <c r="D123">
         <v>683</v>
       </c>
-      <c r="E122" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
+      <c r="E123" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
         <v>41067</v>
       </c>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123" t="s">
-        <v>43</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="G123" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>224</v>
+        <v>185</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125"/>
       <c r="C125"/>
@@ -4628,136 +4661,139 @@
         <v>74</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>43</v>
+        <v>192</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="F128" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" t="s">
+        <v>74</v>
+      </c>
+      <c r="F129" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G128" s="8" t="s">
+      <c r="G129" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="3">
-        <f>MAX(A123:A128)</f>
+    <row r="130" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3">
+        <f>MAX(A124:A129)</f>
         <v>41067</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B130" t="s">
         <v>183</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C130" t="s">
         <v>184</v>
       </c>
-      <c r="D129">
+      <c r="D130">
         <v>473</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="26"/>
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27">
-        <f>SUM(D4:D129)</f>
-        <v>6116</v>
-      </c>
-      <c r="E130" s="28"/>
-      <c r="F130" s="29"/>
-      <c r="G130" s="29"/>
-      <c r="H130" s="29"/>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="3"/>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E130" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="26"/>
+      <c r="B131" s="27"/>
+      <c r="C131" s="27"/>
+      <c r="D131" s="27">
+        <f>SUM(D4:D130)</f>
+        <v>6147</v>
+      </c>
+      <c r="E131" s="28"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
-      <c r="E132" s="19" t="s">
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="E133" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="F132" s="11" t="s">
+      <c r="F133" s="11" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134"/>
       <c r="C134"/>
-      <c r="D134" t="s">
-        <v>232</v>
-      </c>
+      <c r="D134"/>
       <c r="E134" s="20" t="s">
-        <v>301</v>
+        <v>158</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>485</v>
+        <v>75</v>
       </c>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135"/>
       <c r="C135"/>
-      <c r="D135"/>
+      <c r="D135" t="s">
+        <v>232</v>
+      </c>
       <c r="E135" s="20" t="s">
-        <v>43</v>
+        <v>301</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4766,10 +4802,10 @@
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136" s="20" t="s">
-        <v>200</v>
+        <v>43</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>201</v>
+        <v>495</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -4778,30 +4814,35 @@
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137" s="20" t="s">
-        <v>72</v>
+        <v>200</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
-      <c r="E138" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F138" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E138" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139"/>
       <c r="C139"/>
       <c r="D139"/>
-      <c r="E139" s="7"/>
+      <c r="E139" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F139" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
@@ -4866,8 +4907,12 @@
       <c r="D148"/>
       <c r="E148" s="7"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149" s="7"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -4956,68 +5001,21 @@
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="3"/>
     </row>
-    <row r="1878" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1878" s="16"/>
-      <c r="B1878" s="16"/>
-      <c r="C1878" s="16" t="s">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+    </row>
+    <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1879" s="16"/>
+      <c r="B1879" s="16"/>
+      <c r="C1879" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1878" s="16"/>
-      <c r="G1878" s="16">
+      <c r="D1879" s="16"/>
+      <c r="G1879" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1878" s="16">
+      <c r="H1879" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1878" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1878" s="16"/>
-      <c r="M1878" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1878" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1878" s="16"/>
-      <c r="P1878" s="16"/>
-      <c r="Q1878" s="16"/>
-      <c r="R1878" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1878" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1878" s="16"/>
-      <c r="U1878" s="16"/>
-      <c r="V1878" s="16"/>
-      <c r="W1878" s="16"/>
-      <c r="X1878" s="16"/>
-    </row>
-    <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1879" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1879" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1879" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1879" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1879" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1879" s="16">
-        <v>72000</v>
       </c>
       <c r="I1879" s="16">
         <v>0</v>
@@ -5030,22 +5028,16 @@
       </c>
       <c r="L1879" s="16"/>
       <c r="M1879" s="16">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="N1879" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1879" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1879" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1879" s="16" t="s">
-        <v>313</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1879" s="16"/>
+      <c r="P1879" s="16"/>
+      <c r="Q1879" s="16"/>
       <c r="R1879" s="16" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="S1879" s="16" t="s">
         <v>304</v>
@@ -5058,28 +5050,22 @@
     </row>
     <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1880" s="16" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B1880" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1880" s="16" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="D1880" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1880" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1880" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1880" s="16">
-        <v>23519.38</v>
+        <v>2342.17</v>
       </c>
       <c r="H1880" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="I1880" s="16">
         <v>0</v>
@@ -5092,22 +5078,22 @@
       </c>
       <c r="L1880" s="16"/>
       <c r="M1880" s="16">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="N1880" s="16" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="O1880" s="16" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="P1880" s="16" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="Q1880" s="16" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="R1880" s="16" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="S1880" s="16" t="s">
         <v>304</v>
@@ -5120,28 +5106,28 @@
     </row>
     <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1881" s="16" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B1881" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1881" s="16" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D1881" s="16" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E1881" s="22">
-        <v>72000</v>
+        <v>736016.15</v>
       </c>
       <c r="F1881" s="16">
         <v>0</v>
       </c>
       <c r="G1881" s="16">
-        <v>161.66999999999999</v>
+        <v>23519.38</v>
       </c>
       <c r="H1881" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="I1881" s="16">
         <v>0</v>
@@ -5154,22 +5140,22 @@
       </c>
       <c r="L1881" s="16"/>
       <c r="M1881" s="16">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="N1881" s="16" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="O1881" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1881" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1881" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1881" s="16" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="S1881" s="16" t="s">
         <v>304</v>
@@ -5182,28 +5168,28 @@
     </row>
     <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1882" s="16" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B1882" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1882" s="16" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="D1882" s="16" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="E1882" s="22">
-        <v>723002.17</v>
+        <v>72000</v>
       </c>
       <c r="F1882" s="16">
-        <v>16900.55</v>
+        <v>0</v>
       </c>
       <c r="G1882" s="16">
-        <v>300.43</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1882" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="I1882" s="16">
         <v>0</v>
@@ -5216,22 +5202,22 @@
       </c>
       <c r="L1882" s="16"/>
       <c r="M1882" s="16">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="N1882" s="16" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="O1882" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1882" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1882" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1882" s="16" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="S1882" s="16" t="s">
         <v>304</v>
@@ -5244,28 +5230,28 @@
     </row>
     <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1883" s="16" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="B1883" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1883" s="16" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D1883" s="16" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E1883" s="22">
-        <v>4970</v>
+        <v>723002.17</v>
       </c>
       <c r="F1883" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1883" s="16">
-        <v>388.74</v>
+        <v>300.43</v>
       </c>
       <c r="H1883" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="I1883" s="16">
         <v>0</v>
@@ -5278,22 +5264,22 @@
       </c>
       <c r="L1883" s="16"/>
       <c r="M1883" s="16">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="N1883" s="16" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="O1883" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1883" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1883" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1883" s="16" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="S1883" s="16" t="s">
         <v>304</v>
@@ -5306,28 +5292,28 @@
     </row>
     <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1884" s="16" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B1884" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1884" s="16" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D1884" s="16" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="E1884" s="22">
-        <v>9235.48</v>
+        <v>4970</v>
       </c>
       <c r="F1884" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1884" s="16">
-        <v>450.44</v>
+        <v>388.74</v>
       </c>
       <c r="H1884" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="I1884" s="16">
         <v>0</v>
@@ -5340,22 +5326,22 @@
       </c>
       <c r="L1884" s="16"/>
       <c r="M1884" s="16">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="N1884" s="16" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="O1884" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1884" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1884" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1884" s="16" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="S1884" s="16" t="s">
         <v>304</v>
@@ -5368,28 +5354,28 @@
     </row>
     <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1885" s="16" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B1885" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1885" s="16" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="D1885" s="16" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E1885" s="22">
-        <v>11950</v>
+        <v>9235.48</v>
       </c>
       <c r="F1885" s="16">
-        <v>0</v>
+        <v>161.84</v>
       </c>
       <c r="G1885" s="16">
-        <v>1997.29</v>
+        <v>450.44</v>
       </c>
       <c r="H1885" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="I1885" s="16">
         <v>0</v>
@@ -5402,22 +5388,22 @@
       </c>
       <c r="L1885" s="16"/>
       <c r="M1885" s="16">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="N1885" s="16" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="O1885" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1885" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1885" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1885" s="16" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="S1885" s="16" t="s">
         <v>304</v>
@@ -5430,27 +5416,31 @@
     </row>
     <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1886" s="16" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B1886" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1886" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1886" s="16" t="s">
+        <v>352</v>
+      </c>
       <c r="D1886" s="16" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="E1886" s="22">
-        <v>13846.96</v>
+        <v>11950</v>
       </c>
       <c r="F1886" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1886" s="16"/>
+        <v>0</v>
+      </c>
+      <c r="G1886" s="16">
+        <v>1997.29</v>
+      </c>
       <c r="H1886" s="16">
-        <v>0</v>
+        <v>61398</v>
       </c>
       <c r="I1886" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1886" s="16">
         <v>0</v>
@@ -5460,16 +5450,26 @@
       </c>
       <c r="L1886" s="16"/>
       <c r="M1886" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1886" s="16"/>
+        <v>61398</v>
+      </c>
+      <c r="N1886" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="O1886" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1886" s="16"/>
-      <c r="Q1886" s="16"/>
-      <c r="R1886" s="16"/>
-      <c r="S1886" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1886" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1886" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1886" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1886" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1886" s="16"/>
       <c r="U1886" s="16"/>
       <c r="V1886" s="16"/>
@@ -5485,20 +5485,20 @@
       </c>
       <c r="C1887" s="16"/>
       <c r="D1887" s="16" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E1887" s="22">
-        <v>61398</v>
+        <v>13846.96</v>
       </c>
       <c r="F1887" s="16">
-        <v>0</v>
+        <v>323.68</v>
       </c>
       <c r="G1887" s="16"/>
       <c r="H1887" s="16">
         <v>0</v>
       </c>
       <c r="I1887" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="J1887" s="16">
         <v>0</v>
@@ -5508,7 +5508,7 @@
       </c>
       <c r="L1887" s="16"/>
       <c r="M1887" s="16">
-        <v>7150</v>
+        <v>14000</v>
       </c>
       <c r="N1887" s="16"/>
       <c r="O1887" s="16" t="s">
@@ -5526,23 +5526,27 @@
     </row>
     <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1888" s="16" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B1888" s="16" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C1888" s="16"/>
       <c r="D1888" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1888" s="22"/>
-      <c r="F1888" s="16"/>
+        <v>359</v>
+      </c>
+      <c r="E1888" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1888" s="16">
+        <v>0</v>
+      </c>
       <c r="G1888" s="16"/>
       <c r="H1888" s="16">
         <v>0</v>
       </c>
       <c r="I1888" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="J1888" s="16">
         <v>0</v>
@@ -5552,7 +5556,7 @@
       </c>
       <c r="L1888" s="16"/>
       <c r="M1888" s="16">
-        <v>1100</v>
+        <v>7150</v>
       </c>
       <c r="N1888" s="16"/>
       <c r="O1888" s="16" t="s">
@@ -5570,27 +5574,23 @@
     </row>
     <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1889" s="16" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B1889" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1889" s="16" t="s">
-        <v>366</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1889" s="16"/>
       <c r="D1889" s="16" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E1889" s="22"/>
       <c r="F1889" s="16"/>
-      <c r="G1889" s="16">
-        <v>136.63</v>
-      </c>
+      <c r="G1889" s="16"/>
       <c r="H1889" s="16">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="I1889" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1889" s="16">
         <v>0</v>
@@ -5600,26 +5600,16 @@
       </c>
       <c r="L1889" s="16"/>
       <c r="M1889" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1889" s="16" t="s">
-        <v>368</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1889" s="16"/>
       <c r="O1889" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1889" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1889" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1889" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1889" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1889" s="16"/>
+      <c r="Q1889" s="16"/>
+      <c r="R1889" s="16"/>
+      <c r="S1889" s="16"/>
       <c r="T1889" s="16"/>
       <c r="U1889" s="16"/>
       <c r="V1889" s="16"/>
@@ -5628,24 +5618,24 @@
     </row>
     <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1890" s="16" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B1890" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1890" s="16" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="D1890" s="16" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E1890" s="22"/>
       <c r="F1890" s="16"/>
       <c r="G1890" s="16">
-        <v>650.6</v>
+        <v>136.63</v>
       </c>
       <c r="H1890" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="I1890" s="16">
         <v>0</v>
@@ -5658,22 +5648,22 @@
       </c>
       <c r="L1890" s="16"/>
       <c r="M1890" s="16">
-        <v>20000</v>
+        <v>4200</v>
       </c>
       <c r="N1890" s="16" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="O1890" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1890" s="16" t="s">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="Q1890" s="16" t="s">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="R1890" s="16" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="S1890" s="16" t="s">
         <v>304</v>
@@ -5686,28 +5676,24 @@
     </row>
     <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1891" s="16" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="B1891" s="16" t="s">
         <v>364</v>
       </c>
       <c r="C1891" s="16" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D1891" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1891" s="22">
-        <v>4200</v>
-      </c>
-      <c r="F1891" s="16">
-        <v>0</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E1891" s="22"/>
+      <c r="F1891" s="16"/>
       <c r="G1891" s="16">
-        <v>78.37</v>
+        <v>650.6</v>
       </c>
       <c r="H1891" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="I1891" s="16">
         <v>0</v>
@@ -5720,22 +5706,22 @@
       </c>
       <c r="L1891" s="16"/>
       <c r="M1891" s="16">
-        <v>2409</v>
+        <v>20000</v>
       </c>
       <c r="N1891" s="16" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="O1891" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1891" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1891" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1891" s="16" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="S1891" s="16" t="s">
         <v>304</v>
@@ -5748,28 +5734,28 @@
     </row>
     <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1892" s="16" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B1892" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1892" s="16" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="D1892" s="16" t="s">
         <v>377</v>
       </c>
       <c r="E1892" s="22">
-        <v>320000</v>
+        <v>4200</v>
       </c>
       <c r="F1892" s="16">
         <v>0</v>
       </c>
       <c r="G1892" s="16">
-        <v>11758.05</v>
+        <v>78.37</v>
       </c>
       <c r="H1892" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="I1892" s="16">
         <v>0</v>
@@ -5782,22 +5768,22 @@
       </c>
       <c r="L1892" s="16"/>
       <c r="M1892" s="16">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="N1892" s="16" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="O1892" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1892" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1892" s="16" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="R1892" s="16" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="S1892" s="16" t="s">
         <v>304</v>
@@ -5810,28 +5796,28 @@
     </row>
     <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1893" s="16" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B1893" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1893" s="16" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="D1893" s="16" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E1893" s="22">
-        <v>2409</v>
+        <v>320000</v>
       </c>
       <c r="F1893" s="16">
         <v>0</v>
       </c>
       <c r="G1893" s="16">
-        <v>1073.5</v>
+        <v>11758.05</v>
       </c>
       <c r="H1893" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="I1893" s="16">
         <v>0</v>
@@ -5844,10 +5830,10 @@
       </c>
       <c r="L1893" s="16"/>
       <c r="M1893" s="16">
-        <v>33000</v>
+        <v>361450.61</v>
       </c>
       <c r="N1893" s="16" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O1893" s="16" t="s">
         <v>311</v>
@@ -5856,9 +5842,11 @@
         <v>382</v>
       </c>
       <c r="Q1893" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1893" s="16"/>
+        <v>383</v>
+      </c>
+      <c r="R1893" s="16" t="s">
+        <v>385</v>
+      </c>
       <c r="S1893" s="16" t="s">
         <v>304</v>
       </c>
@@ -5870,28 +5858,28 @@
     </row>
     <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1894" s="16" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B1894" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1894" s="16" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D1894" s="16" t="s">
-        <v>334</v>
+        <v>388</v>
       </c>
       <c r="E1894" s="22">
-        <v>361450.61</v>
+        <v>2409</v>
       </c>
       <c r="F1894" s="16">
-        <v>8828.5</v>
+        <v>0</v>
       </c>
       <c r="G1894" s="16">
-        <v>267.5</v>
+        <v>1073.5</v>
       </c>
       <c r="H1894" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="I1894" s="16">
         <v>0</v>
@@ -5904,23 +5892,21 @@
       </c>
       <c r="L1894" s="16"/>
       <c r="M1894" s="16">
-        <v>8223</v>
+        <v>33000</v>
       </c>
       <c r="N1894" s="16" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="O1894" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1894" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1894" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1894" s="16" t="s">
-        <v>394</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1894" s="16"/>
       <c r="S1894" s="16" t="s">
         <v>304</v>
       </c>
@@ -5932,28 +5918,28 @@
     </row>
     <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1895" s="16" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B1895" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1895" s="16" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D1895" s="16" t="s">
-        <v>397</v>
+        <v>334</v>
       </c>
       <c r="E1895" s="22">
-        <v>477000</v>
+        <v>361450.61</v>
       </c>
       <c r="F1895" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1895" s="16">
-        <v>406.63</v>
+        <v>267.5</v>
       </c>
       <c r="H1895" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="I1895" s="16">
         <v>0</v>
@@ -5966,22 +5952,22 @@
       </c>
       <c r="L1895" s="16"/>
       <c r="M1895" s="16">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="N1895" s="16" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="O1895" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1895" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1895" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1895" s="16" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="S1895" s="16" t="s">
         <v>304</v>
@@ -5994,28 +5980,28 @@
     </row>
     <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1896" s="16" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B1896" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1896" s="16" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D1896" s="16" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E1896" s="22">
-        <v>8223</v>
+        <v>477000</v>
       </c>
       <c r="F1896" s="16">
         <v>0</v>
       </c>
       <c r="G1896" s="16">
-        <v>3366.87</v>
+        <v>406.63</v>
       </c>
       <c r="H1896" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="I1896" s="16">
         <v>0</v>
@@ -6028,22 +6014,22 @@
       </c>
       <c r="L1896" s="16"/>
       <c r="M1896" s="16">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="N1896" s="16" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="O1896" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1896" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1896" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1896" s="16" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="S1896" s="16" t="s">
         <v>304</v>
@@ -6056,28 +6042,28 @@
     </row>
     <row r="1897" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1897" s="16" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B1897" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1897" s="16" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D1897" s="16" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="E1897" s="22">
-        <v>12500</v>
+        <v>8223</v>
       </c>
       <c r="F1897" s="16">
         <v>0</v>
       </c>
       <c r="G1897" s="16">
-        <v>44.95</v>
+        <v>3366.87</v>
       </c>
       <c r="H1897" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="I1897" s="16">
         <v>0</v>
@@ -6090,22 +6076,22 @@
       </c>
       <c r="L1897" s="16"/>
       <c r="M1897" s="16">
-        <v>1381.79</v>
+        <v>103500</v>
       </c>
       <c r="N1897" s="16" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O1897" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1897" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1897" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1897" s="16" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="S1897" s="16" t="s">
         <v>304</v>
@@ -6118,28 +6104,28 @@
     </row>
     <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1898" s="16" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B1898" s="16" t="s">
         <v>407</v>
       </c>
       <c r="C1898" s="16" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D1898" s="16" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E1898" s="22">
-        <v>103500</v>
+        <v>12500</v>
       </c>
       <c r="F1898" s="16">
         <v>0</v>
       </c>
       <c r="G1898" s="16">
-        <v>45.54</v>
+        <v>44.95</v>
       </c>
       <c r="H1898" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="I1898" s="16">
         <v>0</v>
@@ -6152,22 +6138,22 @@
       </c>
       <c r="L1898" s="16"/>
       <c r="M1898" s="16">
-        <v>1400</v>
+        <v>1381.79</v>
       </c>
       <c r="N1898" s="16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="O1898" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1898" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1898" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1898" s="16" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="S1898" s="16" t="s">
         <v>304</v>
@@ -6179,36 +6165,98 @@
       <c r="X1898" s="16"/>
     </row>
     <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1899" t="s">
+      <c r="A1899" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1899" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1899" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1899" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1899" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1899" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1899" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1899" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1899" s="16"/>
+      <c r="M1899" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1899" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1899" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1899" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1899" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1899" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1899" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1899" s="16"/>
+      <c r="U1899" s="16"/>
+      <c r="V1899" s="16"/>
+      <c r="W1899" s="16"/>
+      <c r="X1899" s="16"/>
+    </row>
+    <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1900" t="s">
         <v>417</v>
       </c>
-      <c r="B1899" t="s">
+      <c r="B1900" t="s">
         <v>407</v>
       </c>
-      <c r="D1899" t="s">
+      <c r="D1900" t="s">
         <v>418</v>
       </c>
-      <c r="E1899" s="22">
+      <c r="E1900" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1899" s="16">
+      <c r="F1900" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1899" t="s">
+      <c r="O1900" t="s">
         <v>327</v>
       </c>
-      <c r="P1899" t="s">
+      <c r="P1900" t="s">
         <v>328</v>
       </c>
-      <c r="Q1899" t="s">
+      <c r="Q1900" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1900" s="22">
+    <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1901" s="22">
         <v>1400</v>
       </c>
-      <c r="F1900" s="16">
+      <c r="F1901" s="16">
         <v>0</v>
       </c>
     </row>
@@ -6217,8 +6265,8 @@
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="25" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.13541666666666666" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;LPavel Khrapkin &amp; Alexander Pass&amp;Cmstch 2.1&amp;R&amp;D &amp;T</oddHeader>
     <oddFooter>&amp;C&amp;P</oddFooter>
